--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408CD64-AB39-4871-A55A-F6F76622476D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C457C-9A38-4719-9B67-14F681E6FC62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="5" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -36,6 +36,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rafa RPG</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{521755D4-54F1-40A8-BCC8-139F40E86380}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1º Parâmetro: 
+          Célula do código
+2º Parâmetro:
+          Selecionar toda a tabela onde será procurado.
+3º Parâmetro:
+          O id da COLUNA (inicia da esquerda para direita, valor 1 para a primeira coluna.
+4º Parâmetro:
+          • verdadeiro: Valores aproximados;
+          • falso: Valores EXATOS.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="167">
   <si>
@@ -549,7 +581,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +763,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1444,33 +1483,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,6 +1535,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8767,7 +8806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
@@ -12571,11 +12610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5CD809-06A9-4A05-BD08-554A0B4697F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5CD809-06A9-4A05-BD08-554A0B4697F5}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12636,7 +12675,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
@@ -12649,7 +12688,10 @@
       <c r="B7" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50" t="str">
+        <f>VLOOKUP(C6,TB_Produtos[#All],2,FALSE)</f>
+        <v>Bermuda</v>
+      </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
       </c>
@@ -12719,9 +12761,10 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{386D00EA-C09E-4AF2-85F6-0FFA8584E7FB}">
           <x14:formula1>
             <xm:f>Produtos!$B:$B</xm:f>
@@ -12747,7 +12790,7 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13307,237 +13350,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="100">
+      <c r="W4" s="91">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="102"/>
-      <c r="AQ4" s="100">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93"/>
+      <c r="AQ4" s="91">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="102"/>
-      <c r="BK4" s="109">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BK4" s="100">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="102"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="103"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="105"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
-      <c r="BR5" s="113"/>
-      <c r="BS5" s="113"/>
-      <c r="BT5" s="113"/>
-      <c r="BU5" s="113"/>
-      <c r="BV5" s="113"/>
-      <c r="BW5" s="113"/>
-      <c r="BX5" s="113"/>
-      <c r="BY5" s="113"/>
-      <c r="BZ5" s="113"/>
-      <c r="CA5" s="113"/>
-      <c r="CB5" s="114"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
+      <c r="BO5" s="104"/>
+      <c r="BP5" s="104"/>
+      <c r="BQ5" s="104"/>
+      <c r="BR5" s="104"/>
+      <c r="BS5" s="104"/>
+      <c r="BT5" s="104"/>
+      <c r="BU5" s="104"/>
+      <c r="BV5" s="104"/>
+      <c r="BW5" s="104"/>
+      <c r="BX5" s="104"/>
+      <c r="BY5" s="104"/>
+      <c r="BZ5" s="104"/>
+      <c r="CA5" s="104"/>
+      <c r="CB5" s="105"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="103"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="105"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="105"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="113"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="113"/>
-      <c r="BQ6" s="113"/>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="113"/>
-      <c r="BU6" s="113"/>
-      <c r="BV6" s="113"/>
-      <c r="BW6" s="113"/>
-      <c r="BX6" s="113"/>
-      <c r="BY6" s="113"/>
-      <c r="BZ6" s="113"/>
-      <c r="CA6" s="113"/>
-      <c r="CB6" s="114"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="96"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="96"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="105"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="108"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="117"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="99"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="99"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="107"/>
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13703,1124 +13746,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="110"/>
+      <c r="BW11" s="110"/>
+      <c r="BX11" s="110"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="111"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="96"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="113"/>
+      <c r="BI12" s="113"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="113"/>
+      <c r="BU12" s="113"/>
+      <c r="BV12" s="113"/>
+      <c r="BW12" s="113"/>
+      <c r="BX12" s="113"/>
+      <c r="BY12" s="113"/>
+      <c r="BZ12" s="113"/>
+      <c r="CA12" s="113"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="96"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="113"/>
+      <c r="BI13" s="113"/>
+      <c r="BJ13" s="113"/>
+      <c r="BK13" s="113"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="113"/>
+      <c r="BO13" s="113"/>
+      <c r="BP13" s="113"/>
+      <c r="BQ13" s="113"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="113"/>
+      <c r="BZ13" s="113"/>
+      <c r="CA13" s="113"/>
+      <c r="CB13" s="114"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="96"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="113"/>
+      <c r="BM14" s="113"/>
+      <c r="BN14" s="113"/>
+      <c r="BO14" s="113"/>
+      <c r="BP14" s="113"/>
+      <c r="BQ14" s="113"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="113"/>
+      <c r="BU14" s="113"/>
+      <c r="BV14" s="113"/>
+      <c r="BW14" s="113"/>
+      <c r="BX14" s="113"/>
+      <c r="BY14" s="113"/>
+      <c r="BZ14" s="113"/>
+      <c r="CA14" s="113"/>
+      <c r="CB14" s="114"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="96"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="113"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="113"/>
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="113"/>
+      <c r="BI15" s="113"/>
+      <c r="BJ15" s="113"/>
+      <c r="BK15" s="113"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="113"/>
+      <c r="BU15" s="113"/>
+      <c r="BV15" s="113"/>
+      <c r="BW15" s="113"/>
+      <c r="BX15" s="113"/>
+      <c r="BY15" s="113"/>
+      <c r="BZ15" s="113"/>
+      <c r="CA15" s="113"/>
+      <c r="CB15" s="114"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="113"/>
+      <c r="BE16" s="113"/>
+      <c r="BF16" s="113"/>
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="113"/>
+      <c r="BI16" s="113"/>
+      <c r="BJ16" s="113"/>
+      <c r="BK16" s="113"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="113"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="113"/>
+      <c r="BU16" s="113"/>
+      <c r="BV16" s="113"/>
+      <c r="BW16" s="113"/>
+      <c r="BX16" s="113"/>
+      <c r="BY16" s="113"/>
+      <c r="BZ16" s="113"/>
+      <c r="CA16" s="113"/>
+      <c r="CB16" s="114"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="96"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="113"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="113"/>
+      <c r="BZ17" s="113"/>
+      <c r="CA17" s="113"/>
+      <c r="CB17" s="114"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="96"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="113"/>
+      <c r="BK18" s="113"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="113"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="113"/>
+      <c r="BR18" s="113"/>
+      <c r="BS18" s="113"/>
+      <c r="BT18" s="113"/>
+      <c r="BU18" s="113"/>
+      <c r="BV18" s="113"/>
+      <c r="BW18" s="113"/>
+      <c r="BX18" s="113"/>
+      <c r="BY18" s="113"/>
+      <c r="BZ18" s="113"/>
+      <c r="CA18" s="113"/>
+      <c r="CB18" s="114"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="96"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+      <c r="BC19" s="113"/>
+      <c r="BD19" s="113"/>
+      <c r="BE19" s="113"/>
+      <c r="BF19" s="113"/>
+      <c r="BG19" s="113"/>
+      <c r="BH19" s="113"/>
+      <c r="BI19" s="113"/>
+      <c r="BJ19" s="113"/>
+      <c r="BK19" s="113"/>
+      <c r="BL19" s="113"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="113"/>
+      <c r="BO19" s="113"/>
+      <c r="BP19" s="113"/>
+      <c r="BQ19" s="113"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="113"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="113"/>
+      <c r="BZ19" s="113"/>
+      <c r="CA19" s="113"/>
+      <c r="CB19" s="114"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
-      <c r="BJ20" s="95"/>
-      <c r="BK20" s="95"/>
-      <c r="BL20" s="95"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="95"/>
-      <c r="BR20" s="95"/>
-      <c r="BS20" s="95"/>
-      <c r="BT20" s="95"/>
-      <c r="BU20" s="95"/>
-      <c r="BV20" s="95"/>
-      <c r="BW20" s="95"/>
-      <c r="BX20" s="95"/>
-      <c r="BY20" s="95"/>
-      <c r="BZ20" s="95"/>
-      <c r="CA20" s="95"/>
-      <c r="CB20" s="96"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="113"/>
+      <c r="BM20" s="113"/>
+      <c r="BN20" s="113"/>
+      <c r="BO20" s="113"/>
+      <c r="BP20" s="113"/>
+      <c r="BQ20" s="113"/>
+      <c r="BR20" s="113"/>
+      <c r="BS20" s="113"/>
+      <c r="BT20" s="113"/>
+      <c r="BU20" s="113"/>
+      <c r="BV20" s="113"/>
+      <c r="BW20" s="113"/>
+      <c r="BX20" s="113"/>
+      <c r="BY20" s="113"/>
+      <c r="BZ20" s="113"/>
+      <c r="CA20" s="113"/>
+      <c r="CB20" s="114"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="95"/>
-      <c r="BK21" s="95"/>
-      <c r="BL21" s="95"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="95"/>
-      <c r="BR21" s="95"/>
-      <c r="BS21" s="95"/>
-      <c r="BT21" s="95"/>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="95"/>
-      <c r="BW21" s="95"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="95"/>
-      <c r="BZ21" s="95"/>
-      <c r="CA21" s="95"/>
-      <c r="CB21" s="96"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="113"/>
+      <c r="BV21" s="113"/>
+      <c r="BW21" s="113"/>
+      <c r="BX21" s="113"/>
+      <c r="BY21" s="113"/>
+      <c r="BZ21" s="113"/>
+      <c r="CA21" s="113"/>
+      <c r="CB21" s="114"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="95"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="96"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="113"/>
+      <c r="BE22" s="113"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="113"/>
+      <c r="BV22" s="113"/>
+      <c r="BW22" s="113"/>
+      <c r="BX22" s="113"/>
+      <c r="BY22" s="113"/>
+      <c r="BZ22" s="113"/>
+      <c r="CA22" s="113"/>
+      <c r="CB22" s="114"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="95"/>
-      <c r="BL23" s="95"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="95"/>
-      <c r="BU23" s="95"/>
-      <c r="BV23" s="95"/>
-      <c r="BW23" s="95"/>
-      <c r="BX23" s="95"/>
-      <c r="BY23" s="95"/>
-      <c r="BZ23" s="95"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="96"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="113"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="113"/>
+      <c r="BR23" s="113"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="113"/>
+      <c r="BU23" s="113"/>
+      <c r="BV23" s="113"/>
+      <c r="BW23" s="113"/>
+      <c r="BX23" s="113"/>
+      <c r="BY23" s="113"/>
+      <c r="BZ23" s="113"/>
+      <c r="CA23" s="113"/>
+      <c r="CB23" s="114"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="98"/>
-      <c r="BM24" s="98"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="98"/>
-      <c r="BP24" s="98"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="98"/>
-      <c r="BS24" s="98"/>
-      <c r="BT24" s="98"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="98"/>
-      <c r="BZ24" s="98"/>
-      <c r="CA24" s="98"/>
-      <c r="CB24" s="99"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="116"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="116"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="116"/>
+      <c r="BT24" s="116"/>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="116"/>
+      <c r="BW24" s="116"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="116"/>
+      <c r="BZ24" s="116"/>
+      <c r="CA24" s="116"/>
+      <c r="CB24" s="117"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -14988,1501 +15031,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
-      <c r="BN28" s="92"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="92"/>
-      <c r="BQ28" s="92"/>
-      <c r="BR28" s="92"/>
-      <c r="BS28" s="92"/>
-      <c r="BT28" s="92"/>
-      <c r="BU28" s="92"/>
-      <c r="BV28" s="92"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="92"/>
-      <c r="BY28" s="92"/>
-      <c r="BZ28" s="92"/>
-      <c r="CA28" s="92"/>
-      <c r="CB28" s="93"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="111"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="110"/>
+      <c r="AS28" s="110"/>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="110"/>
+      <c r="BG28" s="110"/>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="111"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="96"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="96"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="114"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="113"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="113"/>
+      <c r="BP29" s="113"/>
+      <c r="BQ29" s="113"/>
+      <c r="BR29" s="113"/>
+      <c r="BS29" s="113"/>
+      <c r="BT29" s="113"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="113"/>
+      <c r="BW29" s="113"/>
+      <c r="BX29" s="113"/>
+      <c r="BY29" s="113"/>
+      <c r="BZ29" s="113"/>
+      <c r="CA29" s="113"/>
+      <c r="CB29" s="114"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="96"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="96"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="114"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="113"/>
+      <c r="BA30" s="113"/>
+      <c r="BB30" s="113"/>
+      <c r="BC30" s="113"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="113"/>
+      <c r="BF30" s="113"/>
+      <c r="BG30" s="113"/>
+      <c r="BH30" s="113"/>
+      <c r="BI30" s="113"/>
+      <c r="BJ30" s="113"/>
+      <c r="BK30" s="113"/>
+      <c r="BL30" s="113"/>
+      <c r="BM30" s="113"/>
+      <c r="BN30" s="113"/>
+      <c r="BO30" s="113"/>
+      <c r="BP30" s="113"/>
+      <c r="BQ30" s="113"/>
+      <c r="BR30" s="113"/>
+      <c r="BS30" s="113"/>
+      <c r="BT30" s="113"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="113"/>
+      <c r="BW30" s="113"/>
+      <c r="BX30" s="113"/>
+      <c r="BY30" s="113"/>
+      <c r="BZ30" s="113"/>
+      <c r="CA30" s="113"/>
+      <c r="CB30" s="114"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="96"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="114"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
+      <c r="BD31" s="113"/>
+      <c r="BE31" s="113"/>
+      <c r="BF31" s="113"/>
+      <c r="BG31" s="113"/>
+      <c r="BH31" s="113"/>
+      <c r="BI31" s="113"/>
+      <c r="BJ31" s="113"/>
+      <c r="BK31" s="113"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="113"/>
+      <c r="BR31" s="113"/>
+      <c r="BS31" s="113"/>
+      <c r="BT31" s="113"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="113"/>
+      <c r="BW31" s="113"/>
+      <c r="BX31" s="113"/>
+      <c r="BY31" s="113"/>
+      <c r="BZ31" s="113"/>
+      <c r="CA31" s="113"/>
+      <c r="CB31" s="114"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="96"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="96"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="114"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="113"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
+      <c r="BS32" s="113"/>
+      <c r="BT32" s="113"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="113"/>
+      <c r="BW32" s="113"/>
+      <c r="BX32" s="113"/>
+      <c r="BY32" s="113"/>
+      <c r="BZ32" s="113"/>
+      <c r="CA32" s="113"/>
+      <c r="CB32" s="114"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="96"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="96"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="114"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="113"/>
+      <c r="BD33" s="113"/>
+      <c r="BE33" s="113"/>
+      <c r="BF33" s="113"/>
+      <c r="BG33" s="113"/>
+      <c r="BH33" s="113"/>
+      <c r="BI33" s="113"/>
+      <c r="BJ33" s="113"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
+      <c r="BS33" s="113"/>
+      <c r="BT33" s="113"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="113"/>
+      <c r="BW33" s="113"/>
+      <c r="BX33" s="113"/>
+      <c r="BY33" s="113"/>
+      <c r="BZ33" s="113"/>
+      <c r="CA33" s="113"/>
+      <c r="CB33" s="114"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="96"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="96"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="114"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
+      <c r="BS34" s="113"/>
+      <c r="BT34" s="113"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="113"/>
+      <c r="BW34" s="113"/>
+      <c r="BX34" s="113"/>
+      <c r="BY34" s="113"/>
+      <c r="BZ34" s="113"/>
+      <c r="CA34" s="113"/>
+      <c r="CB34" s="114"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="96"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="96"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="114"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
+      <c r="BB35" s="113"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="113"/>
+      <c r="BF35" s="113"/>
+      <c r="BG35" s="113"/>
+      <c r="BH35" s="113"/>
+      <c r="BI35" s="113"/>
+      <c r="BJ35" s="113"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
+      <c r="BS35" s="113"/>
+      <c r="BT35" s="113"/>
+      <c r="BU35" s="113"/>
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="113"/>
+      <c r="BY35" s="113"/>
+      <c r="BZ35" s="113"/>
+      <c r="CA35" s="113"/>
+      <c r="CB35" s="114"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="96"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="96"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="113"/>
+      <c r="AJ36" s="113"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="113"/>
+      <c r="AM36" s="113"/>
+      <c r="AN36" s="114"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="113"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="113"/>
+      <c r="AU36" s="113"/>
+      <c r="AV36" s="113"/>
+      <c r="AW36" s="113"/>
+      <c r="AX36" s="113"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="113"/>
+      <c r="BA36" s="113"/>
+      <c r="BB36" s="113"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="113"/>
+      <c r="BF36" s="113"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="113"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
+      <c r="BS36" s="113"/>
+      <c r="BT36" s="113"/>
+      <c r="BU36" s="113"/>
+      <c r="BV36" s="113"/>
+      <c r="BW36" s="113"/>
+      <c r="BX36" s="113"/>
+      <c r="BY36" s="113"/>
+      <c r="BZ36" s="113"/>
+      <c r="CA36" s="113"/>
+      <c r="CB36" s="114"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="96"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="95"/>
-      <c r="BL37" s="95"/>
-      <c r="BM37" s="95"/>
-      <c r="BN37" s="95"/>
-      <c r="BO37" s="95"/>
-      <c r="BP37" s="95"/>
-      <c r="BQ37" s="95"/>
-      <c r="BR37" s="95"/>
-      <c r="BS37" s="95"/>
-      <c r="BT37" s="95"/>
-      <c r="BU37" s="95"/>
-      <c r="BV37" s="95"/>
-      <c r="BW37" s="95"/>
-      <c r="BX37" s="95"/>
-      <c r="BY37" s="95"/>
-      <c r="BZ37" s="95"/>
-      <c r="CA37" s="95"/>
-      <c r="CB37" s="96"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="113"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="114"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="113"/>
+      <c r="BF37" s="113"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="113"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
+      <c r="BS37" s="113"/>
+      <c r="BT37" s="113"/>
+      <c r="BU37" s="113"/>
+      <c r="BV37" s="113"/>
+      <c r="BW37" s="113"/>
+      <c r="BX37" s="113"/>
+      <c r="BY37" s="113"/>
+      <c r="BZ37" s="113"/>
+      <c r="CA37" s="113"/>
+      <c r="CB37" s="114"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="96"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="95"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="95"/>
-      <c r="BO38" s="95"/>
-      <c r="BP38" s="95"/>
-      <c r="BQ38" s="95"/>
-      <c r="BR38" s="95"/>
-      <c r="BS38" s="95"/>
-      <c r="BT38" s="95"/>
-      <c r="BU38" s="95"/>
-      <c r="BV38" s="95"/>
-      <c r="BW38" s="95"/>
-      <c r="BX38" s="95"/>
-      <c r="BY38" s="95"/>
-      <c r="BZ38" s="95"/>
-      <c r="CA38" s="95"/>
-      <c r="CB38" s="96"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="114"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="113"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="113"/>
+      <c r="BH38" s="113"/>
+      <c r="BI38" s="113"/>
+      <c r="BJ38" s="113"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="113"/>
+      <c r="BR38" s="113"/>
+      <c r="BS38" s="113"/>
+      <c r="BT38" s="113"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="113"/>
+      <c r="BW38" s="113"/>
+      <c r="BX38" s="113"/>
+      <c r="BY38" s="113"/>
+      <c r="BZ38" s="113"/>
+      <c r="CA38" s="113"/>
+      <c r="CB38" s="114"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
-      <c r="BF39" s="95"/>
-      <c r="BG39" s="95"/>
-      <c r="BH39" s="95"/>
-      <c r="BI39" s="95"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="95"/>
-      <c r="BP39" s="95"/>
-      <c r="BQ39" s="95"/>
-      <c r="BR39" s="95"/>
-      <c r="BS39" s="95"/>
-      <c r="BT39" s="95"/>
-      <c r="BU39" s="95"/>
-      <c r="BV39" s="95"/>
-      <c r="BW39" s="95"/>
-      <c r="BX39" s="95"/>
-      <c r="BY39" s="95"/>
-      <c r="BZ39" s="95"/>
-      <c r="CA39" s="95"/>
-      <c r="CB39" s="96"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="113"/>
+      <c r="BF39" s="113"/>
+      <c r="BG39" s="113"/>
+      <c r="BH39" s="113"/>
+      <c r="BI39" s="113"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="113"/>
+      <c r="BL39" s="113"/>
+      <c r="BM39" s="113"/>
+      <c r="BN39" s="113"/>
+      <c r="BO39" s="113"/>
+      <c r="BP39" s="113"/>
+      <c r="BQ39" s="113"/>
+      <c r="BR39" s="113"/>
+      <c r="BS39" s="113"/>
+      <c r="BT39" s="113"/>
+      <c r="BU39" s="113"/>
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="113"/>
+      <c r="BY39" s="113"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="113"/>
+      <c r="CB39" s="114"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="96"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="114"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="113"/>
+      <c r="BF40" s="113"/>
+      <c r="BG40" s="113"/>
+      <c r="BH40" s="113"/>
+      <c r="BI40" s="113"/>
+      <c r="BJ40" s="113"/>
+      <c r="BK40" s="113"/>
+      <c r="BL40" s="113"/>
+      <c r="BM40" s="113"/>
+      <c r="BN40" s="113"/>
+      <c r="BO40" s="113"/>
+      <c r="BP40" s="113"/>
+      <c r="BQ40" s="113"/>
+      <c r="BR40" s="113"/>
+      <c r="BS40" s="113"/>
+      <c r="BT40" s="113"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="113"/>
+      <c r="BW40" s="113"/>
+      <c r="BX40" s="113"/>
+      <c r="BY40" s="113"/>
+      <c r="BZ40" s="113"/>
+      <c r="CA40" s="113"/>
+      <c r="CB40" s="114"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="95"/>
-      <c r="BT41" s="95"/>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="95"/>
-      <c r="BW41" s="95"/>
-      <c r="BX41" s="95"/>
-      <c r="BY41" s="95"/>
-      <c r="BZ41" s="95"/>
-      <c r="CA41" s="95"/>
-      <c r="CB41" s="96"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="114"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="113"/>
+      <c r="BF41" s="113"/>
+      <c r="BG41" s="113"/>
+      <c r="BH41" s="113"/>
+      <c r="BI41" s="113"/>
+      <c r="BJ41" s="113"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="113"/>
+      <c r="BR41" s="113"/>
+      <c r="BS41" s="113"/>
+      <c r="BT41" s="113"/>
+      <c r="BU41" s="113"/>
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="113"/>
+      <c r="BY41" s="113"/>
+      <c r="BZ41" s="113"/>
+      <c r="CA41" s="113"/>
+      <c r="CB41" s="114"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-      <c r="BM42" s="95"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="95"/>
-      <c r="BT42" s="95"/>
-      <c r="BU42" s="95"/>
-      <c r="BV42" s="95"/>
-      <c r="BW42" s="95"/>
-      <c r="BX42" s="95"/>
-      <c r="BY42" s="95"/>
-      <c r="BZ42" s="95"/>
-      <c r="CA42" s="95"/>
-      <c r="CB42" s="96"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="113"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="113"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="114"/>
+      <c r="AQ42" s="112"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="113"/>
+      <c r="BF42" s="113"/>
+      <c r="BG42" s="113"/>
+      <c r="BH42" s="113"/>
+      <c r="BI42" s="113"/>
+      <c r="BJ42" s="113"/>
+      <c r="BK42" s="113"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="113"/>
+      <c r="BR42" s="113"/>
+      <c r="BS42" s="113"/>
+      <c r="BT42" s="113"/>
+      <c r="BU42" s="113"/>
+      <c r="BV42" s="113"/>
+      <c r="BW42" s="113"/>
+      <c r="BX42" s="113"/>
+      <c r="BY42" s="113"/>
+      <c r="BZ42" s="113"/>
+      <c r="CA42" s="113"/>
+      <c r="CB42" s="114"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="95"/>
-      <c r="CA43" s="95"/>
-      <c r="CB43" s="96"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="114"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="113"/>
+      <c r="BF43" s="113"/>
+      <c r="BG43" s="113"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="113"/>
+      <c r="BJ43" s="113"/>
+      <c r="BK43" s="113"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="113"/>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="113"/>
+      <c r="BU43" s="113"/>
+      <c r="BV43" s="113"/>
+      <c r="BW43" s="113"/>
+      <c r="BX43" s="113"/>
+      <c r="BY43" s="113"/>
+      <c r="BZ43" s="113"/>
+      <c r="CA43" s="113"/>
+      <c r="CB43" s="114"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="96"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="114"/>
+      <c r="AQ44" s="112"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="113"/>
+      <c r="BF44" s="113"/>
+      <c r="BG44" s="113"/>
+      <c r="BH44" s="113"/>
+      <c r="BI44" s="113"/>
+      <c r="BJ44" s="113"/>
+      <c r="BK44" s="113"/>
+      <c r="BL44" s="113"/>
+      <c r="BM44" s="113"/>
+      <c r="BN44" s="113"/>
+      <c r="BO44" s="113"/>
+      <c r="BP44" s="113"/>
+      <c r="BQ44" s="113"/>
+      <c r="BR44" s="113"/>
+      <c r="BS44" s="113"/>
+      <c r="BT44" s="113"/>
+      <c r="BU44" s="113"/>
+      <c r="BV44" s="113"/>
+      <c r="BW44" s="113"/>
+      <c r="BX44" s="113"/>
+      <c r="BY44" s="113"/>
+      <c r="BZ44" s="113"/>
+      <c r="CA44" s="113"/>
+      <c r="CB44" s="114"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="95"/>
-      <c r="BH45" s="95"/>
-      <c r="BI45" s="95"/>
-      <c r="BJ45" s="95"/>
-      <c r="BK45" s="95"/>
-      <c r="BL45" s="95"/>
-      <c r="BM45" s="95"/>
-      <c r="BN45" s="95"/>
-      <c r="BO45" s="95"/>
-      <c r="BP45" s="95"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="95"/>
-      <c r="BU45" s="95"/>
-      <c r="BV45" s="95"/>
-      <c r="BW45" s="95"/>
-      <c r="BX45" s="95"/>
-      <c r="BY45" s="95"/>
-      <c r="BZ45" s="95"/>
-      <c r="CA45" s="95"/>
-      <c r="CB45" s="96"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="114"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="113"/>
+      <c r="BF45" s="113"/>
+      <c r="BG45" s="113"/>
+      <c r="BH45" s="113"/>
+      <c r="BI45" s="113"/>
+      <c r="BJ45" s="113"/>
+      <c r="BK45" s="113"/>
+      <c r="BL45" s="113"/>
+      <c r="BM45" s="113"/>
+      <c r="BN45" s="113"/>
+      <c r="BO45" s="113"/>
+      <c r="BP45" s="113"/>
+      <c r="BQ45" s="113"/>
+      <c r="BR45" s="113"/>
+      <c r="BS45" s="113"/>
+      <c r="BT45" s="113"/>
+      <c r="BU45" s="113"/>
+      <c r="BV45" s="113"/>
+      <c r="BW45" s="113"/>
+      <c r="BX45" s="113"/>
+      <c r="BY45" s="113"/>
+      <c r="BZ45" s="113"/>
+      <c r="CA45" s="113"/>
+      <c r="CB45" s="114"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98"/>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98"/>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98"/>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="99"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="117"/>
+      <c r="AQ46" s="115"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
+      <c r="BA46" s="116"/>
+      <c r="BB46" s="116"/>
+      <c r="BC46" s="116"/>
+      <c r="BD46" s="116"/>
+      <c r="BE46" s="116"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="116"/>
+      <c r="BH46" s="116"/>
+      <c r="BI46" s="116"/>
+      <c r="BJ46" s="116"/>
+      <c r="BK46" s="116"/>
+      <c r="BL46" s="116"/>
+      <c r="BM46" s="116"/>
+      <c r="BN46" s="116"/>
+      <c r="BO46" s="116"/>
+      <c r="BP46" s="116"/>
+      <c r="BQ46" s="116"/>
+      <c r="BR46" s="116"/>
+      <c r="BS46" s="116"/>
+      <c r="BT46" s="116"/>
+      <c r="BU46" s="116"/>
+      <c r="BV46" s="116"/>
+      <c r="BW46" s="116"/>
+      <c r="BX46" s="116"/>
+      <c r="BY46" s="116"/>
+      <c r="BZ46" s="116"/>
+      <c r="CA46" s="116"/>
+      <c r="CB46" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C457C-9A38-4719-9B67-14F681E6FC62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7C16F-1674-47E6-84ED-BC76C28D07E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -61,6 +61,27 @@
 4º Parâmetro:
           • verdadeiro: Valores aproximados;
           • falso: Valores EXATOS.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{5C41B4FB-D364-450E-8959-2F3FADB11998}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Sobre o PROCX
+1º Parâmetro:
+          A cécula do produto que quer pesquisar.
+2º Parâmetro:
+          Apenas a coluna inteira de onde está esse produto.
+3º Parâmetro:
+          Apenas a coluna inteira do que deseja retornar.
+</t>
         </r>
       </text>
     </comment>
@@ -1483,6 +1504,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1535,33 +1583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8806,7 +8827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
@@ -12614,7 +12635,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12675,7 +12696,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
@@ -12689,8 +12710,8 @@
         <v>156</v>
       </c>
       <c r="C7" s="50" t="str">
-        <f>VLOOKUP(C6,TB_Produtos[#All],2,FALSE)</f>
-        <v>Bermuda</v>
+        <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
+        <v>Não encontrado</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
@@ -12702,7 +12723,10 @@
       <c r="B8" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="48" t="str">
+        <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
+        <v>Não encontrado</v>
+      </c>
       <c r="E8" s="74" t="s">
         <v>164</v>
       </c>
@@ -13350,237 +13374,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="91">
+      <c r="W4" s="100">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93"/>
-      <c r="AQ4" s="91">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="102"/>
+      <c r="AQ4" s="100">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="93"/>
-      <c r="BK4" s="100">
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="102"/>
+      <c r="BK4" s="109">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="102"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="111"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="95"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="96"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="104"/>
-      <c r="BO5" s="104"/>
-      <c r="BP5" s="104"/>
-      <c r="BQ5" s="104"/>
-      <c r="BR5" s="104"/>
-      <c r="BS5" s="104"/>
-      <c r="BT5" s="104"/>
-      <c r="BU5" s="104"/>
-      <c r="BV5" s="104"/>
-      <c r="BW5" s="104"/>
-      <c r="BX5" s="104"/>
-      <c r="BY5" s="104"/>
-      <c r="BZ5" s="104"/>
-      <c r="CA5" s="104"/>
-      <c r="CB5" s="105"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="105"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="113"/>
+      <c r="BO5" s="113"/>
+      <c r="BP5" s="113"/>
+      <c r="BQ5" s="113"/>
+      <c r="BR5" s="113"/>
+      <c r="BS5" s="113"/>
+      <c r="BT5" s="113"/>
+      <c r="BU5" s="113"/>
+      <c r="BV5" s="113"/>
+      <c r="BW5" s="113"/>
+      <c r="BX5" s="113"/>
+      <c r="BY5" s="113"/>
+      <c r="BZ5" s="113"/>
+      <c r="CA5" s="113"/>
+      <c r="CB5" s="114"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="95"/>
-      <c r="AN6" s="96"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="96"/>
-      <c r="BK6" s="103"/>
-      <c r="BL6" s="104"/>
-      <c r="BM6" s="104"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="104"/>
-      <c r="BQ6" s="104"/>
-      <c r="BR6" s="104"/>
-      <c r="BS6" s="104"/>
-      <c r="BT6" s="104"/>
-      <c r="BU6" s="104"/>
-      <c r="BV6" s="104"/>
-      <c r="BW6" s="104"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="104"/>
-      <c r="BZ6" s="104"/>
-      <c r="CA6" s="104"/>
-      <c r="CB6" s="105"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="105"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="105"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="113"/>
+      <c r="BM6" s="113"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="113"/>
+      <c r="BP6" s="113"/>
+      <c r="BQ6" s="113"/>
+      <c r="BR6" s="113"/>
+      <c r="BS6" s="113"/>
+      <c r="BT6" s="113"/>
+      <c r="BU6" s="113"/>
+      <c r="BV6" s="113"/>
+      <c r="BW6" s="113"/>
+      <c r="BX6" s="113"/>
+      <c r="BY6" s="113"/>
+      <c r="BZ6" s="113"/>
+      <c r="CA6" s="113"/>
+      <c r="CB6" s="114"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="97"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="99"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="99"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="107"/>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="108"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="108"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="108"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="116"/>
+      <c r="BM7" s="116"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="116"/>
+      <c r="BU7" s="116"/>
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="117"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13746,1124 +13770,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="110"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="110"/>
-      <c r="BV11" s="110"/>
-      <c r="BW11" s="110"/>
-      <c r="BX11" s="110"/>
-      <c r="BY11" s="110"/>
-      <c r="BZ11" s="110"/>
-      <c r="CA11" s="110"/>
-      <c r="CB11" s="111"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="93"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="113"/>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="113"/>
-      <c r="BI12" s="113"/>
-      <c r="BJ12" s="113"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="113"/>
-      <c r="BP12" s="113"/>
-      <c r="BQ12" s="113"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="113"/>
-      <c r="BU12" s="113"/>
-      <c r="BV12" s="113"/>
-      <c r="BW12" s="113"/>
-      <c r="BX12" s="113"/>
-      <c r="BY12" s="113"/>
-      <c r="BZ12" s="113"/>
-      <c r="CA12" s="113"/>
-      <c r="CB12" s="114"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="96"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="113"/>
-      <c r="BI13" s="113"/>
-      <c r="BJ13" s="113"/>
-      <c r="BK13" s="113"/>
-      <c r="BL13" s="113"/>
-      <c r="BM13" s="113"/>
-      <c r="BN13" s="113"/>
-      <c r="BO13" s="113"/>
-      <c r="BP13" s="113"/>
-      <c r="BQ13" s="113"/>
-      <c r="BR13" s="113"/>
-      <c r="BS13" s="113"/>
-      <c r="BT13" s="113"/>
-      <c r="BU13" s="113"/>
-      <c r="BV13" s="113"/>
-      <c r="BW13" s="113"/>
-      <c r="BX13" s="113"/>
-      <c r="BY13" s="113"/>
-      <c r="BZ13" s="113"/>
-      <c r="CA13" s="113"/>
-      <c r="CB13" s="114"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="95"/>
+      <c r="BG13" s="95"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="95"/>
+      <c r="BJ13" s="95"/>
+      <c r="BK13" s="95"/>
+      <c r="BL13" s="95"/>
+      <c r="BM13" s="95"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="95"/>
+      <c r="BP13" s="95"/>
+      <c r="BQ13" s="95"/>
+      <c r="BR13" s="95"/>
+      <c r="BS13" s="95"/>
+      <c r="BT13" s="95"/>
+      <c r="BU13" s="95"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="95"/>
+      <c r="BX13" s="95"/>
+      <c r="BY13" s="95"/>
+      <c r="BZ13" s="95"/>
+      <c r="CA13" s="95"/>
+      <c r="CB13" s="96"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="113"/>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="113"/>
-      <c r="BI14" s="113"/>
-      <c r="BJ14" s="113"/>
-      <c r="BK14" s="113"/>
-      <c r="BL14" s="113"/>
-      <c r="BM14" s="113"/>
-      <c r="BN14" s="113"/>
-      <c r="BO14" s="113"/>
-      <c r="BP14" s="113"/>
-      <c r="BQ14" s="113"/>
-      <c r="BR14" s="113"/>
-      <c r="BS14" s="113"/>
-      <c r="BT14" s="113"/>
-      <c r="BU14" s="113"/>
-      <c r="BV14" s="113"/>
-      <c r="BW14" s="113"/>
-      <c r="BX14" s="113"/>
-      <c r="BY14" s="113"/>
-      <c r="BZ14" s="113"/>
-      <c r="CA14" s="113"/>
-      <c r="CB14" s="114"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="95"/>
+      <c r="BK14" s="95"/>
+      <c r="BL14" s="95"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="95"/>
+      <c r="BO14" s="95"/>
+      <c r="BP14" s="95"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="95"/>
+      <c r="BS14" s="95"/>
+      <c r="BT14" s="95"/>
+      <c r="BU14" s="95"/>
+      <c r="BV14" s="95"/>
+      <c r="BW14" s="95"/>
+      <c r="BX14" s="95"/>
+      <c r="BY14" s="95"/>
+      <c r="BZ14" s="95"/>
+      <c r="CA14" s="95"/>
+      <c r="CB14" s="96"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="113"/>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="113"/>
-      <c r="BI15" s="113"/>
-      <c r="BJ15" s="113"/>
-      <c r="BK15" s="113"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
-      <c r="BN15" s="113"/>
-      <c r="BO15" s="113"/>
-      <c r="BP15" s="113"/>
-      <c r="BQ15" s="113"/>
-      <c r="BR15" s="113"/>
-      <c r="BS15" s="113"/>
-      <c r="BT15" s="113"/>
-      <c r="BU15" s="113"/>
-      <c r="BV15" s="113"/>
-      <c r="BW15" s="113"/>
-      <c r="BX15" s="113"/>
-      <c r="BY15" s="113"/>
-      <c r="BZ15" s="113"/>
-      <c r="CA15" s="113"/>
-      <c r="CB15" s="114"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="95"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="95"/>
+      <c r="AZ15" s="95"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="95"/>
+      <c r="BC15" s="95"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="95"/>
+      <c r="BF15" s="95"/>
+      <c r="BG15" s="95"/>
+      <c r="BH15" s="95"/>
+      <c r="BI15" s="95"/>
+      <c r="BJ15" s="95"/>
+      <c r="BK15" s="95"/>
+      <c r="BL15" s="95"/>
+      <c r="BM15" s="95"/>
+      <c r="BN15" s="95"/>
+      <c r="BO15" s="95"/>
+      <c r="BP15" s="95"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="95"/>
+      <c r="BS15" s="95"/>
+      <c r="BT15" s="95"/>
+      <c r="BU15" s="95"/>
+      <c r="BV15" s="95"/>
+      <c r="BW15" s="95"/>
+      <c r="BX15" s="95"/>
+      <c r="BY15" s="95"/>
+      <c r="BZ15" s="95"/>
+      <c r="CA15" s="95"/>
+      <c r="CB15" s="96"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
-      <c r="BN16" s="113"/>
-      <c r="BO16" s="113"/>
-      <c r="BP16" s="113"/>
-      <c r="BQ16" s="113"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="113"/>
-      <c r="BU16" s="113"/>
-      <c r="BV16" s="113"/>
-      <c r="BW16" s="113"/>
-      <c r="BX16" s="113"/>
-      <c r="BY16" s="113"/>
-      <c r="BZ16" s="113"/>
-      <c r="CA16" s="113"/>
-      <c r="CB16" s="114"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="95"/>
+      <c r="BI16" s="95"/>
+      <c r="BJ16" s="95"/>
+      <c r="BK16" s="95"/>
+      <c r="BL16" s="95"/>
+      <c r="BM16" s="95"/>
+      <c r="BN16" s="95"/>
+      <c r="BO16" s="95"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="95"/>
+      <c r="BR16" s="95"/>
+      <c r="BS16" s="95"/>
+      <c r="BT16" s="95"/>
+      <c r="BU16" s="95"/>
+      <c r="BV16" s="95"/>
+      <c r="BW16" s="95"/>
+      <c r="BX16" s="95"/>
+      <c r="BY16" s="95"/>
+      <c r="BZ16" s="95"/>
+      <c r="CA16" s="95"/>
+      <c r="CB16" s="96"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
-      <c r="BN17" s="113"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="113"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="113"/>
-      <c r="BU17" s="113"/>
-      <c r="BV17" s="113"/>
-      <c r="BW17" s="113"/>
-      <c r="BX17" s="113"/>
-      <c r="BY17" s="113"/>
-      <c r="BZ17" s="113"/>
-      <c r="CA17" s="113"/>
-      <c r="CB17" s="114"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="95"/>
+      <c r="BI17" s="95"/>
+      <c r="BJ17" s="95"/>
+      <c r="BK17" s="95"/>
+      <c r="BL17" s="95"/>
+      <c r="BM17" s="95"/>
+      <c r="BN17" s="95"/>
+      <c r="BO17" s="95"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="95"/>
+      <c r="BR17" s="95"/>
+      <c r="BS17" s="95"/>
+      <c r="BT17" s="95"/>
+      <c r="BU17" s="95"/>
+      <c r="BV17" s="95"/>
+      <c r="BW17" s="95"/>
+      <c r="BX17" s="95"/>
+      <c r="BY17" s="95"/>
+      <c r="BZ17" s="95"/>
+      <c r="CA17" s="95"/>
+      <c r="CB17" s="96"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="113"/>
-      <c r="BK18" s="113"/>
-      <c r="BL18" s="113"/>
-      <c r="BM18" s="113"/>
-      <c r="BN18" s="113"/>
-      <c r="BO18" s="113"/>
-      <c r="BP18" s="113"/>
-      <c r="BQ18" s="113"/>
-      <c r="BR18" s="113"/>
-      <c r="BS18" s="113"/>
-      <c r="BT18" s="113"/>
-      <c r="BU18" s="113"/>
-      <c r="BV18" s="113"/>
-      <c r="BW18" s="113"/>
-      <c r="BX18" s="113"/>
-      <c r="BY18" s="113"/>
-      <c r="BZ18" s="113"/>
-      <c r="CA18" s="113"/>
-      <c r="CB18" s="114"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="95"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="95"/>
+      <c r="BI18" s="95"/>
+      <c r="BJ18" s="95"/>
+      <c r="BK18" s="95"/>
+      <c r="BL18" s="95"/>
+      <c r="BM18" s="95"/>
+      <c r="BN18" s="95"/>
+      <c r="BO18" s="95"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="95"/>
+      <c r="BR18" s="95"/>
+      <c r="BS18" s="95"/>
+      <c r="BT18" s="95"/>
+      <c r="BU18" s="95"/>
+      <c r="BV18" s="95"/>
+      <c r="BW18" s="95"/>
+      <c r="BX18" s="95"/>
+      <c r="BY18" s="95"/>
+      <c r="BZ18" s="95"/>
+      <c r="CA18" s="95"/>
+      <c r="CB18" s="96"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="113"/>
-      <c r="BG19" s="113"/>
-      <c r="BH19" s="113"/>
-      <c r="BI19" s="113"/>
-      <c r="BJ19" s="113"/>
-      <c r="BK19" s="113"/>
-      <c r="BL19" s="113"/>
-      <c r="BM19" s="113"/>
-      <c r="BN19" s="113"/>
-      <c r="BO19" s="113"/>
-      <c r="BP19" s="113"/>
-      <c r="BQ19" s="113"/>
-      <c r="BR19" s="113"/>
-      <c r="BS19" s="113"/>
-      <c r="BT19" s="113"/>
-      <c r="BU19" s="113"/>
-      <c r="BV19" s="113"/>
-      <c r="BW19" s="113"/>
-      <c r="BX19" s="113"/>
-      <c r="BY19" s="113"/>
-      <c r="BZ19" s="113"/>
-      <c r="CA19" s="113"/>
-      <c r="CB19" s="114"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="95"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="95"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="95"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="95"/>
+      <c r="BJ19" s="95"/>
+      <c r="BK19" s="95"/>
+      <c r="BL19" s="95"/>
+      <c r="BM19" s="95"/>
+      <c r="BN19" s="95"/>
+      <c r="BO19" s="95"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="95"/>
+      <c r="BR19" s="95"/>
+      <c r="BS19" s="95"/>
+      <c r="BT19" s="95"/>
+      <c r="BU19" s="95"/>
+      <c r="BV19" s="95"/>
+      <c r="BW19" s="95"/>
+      <c r="BX19" s="95"/>
+      <c r="BY19" s="95"/>
+      <c r="BZ19" s="95"/>
+      <c r="CA19" s="95"/>
+      <c r="CB19" s="96"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="113"/>
-      <c r="BM20" s="113"/>
-      <c r="BN20" s="113"/>
-      <c r="BO20" s="113"/>
-      <c r="BP20" s="113"/>
-      <c r="BQ20" s="113"/>
-      <c r="BR20" s="113"/>
-      <c r="BS20" s="113"/>
-      <c r="BT20" s="113"/>
-      <c r="BU20" s="113"/>
-      <c r="BV20" s="113"/>
-      <c r="BW20" s="113"/>
-      <c r="BX20" s="113"/>
-      <c r="BY20" s="113"/>
-      <c r="BZ20" s="113"/>
-      <c r="CA20" s="113"/>
-      <c r="CB20" s="114"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="95"/>
+      <c r="BI20" s="95"/>
+      <c r="BJ20" s="95"/>
+      <c r="BK20" s="95"/>
+      <c r="BL20" s="95"/>
+      <c r="BM20" s="95"/>
+      <c r="BN20" s="95"/>
+      <c r="BO20" s="95"/>
+      <c r="BP20" s="95"/>
+      <c r="BQ20" s="95"/>
+      <c r="BR20" s="95"/>
+      <c r="BS20" s="95"/>
+      <c r="BT20" s="95"/>
+      <c r="BU20" s="95"/>
+      <c r="BV20" s="95"/>
+      <c r="BW20" s="95"/>
+      <c r="BX20" s="95"/>
+      <c r="BY20" s="95"/>
+      <c r="BZ20" s="95"/>
+      <c r="CA20" s="95"/>
+      <c r="CB20" s="96"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="113"/>
-      <c r="BU21" s="113"/>
-      <c r="BV21" s="113"/>
-      <c r="BW21" s="113"/>
-      <c r="BX21" s="113"/>
-      <c r="BY21" s="113"/>
-      <c r="BZ21" s="113"/>
-      <c r="CA21" s="113"/>
-      <c r="CB21" s="114"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="95"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="95"/>
+      <c r="BI21" s="95"/>
+      <c r="BJ21" s="95"/>
+      <c r="BK21" s="95"/>
+      <c r="BL21" s="95"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="95"/>
+      <c r="BO21" s="95"/>
+      <c r="BP21" s="95"/>
+      <c r="BQ21" s="95"/>
+      <c r="BR21" s="95"/>
+      <c r="BS21" s="95"/>
+      <c r="BT21" s="95"/>
+      <c r="BU21" s="95"/>
+      <c r="BV21" s="95"/>
+      <c r="BW21" s="95"/>
+      <c r="BX21" s="95"/>
+      <c r="BY21" s="95"/>
+      <c r="BZ21" s="95"/>
+      <c r="CA21" s="95"/>
+      <c r="CB21" s="96"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="113"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="113"/>
-      <c r="BS22" s="113"/>
-      <c r="BT22" s="113"/>
-      <c r="BU22" s="113"/>
-      <c r="BV22" s="113"/>
-      <c r="BW22" s="113"/>
-      <c r="BX22" s="113"/>
-      <c r="BY22" s="113"/>
-      <c r="BZ22" s="113"/>
-      <c r="CA22" s="113"/>
-      <c r="CB22" s="114"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="95"/>
+      <c r="BA22" s="95"/>
+      <c r="BB22" s="95"/>
+      <c r="BC22" s="95"/>
+      <c r="BD22" s="95"/>
+      <c r="BE22" s="95"/>
+      <c r="BF22" s="95"/>
+      <c r="BG22" s="95"/>
+      <c r="BH22" s="95"/>
+      <c r="BI22" s="95"/>
+      <c r="BJ22" s="95"/>
+      <c r="BK22" s="95"/>
+      <c r="BL22" s="95"/>
+      <c r="BM22" s="95"/>
+      <c r="BN22" s="95"/>
+      <c r="BO22" s="95"/>
+      <c r="BP22" s="95"/>
+      <c r="BQ22" s="95"/>
+      <c r="BR22" s="95"/>
+      <c r="BS22" s="95"/>
+      <c r="BT22" s="95"/>
+      <c r="BU22" s="95"/>
+      <c r="BV22" s="95"/>
+      <c r="BW22" s="95"/>
+      <c r="BX22" s="95"/>
+      <c r="BY22" s="95"/>
+      <c r="BZ22" s="95"/>
+      <c r="CA22" s="95"/>
+      <c r="CB22" s="96"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="113"/>
-      <c r="BQ23" s="113"/>
-      <c r="BR23" s="113"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="113"/>
-      <c r="BU23" s="113"/>
-      <c r="BV23" s="113"/>
-      <c r="BW23" s="113"/>
-      <c r="BX23" s="113"/>
-      <c r="BY23" s="113"/>
-      <c r="BZ23" s="113"/>
-      <c r="CA23" s="113"/>
-      <c r="CB23" s="114"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="95"/>
+      <c r="AU23" s="95"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="95"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="95"/>
+      <c r="AZ23" s="95"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="95"/>
+      <c r="BC23" s="95"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="95"/>
+      <c r="BF23" s="95"/>
+      <c r="BG23" s="95"/>
+      <c r="BH23" s="95"/>
+      <c r="BI23" s="95"/>
+      <c r="BJ23" s="95"/>
+      <c r="BK23" s="95"/>
+      <c r="BL23" s="95"/>
+      <c r="BM23" s="95"/>
+      <c r="BN23" s="95"/>
+      <c r="BO23" s="95"/>
+      <c r="BP23" s="95"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="95"/>
+      <c r="BS23" s="95"/>
+      <c r="BT23" s="95"/>
+      <c r="BU23" s="95"/>
+      <c r="BV23" s="95"/>
+      <c r="BW23" s="95"/>
+      <c r="BX23" s="95"/>
+      <c r="BY23" s="95"/>
+      <c r="BZ23" s="95"/>
+      <c r="CA23" s="95"/>
+      <c r="CB23" s="96"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="116"/>
-      <c r="AS24" s="116"/>
-      <c r="AT24" s="116"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="116"/>
-      <c r="AW24" s="116"/>
-      <c r="AX24" s="116"/>
-      <c r="AY24" s="116"/>
-      <c r="AZ24" s="116"/>
-      <c r="BA24" s="116"/>
-      <c r="BB24" s="116"/>
-      <c r="BC24" s="116"/>
-      <c r="BD24" s="116"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="116"/>
-      <c r="BG24" s="116"/>
-      <c r="BH24" s="116"/>
-      <c r="BI24" s="116"/>
-      <c r="BJ24" s="116"/>
-      <c r="BK24" s="116"/>
-      <c r="BL24" s="116"/>
-      <c r="BM24" s="116"/>
-      <c r="BN24" s="116"/>
-      <c r="BO24" s="116"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="116"/>
-      <c r="BS24" s="116"/>
-      <c r="BT24" s="116"/>
-      <c r="BU24" s="116"/>
-      <c r="BV24" s="116"/>
-      <c r="BW24" s="116"/>
-      <c r="BX24" s="116"/>
-      <c r="BY24" s="116"/>
-      <c r="BZ24" s="116"/>
-      <c r="CA24" s="116"/>
-      <c r="CB24" s="117"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
+      <c r="BC24" s="98"/>
+      <c r="BD24" s="98"/>
+      <c r="BE24" s="98"/>
+      <c r="BF24" s="98"/>
+      <c r="BG24" s="98"/>
+      <c r="BH24" s="98"/>
+      <c r="BI24" s="98"/>
+      <c r="BJ24" s="98"/>
+      <c r="BK24" s="98"/>
+      <c r="BL24" s="98"/>
+      <c r="BM24" s="98"/>
+      <c r="BN24" s="98"/>
+      <c r="BO24" s="98"/>
+      <c r="BP24" s="98"/>
+      <c r="BQ24" s="98"/>
+      <c r="BR24" s="98"/>
+      <c r="BS24" s="98"/>
+      <c r="BT24" s="98"/>
+      <c r="BU24" s="98"/>
+      <c r="BV24" s="98"/>
+      <c r="BW24" s="98"/>
+      <c r="BX24" s="98"/>
+      <c r="BY24" s="98"/>
+      <c r="BZ24" s="98"/>
+      <c r="CA24" s="98"/>
+      <c r="CB24" s="99"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15031,1501 +15055,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="111"/>
-      <c r="AQ28" s="109"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="110"/>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="110"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="110"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="110"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
-      <c r="BK28" s="110"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="110"/>
-      <c r="BP28" s="110"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="110"/>
-      <c r="BU28" s="110"/>
-      <c r="BV28" s="110"/>
-      <c r="BW28" s="110"/>
-      <c r="BX28" s="110"/>
-      <c r="BY28" s="110"/>
-      <c r="BZ28" s="110"/>
-      <c r="CA28" s="110"/>
-      <c r="CB28" s="111"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="93"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="92"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="92"/>
+      <c r="BV28" s="92"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="92"/>
+      <c r="BY28" s="92"/>
+      <c r="BZ28" s="92"/>
+      <c r="CA28" s="92"/>
+      <c r="CB28" s="93"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="114"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="113"/>
-      <c r="AT29" s="113"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
-      <c r="BE29" s="113"/>
-      <c r="BF29" s="113"/>
-      <c r="BG29" s="113"/>
-      <c r="BH29" s="113"/>
-      <c r="BI29" s="113"/>
-      <c r="BJ29" s="113"/>
-      <c r="BK29" s="113"/>
-      <c r="BL29" s="113"/>
-      <c r="BM29" s="113"/>
-      <c r="BN29" s="113"/>
-      <c r="BO29" s="113"/>
-      <c r="BP29" s="113"/>
-      <c r="BQ29" s="113"/>
-      <c r="BR29" s="113"/>
-      <c r="BS29" s="113"/>
-      <c r="BT29" s="113"/>
-      <c r="BU29" s="113"/>
-      <c r="BV29" s="113"/>
-      <c r="BW29" s="113"/>
-      <c r="BX29" s="113"/>
-      <c r="BY29" s="113"/>
-      <c r="BZ29" s="113"/>
-      <c r="CA29" s="113"/>
-      <c r="CB29" s="114"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="96"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="95"/>
+      <c r="BH29" s="95"/>
+      <c r="BI29" s="95"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="96"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="113"/>
-      <c r="AJ30" s="113"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="114"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="113"/>
-      <c r="AT30" s="113"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
-      <c r="BE30" s="113"/>
-      <c r="BF30" s="113"/>
-      <c r="BG30" s="113"/>
-      <c r="BH30" s="113"/>
-      <c r="BI30" s="113"/>
-      <c r="BJ30" s="113"/>
-      <c r="BK30" s="113"/>
-      <c r="BL30" s="113"/>
-      <c r="BM30" s="113"/>
-      <c r="BN30" s="113"/>
-      <c r="BO30" s="113"/>
-      <c r="BP30" s="113"/>
-      <c r="BQ30" s="113"/>
-      <c r="BR30" s="113"/>
-      <c r="BS30" s="113"/>
-      <c r="BT30" s="113"/>
-      <c r="BU30" s="113"/>
-      <c r="BV30" s="113"/>
-      <c r="BW30" s="113"/>
-      <c r="BX30" s="113"/>
-      <c r="BY30" s="113"/>
-      <c r="BZ30" s="113"/>
-      <c r="CA30" s="113"/>
-      <c r="CB30" s="114"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="96"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
+      <c r="BI30" s="95"/>
+      <c r="BJ30" s="95"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="95"/>
+      <c r="BM30" s="95"/>
+      <c r="BN30" s="95"/>
+      <c r="BO30" s="95"/>
+      <c r="BP30" s="95"/>
+      <c r="BQ30" s="95"/>
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="95"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="96"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="114"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
-      <c r="BE31" s="113"/>
-      <c r="BF31" s="113"/>
-      <c r="BG31" s="113"/>
-      <c r="BH31" s="113"/>
-      <c r="BI31" s="113"/>
-      <c r="BJ31" s="113"/>
-      <c r="BK31" s="113"/>
-      <c r="BL31" s="113"/>
-      <c r="BM31" s="113"/>
-      <c r="BN31" s="113"/>
-      <c r="BO31" s="113"/>
-      <c r="BP31" s="113"/>
-      <c r="BQ31" s="113"/>
-      <c r="BR31" s="113"/>
-      <c r="BS31" s="113"/>
-      <c r="BT31" s="113"/>
-      <c r="BU31" s="113"/>
-      <c r="BV31" s="113"/>
-      <c r="BW31" s="113"/>
-      <c r="BX31" s="113"/>
-      <c r="BY31" s="113"/>
-      <c r="BZ31" s="113"/>
-      <c r="CA31" s="113"/>
-      <c r="CB31" s="114"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="96"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="96"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="114"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="113"/>
-      <c r="AS32" s="113"/>
-      <c r="AT32" s="113"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
-      <c r="BE32" s="113"/>
-      <c r="BF32" s="113"/>
-      <c r="BG32" s="113"/>
-      <c r="BH32" s="113"/>
-      <c r="BI32" s="113"/>
-      <c r="BJ32" s="113"/>
-      <c r="BK32" s="113"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
-      <c r="BS32" s="113"/>
-      <c r="BT32" s="113"/>
-      <c r="BU32" s="113"/>
-      <c r="BV32" s="113"/>
-      <c r="BW32" s="113"/>
-      <c r="BX32" s="113"/>
-      <c r="BY32" s="113"/>
-      <c r="BZ32" s="113"/>
-      <c r="CA32" s="113"/>
-      <c r="CB32" s="114"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
+      <c r="AM32" s="95"/>
+      <c r="AN32" s="96"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="95"/>
+      <c r="AS32" s="95"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="95"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="95"/>
+      <c r="BA32" s="95"/>
+      <c r="BB32" s="95"/>
+      <c r="BC32" s="95"/>
+      <c r="BD32" s="95"/>
+      <c r="BE32" s="95"/>
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="95"/>
+      <c r="BH32" s="95"/>
+      <c r="BI32" s="95"/>
+      <c r="BJ32" s="95"/>
+      <c r="BK32" s="95"/>
+      <c r="BL32" s="95"/>
+      <c r="BM32" s="95"/>
+      <c r="BN32" s="95"/>
+      <c r="BO32" s="95"/>
+      <c r="BP32" s="95"/>
+      <c r="BQ32" s="95"/>
+      <c r="BR32" s="95"/>
+      <c r="BS32" s="95"/>
+      <c r="BT32" s="95"/>
+      <c r="BU32" s="95"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="96"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="114"/>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
-      <c r="BE33" s="113"/>
-      <c r="BF33" s="113"/>
-      <c r="BG33" s="113"/>
-      <c r="BH33" s="113"/>
-      <c r="BI33" s="113"/>
-      <c r="BJ33" s="113"/>
-      <c r="BK33" s="113"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
-      <c r="BS33" s="113"/>
-      <c r="BT33" s="113"/>
-      <c r="BU33" s="113"/>
-      <c r="BV33" s="113"/>
-      <c r="BW33" s="113"/>
-      <c r="BX33" s="113"/>
-      <c r="BY33" s="113"/>
-      <c r="BZ33" s="113"/>
-      <c r="CA33" s="113"/>
-      <c r="CB33" s="114"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="96"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="95"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
+      <c r="BE33" s="95"/>
+      <c r="BF33" s="95"/>
+      <c r="BG33" s="95"/>
+      <c r="BH33" s="95"/>
+      <c r="BI33" s="95"/>
+      <c r="BJ33" s="95"/>
+      <c r="BK33" s="95"/>
+      <c r="BL33" s="95"/>
+      <c r="BM33" s="95"/>
+      <c r="BN33" s="95"/>
+      <c r="BO33" s="95"/>
+      <c r="BP33" s="95"/>
+      <c r="BQ33" s="95"/>
+      <c r="BR33" s="95"/>
+      <c r="BS33" s="95"/>
+      <c r="BT33" s="95"/>
+      <c r="BU33" s="95"/>
+      <c r="BV33" s="95"/>
+      <c r="BW33" s="95"/>
+      <c r="BX33" s="95"/>
+      <c r="BY33" s="95"/>
+      <c r="BZ33" s="95"/>
+      <c r="CA33" s="95"/>
+      <c r="CB33" s="96"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="113"/>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="114"/>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
-      <c r="BE34" s="113"/>
-      <c r="BF34" s="113"/>
-      <c r="BG34" s="113"/>
-      <c r="BH34" s="113"/>
-      <c r="BI34" s="113"/>
-      <c r="BJ34" s="113"/>
-      <c r="BK34" s="113"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
-      <c r="BS34" s="113"/>
-      <c r="BT34" s="113"/>
-      <c r="BU34" s="113"/>
-      <c r="BV34" s="113"/>
-      <c r="BW34" s="113"/>
-      <c r="BX34" s="113"/>
-      <c r="BY34" s="113"/>
-      <c r="BZ34" s="113"/>
-      <c r="CA34" s="113"/>
-      <c r="CB34" s="114"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="96"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="96"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="113"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="114"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="113"/>
-      <c r="BF35" s="113"/>
-      <c r="BG35" s="113"/>
-      <c r="BH35" s="113"/>
-      <c r="BI35" s="113"/>
-      <c r="BJ35" s="113"/>
-      <c r="BK35" s="113"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
-      <c r="BS35" s="113"/>
-      <c r="BT35" s="113"/>
-      <c r="BU35" s="113"/>
-      <c r="BV35" s="113"/>
-      <c r="BW35" s="113"/>
-      <c r="BX35" s="113"/>
-      <c r="BY35" s="113"/>
-      <c r="BZ35" s="113"/>
-      <c r="CA35" s="113"/>
-      <c r="CB35" s="114"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="96"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="95"/>
+      <c r="BO35" s="95"/>
+      <c r="BP35" s="95"/>
+      <c r="BQ35" s="95"/>
+      <c r="BR35" s="95"/>
+      <c r="BS35" s="95"/>
+      <c r="BT35" s="95"/>
+      <c r="BU35" s="95"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="96"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="113"/>
-      <c r="AJ36" s="113"/>
-      <c r="AK36" s="113"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="114"/>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="113"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="113"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="113"/>
-      <c r="BF36" s="113"/>
-      <c r="BG36" s="113"/>
-      <c r="BH36" s="113"/>
-      <c r="BI36" s="113"/>
-      <c r="BJ36" s="113"/>
-      <c r="BK36" s="113"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
-      <c r="BS36" s="113"/>
-      <c r="BT36" s="113"/>
-      <c r="BU36" s="113"/>
-      <c r="BV36" s="113"/>
-      <c r="BW36" s="113"/>
-      <c r="BX36" s="113"/>
-      <c r="BY36" s="113"/>
-      <c r="BZ36" s="113"/>
-      <c r="CA36" s="113"/>
-      <c r="CB36" s="114"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
+      <c r="AF36" s="95"/>
+      <c r="AG36" s="95"/>
+      <c r="AH36" s="95"/>
+      <c r="AI36" s="95"/>
+      <c r="AJ36" s="95"/>
+      <c r="AK36" s="95"/>
+      <c r="AL36" s="95"/>
+      <c r="AM36" s="95"/>
+      <c r="AN36" s="96"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
+      <c r="AT36" s="95"/>
+      <c r="AU36" s="95"/>
+      <c r="AV36" s="95"/>
+      <c r="AW36" s="95"/>
+      <c r="AX36" s="95"/>
+      <c r="AY36" s="95"/>
+      <c r="AZ36" s="95"/>
+      <c r="BA36" s="95"/>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="95"/>
+      <c r="BF36" s="95"/>
+      <c r="BG36" s="95"/>
+      <c r="BH36" s="95"/>
+      <c r="BI36" s="95"/>
+      <c r="BJ36" s="95"/>
+      <c r="BK36" s="95"/>
+      <c r="BL36" s="95"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="95"/>
+      <c r="BP36" s="95"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="95"/>
+      <c r="BS36" s="95"/>
+      <c r="BT36" s="95"/>
+      <c r="BU36" s="95"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="96"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="113"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="113"/>
-      <c r="AN37" s="114"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="113"/>
-      <c r="AS37" s="113"/>
-      <c r="AT37" s="113"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
-      <c r="BE37" s="113"/>
-      <c r="BF37" s="113"/>
-      <c r="BG37" s="113"/>
-      <c r="BH37" s="113"/>
-      <c r="BI37" s="113"/>
-      <c r="BJ37" s="113"/>
-      <c r="BK37" s="113"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
-      <c r="BS37" s="113"/>
-      <c r="BT37" s="113"/>
-      <c r="BU37" s="113"/>
-      <c r="BV37" s="113"/>
-      <c r="BW37" s="113"/>
-      <c r="BX37" s="113"/>
-      <c r="BY37" s="113"/>
-      <c r="BZ37" s="113"/>
-      <c r="CA37" s="113"/>
-      <c r="CB37" s="114"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="95"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="95"/>
+      <c r="AJ37" s="95"/>
+      <c r="AK37" s="95"/>
+      <c r="AL37" s="95"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="96"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="95"/>
+      <c r="AS37" s="95"/>
+      <c r="AT37" s="95"/>
+      <c r="AU37" s="95"/>
+      <c r="AV37" s="95"/>
+      <c r="AW37" s="95"/>
+      <c r="AX37" s="95"/>
+      <c r="AY37" s="95"/>
+      <c r="AZ37" s="95"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="95"/>
+      <c r="BC37" s="95"/>
+      <c r="BD37" s="95"/>
+      <c r="BE37" s="95"/>
+      <c r="BF37" s="95"/>
+      <c r="BG37" s="95"/>
+      <c r="BH37" s="95"/>
+      <c r="BI37" s="95"/>
+      <c r="BJ37" s="95"/>
+      <c r="BK37" s="95"/>
+      <c r="BL37" s="95"/>
+      <c r="BM37" s="95"/>
+      <c r="BN37" s="95"/>
+      <c r="BO37" s="95"/>
+      <c r="BP37" s="95"/>
+      <c r="BQ37" s="95"/>
+      <c r="BR37" s="95"/>
+      <c r="BS37" s="95"/>
+      <c r="BT37" s="95"/>
+      <c r="BU37" s="95"/>
+      <c r="BV37" s="95"/>
+      <c r="BW37" s="95"/>
+      <c r="BX37" s="95"/>
+      <c r="BY37" s="95"/>
+      <c r="BZ37" s="95"/>
+      <c r="CA37" s="95"/>
+      <c r="CB37" s="96"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="113"/>
-      <c r="AJ38" s="113"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
-      <c r="BE38" s="113"/>
-      <c r="BF38" s="113"/>
-      <c r="BG38" s="113"/>
-      <c r="BH38" s="113"/>
-      <c r="BI38" s="113"/>
-      <c r="BJ38" s="113"/>
-      <c r="BK38" s="113"/>
-      <c r="BL38" s="113"/>
-      <c r="BM38" s="113"/>
-      <c r="BN38" s="113"/>
-      <c r="BO38" s="113"/>
-      <c r="BP38" s="113"/>
-      <c r="BQ38" s="113"/>
-      <c r="BR38" s="113"/>
-      <c r="BS38" s="113"/>
-      <c r="BT38" s="113"/>
-      <c r="BU38" s="113"/>
-      <c r="BV38" s="113"/>
-      <c r="BW38" s="113"/>
-      <c r="BX38" s="113"/>
-      <c r="BY38" s="113"/>
-      <c r="BZ38" s="113"/>
-      <c r="CA38" s="113"/>
-      <c r="CB38" s="114"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
+      <c r="AG38" s="95"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="95"/>
+      <c r="AJ38" s="95"/>
+      <c r="AK38" s="95"/>
+      <c r="AL38" s="95"/>
+      <c r="AM38" s="95"/>
+      <c r="AN38" s="96"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="95"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" s="95"/>
+      <c r="AU38" s="95"/>
+      <c r="AV38" s="95"/>
+      <c r="AW38" s="95"/>
+      <c r="AX38" s="95"/>
+      <c r="AY38" s="95"/>
+      <c r="AZ38" s="95"/>
+      <c r="BA38" s="95"/>
+      <c r="BB38" s="95"/>
+      <c r="BC38" s="95"/>
+      <c r="BD38" s="95"/>
+      <c r="BE38" s="95"/>
+      <c r="BF38" s="95"/>
+      <c r="BG38" s="95"/>
+      <c r="BH38" s="95"/>
+      <c r="BI38" s="95"/>
+      <c r="BJ38" s="95"/>
+      <c r="BK38" s="95"/>
+      <c r="BL38" s="95"/>
+      <c r="BM38" s="95"/>
+      <c r="BN38" s="95"/>
+      <c r="BO38" s="95"/>
+      <c r="BP38" s="95"/>
+      <c r="BQ38" s="95"/>
+      <c r="BR38" s="95"/>
+      <c r="BS38" s="95"/>
+      <c r="BT38" s="95"/>
+      <c r="BU38" s="95"/>
+      <c r="BV38" s="95"/>
+      <c r="BW38" s="95"/>
+      <c r="BX38" s="95"/>
+      <c r="BY38" s="95"/>
+      <c r="BZ38" s="95"/>
+      <c r="CA38" s="95"/>
+      <c r="CB38" s="96"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
-      <c r="AI39" s="113"/>
-      <c r="AJ39" s="113"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="114"/>
-      <c r="AQ39" s="112"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="113"/>
-      <c r="BF39" s="113"/>
-      <c r="BG39" s="113"/>
-      <c r="BH39" s="113"/>
-      <c r="BI39" s="113"/>
-      <c r="BJ39" s="113"/>
-      <c r="BK39" s="113"/>
-      <c r="BL39" s="113"/>
-      <c r="BM39" s="113"/>
-      <c r="BN39" s="113"/>
-      <c r="BO39" s="113"/>
-      <c r="BP39" s="113"/>
-      <c r="BQ39" s="113"/>
-      <c r="BR39" s="113"/>
-      <c r="BS39" s="113"/>
-      <c r="BT39" s="113"/>
-      <c r="BU39" s="113"/>
-      <c r="BV39" s="113"/>
-      <c r="BW39" s="113"/>
-      <c r="BX39" s="113"/>
-      <c r="BY39" s="113"/>
-      <c r="BZ39" s="113"/>
-      <c r="CA39" s="113"/>
-      <c r="CB39" s="114"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
+      <c r="AF39" s="95"/>
+      <c r="AG39" s="95"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="95"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="96"/>
+      <c r="AQ39" s="94"/>
+      <c r="AR39" s="95"/>
+      <c r="AS39" s="95"/>
+      <c r="AT39" s="95"/>
+      <c r="AU39" s="95"/>
+      <c r="AV39" s="95"/>
+      <c r="AW39" s="95"/>
+      <c r="AX39" s="95"/>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="95"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="95"/>
+      <c r="BF39" s="95"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="95"/>
+      <c r="BO39" s="95"/>
+      <c r="BP39" s="95"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="95"/>
+      <c r="BS39" s="95"/>
+      <c r="BT39" s="95"/>
+      <c r="BU39" s="95"/>
+      <c r="BV39" s="95"/>
+      <c r="BW39" s="95"/>
+      <c r="BX39" s="95"/>
+      <c r="BY39" s="95"/>
+      <c r="BZ39" s="95"/>
+      <c r="CA39" s="95"/>
+      <c r="CB39" s="96"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
-      <c r="AJ40" s="113"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="113"/>
-      <c r="AN40" s="114"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="113"/>
-      <c r="AS40" s="113"/>
-      <c r="AT40" s="113"/>
-      <c r="AU40" s="113"/>
-      <c r="AV40" s="113"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="113"/>
-      <c r="AY40" s="113"/>
-      <c r="AZ40" s="113"/>
-      <c r="BA40" s="113"/>
-      <c r="BB40" s="113"/>
-      <c r="BC40" s="113"/>
-      <c r="BD40" s="113"/>
-      <c r="BE40" s="113"/>
-      <c r="BF40" s="113"/>
-      <c r="BG40" s="113"/>
-      <c r="BH40" s="113"/>
-      <c r="BI40" s="113"/>
-      <c r="BJ40" s="113"/>
-      <c r="BK40" s="113"/>
-      <c r="BL40" s="113"/>
-      <c r="BM40" s="113"/>
-      <c r="BN40" s="113"/>
-      <c r="BO40" s="113"/>
-      <c r="BP40" s="113"/>
-      <c r="BQ40" s="113"/>
-      <c r="BR40" s="113"/>
-      <c r="BS40" s="113"/>
-      <c r="BT40" s="113"/>
-      <c r="BU40" s="113"/>
-      <c r="BV40" s="113"/>
-      <c r="BW40" s="113"/>
-      <c r="BX40" s="113"/>
-      <c r="BY40" s="113"/>
-      <c r="BZ40" s="113"/>
-      <c r="CA40" s="113"/>
-      <c r="CB40" s="114"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95"/>
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="95"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95"/>
+      <c r="AN40" s="96"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="95"/>
+      <c r="AS40" s="95"/>
+      <c r="AT40" s="95"/>
+      <c r="AU40" s="95"/>
+      <c r="AV40" s="95"/>
+      <c r="AW40" s="95"/>
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95"/>
+      <c r="AZ40" s="95"/>
+      <c r="BA40" s="95"/>
+      <c r="BB40" s="95"/>
+      <c r="BC40" s="95"/>
+      <c r="BD40" s="95"/>
+      <c r="BE40" s="95"/>
+      <c r="BF40" s="95"/>
+      <c r="BG40" s="95"/>
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="95"/>
+      <c r="BM40" s="95"/>
+      <c r="BN40" s="95"/>
+      <c r="BO40" s="95"/>
+      <c r="BP40" s="95"/>
+      <c r="BQ40" s="95"/>
+      <c r="BR40" s="95"/>
+      <c r="BS40" s="95"/>
+      <c r="BT40" s="95"/>
+      <c r="BU40" s="95"/>
+      <c r="BV40" s="95"/>
+      <c r="BW40" s="95"/>
+      <c r="BX40" s="95"/>
+      <c r="BY40" s="95"/>
+      <c r="BZ40" s="95"/>
+      <c r="CA40" s="95"/>
+      <c r="CB40" s="96"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
-      <c r="AJ41" s="113"/>
-      <c r="AK41" s="113"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="114"/>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="113"/>
-      <c r="AS41" s="113"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="113"/>
-      <c r="AV41" s="113"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="113"/>
-      <c r="AY41" s="113"/>
-      <c r="AZ41" s="113"/>
-      <c r="BA41" s="113"/>
-      <c r="BB41" s="113"/>
-      <c r="BC41" s="113"/>
-      <c r="BD41" s="113"/>
-      <c r="BE41" s="113"/>
-      <c r="BF41" s="113"/>
-      <c r="BG41" s="113"/>
-      <c r="BH41" s="113"/>
-      <c r="BI41" s="113"/>
-      <c r="BJ41" s="113"/>
-      <c r="BK41" s="113"/>
-      <c r="BL41" s="113"/>
-      <c r="BM41" s="113"/>
-      <c r="BN41" s="113"/>
-      <c r="BO41" s="113"/>
-      <c r="BP41" s="113"/>
-      <c r="BQ41" s="113"/>
-      <c r="BR41" s="113"/>
-      <c r="BS41" s="113"/>
-      <c r="BT41" s="113"/>
-      <c r="BU41" s="113"/>
-      <c r="BV41" s="113"/>
-      <c r="BW41" s="113"/>
-      <c r="BX41" s="113"/>
-      <c r="BY41" s="113"/>
-      <c r="BZ41" s="113"/>
-      <c r="CA41" s="113"/>
-      <c r="CB41" s="114"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="95"/>
+      <c r="AL41" s="95"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="96"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="95"/>
+      <c r="AS41" s="95"/>
+      <c r="AT41" s="95"/>
+      <c r="AU41" s="95"/>
+      <c r="AV41" s="95"/>
+      <c r="AW41" s="95"/>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95"/>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="95"/>
+      <c r="BW41" s="95"/>
+      <c r="BX41" s="95"/>
+      <c r="BY41" s="95"/>
+      <c r="BZ41" s="95"/>
+      <c r="CA41" s="95"/>
+      <c r="CB41" s="96"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="113"/>
-      <c r="AJ42" s="113"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="113"/>
-      <c r="AN42" s="114"/>
-      <c r="AQ42" s="112"/>
-      <c r="AR42" s="113"/>
-      <c r="AS42" s="113"/>
-      <c r="AT42" s="113"/>
-      <c r="AU42" s="113"/>
-      <c r="AV42" s="113"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="113"/>
-      <c r="AY42" s="113"/>
-      <c r="AZ42" s="113"/>
-      <c r="BA42" s="113"/>
-      <c r="BB42" s="113"/>
-      <c r="BC42" s="113"/>
-      <c r="BD42" s="113"/>
-      <c r="BE42" s="113"/>
-      <c r="BF42" s="113"/>
-      <c r="BG42" s="113"/>
-      <c r="BH42" s="113"/>
-      <c r="BI42" s="113"/>
-      <c r="BJ42" s="113"/>
-      <c r="BK42" s="113"/>
-      <c r="BL42" s="113"/>
-      <c r="BM42" s="113"/>
-      <c r="BN42" s="113"/>
-      <c r="BO42" s="113"/>
-      <c r="BP42" s="113"/>
-      <c r="BQ42" s="113"/>
-      <c r="BR42" s="113"/>
-      <c r="BS42" s="113"/>
-      <c r="BT42" s="113"/>
-      <c r="BU42" s="113"/>
-      <c r="BV42" s="113"/>
-      <c r="BW42" s="113"/>
-      <c r="BX42" s="113"/>
-      <c r="BY42" s="113"/>
-      <c r="BZ42" s="113"/>
-      <c r="CA42" s="113"/>
-      <c r="CB42" s="114"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="96"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="95"/>
+      <c r="AW42" s="95"/>
+      <c r="AX42" s="95"/>
+      <c r="AY42" s="95"/>
+      <c r="AZ42" s="95"/>
+      <c r="BA42" s="95"/>
+      <c r="BB42" s="95"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
+      <c r="BP42" s="95"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="95"/>
+      <c r="BS42" s="95"/>
+      <c r="BT42" s="95"/>
+      <c r="BU42" s="95"/>
+      <c r="BV42" s="95"/>
+      <c r="BW42" s="95"/>
+      <c r="BX42" s="95"/>
+      <c r="BY42" s="95"/>
+      <c r="BZ42" s="95"/>
+      <c r="CA42" s="95"/>
+      <c r="CB42" s="96"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="113"/>
-      <c r="AJ43" s="113"/>
-      <c r="AK43" s="113"/>
-      <c r="AL43" s="113"/>
-      <c r="AM43" s="113"/>
-      <c r="AN43" s="114"/>
-      <c r="AQ43" s="112"/>
-      <c r="AR43" s="113"/>
-      <c r="AS43" s="113"/>
-      <c r="AT43" s="113"/>
-      <c r="AU43" s="113"/>
-      <c r="AV43" s="113"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="113"/>
-      <c r="AY43" s="113"/>
-      <c r="AZ43" s="113"/>
-      <c r="BA43" s="113"/>
-      <c r="BB43" s="113"/>
-      <c r="BC43" s="113"/>
-      <c r="BD43" s="113"/>
-      <c r="BE43" s="113"/>
-      <c r="BF43" s="113"/>
-      <c r="BG43" s="113"/>
-      <c r="BH43" s="113"/>
-      <c r="BI43" s="113"/>
-      <c r="BJ43" s="113"/>
-      <c r="BK43" s="113"/>
-      <c r="BL43" s="113"/>
-      <c r="BM43" s="113"/>
-      <c r="BN43" s="113"/>
-      <c r="BO43" s="113"/>
-      <c r="BP43" s="113"/>
-      <c r="BQ43" s="113"/>
-      <c r="BR43" s="113"/>
-      <c r="BS43" s="113"/>
-      <c r="BT43" s="113"/>
-      <c r="BU43" s="113"/>
-      <c r="BV43" s="113"/>
-      <c r="BW43" s="113"/>
-      <c r="BX43" s="113"/>
-      <c r="BY43" s="113"/>
-      <c r="BZ43" s="113"/>
-      <c r="CA43" s="113"/>
-      <c r="CB43" s="114"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="96"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="95"/>
+      <c r="AW43" s="95"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
+      <c r="BM43" s="95"/>
+      <c r="BN43" s="95"/>
+      <c r="BO43" s="95"/>
+      <c r="BP43" s="95"/>
+      <c r="BQ43" s="95"/>
+      <c r="BR43" s="95"/>
+      <c r="BS43" s="95"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="95"/>
+      <c r="BV43" s="95"/>
+      <c r="BW43" s="95"/>
+      <c r="BX43" s="95"/>
+      <c r="BY43" s="95"/>
+      <c r="BZ43" s="95"/>
+      <c r="CA43" s="95"/>
+      <c r="CB43" s="96"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="112"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
-      <c r="AJ44" s="113"/>
-      <c r="AK44" s="113"/>
-      <c r="AL44" s="113"/>
-      <c r="AM44" s="113"/>
-      <c r="AN44" s="114"/>
-      <c r="AQ44" s="112"/>
-      <c r="AR44" s="113"/>
-      <c r="AS44" s="113"/>
-      <c r="AT44" s="113"/>
-      <c r="AU44" s="113"/>
-      <c r="AV44" s="113"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="113"/>
-      <c r="AY44" s="113"/>
-      <c r="AZ44" s="113"/>
-      <c r="BA44" s="113"/>
-      <c r="BB44" s="113"/>
-      <c r="BC44" s="113"/>
-      <c r="BD44" s="113"/>
-      <c r="BE44" s="113"/>
-      <c r="BF44" s="113"/>
-      <c r="BG44" s="113"/>
-      <c r="BH44" s="113"/>
-      <c r="BI44" s="113"/>
-      <c r="BJ44" s="113"/>
-      <c r="BK44" s="113"/>
-      <c r="BL44" s="113"/>
-      <c r="BM44" s="113"/>
-      <c r="BN44" s="113"/>
-      <c r="BO44" s="113"/>
-      <c r="BP44" s="113"/>
-      <c r="BQ44" s="113"/>
-      <c r="BR44" s="113"/>
-      <c r="BS44" s="113"/>
-      <c r="BT44" s="113"/>
-      <c r="BU44" s="113"/>
-      <c r="BV44" s="113"/>
-      <c r="BW44" s="113"/>
-      <c r="BX44" s="113"/>
-      <c r="BY44" s="113"/>
-      <c r="BZ44" s="113"/>
-      <c r="CA44" s="113"/>
-      <c r="CB44" s="114"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="96"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="95"/>
+      <c r="AU44" s="95"/>
+      <c r="AV44" s="95"/>
+      <c r="AW44" s="95"/>
+      <c r="AX44" s="95"/>
+      <c r="AY44" s="95"/>
+      <c r="AZ44" s="95"/>
+      <c r="BA44" s="95"/>
+      <c r="BB44" s="95"/>
+      <c r="BC44" s="95"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="95"/>
+      <c r="BF44" s="95"/>
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
+      <c r="BM44" s="95"/>
+      <c r="BN44" s="95"/>
+      <c r="BO44" s="95"/>
+      <c r="BP44" s="95"/>
+      <c r="BQ44" s="95"/>
+      <c r="BR44" s="95"/>
+      <c r="BS44" s="95"/>
+      <c r="BT44" s="95"/>
+      <c r="BU44" s="95"/>
+      <c r="BV44" s="95"/>
+      <c r="BW44" s="95"/>
+      <c r="BX44" s="95"/>
+      <c r="BY44" s="95"/>
+      <c r="BZ44" s="95"/>
+      <c r="CA44" s="95"/>
+      <c r="CB44" s="96"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="113"/>
-      <c r="AC45" s="113"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
-      <c r="AI45" s="113"/>
-      <c r="AJ45" s="113"/>
-      <c r="AK45" s="113"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="113"/>
-      <c r="AN45" s="114"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="113"/>
-      <c r="AS45" s="113"/>
-      <c r="AT45" s="113"/>
-      <c r="AU45" s="113"/>
-      <c r="AV45" s="113"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="113"/>
-      <c r="AY45" s="113"/>
-      <c r="AZ45" s="113"/>
-      <c r="BA45" s="113"/>
-      <c r="BB45" s="113"/>
-      <c r="BC45" s="113"/>
-      <c r="BD45" s="113"/>
-      <c r="BE45" s="113"/>
-      <c r="BF45" s="113"/>
-      <c r="BG45" s="113"/>
-      <c r="BH45" s="113"/>
-      <c r="BI45" s="113"/>
-      <c r="BJ45" s="113"/>
-      <c r="BK45" s="113"/>
-      <c r="BL45" s="113"/>
-      <c r="BM45" s="113"/>
-      <c r="BN45" s="113"/>
-      <c r="BO45" s="113"/>
-      <c r="BP45" s="113"/>
-      <c r="BQ45" s="113"/>
-      <c r="BR45" s="113"/>
-      <c r="BS45" s="113"/>
-      <c r="BT45" s="113"/>
-      <c r="BU45" s="113"/>
-      <c r="BV45" s="113"/>
-      <c r="BW45" s="113"/>
-      <c r="BX45" s="113"/>
-      <c r="BY45" s="113"/>
-      <c r="BZ45" s="113"/>
-      <c r="CA45" s="113"/>
-      <c r="CB45" s="114"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="96"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="95"/>
+      <c r="AW45" s="95"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="95"/>
+      <c r="BR45" s="95"/>
+      <c r="BS45" s="95"/>
+      <c r="BT45" s="95"/>
+      <c r="BU45" s="95"/>
+      <c r="BV45" s="95"/>
+      <c r="BW45" s="95"/>
+      <c r="BX45" s="95"/>
+      <c r="BY45" s="95"/>
+      <c r="BZ45" s="95"/>
+      <c r="CA45" s="95"/>
+      <c r="CB45" s="96"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="115"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="116"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="116"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="116"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AN46" s="117"/>
-      <c r="AQ46" s="115"/>
-      <c r="AR46" s="116"/>
-      <c r="AS46" s="116"/>
-      <c r="AT46" s="116"/>
-      <c r="AU46" s="116"/>
-      <c r="AV46" s="116"/>
-      <c r="AW46" s="116"/>
-      <c r="AX46" s="116"/>
-      <c r="AY46" s="116"/>
-      <c r="AZ46" s="116"/>
-      <c r="BA46" s="116"/>
-      <c r="BB46" s="116"/>
-      <c r="BC46" s="116"/>
-      <c r="BD46" s="116"/>
-      <c r="BE46" s="116"/>
-      <c r="BF46" s="116"/>
-      <c r="BG46" s="116"/>
-      <c r="BH46" s="116"/>
-      <c r="BI46" s="116"/>
-      <c r="BJ46" s="116"/>
-      <c r="BK46" s="116"/>
-      <c r="BL46" s="116"/>
-      <c r="BM46" s="116"/>
-      <c r="BN46" s="116"/>
-      <c r="BO46" s="116"/>
-      <c r="BP46" s="116"/>
-      <c r="BQ46" s="116"/>
-      <c r="BR46" s="116"/>
-      <c r="BS46" s="116"/>
-      <c r="BT46" s="116"/>
-      <c r="BU46" s="116"/>
-      <c r="BV46" s="116"/>
-      <c r="BW46" s="116"/>
-      <c r="BX46" s="116"/>
-      <c r="BY46" s="116"/>
-      <c r="BZ46" s="116"/>
-      <c r="CA46" s="116"/>
-      <c r="CB46" s="117"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="99"/>
+      <c r="AQ46" s="97"/>
+      <c r="AR46" s="98"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="98"/>
+      <c r="AU46" s="98"/>
+      <c r="AV46" s="98"/>
+      <c r="AW46" s="98"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="98"/>
+      <c r="BA46" s="98"/>
+      <c r="BB46" s="98"/>
+      <c r="BC46" s="98"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="98"/>
+      <c r="BF46" s="98"/>
+      <c r="BG46" s="98"/>
+      <c r="BH46" s="98"/>
+      <c r="BI46" s="98"/>
+      <c r="BJ46" s="98"/>
+      <c r="BK46" s="98"/>
+      <c r="BL46" s="98"/>
+      <c r="BM46" s="98"/>
+      <c r="BN46" s="98"/>
+      <c r="BO46" s="98"/>
+      <c r="BP46" s="98"/>
+      <c r="BQ46" s="98"/>
+      <c r="BR46" s="98"/>
+      <c r="BS46" s="98"/>
+      <c r="BT46" s="98"/>
+      <c r="BU46" s="98"/>
+      <c r="BV46" s="98"/>
+      <c r="BW46" s="98"/>
+      <c r="BX46" s="98"/>
+      <c r="BY46" s="98"/>
+      <c r="BZ46" s="98"/>
+      <c r="CA46" s="98"/>
+      <c r="CB46" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7C16F-1674-47E6-84ED-BC76C28D07E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A45F963-B08E-4BE9-B601-AB1D4E6146C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -47,10 +47,10 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1º Parâmetro: 
           Célula do código
@@ -60,7 +60,8 @@
           O id da COLUNA (inicia da esquerda para direita, valor 1 para a primeira coluna.
 4º Parâmetro:
           • verdadeiro: Valores aproximados;
-          • falso: Valores EXATOS.</t>
+          • falso: Valores EXATOS.
+Na PROCV não consigo procurar 'Bermuda' e retornar o coódigo dele, ou seja, selecionar o número da coluna antes dele.</t>
         </r>
       </text>
     </comment>
@@ -69,19 +70,20 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Sobre o PROCX
+          <t>Sobre o PROCX
 1º Parâmetro:
           A cécula do produto que quer pesquisar.
 2º Parâmetro:
           Apenas a coluna inteira de onde está esse produto.
 3º Parâmetro:
           Apenas a coluna inteira do que deseja retornar.
-</t>
+=PROCX(C6;TB_Produtos[[#Tudo];[Código]];TB_Produtos[[#Tudo];[Tamanho]];"Não Encontrado")
+Na PROCX posso selecionar a coluna onde está a 'Bermuda' e selecionar a coluna antes dele (PROCV não permite)</t>
         </r>
       </text>
     </comment>
@@ -787,10 +789,10 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1504,33 +1506,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1583,6 +1558,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8827,7 +8829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
@@ -12635,7 +12639,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12696,7 +12700,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
@@ -12711,7 +12715,7 @@
       </c>
       <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
-        <v>Não encontrado</v>
+        <v>Bermuda</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
@@ -12725,7 +12729,7 @@
       </c>
       <c r="C8" s="48" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
-        <v>Não encontrado</v>
+        <v>M</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>164</v>
@@ -12737,7 +12741,10 @@
       <c r="B9" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="48" t="str">
+        <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,4,0),"Não encontrado")</f>
+        <v>Vestuário</v>
+      </c>
       <c r="E9" s="76" t="s">
         <v>162</v>
       </c>
@@ -12751,21 +12758,24 @@
       <c r="B10" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="48">
+        <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,6,0),"Não encontrado")</f>
+        <v>69.900000000000006</v>
+      </c>
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
       <c r="B12" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="48"/>
       <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:9" ht="23.25">
@@ -12784,11 +12794,12 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{386D00EA-C09E-4AF2-85F6-0FFA8584E7FB}">
           <x14:formula1>
             <xm:f>Produtos!$B:$B</xm:f>
@@ -13374,237 +13385,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="100">
+      <c r="W4" s="91">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="102"/>
-      <c r="AQ4" s="100">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93"/>
+      <c r="AQ4" s="91">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="102"/>
-      <c r="BK4" s="109">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BK4" s="100">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="102"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="103"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="105"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
-      <c r="BR5" s="113"/>
-      <c r="BS5" s="113"/>
-      <c r="BT5" s="113"/>
-      <c r="BU5" s="113"/>
-      <c r="BV5" s="113"/>
-      <c r="BW5" s="113"/>
-      <c r="BX5" s="113"/>
-      <c r="BY5" s="113"/>
-      <c r="BZ5" s="113"/>
-      <c r="CA5" s="113"/>
-      <c r="CB5" s="114"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
+      <c r="BO5" s="104"/>
+      <c r="BP5" s="104"/>
+      <c r="BQ5" s="104"/>
+      <c r="BR5" s="104"/>
+      <c r="BS5" s="104"/>
+      <c r="BT5" s="104"/>
+      <c r="BU5" s="104"/>
+      <c r="BV5" s="104"/>
+      <c r="BW5" s="104"/>
+      <c r="BX5" s="104"/>
+      <c r="BY5" s="104"/>
+      <c r="BZ5" s="104"/>
+      <c r="CA5" s="104"/>
+      <c r="CB5" s="105"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="103"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="105"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="105"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="113"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="113"/>
-      <c r="BQ6" s="113"/>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="113"/>
-      <c r="BU6" s="113"/>
-      <c r="BV6" s="113"/>
-      <c r="BW6" s="113"/>
-      <c r="BX6" s="113"/>
-      <c r="BY6" s="113"/>
-      <c r="BZ6" s="113"/>
-      <c r="CA6" s="113"/>
-      <c r="CB6" s="114"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="96"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="96"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="105"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="108"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="117"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="99"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="99"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="107"/>
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13770,1124 +13781,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="110"/>
+      <c r="BW11" s="110"/>
+      <c r="BX11" s="110"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="111"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="96"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="113"/>
+      <c r="BI12" s="113"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="113"/>
+      <c r="BU12" s="113"/>
+      <c r="BV12" s="113"/>
+      <c r="BW12" s="113"/>
+      <c r="BX12" s="113"/>
+      <c r="BY12" s="113"/>
+      <c r="BZ12" s="113"/>
+      <c r="CA12" s="113"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="96"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="113"/>
+      <c r="BI13" s="113"/>
+      <c r="BJ13" s="113"/>
+      <c r="BK13" s="113"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="113"/>
+      <c r="BO13" s="113"/>
+      <c r="BP13" s="113"/>
+      <c r="BQ13" s="113"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="113"/>
+      <c r="BZ13" s="113"/>
+      <c r="CA13" s="113"/>
+      <c r="CB13" s="114"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="96"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="113"/>
+      <c r="BM14" s="113"/>
+      <c r="BN14" s="113"/>
+      <c r="BO14" s="113"/>
+      <c r="BP14" s="113"/>
+      <c r="BQ14" s="113"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="113"/>
+      <c r="BU14" s="113"/>
+      <c r="BV14" s="113"/>
+      <c r="BW14" s="113"/>
+      <c r="BX14" s="113"/>
+      <c r="BY14" s="113"/>
+      <c r="BZ14" s="113"/>
+      <c r="CA14" s="113"/>
+      <c r="CB14" s="114"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="96"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="113"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="113"/>
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="113"/>
+      <c r="BI15" s="113"/>
+      <c r="BJ15" s="113"/>
+      <c r="BK15" s="113"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="113"/>
+      <c r="BU15" s="113"/>
+      <c r="BV15" s="113"/>
+      <c r="BW15" s="113"/>
+      <c r="BX15" s="113"/>
+      <c r="BY15" s="113"/>
+      <c r="BZ15" s="113"/>
+      <c r="CA15" s="113"/>
+      <c r="CB15" s="114"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="113"/>
+      <c r="BE16" s="113"/>
+      <c r="BF16" s="113"/>
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="113"/>
+      <c r="BI16" s="113"/>
+      <c r="BJ16" s="113"/>
+      <c r="BK16" s="113"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="113"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="113"/>
+      <c r="BU16" s="113"/>
+      <c r="BV16" s="113"/>
+      <c r="BW16" s="113"/>
+      <c r="BX16" s="113"/>
+      <c r="BY16" s="113"/>
+      <c r="BZ16" s="113"/>
+      <c r="CA16" s="113"/>
+      <c r="CB16" s="114"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="96"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="113"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="113"/>
+      <c r="BZ17" s="113"/>
+      <c r="CA17" s="113"/>
+      <c r="CB17" s="114"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="96"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="113"/>
+      <c r="BK18" s="113"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="113"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="113"/>
+      <c r="BR18" s="113"/>
+      <c r="BS18" s="113"/>
+      <c r="BT18" s="113"/>
+      <c r="BU18" s="113"/>
+      <c r="BV18" s="113"/>
+      <c r="BW18" s="113"/>
+      <c r="BX18" s="113"/>
+      <c r="BY18" s="113"/>
+      <c r="BZ18" s="113"/>
+      <c r="CA18" s="113"/>
+      <c r="CB18" s="114"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="96"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+      <c r="BC19" s="113"/>
+      <c r="BD19" s="113"/>
+      <c r="BE19" s="113"/>
+      <c r="BF19" s="113"/>
+      <c r="BG19" s="113"/>
+      <c r="BH19" s="113"/>
+      <c r="BI19" s="113"/>
+      <c r="BJ19" s="113"/>
+      <c r="BK19" s="113"/>
+      <c r="BL19" s="113"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="113"/>
+      <c r="BO19" s="113"/>
+      <c r="BP19" s="113"/>
+      <c r="BQ19" s="113"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="113"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="113"/>
+      <c r="BZ19" s="113"/>
+      <c r="CA19" s="113"/>
+      <c r="CB19" s="114"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
-      <c r="BJ20" s="95"/>
-      <c r="BK20" s="95"/>
-      <c r="BL20" s="95"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="95"/>
-      <c r="BR20" s="95"/>
-      <c r="BS20" s="95"/>
-      <c r="BT20" s="95"/>
-      <c r="BU20" s="95"/>
-      <c r="BV20" s="95"/>
-      <c r="BW20" s="95"/>
-      <c r="BX20" s="95"/>
-      <c r="BY20" s="95"/>
-      <c r="BZ20" s="95"/>
-      <c r="CA20" s="95"/>
-      <c r="CB20" s="96"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="113"/>
+      <c r="BM20" s="113"/>
+      <c r="BN20" s="113"/>
+      <c r="BO20" s="113"/>
+      <c r="BP20" s="113"/>
+      <c r="BQ20" s="113"/>
+      <c r="BR20" s="113"/>
+      <c r="BS20" s="113"/>
+      <c r="BT20" s="113"/>
+      <c r="BU20" s="113"/>
+      <c r="BV20" s="113"/>
+      <c r="BW20" s="113"/>
+      <c r="BX20" s="113"/>
+      <c r="BY20" s="113"/>
+      <c r="BZ20" s="113"/>
+      <c r="CA20" s="113"/>
+      <c r="CB20" s="114"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="95"/>
-      <c r="BK21" s="95"/>
-      <c r="BL21" s="95"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="95"/>
-      <c r="BR21" s="95"/>
-      <c r="BS21" s="95"/>
-      <c r="BT21" s="95"/>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="95"/>
-      <c r="BW21" s="95"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="95"/>
-      <c r="BZ21" s="95"/>
-      <c r="CA21" s="95"/>
-      <c r="CB21" s="96"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="113"/>
+      <c r="BV21" s="113"/>
+      <c r="BW21" s="113"/>
+      <c r="BX21" s="113"/>
+      <c r="BY21" s="113"/>
+      <c r="BZ21" s="113"/>
+      <c r="CA21" s="113"/>
+      <c r="CB21" s="114"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="95"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="96"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="113"/>
+      <c r="BE22" s="113"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="113"/>
+      <c r="BV22" s="113"/>
+      <c r="BW22" s="113"/>
+      <c r="BX22" s="113"/>
+      <c r="BY22" s="113"/>
+      <c r="BZ22" s="113"/>
+      <c r="CA22" s="113"/>
+      <c r="CB22" s="114"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="95"/>
-      <c r="BL23" s="95"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="95"/>
-      <c r="BU23" s="95"/>
-      <c r="BV23" s="95"/>
-      <c r="BW23" s="95"/>
-      <c r="BX23" s="95"/>
-      <c r="BY23" s="95"/>
-      <c r="BZ23" s="95"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="96"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="113"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="113"/>
+      <c r="BR23" s="113"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="113"/>
+      <c r="BU23" s="113"/>
+      <c r="BV23" s="113"/>
+      <c r="BW23" s="113"/>
+      <c r="BX23" s="113"/>
+      <c r="BY23" s="113"/>
+      <c r="BZ23" s="113"/>
+      <c r="CA23" s="113"/>
+      <c r="CB23" s="114"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="98"/>
-      <c r="BM24" s="98"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="98"/>
-      <c r="BP24" s="98"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="98"/>
-      <c r="BS24" s="98"/>
-      <c r="BT24" s="98"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="98"/>
-      <c r="BZ24" s="98"/>
-      <c r="CA24" s="98"/>
-      <c r="CB24" s="99"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="116"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="116"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="116"/>
+      <c r="BT24" s="116"/>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="116"/>
+      <c r="BW24" s="116"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="116"/>
+      <c r="BZ24" s="116"/>
+      <c r="CA24" s="116"/>
+      <c r="CB24" s="117"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15055,1501 +15066,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
-      <c r="BN28" s="92"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="92"/>
-      <c r="BQ28" s="92"/>
-      <c r="BR28" s="92"/>
-      <c r="BS28" s="92"/>
-      <c r="BT28" s="92"/>
-      <c r="BU28" s="92"/>
-      <c r="BV28" s="92"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="92"/>
-      <c r="BY28" s="92"/>
-      <c r="BZ28" s="92"/>
-      <c r="CA28" s="92"/>
-      <c r="CB28" s="93"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="111"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="110"/>
+      <c r="AS28" s="110"/>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="110"/>
+      <c r="BG28" s="110"/>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="111"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="96"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="96"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="114"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="113"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="113"/>
+      <c r="BP29" s="113"/>
+      <c r="BQ29" s="113"/>
+      <c r="BR29" s="113"/>
+      <c r="BS29" s="113"/>
+      <c r="BT29" s="113"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="113"/>
+      <c r="BW29" s="113"/>
+      <c r="BX29" s="113"/>
+      <c r="BY29" s="113"/>
+      <c r="BZ29" s="113"/>
+      <c r="CA29" s="113"/>
+      <c r="CB29" s="114"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="96"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="96"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="114"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="113"/>
+      <c r="BA30" s="113"/>
+      <c r="BB30" s="113"/>
+      <c r="BC30" s="113"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="113"/>
+      <c r="BF30" s="113"/>
+      <c r="BG30" s="113"/>
+      <c r="BH30" s="113"/>
+      <c r="BI30" s="113"/>
+      <c r="BJ30" s="113"/>
+      <c r="BK30" s="113"/>
+      <c r="BL30" s="113"/>
+      <c r="BM30" s="113"/>
+      <c r="BN30" s="113"/>
+      <c r="BO30" s="113"/>
+      <c r="BP30" s="113"/>
+      <c r="BQ30" s="113"/>
+      <c r="BR30" s="113"/>
+      <c r="BS30" s="113"/>
+      <c r="BT30" s="113"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="113"/>
+      <c r="BW30" s="113"/>
+      <c r="BX30" s="113"/>
+      <c r="BY30" s="113"/>
+      <c r="BZ30" s="113"/>
+      <c r="CA30" s="113"/>
+      <c r="CB30" s="114"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="96"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="114"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
+      <c r="BD31" s="113"/>
+      <c r="BE31" s="113"/>
+      <c r="BF31" s="113"/>
+      <c r="BG31" s="113"/>
+      <c r="BH31" s="113"/>
+      <c r="BI31" s="113"/>
+      <c r="BJ31" s="113"/>
+      <c r="BK31" s="113"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="113"/>
+      <c r="BR31" s="113"/>
+      <c r="BS31" s="113"/>
+      <c r="BT31" s="113"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="113"/>
+      <c r="BW31" s="113"/>
+      <c r="BX31" s="113"/>
+      <c r="BY31" s="113"/>
+      <c r="BZ31" s="113"/>
+      <c r="CA31" s="113"/>
+      <c r="CB31" s="114"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="96"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="96"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="114"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="113"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
+      <c r="BS32" s="113"/>
+      <c r="BT32" s="113"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="113"/>
+      <c r="BW32" s="113"/>
+      <c r="BX32" s="113"/>
+      <c r="BY32" s="113"/>
+      <c r="BZ32" s="113"/>
+      <c r="CA32" s="113"/>
+      <c r="CB32" s="114"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="96"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="96"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="114"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="113"/>
+      <c r="BD33" s="113"/>
+      <c r="BE33" s="113"/>
+      <c r="BF33" s="113"/>
+      <c r="BG33" s="113"/>
+      <c r="BH33" s="113"/>
+      <c r="BI33" s="113"/>
+      <c r="BJ33" s="113"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
+      <c r="BS33" s="113"/>
+      <c r="BT33" s="113"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="113"/>
+      <c r="BW33" s="113"/>
+      <c r="BX33" s="113"/>
+      <c r="BY33" s="113"/>
+      <c r="BZ33" s="113"/>
+      <c r="CA33" s="113"/>
+      <c r="CB33" s="114"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="96"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="96"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="114"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
+      <c r="BS34" s="113"/>
+      <c r="BT34" s="113"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="113"/>
+      <c r="BW34" s="113"/>
+      <c r="BX34" s="113"/>
+      <c r="BY34" s="113"/>
+      <c r="BZ34" s="113"/>
+      <c r="CA34" s="113"/>
+      <c r="CB34" s="114"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="96"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="96"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="114"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
+      <c r="BB35" s="113"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="113"/>
+      <c r="BF35" s="113"/>
+      <c r="BG35" s="113"/>
+      <c r="BH35" s="113"/>
+      <c r="BI35" s="113"/>
+      <c r="BJ35" s="113"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
+      <c r="BS35" s="113"/>
+      <c r="BT35" s="113"/>
+      <c r="BU35" s="113"/>
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="113"/>
+      <c r="BY35" s="113"/>
+      <c r="BZ35" s="113"/>
+      <c r="CA35" s="113"/>
+      <c r="CB35" s="114"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="96"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="96"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="113"/>
+      <c r="AJ36" s="113"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="113"/>
+      <c r="AM36" s="113"/>
+      <c r="AN36" s="114"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="113"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="113"/>
+      <c r="AU36" s="113"/>
+      <c r="AV36" s="113"/>
+      <c r="AW36" s="113"/>
+      <c r="AX36" s="113"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="113"/>
+      <c r="BA36" s="113"/>
+      <c r="BB36" s="113"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="113"/>
+      <c r="BF36" s="113"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="113"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
+      <c r="BS36" s="113"/>
+      <c r="BT36" s="113"/>
+      <c r="BU36" s="113"/>
+      <c r="BV36" s="113"/>
+      <c r="BW36" s="113"/>
+      <c r="BX36" s="113"/>
+      <c r="BY36" s="113"/>
+      <c r="BZ36" s="113"/>
+      <c r="CA36" s="113"/>
+      <c r="CB36" s="114"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="96"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="95"/>
-      <c r="BL37" s="95"/>
-      <c r="BM37" s="95"/>
-      <c r="BN37" s="95"/>
-      <c r="BO37" s="95"/>
-      <c r="BP37" s="95"/>
-      <c r="BQ37" s="95"/>
-      <c r="BR37" s="95"/>
-      <c r="BS37" s="95"/>
-      <c r="BT37" s="95"/>
-      <c r="BU37" s="95"/>
-      <c r="BV37" s="95"/>
-      <c r="BW37" s="95"/>
-      <c r="BX37" s="95"/>
-      <c r="BY37" s="95"/>
-      <c r="BZ37" s="95"/>
-      <c r="CA37" s="95"/>
-      <c r="CB37" s="96"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="113"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="114"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="113"/>
+      <c r="BF37" s="113"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="113"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
+      <c r="BS37" s="113"/>
+      <c r="BT37" s="113"/>
+      <c r="BU37" s="113"/>
+      <c r="BV37" s="113"/>
+      <c r="BW37" s="113"/>
+      <c r="BX37" s="113"/>
+      <c r="BY37" s="113"/>
+      <c r="BZ37" s="113"/>
+      <c r="CA37" s="113"/>
+      <c r="CB37" s="114"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="96"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="95"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="95"/>
-      <c r="BO38" s="95"/>
-      <c r="BP38" s="95"/>
-      <c r="BQ38" s="95"/>
-      <c r="BR38" s="95"/>
-      <c r="BS38" s="95"/>
-      <c r="BT38" s="95"/>
-      <c r="BU38" s="95"/>
-      <c r="BV38" s="95"/>
-      <c r="BW38" s="95"/>
-      <c r="BX38" s="95"/>
-      <c r="BY38" s="95"/>
-      <c r="BZ38" s="95"/>
-      <c r="CA38" s="95"/>
-      <c r="CB38" s="96"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="114"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="113"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="113"/>
+      <c r="BH38" s="113"/>
+      <c r="BI38" s="113"/>
+      <c r="BJ38" s="113"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="113"/>
+      <c r="BR38" s="113"/>
+      <c r="BS38" s="113"/>
+      <c r="BT38" s="113"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="113"/>
+      <c r="BW38" s="113"/>
+      <c r="BX38" s="113"/>
+      <c r="BY38" s="113"/>
+      <c r="BZ38" s="113"/>
+      <c r="CA38" s="113"/>
+      <c r="CB38" s="114"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
-      <c r="BF39" s="95"/>
-      <c r="BG39" s="95"/>
-      <c r="BH39" s="95"/>
-      <c r="BI39" s="95"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="95"/>
-      <c r="BP39" s="95"/>
-      <c r="BQ39" s="95"/>
-      <c r="BR39" s="95"/>
-      <c r="BS39" s="95"/>
-      <c r="BT39" s="95"/>
-      <c r="BU39" s="95"/>
-      <c r="BV39" s="95"/>
-      <c r="BW39" s="95"/>
-      <c r="BX39" s="95"/>
-      <c r="BY39" s="95"/>
-      <c r="BZ39" s="95"/>
-      <c r="CA39" s="95"/>
-      <c r="CB39" s="96"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="113"/>
+      <c r="BF39" s="113"/>
+      <c r="BG39" s="113"/>
+      <c r="BH39" s="113"/>
+      <c r="BI39" s="113"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="113"/>
+      <c r="BL39" s="113"/>
+      <c r="BM39" s="113"/>
+      <c r="BN39" s="113"/>
+      <c r="BO39" s="113"/>
+      <c r="BP39" s="113"/>
+      <c r="BQ39" s="113"/>
+      <c r="BR39" s="113"/>
+      <c r="BS39" s="113"/>
+      <c r="BT39" s="113"/>
+      <c r="BU39" s="113"/>
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="113"/>
+      <c r="BY39" s="113"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="113"/>
+      <c r="CB39" s="114"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="96"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="114"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="113"/>
+      <c r="BF40" s="113"/>
+      <c r="BG40" s="113"/>
+      <c r="BH40" s="113"/>
+      <c r="BI40" s="113"/>
+      <c r="BJ40" s="113"/>
+      <c r="BK40" s="113"/>
+      <c r="BL40" s="113"/>
+      <c r="BM40" s="113"/>
+      <c r="BN40" s="113"/>
+      <c r="BO40" s="113"/>
+      <c r="BP40" s="113"/>
+      <c r="BQ40" s="113"/>
+      <c r="BR40" s="113"/>
+      <c r="BS40" s="113"/>
+      <c r="BT40" s="113"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="113"/>
+      <c r="BW40" s="113"/>
+      <c r="BX40" s="113"/>
+      <c r="BY40" s="113"/>
+      <c r="BZ40" s="113"/>
+      <c r="CA40" s="113"/>
+      <c r="CB40" s="114"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="95"/>
-      <c r="BT41" s="95"/>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="95"/>
-      <c r="BW41" s="95"/>
-      <c r="BX41" s="95"/>
-      <c r="BY41" s="95"/>
-      <c r="BZ41" s="95"/>
-      <c r="CA41" s="95"/>
-      <c r="CB41" s="96"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="114"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="113"/>
+      <c r="BF41" s="113"/>
+      <c r="BG41" s="113"/>
+      <c r="BH41" s="113"/>
+      <c r="BI41" s="113"/>
+      <c r="BJ41" s="113"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="113"/>
+      <c r="BR41" s="113"/>
+      <c r="BS41" s="113"/>
+      <c r="BT41" s="113"/>
+      <c r="BU41" s="113"/>
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="113"/>
+      <c r="BY41" s="113"/>
+      <c r="BZ41" s="113"/>
+      <c r="CA41" s="113"/>
+      <c r="CB41" s="114"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-      <c r="BM42" s="95"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="95"/>
-      <c r="BT42" s="95"/>
-      <c r="BU42" s="95"/>
-      <c r="BV42" s="95"/>
-      <c r="BW42" s="95"/>
-      <c r="BX42" s="95"/>
-      <c r="BY42" s="95"/>
-      <c r="BZ42" s="95"/>
-      <c r="CA42" s="95"/>
-      <c r="CB42" s="96"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="113"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="113"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="114"/>
+      <c r="AQ42" s="112"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="113"/>
+      <c r="BF42" s="113"/>
+      <c r="BG42" s="113"/>
+      <c r="BH42" s="113"/>
+      <c r="BI42" s="113"/>
+      <c r="BJ42" s="113"/>
+      <c r="BK42" s="113"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="113"/>
+      <c r="BR42" s="113"/>
+      <c r="BS42" s="113"/>
+      <c r="BT42" s="113"/>
+      <c r="BU42" s="113"/>
+      <c r="BV42" s="113"/>
+      <c r="BW42" s="113"/>
+      <c r="BX42" s="113"/>
+      <c r="BY42" s="113"/>
+      <c r="BZ42" s="113"/>
+      <c r="CA42" s="113"/>
+      <c r="CB42" s="114"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="95"/>
-      <c r="CA43" s="95"/>
-      <c r="CB43" s="96"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="114"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="113"/>
+      <c r="BF43" s="113"/>
+      <c r="BG43" s="113"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="113"/>
+      <c r="BJ43" s="113"/>
+      <c r="BK43" s="113"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="113"/>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="113"/>
+      <c r="BU43" s="113"/>
+      <c r="BV43" s="113"/>
+      <c r="BW43" s="113"/>
+      <c r="BX43" s="113"/>
+      <c r="BY43" s="113"/>
+      <c r="BZ43" s="113"/>
+      <c r="CA43" s="113"/>
+      <c r="CB43" s="114"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="96"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="114"/>
+      <c r="AQ44" s="112"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="113"/>
+      <c r="BF44" s="113"/>
+      <c r="BG44" s="113"/>
+      <c r="BH44" s="113"/>
+      <c r="BI44" s="113"/>
+      <c r="BJ44" s="113"/>
+      <c r="BK44" s="113"/>
+      <c r="BL44" s="113"/>
+      <c r="BM44" s="113"/>
+      <c r="BN44" s="113"/>
+      <c r="BO44" s="113"/>
+      <c r="BP44" s="113"/>
+      <c r="BQ44" s="113"/>
+      <c r="BR44" s="113"/>
+      <c r="BS44" s="113"/>
+      <c r="BT44" s="113"/>
+      <c r="BU44" s="113"/>
+      <c r="BV44" s="113"/>
+      <c r="BW44" s="113"/>
+      <c r="BX44" s="113"/>
+      <c r="BY44" s="113"/>
+      <c r="BZ44" s="113"/>
+      <c r="CA44" s="113"/>
+      <c r="CB44" s="114"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="95"/>
-      <c r="BH45" s="95"/>
-      <c r="BI45" s="95"/>
-      <c r="BJ45" s="95"/>
-      <c r="BK45" s="95"/>
-      <c r="BL45" s="95"/>
-      <c r="BM45" s="95"/>
-      <c r="BN45" s="95"/>
-      <c r="BO45" s="95"/>
-      <c r="BP45" s="95"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="95"/>
-      <c r="BU45" s="95"/>
-      <c r="BV45" s="95"/>
-      <c r="BW45" s="95"/>
-      <c r="BX45" s="95"/>
-      <c r="BY45" s="95"/>
-      <c r="BZ45" s="95"/>
-      <c r="CA45" s="95"/>
-      <c r="CB45" s="96"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="114"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="113"/>
+      <c r="BF45" s="113"/>
+      <c r="BG45" s="113"/>
+      <c r="BH45" s="113"/>
+      <c r="BI45" s="113"/>
+      <c r="BJ45" s="113"/>
+      <c r="BK45" s="113"/>
+      <c r="BL45" s="113"/>
+      <c r="BM45" s="113"/>
+      <c r="BN45" s="113"/>
+      <c r="BO45" s="113"/>
+      <c r="BP45" s="113"/>
+      <c r="BQ45" s="113"/>
+      <c r="BR45" s="113"/>
+      <c r="BS45" s="113"/>
+      <c r="BT45" s="113"/>
+      <c r="BU45" s="113"/>
+      <c r="BV45" s="113"/>
+      <c r="BW45" s="113"/>
+      <c r="BX45" s="113"/>
+      <c r="BY45" s="113"/>
+      <c r="BZ45" s="113"/>
+      <c r="CA45" s="113"/>
+      <c r="CB45" s="114"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98"/>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98"/>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98"/>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="99"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="117"/>
+      <c r="AQ46" s="115"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
+      <c r="BA46" s="116"/>
+      <c r="BB46" s="116"/>
+      <c r="BC46" s="116"/>
+      <c r="BD46" s="116"/>
+      <c r="BE46" s="116"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="116"/>
+      <c r="BH46" s="116"/>
+      <c r="BI46" s="116"/>
+      <c r="BJ46" s="116"/>
+      <c r="BK46" s="116"/>
+      <c r="BL46" s="116"/>
+      <c r="BM46" s="116"/>
+      <c r="BN46" s="116"/>
+      <c r="BO46" s="116"/>
+      <c r="BP46" s="116"/>
+      <c r="BQ46" s="116"/>
+      <c r="BR46" s="116"/>
+      <c r="BS46" s="116"/>
+      <c r="BT46" s="116"/>
+      <c r="BU46" s="116"/>
+      <c r="BV46" s="116"/>
+      <c r="BW46" s="116"/>
+      <c r="BX46" s="116"/>
+      <c r="BY46" s="116"/>
+      <c r="BZ46" s="116"/>
+      <c r="CA46" s="116"/>
+      <c r="CB46" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A45F963-B08E-4BE9-B601-AB1D4E6146C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9DA03-7CD1-4D49-8B29-C5DBF05D7E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,9 @@
 4º Parâmetro:
           • verdadeiro: Valores aproximados;
           • falso: Valores EXATOS.
-Na PROCV não consigo procurar 'Bermuda' e retornar o coódigo dele, ou seja, selecionar o número da coluna antes dele.</t>
+Na PROCV não consigo procurar 'Bermuda' e retornar o coódigo dele, ou seja, selecionar o número da coluna antes dele.
+PROCV -- Procura Vertical (Colunas)
+PROCH -- Procura Horizontal (Linhas)</t>
         </r>
       </text>
     </comment>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="171">
   <si>
     <t>Produtos</t>
   </si>
@@ -593,6 +595,18 @@
   </si>
   <si>
     <t xml:space="preserve">Situação: </t>
+  </si>
+  <si>
+    <t>PROCV</t>
+  </si>
+  <si>
+    <t>PROCX</t>
+  </si>
+  <si>
+    <t>DIA.DA.SEMANA</t>
+  </si>
+  <si>
+    <t>PROCV(DIA.DA.SEMANA)</t>
   </si>
 </sst>
 </file>
@@ -1506,6 +1520,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,33 +1599,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12639,7 +12653,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12720,7 +12734,10 @@
       <c r="E7" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="50" t="str">
+        <f>HLOOKUP(WEEKDAY(F6),'Cadastros Auxiliares'!B4:I5,2,FALSE)</f>
+        <v>Sábado</v>
+      </c>
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
@@ -12769,6 +12786,9 @@
         <v>159</v>
       </c>
       <c r="C11" s="48"/>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
       <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
@@ -12777,12 +12797,23 @@
       </c>
       <c r="C12" s="48"/>
       <c r="E12" s="80"/>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="23.25">
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:9"/>
-    <row r="15" spans="1:9"/>
+    <row r="14" spans="1:9">
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="16" spans="1:9"/>
     <row r="17"/>
     <row r="18"/>
@@ -12799,7 +12830,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{386D00EA-C09E-4AF2-85F6-0FFA8584E7FB}">
           <x14:formula1>
             <xm:f>Produtos!$B:$B</xm:f>
@@ -13385,237 +13416,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="91">
+      <c r="W4" s="100">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93"/>
-      <c r="AQ4" s="91">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="102"/>
+      <c r="AQ4" s="100">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="93"/>
-      <c r="BK4" s="100">
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="102"/>
+      <c r="BK4" s="109">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="102"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="111"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="95"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="96"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="104"/>
-      <c r="BO5" s="104"/>
-      <c r="BP5" s="104"/>
-      <c r="BQ5" s="104"/>
-      <c r="BR5" s="104"/>
-      <c r="BS5" s="104"/>
-      <c r="BT5" s="104"/>
-      <c r="BU5" s="104"/>
-      <c r="BV5" s="104"/>
-      <c r="BW5" s="104"/>
-      <c r="BX5" s="104"/>
-      <c r="BY5" s="104"/>
-      <c r="BZ5" s="104"/>
-      <c r="CA5" s="104"/>
-      <c r="CB5" s="105"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="105"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="113"/>
+      <c r="BO5" s="113"/>
+      <c r="BP5" s="113"/>
+      <c r="BQ5" s="113"/>
+      <c r="BR5" s="113"/>
+      <c r="BS5" s="113"/>
+      <c r="BT5" s="113"/>
+      <c r="BU5" s="113"/>
+      <c r="BV5" s="113"/>
+      <c r="BW5" s="113"/>
+      <c r="BX5" s="113"/>
+      <c r="BY5" s="113"/>
+      <c r="BZ5" s="113"/>
+      <c r="CA5" s="113"/>
+      <c r="CB5" s="114"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="95"/>
-      <c r="AN6" s="96"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="96"/>
-      <c r="BK6" s="103"/>
-      <c r="BL6" s="104"/>
-      <c r="BM6" s="104"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="104"/>
-      <c r="BQ6" s="104"/>
-      <c r="BR6" s="104"/>
-      <c r="BS6" s="104"/>
-      <c r="BT6" s="104"/>
-      <c r="BU6" s="104"/>
-      <c r="BV6" s="104"/>
-      <c r="BW6" s="104"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="104"/>
-      <c r="BZ6" s="104"/>
-      <c r="CA6" s="104"/>
-      <c r="CB6" s="105"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="105"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="105"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="113"/>
+      <c r="BM6" s="113"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="113"/>
+      <c r="BP6" s="113"/>
+      <c r="BQ6" s="113"/>
+      <c r="BR6" s="113"/>
+      <c r="BS6" s="113"/>
+      <c r="BT6" s="113"/>
+      <c r="BU6" s="113"/>
+      <c r="BV6" s="113"/>
+      <c r="BW6" s="113"/>
+      <c r="BX6" s="113"/>
+      <c r="BY6" s="113"/>
+      <c r="BZ6" s="113"/>
+      <c r="CA6" s="113"/>
+      <c r="CB6" s="114"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="97"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="99"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="99"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="107"/>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="108"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="108"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="108"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="116"/>
+      <c r="BM7" s="116"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="116"/>
+      <c r="BU7" s="116"/>
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="117"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13781,1124 +13812,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="110"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="110"/>
-      <c r="BV11" s="110"/>
-      <c r="BW11" s="110"/>
-      <c r="BX11" s="110"/>
-      <c r="BY11" s="110"/>
-      <c r="BZ11" s="110"/>
-      <c r="CA11" s="110"/>
-      <c r="CB11" s="111"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="93"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="113"/>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="113"/>
-      <c r="BI12" s="113"/>
-      <c r="BJ12" s="113"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="113"/>
-      <c r="BP12" s="113"/>
-      <c r="BQ12" s="113"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="113"/>
-      <c r="BU12" s="113"/>
-      <c r="BV12" s="113"/>
-      <c r="BW12" s="113"/>
-      <c r="BX12" s="113"/>
-      <c r="BY12" s="113"/>
-      <c r="BZ12" s="113"/>
-      <c r="CA12" s="113"/>
-      <c r="CB12" s="114"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="96"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="113"/>
-      <c r="BI13" s="113"/>
-      <c r="BJ13" s="113"/>
-      <c r="BK13" s="113"/>
-      <c r="BL13" s="113"/>
-      <c r="BM13" s="113"/>
-      <c r="BN13" s="113"/>
-      <c r="BO13" s="113"/>
-      <c r="BP13" s="113"/>
-      <c r="BQ13" s="113"/>
-      <c r="BR13" s="113"/>
-      <c r="BS13" s="113"/>
-      <c r="BT13" s="113"/>
-      <c r="BU13" s="113"/>
-      <c r="BV13" s="113"/>
-      <c r="BW13" s="113"/>
-      <c r="BX13" s="113"/>
-      <c r="BY13" s="113"/>
-      <c r="BZ13" s="113"/>
-      <c r="CA13" s="113"/>
-      <c r="CB13" s="114"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="95"/>
+      <c r="BG13" s="95"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="95"/>
+      <c r="BJ13" s="95"/>
+      <c r="BK13" s="95"/>
+      <c r="BL13" s="95"/>
+      <c r="BM13" s="95"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="95"/>
+      <c r="BP13" s="95"/>
+      <c r="BQ13" s="95"/>
+      <c r="BR13" s="95"/>
+      <c r="BS13" s="95"/>
+      <c r="BT13" s="95"/>
+      <c r="BU13" s="95"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="95"/>
+      <c r="BX13" s="95"/>
+      <c r="BY13" s="95"/>
+      <c r="BZ13" s="95"/>
+      <c r="CA13" s="95"/>
+      <c r="CB13" s="96"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="113"/>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="113"/>
-      <c r="BI14" s="113"/>
-      <c r="BJ14" s="113"/>
-      <c r="BK14" s="113"/>
-      <c r="BL14" s="113"/>
-      <c r="BM14" s="113"/>
-      <c r="BN14" s="113"/>
-      <c r="BO14" s="113"/>
-      <c r="BP14" s="113"/>
-      <c r="BQ14" s="113"/>
-      <c r="BR14" s="113"/>
-      <c r="BS14" s="113"/>
-      <c r="BT14" s="113"/>
-      <c r="BU14" s="113"/>
-      <c r="BV14" s="113"/>
-      <c r="BW14" s="113"/>
-      <c r="BX14" s="113"/>
-      <c r="BY14" s="113"/>
-      <c r="BZ14" s="113"/>
-      <c r="CA14" s="113"/>
-      <c r="CB14" s="114"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="95"/>
+      <c r="BK14" s="95"/>
+      <c r="BL14" s="95"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="95"/>
+      <c r="BO14" s="95"/>
+      <c r="BP14" s="95"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="95"/>
+      <c r="BS14" s="95"/>
+      <c r="BT14" s="95"/>
+      <c r="BU14" s="95"/>
+      <c r="BV14" s="95"/>
+      <c r="BW14" s="95"/>
+      <c r="BX14" s="95"/>
+      <c r="BY14" s="95"/>
+      <c r="BZ14" s="95"/>
+      <c r="CA14" s="95"/>
+      <c r="CB14" s="96"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="113"/>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="113"/>
-      <c r="BI15" s="113"/>
-      <c r="BJ15" s="113"/>
-      <c r="BK15" s="113"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
-      <c r="BN15" s="113"/>
-      <c r="BO15" s="113"/>
-      <c r="BP15" s="113"/>
-      <c r="BQ15" s="113"/>
-      <c r="BR15" s="113"/>
-      <c r="BS15" s="113"/>
-      <c r="BT15" s="113"/>
-      <c r="BU15" s="113"/>
-      <c r="BV15" s="113"/>
-      <c r="BW15" s="113"/>
-      <c r="BX15" s="113"/>
-      <c r="BY15" s="113"/>
-      <c r="BZ15" s="113"/>
-      <c r="CA15" s="113"/>
-      <c r="CB15" s="114"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="95"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="95"/>
+      <c r="AZ15" s="95"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="95"/>
+      <c r="BC15" s="95"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="95"/>
+      <c r="BF15" s="95"/>
+      <c r="BG15" s="95"/>
+      <c r="BH15" s="95"/>
+      <c r="BI15" s="95"/>
+      <c r="BJ15" s="95"/>
+      <c r="BK15" s="95"/>
+      <c r="BL15" s="95"/>
+      <c r="BM15" s="95"/>
+      <c r="BN15" s="95"/>
+      <c r="BO15" s="95"/>
+      <c r="BP15" s="95"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="95"/>
+      <c r="BS15" s="95"/>
+      <c r="BT15" s="95"/>
+      <c r="BU15" s="95"/>
+      <c r="BV15" s="95"/>
+      <c r="BW15" s="95"/>
+      <c r="BX15" s="95"/>
+      <c r="BY15" s="95"/>
+      <c r="BZ15" s="95"/>
+      <c r="CA15" s="95"/>
+      <c r="CB15" s="96"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
-      <c r="BN16" s="113"/>
-      <c r="BO16" s="113"/>
-      <c r="BP16" s="113"/>
-      <c r="BQ16" s="113"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="113"/>
-      <c r="BU16" s="113"/>
-      <c r="BV16" s="113"/>
-      <c r="BW16" s="113"/>
-      <c r="BX16" s="113"/>
-      <c r="BY16" s="113"/>
-      <c r="BZ16" s="113"/>
-      <c r="CA16" s="113"/>
-      <c r="CB16" s="114"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="95"/>
+      <c r="BI16" s="95"/>
+      <c r="BJ16" s="95"/>
+      <c r="BK16" s="95"/>
+      <c r="BL16" s="95"/>
+      <c r="BM16" s="95"/>
+      <c r="BN16" s="95"/>
+      <c r="BO16" s="95"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="95"/>
+      <c r="BR16" s="95"/>
+      <c r="BS16" s="95"/>
+      <c r="BT16" s="95"/>
+      <c r="BU16" s="95"/>
+      <c r="BV16" s="95"/>
+      <c r="BW16" s="95"/>
+      <c r="BX16" s="95"/>
+      <c r="BY16" s="95"/>
+      <c r="BZ16" s="95"/>
+      <c r="CA16" s="95"/>
+      <c r="CB16" s="96"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
-      <c r="BN17" s="113"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="113"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="113"/>
-      <c r="BU17" s="113"/>
-      <c r="BV17" s="113"/>
-      <c r="BW17" s="113"/>
-      <c r="BX17" s="113"/>
-      <c r="BY17" s="113"/>
-      <c r="BZ17" s="113"/>
-      <c r="CA17" s="113"/>
-      <c r="CB17" s="114"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="95"/>
+      <c r="BI17" s="95"/>
+      <c r="BJ17" s="95"/>
+      <c r="BK17" s="95"/>
+      <c r="BL17" s="95"/>
+      <c r="BM17" s="95"/>
+      <c r="BN17" s="95"/>
+      <c r="BO17" s="95"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="95"/>
+      <c r="BR17" s="95"/>
+      <c r="BS17" s="95"/>
+      <c r="BT17" s="95"/>
+      <c r="BU17" s="95"/>
+      <c r="BV17" s="95"/>
+      <c r="BW17" s="95"/>
+      <c r="BX17" s="95"/>
+      <c r="BY17" s="95"/>
+      <c r="BZ17" s="95"/>
+      <c r="CA17" s="95"/>
+      <c r="CB17" s="96"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="113"/>
-      <c r="BK18" s="113"/>
-      <c r="BL18" s="113"/>
-      <c r="BM18" s="113"/>
-      <c r="BN18" s="113"/>
-      <c r="BO18" s="113"/>
-      <c r="BP18" s="113"/>
-      <c r="BQ18" s="113"/>
-      <c r="BR18" s="113"/>
-      <c r="BS18" s="113"/>
-      <c r="BT18" s="113"/>
-      <c r="BU18" s="113"/>
-      <c r="BV18" s="113"/>
-      <c r="BW18" s="113"/>
-      <c r="BX18" s="113"/>
-      <c r="BY18" s="113"/>
-      <c r="BZ18" s="113"/>
-      <c r="CA18" s="113"/>
-      <c r="CB18" s="114"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="95"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="95"/>
+      <c r="BI18" s="95"/>
+      <c r="BJ18" s="95"/>
+      <c r="BK18" s="95"/>
+      <c r="BL18" s="95"/>
+      <c r="BM18" s="95"/>
+      <c r="BN18" s="95"/>
+      <c r="BO18" s="95"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="95"/>
+      <c r="BR18" s="95"/>
+      <c r="BS18" s="95"/>
+      <c r="BT18" s="95"/>
+      <c r="BU18" s="95"/>
+      <c r="BV18" s="95"/>
+      <c r="BW18" s="95"/>
+      <c r="BX18" s="95"/>
+      <c r="BY18" s="95"/>
+      <c r="BZ18" s="95"/>
+      <c r="CA18" s="95"/>
+      <c r="CB18" s="96"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="113"/>
-      <c r="BG19" s="113"/>
-      <c r="BH19" s="113"/>
-      <c r="BI19" s="113"/>
-      <c r="BJ19" s="113"/>
-      <c r="BK19" s="113"/>
-      <c r="BL19" s="113"/>
-      <c r="BM19" s="113"/>
-      <c r="BN19" s="113"/>
-      <c r="BO19" s="113"/>
-      <c r="BP19" s="113"/>
-      <c r="BQ19" s="113"/>
-      <c r="BR19" s="113"/>
-      <c r="BS19" s="113"/>
-      <c r="BT19" s="113"/>
-      <c r="BU19" s="113"/>
-      <c r="BV19" s="113"/>
-      <c r="BW19" s="113"/>
-      <c r="BX19" s="113"/>
-      <c r="BY19" s="113"/>
-      <c r="BZ19" s="113"/>
-      <c r="CA19" s="113"/>
-      <c r="CB19" s="114"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="95"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="95"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="95"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="95"/>
+      <c r="BJ19" s="95"/>
+      <c r="BK19" s="95"/>
+      <c r="BL19" s="95"/>
+      <c r="BM19" s="95"/>
+      <c r="BN19" s="95"/>
+      <c r="BO19" s="95"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="95"/>
+      <c r="BR19" s="95"/>
+      <c r="BS19" s="95"/>
+      <c r="BT19" s="95"/>
+      <c r="BU19" s="95"/>
+      <c r="BV19" s="95"/>
+      <c r="BW19" s="95"/>
+      <c r="BX19" s="95"/>
+      <c r="BY19" s="95"/>
+      <c r="BZ19" s="95"/>
+      <c r="CA19" s="95"/>
+      <c r="CB19" s="96"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="113"/>
-      <c r="BM20" s="113"/>
-      <c r="BN20" s="113"/>
-      <c r="BO20" s="113"/>
-      <c r="BP20" s="113"/>
-      <c r="BQ20" s="113"/>
-      <c r="BR20" s="113"/>
-      <c r="BS20" s="113"/>
-      <c r="BT20" s="113"/>
-      <c r="BU20" s="113"/>
-      <c r="BV20" s="113"/>
-      <c r="BW20" s="113"/>
-      <c r="BX20" s="113"/>
-      <c r="BY20" s="113"/>
-      <c r="BZ20" s="113"/>
-      <c r="CA20" s="113"/>
-      <c r="CB20" s="114"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="95"/>
+      <c r="BI20" s="95"/>
+      <c r="BJ20" s="95"/>
+      <c r="BK20" s="95"/>
+      <c r="BL20" s="95"/>
+      <c r="BM20" s="95"/>
+      <c r="BN20" s="95"/>
+      <c r="BO20" s="95"/>
+      <c r="BP20" s="95"/>
+      <c r="BQ20" s="95"/>
+      <c r="BR20" s="95"/>
+      <c r="BS20" s="95"/>
+      <c r="BT20" s="95"/>
+      <c r="BU20" s="95"/>
+      <c r="BV20" s="95"/>
+      <c r="BW20" s="95"/>
+      <c r="BX20" s="95"/>
+      <c r="BY20" s="95"/>
+      <c r="BZ20" s="95"/>
+      <c r="CA20" s="95"/>
+      <c r="CB20" s="96"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="113"/>
-      <c r="BU21" s="113"/>
-      <c r="BV21" s="113"/>
-      <c r="BW21" s="113"/>
-      <c r="BX21" s="113"/>
-      <c r="BY21" s="113"/>
-      <c r="BZ21" s="113"/>
-      <c r="CA21" s="113"/>
-      <c r="CB21" s="114"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="95"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="95"/>
+      <c r="BI21" s="95"/>
+      <c r="BJ21" s="95"/>
+      <c r="BK21" s="95"/>
+      <c r="BL21" s="95"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="95"/>
+      <c r="BO21" s="95"/>
+      <c r="BP21" s="95"/>
+      <c r="BQ21" s="95"/>
+      <c r="BR21" s="95"/>
+      <c r="BS21" s="95"/>
+      <c r="BT21" s="95"/>
+      <c r="BU21" s="95"/>
+      <c r="BV21" s="95"/>
+      <c r="BW21" s="95"/>
+      <c r="BX21" s="95"/>
+      <c r="BY21" s="95"/>
+      <c r="BZ21" s="95"/>
+      <c r="CA21" s="95"/>
+      <c r="CB21" s="96"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="113"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="113"/>
-      <c r="BS22" s="113"/>
-      <c r="BT22" s="113"/>
-      <c r="BU22" s="113"/>
-      <c r="BV22" s="113"/>
-      <c r="BW22" s="113"/>
-      <c r="BX22" s="113"/>
-      <c r="BY22" s="113"/>
-      <c r="BZ22" s="113"/>
-      <c r="CA22" s="113"/>
-      <c r="CB22" s="114"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="95"/>
+      <c r="BA22" s="95"/>
+      <c r="BB22" s="95"/>
+      <c r="BC22" s="95"/>
+      <c r="BD22" s="95"/>
+      <c r="BE22" s="95"/>
+      <c r="BF22" s="95"/>
+      <c r="BG22" s="95"/>
+      <c r="BH22" s="95"/>
+      <c r="BI22" s="95"/>
+      <c r="BJ22" s="95"/>
+      <c r="BK22" s="95"/>
+      <c r="BL22" s="95"/>
+      <c r="BM22" s="95"/>
+      <c r="BN22" s="95"/>
+      <c r="BO22" s="95"/>
+      <c r="BP22" s="95"/>
+      <c r="BQ22" s="95"/>
+      <c r="BR22" s="95"/>
+      <c r="BS22" s="95"/>
+      <c r="BT22" s="95"/>
+      <c r="BU22" s="95"/>
+      <c r="BV22" s="95"/>
+      <c r="BW22" s="95"/>
+      <c r="BX22" s="95"/>
+      <c r="BY22" s="95"/>
+      <c r="BZ22" s="95"/>
+      <c r="CA22" s="95"/>
+      <c r="CB22" s="96"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="113"/>
-      <c r="BQ23" s="113"/>
-      <c r="BR23" s="113"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="113"/>
-      <c r="BU23" s="113"/>
-      <c r="BV23" s="113"/>
-      <c r="BW23" s="113"/>
-      <c r="BX23" s="113"/>
-      <c r="BY23" s="113"/>
-      <c r="BZ23" s="113"/>
-      <c r="CA23" s="113"/>
-      <c r="CB23" s="114"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="95"/>
+      <c r="AU23" s="95"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="95"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="95"/>
+      <c r="AZ23" s="95"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="95"/>
+      <c r="BC23" s="95"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="95"/>
+      <c r="BF23" s="95"/>
+      <c r="BG23" s="95"/>
+      <c r="BH23" s="95"/>
+      <c r="BI23" s="95"/>
+      <c r="BJ23" s="95"/>
+      <c r="BK23" s="95"/>
+      <c r="BL23" s="95"/>
+      <c r="BM23" s="95"/>
+      <c r="BN23" s="95"/>
+      <c r="BO23" s="95"/>
+      <c r="BP23" s="95"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="95"/>
+      <c r="BS23" s="95"/>
+      <c r="BT23" s="95"/>
+      <c r="BU23" s="95"/>
+      <c r="BV23" s="95"/>
+      <c r="BW23" s="95"/>
+      <c r="BX23" s="95"/>
+      <c r="BY23" s="95"/>
+      <c r="BZ23" s="95"/>
+      <c r="CA23" s="95"/>
+      <c r="CB23" s="96"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="116"/>
-      <c r="AS24" s="116"/>
-      <c r="AT24" s="116"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="116"/>
-      <c r="AW24" s="116"/>
-      <c r="AX24" s="116"/>
-      <c r="AY24" s="116"/>
-      <c r="AZ24" s="116"/>
-      <c r="BA24" s="116"/>
-      <c r="BB24" s="116"/>
-      <c r="BC24" s="116"/>
-      <c r="BD24" s="116"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="116"/>
-      <c r="BG24" s="116"/>
-      <c r="BH24" s="116"/>
-      <c r="BI24" s="116"/>
-      <c r="BJ24" s="116"/>
-      <c r="BK24" s="116"/>
-      <c r="BL24" s="116"/>
-      <c r="BM24" s="116"/>
-      <c r="BN24" s="116"/>
-      <c r="BO24" s="116"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="116"/>
-      <c r="BS24" s="116"/>
-      <c r="BT24" s="116"/>
-      <c r="BU24" s="116"/>
-      <c r="BV24" s="116"/>
-      <c r="BW24" s="116"/>
-      <c r="BX24" s="116"/>
-      <c r="BY24" s="116"/>
-      <c r="BZ24" s="116"/>
-      <c r="CA24" s="116"/>
-      <c r="CB24" s="117"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
+      <c r="BC24" s="98"/>
+      <c r="BD24" s="98"/>
+      <c r="BE24" s="98"/>
+      <c r="BF24" s="98"/>
+      <c r="BG24" s="98"/>
+      <c r="BH24" s="98"/>
+      <c r="BI24" s="98"/>
+      <c r="BJ24" s="98"/>
+      <c r="BK24" s="98"/>
+      <c r="BL24" s="98"/>
+      <c r="BM24" s="98"/>
+      <c r="BN24" s="98"/>
+      <c r="BO24" s="98"/>
+      <c r="BP24" s="98"/>
+      <c r="BQ24" s="98"/>
+      <c r="BR24" s="98"/>
+      <c r="BS24" s="98"/>
+      <c r="BT24" s="98"/>
+      <c r="BU24" s="98"/>
+      <c r="BV24" s="98"/>
+      <c r="BW24" s="98"/>
+      <c r="BX24" s="98"/>
+      <c r="BY24" s="98"/>
+      <c r="BZ24" s="98"/>
+      <c r="CA24" s="98"/>
+      <c r="CB24" s="99"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15066,1501 +15097,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="111"/>
-      <c r="AQ28" s="109"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="110"/>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="110"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="110"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="110"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
-      <c r="BK28" s="110"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="110"/>
-      <c r="BP28" s="110"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="110"/>
-      <c r="BU28" s="110"/>
-      <c r="BV28" s="110"/>
-      <c r="BW28" s="110"/>
-      <c r="BX28" s="110"/>
-      <c r="BY28" s="110"/>
-      <c r="BZ28" s="110"/>
-      <c r="CA28" s="110"/>
-      <c r="CB28" s="111"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="93"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="92"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="92"/>
+      <c r="BV28" s="92"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="92"/>
+      <c r="BY28" s="92"/>
+      <c r="BZ28" s="92"/>
+      <c r="CA28" s="92"/>
+      <c r="CB28" s="93"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="114"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="113"/>
-      <c r="AT29" s="113"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
-      <c r="BE29" s="113"/>
-      <c r="BF29" s="113"/>
-      <c r="BG29" s="113"/>
-      <c r="BH29" s="113"/>
-      <c r="BI29" s="113"/>
-      <c r="BJ29" s="113"/>
-      <c r="BK29" s="113"/>
-      <c r="BL29" s="113"/>
-      <c r="BM29" s="113"/>
-      <c r="BN29" s="113"/>
-      <c r="BO29" s="113"/>
-      <c r="BP29" s="113"/>
-      <c r="BQ29" s="113"/>
-      <c r="BR29" s="113"/>
-      <c r="BS29" s="113"/>
-      <c r="BT29" s="113"/>
-      <c r="BU29" s="113"/>
-      <c r="BV29" s="113"/>
-      <c r="BW29" s="113"/>
-      <c r="BX29" s="113"/>
-      <c r="BY29" s="113"/>
-      <c r="BZ29" s="113"/>
-      <c r="CA29" s="113"/>
-      <c r="CB29" s="114"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="96"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="95"/>
+      <c r="BH29" s="95"/>
+      <c r="BI29" s="95"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="96"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="113"/>
-      <c r="AJ30" s="113"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="114"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="113"/>
-      <c r="AT30" s="113"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
-      <c r="BE30" s="113"/>
-      <c r="BF30" s="113"/>
-      <c r="BG30" s="113"/>
-      <c r="BH30" s="113"/>
-      <c r="BI30" s="113"/>
-      <c r="BJ30" s="113"/>
-      <c r="BK30" s="113"/>
-      <c r="BL30" s="113"/>
-      <c r="BM30" s="113"/>
-      <c r="BN30" s="113"/>
-      <c r="BO30" s="113"/>
-      <c r="BP30" s="113"/>
-      <c r="BQ30" s="113"/>
-      <c r="BR30" s="113"/>
-      <c r="BS30" s="113"/>
-      <c r="BT30" s="113"/>
-      <c r="BU30" s="113"/>
-      <c r="BV30" s="113"/>
-      <c r="BW30" s="113"/>
-      <c r="BX30" s="113"/>
-      <c r="BY30" s="113"/>
-      <c r="BZ30" s="113"/>
-      <c r="CA30" s="113"/>
-      <c r="CB30" s="114"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="96"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
+      <c r="BI30" s="95"/>
+      <c r="BJ30" s="95"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="95"/>
+      <c r="BM30" s="95"/>
+      <c r="BN30" s="95"/>
+      <c r="BO30" s="95"/>
+      <c r="BP30" s="95"/>
+      <c r="BQ30" s="95"/>
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="95"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="96"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="114"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
-      <c r="BE31" s="113"/>
-      <c r="BF31" s="113"/>
-      <c r="BG31" s="113"/>
-      <c r="BH31" s="113"/>
-      <c r="BI31" s="113"/>
-      <c r="BJ31" s="113"/>
-      <c r="BK31" s="113"/>
-      <c r="BL31" s="113"/>
-      <c r="BM31" s="113"/>
-      <c r="BN31" s="113"/>
-      <c r="BO31" s="113"/>
-      <c r="BP31" s="113"/>
-      <c r="BQ31" s="113"/>
-      <c r="BR31" s="113"/>
-      <c r="BS31" s="113"/>
-      <c r="BT31" s="113"/>
-      <c r="BU31" s="113"/>
-      <c r="BV31" s="113"/>
-      <c r="BW31" s="113"/>
-      <c r="BX31" s="113"/>
-      <c r="BY31" s="113"/>
-      <c r="BZ31" s="113"/>
-      <c r="CA31" s="113"/>
-      <c r="CB31" s="114"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="96"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="96"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="114"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="113"/>
-      <c r="AS32" s="113"/>
-      <c r="AT32" s="113"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
-      <c r="BE32" s="113"/>
-      <c r="BF32" s="113"/>
-      <c r="BG32" s="113"/>
-      <c r="BH32" s="113"/>
-      <c r="BI32" s="113"/>
-      <c r="BJ32" s="113"/>
-      <c r="BK32" s="113"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
-      <c r="BS32" s="113"/>
-      <c r="BT32" s="113"/>
-      <c r="BU32" s="113"/>
-      <c r="BV32" s="113"/>
-      <c r="BW32" s="113"/>
-      <c r="BX32" s="113"/>
-      <c r="BY32" s="113"/>
-      <c r="BZ32" s="113"/>
-      <c r="CA32" s="113"/>
-      <c r="CB32" s="114"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
+      <c r="AM32" s="95"/>
+      <c r="AN32" s="96"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="95"/>
+      <c r="AS32" s="95"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="95"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="95"/>
+      <c r="BA32" s="95"/>
+      <c r="BB32" s="95"/>
+      <c r="BC32" s="95"/>
+      <c r="BD32" s="95"/>
+      <c r="BE32" s="95"/>
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="95"/>
+      <c r="BH32" s="95"/>
+      <c r="BI32" s="95"/>
+      <c r="BJ32" s="95"/>
+      <c r="BK32" s="95"/>
+      <c r="BL32" s="95"/>
+      <c r="BM32" s="95"/>
+      <c r="BN32" s="95"/>
+      <c r="BO32" s="95"/>
+      <c r="BP32" s="95"/>
+      <c r="BQ32" s="95"/>
+      <c r="BR32" s="95"/>
+      <c r="BS32" s="95"/>
+      <c r="BT32" s="95"/>
+      <c r="BU32" s="95"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="96"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="114"/>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
-      <c r="BE33" s="113"/>
-      <c r="BF33" s="113"/>
-      <c r="BG33" s="113"/>
-      <c r="BH33" s="113"/>
-      <c r="BI33" s="113"/>
-      <c r="BJ33" s="113"/>
-      <c r="BK33" s="113"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
-      <c r="BS33" s="113"/>
-      <c r="BT33" s="113"/>
-      <c r="BU33" s="113"/>
-      <c r="BV33" s="113"/>
-      <c r="BW33" s="113"/>
-      <c r="BX33" s="113"/>
-      <c r="BY33" s="113"/>
-      <c r="BZ33" s="113"/>
-      <c r="CA33" s="113"/>
-      <c r="CB33" s="114"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="96"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="95"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
+      <c r="BE33" s="95"/>
+      <c r="BF33" s="95"/>
+      <c r="BG33" s="95"/>
+      <c r="BH33" s="95"/>
+      <c r="BI33" s="95"/>
+      <c r="BJ33" s="95"/>
+      <c r="BK33" s="95"/>
+      <c r="BL33" s="95"/>
+      <c r="BM33" s="95"/>
+      <c r="BN33" s="95"/>
+      <c r="BO33" s="95"/>
+      <c r="BP33" s="95"/>
+      <c r="BQ33" s="95"/>
+      <c r="BR33" s="95"/>
+      <c r="BS33" s="95"/>
+      <c r="BT33" s="95"/>
+      <c r="BU33" s="95"/>
+      <c r="BV33" s="95"/>
+      <c r="BW33" s="95"/>
+      <c r="BX33" s="95"/>
+      <c r="BY33" s="95"/>
+      <c r="BZ33" s="95"/>
+      <c r="CA33" s="95"/>
+      <c r="CB33" s="96"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="113"/>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="114"/>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
-      <c r="BE34" s="113"/>
-      <c r="BF34" s="113"/>
-      <c r="BG34" s="113"/>
-      <c r="BH34" s="113"/>
-      <c r="BI34" s="113"/>
-      <c r="BJ34" s="113"/>
-      <c r="BK34" s="113"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
-      <c r="BS34" s="113"/>
-      <c r="BT34" s="113"/>
-      <c r="BU34" s="113"/>
-      <c r="BV34" s="113"/>
-      <c r="BW34" s="113"/>
-      <c r="BX34" s="113"/>
-      <c r="BY34" s="113"/>
-      <c r="BZ34" s="113"/>
-      <c r="CA34" s="113"/>
-      <c r="CB34" s="114"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="96"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="96"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="113"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="114"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="113"/>
-      <c r="BF35" s="113"/>
-      <c r="BG35" s="113"/>
-      <c r="BH35" s="113"/>
-      <c r="BI35" s="113"/>
-      <c r="BJ35" s="113"/>
-      <c r="BK35" s="113"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
-      <c r="BS35" s="113"/>
-      <c r="BT35" s="113"/>
-      <c r="BU35" s="113"/>
-      <c r="BV35" s="113"/>
-      <c r="BW35" s="113"/>
-      <c r="BX35" s="113"/>
-      <c r="BY35" s="113"/>
-      <c r="BZ35" s="113"/>
-      <c r="CA35" s="113"/>
-      <c r="CB35" s="114"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="96"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="95"/>
+      <c r="BO35" s="95"/>
+      <c r="BP35" s="95"/>
+      <c r="BQ35" s="95"/>
+      <c r="BR35" s="95"/>
+      <c r="BS35" s="95"/>
+      <c r="BT35" s="95"/>
+      <c r="BU35" s="95"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="96"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="113"/>
-      <c r="AJ36" s="113"/>
-      <c r="AK36" s="113"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="114"/>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="113"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="113"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="113"/>
-      <c r="BF36" s="113"/>
-      <c r="BG36" s="113"/>
-      <c r="BH36" s="113"/>
-      <c r="BI36" s="113"/>
-      <c r="BJ36" s="113"/>
-      <c r="BK36" s="113"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
-      <c r="BS36" s="113"/>
-      <c r="BT36" s="113"/>
-      <c r="BU36" s="113"/>
-      <c r="BV36" s="113"/>
-      <c r="BW36" s="113"/>
-      <c r="BX36" s="113"/>
-      <c r="BY36" s="113"/>
-      <c r="BZ36" s="113"/>
-      <c r="CA36" s="113"/>
-      <c r="CB36" s="114"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
+      <c r="AF36" s="95"/>
+      <c r="AG36" s="95"/>
+      <c r="AH36" s="95"/>
+      <c r="AI36" s="95"/>
+      <c r="AJ36" s="95"/>
+      <c r="AK36" s="95"/>
+      <c r="AL36" s="95"/>
+      <c r="AM36" s="95"/>
+      <c r="AN36" s="96"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
+      <c r="AT36" s="95"/>
+      <c r="AU36" s="95"/>
+      <c r="AV36" s="95"/>
+      <c r="AW36" s="95"/>
+      <c r="AX36" s="95"/>
+      <c r="AY36" s="95"/>
+      <c r="AZ36" s="95"/>
+      <c r="BA36" s="95"/>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="95"/>
+      <c r="BF36" s="95"/>
+      <c r="BG36" s="95"/>
+      <c r="BH36" s="95"/>
+      <c r="BI36" s="95"/>
+      <c r="BJ36" s="95"/>
+      <c r="BK36" s="95"/>
+      <c r="BL36" s="95"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="95"/>
+      <c r="BP36" s="95"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="95"/>
+      <c r="BS36" s="95"/>
+      <c r="BT36" s="95"/>
+      <c r="BU36" s="95"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="96"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="113"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="113"/>
-      <c r="AN37" s="114"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="113"/>
-      <c r="AS37" s="113"/>
-      <c r="AT37" s="113"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
-      <c r="BE37" s="113"/>
-      <c r="BF37" s="113"/>
-      <c r="BG37" s="113"/>
-      <c r="BH37" s="113"/>
-      <c r="BI37" s="113"/>
-      <c r="BJ37" s="113"/>
-      <c r="BK37" s="113"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
-      <c r="BS37" s="113"/>
-      <c r="BT37" s="113"/>
-      <c r="BU37" s="113"/>
-      <c r="BV37" s="113"/>
-      <c r="BW37" s="113"/>
-      <c r="BX37" s="113"/>
-      <c r="BY37" s="113"/>
-      <c r="BZ37" s="113"/>
-      <c r="CA37" s="113"/>
-      <c r="CB37" s="114"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="95"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="95"/>
+      <c r="AJ37" s="95"/>
+      <c r="AK37" s="95"/>
+      <c r="AL37" s="95"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="96"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="95"/>
+      <c r="AS37" s="95"/>
+      <c r="AT37" s="95"/>
+      <c r="AU37" s="95"/>
+      <c r="AV37" s="95"/>
+      <c r="AW37" s="95"/>
+      <c r="AX37" s="95"/>
+      <c r="AY37" s="95"/>
+      <c r="AZ37" s="95"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="95"/>
+      <c r="BC37" s="95"/>
+      <c r="BD37" s="95"/>
+      <c r="BE37" s="95"/>
+      <c r="BF37" s="95"/>
+      <c r="BG37" s="95"/>
+      <c r="BH37" s="95"/>
+      <c r="BI37" s="95"/>
+      <c r="BJ37" s="95"/>
+      <c r="BK37" s="95"/>
+      <c r="BL37" s="95"/>
+      <c r="BM37" s="95"/>
+      <c r="BN37" s="95"/>
+      <c r="BO37" s="95"/>
+      <c r="BP37" s="95"/>
+      <c r="BQ37" s="95"/>
+      <c r="BR37" s="95"/>
+      <c r="BS37" s="95"/>
+      <c r="BT37" s="95"/>
+      <c r="BU37" s="95"/>
+      <c r="BV37" s="95"/>
+      <c r="BW37" s="95"/>
+      <c r="BX37" s="95"/>
+      <c r="BY37" s="95"/>
+      <c r="BZ37" s="95"/>
+      <c r="CA37" s="95"/>
+      <c r="CB37" s="96"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="113"/>
-      <c r="AJ38" s="113"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
-      <c r="BE38" s="113"/>
-      <c r="BF38" s="113"/>
-      <c r="BG38" s="113"/>
-      <c r="BH38" s="113"/>
-      <c r="BI38" s="113"/>
-      <c r="BJ38" s="113"/>
-      <c r="BK38" s="113"/>
-      <c r="BL38" s="113"/>
-      <c r="BM38" s="113"/>
-      <c r="BN38" s="113"/>
-      <c r="BO38" s="113"/>
-      <c r="BP38" s="113"/>
-      <c r="BQ38" s="113"/>
-      <c r="BR38" s="113"/>
-      <c r="BS38" s="113"/>
-      <c r="BT38" s="113"/>
-      <c r="BU38" s="113"/>
-      <c r="BV38" s="113"/>
-      <c r="BW38" s="113"/>
-      <c r="BX38" s="113"/>
-      <c r="BY38" s="113"/>
-      <c r="BZ38" s="113"/>
-      <c r="CA38" s="113"/>
-      <c r="CB38" s="114"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
+      <c r="AG38" s="95"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="95"/>
+      <c r="AJ38" s="95"/>
+      <c r="AK38" s="95"/>
+      <c r="AL38" s="95"/>
+      <c r="AM38" s="95"/>
+      <c r="AN38" s="96"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="95"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" s="95"/>
+      <c r="AU38" s="95"/>
+      <c r="AV38" s="95"/>
+      <c r="AW38" s="95"/>
+      <c r="AX38" s="95"/>
+      <c r="AY38" s="95"/>
+      <c r="AZ38" s="95"/>
+      <c r="BA38" s="95"/>
+      <c r="BB38" s="95"/>
+      <c r="BC38" s="95"/>
+      <c r="BD38" s="95"/>
+      <c r="BE38" s="95"/>
+      <c r="BF38" s="95"/>
+      <c r="BG38" s="95"/>
+      <c r="BH38" s="95"/>
+      <c r="BI38" s="95"/>
+      <c r="BJ38" s="95"/>
+      <c r="BK38" s="95"/>
+      <c r="BL38" s="95"/>
+      <c r="BM38" s="95"/>
+      <c r="BN38" s="95"/>
+      <c r="BO38" s="95"/>
+      <c r="BP38" s="95"/>
+      <c r="BQ38" s="95"/>
+      <c r="BR38" s="95"/>
+      <c r="BS38" s="95"/>
+      <c r="BT38" s="95"/>
+      <c r="BU38" s="95"/>
+      <c r="BV38" s="95"/>
+      <c r="BW38" s="95"/>
+      <c r="BX38" s="95"/>
+      <c r="BY38" s="95"/>
+      <c r="BZ38" s="95"/>
+      <c r="CA38" s="95"/>
+      <c r="CB38" s="96"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
-      <c r="AI39" s="113"/>
-      <c r="AJ39" s="113"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="114"/>
-      <c r="AQ39" s="112"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="113"/>
-      <c r="BF39" s="113"/>
-      <c r="BG39" s="113"/>
-      <c r="BH39" s="113"/>
-      <c r="BI39" s="113"/>
-      <c r="BJ39" s="113"/>
-      <c r="BK39" s="113"/>
-      <c r="BL39" s="113"/>
-      <c r="BM39" s="113"/>
-      <c r="BN39" s="113"/>
-      <c r="BO39" s="113"/>
-      <c r="BP39" s="113"/>
-      <c r="BQ39" s="113"/>
-      <c r="BR39" s="113"/>
-      <c r="BS39" s="113"/>
-      <c r="BT39" s="113"/>
-      <c r="BU39" s="113"/>
-      <c r="BV39" s="113"/>
-      <c r="BW39" s="113"/>
-      <c r="BX39" s="113"/>
-      <c r="BY39" s="113"/>
-      <c r="BZ39" s="113"/>
-      <c r="CA39" s="113"/>
-      <c r="CB39" s="114"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
+      <c r="AF39" s="95"/>
+      <c r="AG39" s="95"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="95"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="96"/>
+      <c r="AQ39" s="94"/>
+      <c r="AR39" s="95"/>
+      <c r="AS39" s="95"/>
+      <c r="AT39" s="95"/>
+      <c r="AU39" s="95"/>
+      <c r="AV39" s="95"/>
+      <c r="AW39" s="95"/>
+      <c r="AX39" s="95"/>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="95"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="95"/>
+      <c r="BF39" s="95"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="95"/>
+      <c r="BO39" s="95"/>
+      <c r="BP39" s="95"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="95"/>
+      <c r="BS39" s="95"/>
+      <c r="BT39" s="95"/>
+      <c r="BU39" s="95"/>
+      <c r="BV39" s="95"/>
+      <c r="BW39" s="95"/>
+      <c r="BX39" s="95"/>
+      <c r="BY39" s="95"/>
+      <c r="BZ39" s="95"/>
+      <c r="CA39" s="95"/>
+      <c r="CB39" s="96"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
-      <c r="AJ40" s="113"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="113"/>
-      <c r="AN40" s="114"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="113"/>
-      <c r="AS40" s="113"/>
-      <c r="AT40" s="113"/>
-      <c r="AU40" s="113"/>
-      <c r="AV40" s="113"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="113"/>
-      <c r="AY40" s="113"/>
-      <c r="AZ40" s="113"/>
-      <c r="BA40" s="113"/>
-      <c r="BB40" s="113"/>
-      <c r="BC40" s="113"/>
-      <c r="BD40" s="113"/>
-      <c r="BE40" s="113"/>
-      <c r="BF40" s="113"/>
-      <c r="BG40" s="113"/>
-      <c r="BH40" s="113"/>
-      <c r="BI40" s="113"/>
-      <c r="BJ40" s="113"/>
-      <c r="BK40" s="113"/>
-      <c r="BL40" s="113"/>
-      <c r="BM40" s="113"/>
-      <c r="BN40" s="113"/>
-      <c r="BO40" s="113"/>
-      <c r="BP40" s="113"/>
-      <c r="BQ40" s="113"/>
-      <c r="BR40" s="113"/>
-      <c r="BS40" s="113"/>
-      <c r="BT40" s="113"/>
-      <c r="BU40" s="113"/>
-      <c r="BV40" s="113"/>
-      <c r="BW40" s="113"/>
-      <c r="BX40" s="113"/>
-      <c r="BY40" s="113"/>
-      <c r="BZ40" s="113"/>
-      <c r="CA40" s="113"/>
-      <c r="CB40" s="114"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95"/>
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="95"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95"/>
+      <c r="AN40" s="96"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="95"/>
+      <c r="AS40" s="95"/>
+      <c r="AT40" s="95"/>
+      <c r="AU40" s="95"/>
+      <c r="AV40" s="95"/>
+      <c r="AW40" s="95"/>
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95"/>
+      <c r="AZ40" s="95"/>
+      <c r="BA40" s="95"/>
+      <c r="BB40" s="95"/>
+      <c r="BC40" s="95"/>
+      <c r="BD40" s="95"/>
+      <c r="BE40" s="95"/>
+      <c r="BF40" s="95"/>
+      <c r="BG40" s="95"/>
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="95"/>
+      <c r="BM40" s="95"/>
+      <c r="BN40" s="95"/>
+      <c r="BO40" s="95"/>
+      <c r="BP40" s="95"/>
+      <c r="BQ40" s="95"/>
+      <c r="BR40" s="95"/>
+      <c r="BS40" s="95"/>
+      <c r="BT40" s="95"/>
+      <c r="BU40" s="95"/>
+      <c r="BV40" s="95"/>
+      <c r="BW40" s="95"/>
+      <c r="BX40" s="95"/>
+      <c r="BY40" s="95"/>
+      <c r="BZ40" s="95"/>
+      <c r="CA40" s="95"/>
+      <c r="CB40" s="96"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
-      <c r="AJ41" s="113"/>
-      <c r="AK41" s="113"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="114"/>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="113"/>
-      <c r="AS41" s="113"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="113"/>
-      <c r="AV41" s="113"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="113"/>
-      <c r="AY41" s="113"/>
-      <c r="AZ41" s="113"/>
-      <c r="BA41" s="113"/>
-      <c r="BB41" s="113"/>
-      <c r="BC41" s="113"/>
-      <c r="BD41" s="113"/>
-      <c r="BE41" s="113"/>
-      <c r="BF41" s="113"/>
-      <c r="BG41" s="113"/>
-      <c r="BH41" s="113"/>
-      <c r="BI41" s="113"/>
-      <c r="BJ41" s="113"/>
-      <c r="BK41" s="113"/>
-      <c r="BL41" s="113"/>
-      <c r="BM41" s="113"/>
-      <c r="BN41" s="113"/>
-      <c r="BO41" s="113"/>
-      <c r="BP41" s="113"/>
-      <c r="BQ41" s="113"/>
-      <c r="BR41" s="113"/>
-      <c r="BS41" s="113"/>
-      <c r="BT41" s="113"/>
-      <c r="BU41" s="113"/>
-      <c r="BV41" s="113"/>
-      <c r="BW41" s="113"/>
-      <c r="BX41" s="113"/>
-      <c r="BY41" s="113"/>
-      <c r="BZ41" s="113"/>
-      <c r="CA41" s="113"/>
-      <c r="CB41" s="114"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="95"/>
+      <c r="AL41" s="95"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="96"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="95"/>
+      <c r="AS41" s="95"/>
+      <c r="AT41" s="95"/>
+      <c r="AU41" s="95"/>
+      <c r="AV41" s="95"/>
+      <c r="AW41" s="95"/>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95"/>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="95"/>
+      <c r="BW41" s="95"/>
+      <c r="BX41" s="95"/>
+      <c r="BY41" s="95"/>
+      <c r="BZ41" s="95"/>
+      <c r="CA41" s="95"/>
+      <c r="CB41" s="96"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="113"/>
-      <c r="AJ42" s="113"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="113"/>
-      <c r="AN42" s="114"/>
-      <c r="AQ42" s="112"/>
-      <c r="AR42" s="113"/>
-      <c r="AS42" s="113"/>
-      <c r="AT42" s="113"/>
-      <c r="AU42" s="113"/>
-      <c r="AV42" s="113"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="113"/>
-      <c r="AY42" s="113"/>
-      <c r="AZ42" s="113"/>
-      <c r="BA42" s="113"/>
-      <c r="BB42" s="113"/>
-      <c r="BC42" s="113"/>
-      <c r="BD42" s="113"/>
-      <c r="BE42" s="113"/>
-      <c r="BF42" s="113"/>
-      <c r="BG42" s="113"/>
-      <c r="BH42" s="113"/>
-      <c r="BI42" s="113"/>
-      <c r="BJ42" s="113"/>
-      <c r="BK42" s="113"/>
-      <c r="BL42" s="113"/>
-      <c r="BM42" s="113"/>
-      <c r="BN42" s="113"/>
-      <c r="BO42" s="113"/>
-      <c r="BP42" s="113"/>
-      <c r="BQ42" s="113"/>
-      <c r="BR42" s="113"/>
-      <c r="BS42" s="113"/>
-      <c r="BT42" s="113"/>
-      <c r="BU42" s="113"/>
-      <c r="BV42" s="113"/>
-      <c r="BW42" s="113"/>
-      <c r="BX42" s="113"/>
-      <c r="BY42" s="113"/>
-      <c r="BZ42" s="113"/>
-      <c r="CA42" s="113"/>
-      <c r="CB42" s="114"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="96"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="95"/>
+      <c r="AW42" s="95"/>
+      <c r="AX42" s="95"/>
+      <c r="AY42" s="95"/>
+      <c r="AZ42" s="95"/>
+      <c r="BA42" s="95"/>
+      <c r="BB42" s="95"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
+      <c r="BP42" s="95"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="95"/>
+      <c r="BS42" s="95"/>
+      <c r="BT42" s="95"/>
+      <c r="BU42" s="95"/>
+      <c r="BV42" s="95"/>
+      <c r="BW42" s="95"/>
+      <c r="BX42" s="95"/>
+      <c r="BY42" s="95"/>
+      <c r="BZ42" s="95"/>
+      <c r="CA42" s="95"/>
+      <c r="CB42" s="96"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="113"/>
-      <c r="AJ43" s="113"/>
-      <c r="AK43" s="113"/>
-      <c r="AL43" s="113"/>
-      <c r="AM43" s="113"/>
-      <c r="AN43" s="114"/>
-      <c r="AQ43" s="112"/>
-      <c r="AR43" s="113"/>
-      <c r="AS43" s="113"/>
-      <c r="AT43" s="113"/>
-      <c r="AU43" s="113"/>
-      <c r="AV43" s="113"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="113"/>
-      <c r="AY43" s="113"/>
-      <c r="AZ43" s="113"/>
-      <c r="BA43" s="113"/>
-      <c r="BB43" s="113"/>
-      <c r="BC43" s="113"/>
-      <c r="BD43" s="113"/>
-      <c r="BE43" s="113"/>
-      <c r="BF43" s="113"/>
-      <c r="BG43" s="113"/>
-      <c r="BH43" s="113"/>
-      <c r="BI43" s="113"/>
-      <c r="BJ43" s="113"/>
-      <c r="BK43" s="113"/>
-      <c r="BL43" s="113"/>
-      <c r="BM43" s="113"/>
-      <c r="BN43" s="113"/>
-      <c r="BO43" s="113"/>
-      <c r="BP43" s="113"/>
-      <c r="BQ43" s="113"/>
-      <c r="BR43" s="113"/>
-      <c r="BS43" s="113"/>
-      <c r="BT43" s="113"/>
-      <c r="BU43" s="113"/>
-      <c r="BV43" s="113"/>
-      <c r="BW43" s="113"/>
-      <c r="BX43" s="113"/>
-      <c r="BY43" s="113"/>
-      <c r="BZ43" s="113"/>
-      <c r="CA43" s="113"/>
-      <c r="CB43" s="114"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="96"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="95"/>
+      <c r="AW43" s="95"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
+      <c r="BM43" s="95"/>
+      <c r="BN43" s="95"/>
+      <c r="BO43" s="95"/>
+      <c r="BP43" s="95"/>
+      <c r="BQ43" s="95"/>
+      <c r="BR43" s="95"/>
+      <c r="BS43" s="95"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="95"/>
+      <c r="BV43" s="95"/>
+      <c r="BW43" s="95"/>
+      <c r="BX43" s="95"/>
+      <c r="BY43" s="95"/>
+      <c r="BZ43" s="95"/>
+      <c r="CA43" s="95"/>
+      <c r="CB43" s="96"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="112"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
-      <c r="AJ44" s="113"/>
-      <c r="AK44" s="113"/>
-      <c r="AL44" s="113"/>
-      <c r="AM44" s="113"/>
-      <c r="AN44" s="114"/>
-      <c r="AQ44" s="112"/>
-      <c r="AR44" s="113"/>
-      <c r="AS44" s="113"/>
-      <c r="AT44" s="113"/>
-      <c r="AU44" s="113"/>
-      <c r="AV44" s="113"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="113"/>
-      <c r="AY44" s="113"/>
-      <c r="AZ44" s="113"/>
-      <c r="BA44" s="113"/>
-      <c r="BB44" s="113"/>
-      <c r="BC44" s="113"/>
-      <c r="BD44" s="113"/>
-      <c r="BE44" s="113"/>
-      <c r="BF44" s="113"/>
-      <c r="BG44" s="113"/>
-      <c r="BH44" s="113"/>
-      <c r="BI44" s="113"/>
-      <c r="BJ44" s="113"/>
-      <c r="BK44" s="113"/>
-      <c r="BL44" s="113"/>
-      <c r="BM44" s="113"/>
-      <c r="BN44" s="113"/>
-      <c r="BO44" s="113"/>
-      <c r="BP44" s="113"/>
-      <c r="BQ44" s="113"/>
-      <c r="BR44" s="113"/>
-      <c r="BS44" s="113"/>
-      <c r="BT44" s="113"/>
-      <c r="BU44" s="113"/>
-      <c r="BV44" s="113"/>
-      <c r="BW44" s="113"/>
-      <c r="BX44" s="113"/>
-      <c r="BY44" s="113"/>
-      <c r="BZ44" s="113"/>
-      <c r="CA44" s="113"/>
-      <c r="CB44" s="114"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="96"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="95"/>
+      <c r="AU44" s="95"/>
+      <c r="AV44" s="95"/>
+      <c r="AW44" s="95"/>
+      <c r="AX44" s="95"/>
+      <c r="AY44" s="95"/>
+      <c r="AZ44" s="95"/>
+      <c r="BA44" s="95"/>
+      <c r="BB44" s="95"/>
+      <c r="BC44" s="95"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="95"/>
+      <c r="BF44" s="95"/>
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
+      <c r="BM44" s="95"/>
+      <c r="BN44" s="95"/>
+      <c r="BO44" s="95"/>
+      <c r="BP44" s="95"/>
+      <c r="BQ44" s="95"/>
+      <c r="BR44" s="95"/>
+      <c r="BS44" s="95"/>
+      <c r="BT44" s="95"/>
+      <c r="BU44" s="95"/>
+      <c r="BV44" s="95"/>
+      <c r="BW44" s="95"/>
+      <c r="BX44" s="95"/>
+      <c r="BY44" s="95"/>
+      <c r="BZ44" s="95"/>
+      <c r="CA44" s="95"/>
+      <c r="CB44" s="96"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="113"/>
-      <c r="AC45" s="113"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
-      <c r="AI45" s="113"/>
-      <c r="AJ45" s="113"/>
-      <c r="AK45" s="113"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="113"/>
-      <c r="AN45" s="114"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="113"/>
-      <c r="AS45" s="113"/>
-      <c r="AT45" s="113"/>
-      <c r="AU45" s="113"/>
-      <c r="AV45" s="113"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="113"/>
-      <c r="AY45" s="113"/>
-      <c r="AZ45" s="113"/>
-      <c r="BA45" s="113"/>
-      <c r="BB45" s="113"/>
-      <c r="BC45" s="113"/>
-      <c r="BD45" s="113"/>
-      <c r="BE45" s="113"/>
-      <c r="BF45" s="113"/>
-      <c r="BG45" s="113"/>
-      <c r="BH45" s="113"/>
-      <c r="BI45" s="113"/>
-      <c r="BJ45" s="113"/>
-      <c r="BK45" s="113"/>
-      <c r="BL45" s="113"/>
-      <c r="BM45" s="113"/>
-      <c r="BN45" s="113"/>
-      <c r="BO45" s="113"/>
-      <c r="BP45" s="113"/>
-      <c r="BQ45" s="113"/>
-      <c r="BR45" s="113"/>
-      <c r="BS45" s="113"/>
-      <c r="BT45" s="113"/>
-      <c r="BU45" s="113"/>
-      <c r="BV45" s="113"/>
-      <c r="BW45" s="113"/>
-      <c r="BX45" s="113"/>
-      <c r="BY45" s="113"/>
-      <c r="BZ45" s="113"/>
-      <c r="CA45" s="113"/>
-      <c r="CB45" s="114"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="96"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="95"/>
+      <c r="AW45" s="95"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="95"/>
+      <c r="BR45" s="95"/>
+      <c r="BS45" s="95"/>
+      <c r="BT45" s="95"/>
+      <c r="BU45" s="95"/>
+      <c r="BV45" s="95"/>
+      <c r="BW45" s="95"/>
+      <c r="BX45" s="95"/>
+      <c r="BY45" s="95"/>
+      <c r="BZ45" s="95"/>
+      <c r="CA45" s="95"/>
+      <c r="CB45" s="96"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="115"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="116"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="116"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="116"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AN46" s="117"/>
-      <c r="AQ46" s="115"/>
-      <c r="AR46" s="116"/>
-      <c r="AS46" s="116"/>
-      <c r="AT46" s="116"/>
-      <c r="AU46" s="116"/>
-      <c r="AV46" s="116"/>
-      <c r="AW46" s="116"/>
-      <c r="AX46" s="116"/>
-      <c r="AY46" s="116"/>
-      <c r="AZ46" s="116"/>
-      <c r="BA46" s="116"/>
-      <c r="BB46" s="116"/>
-      <c r="BC46" s="116"/>
-      <c r="BD46" s="116"/>
-      <c r="BE46" s="116"/>
-      <c r="BF46" s="116"/>
-      <c r="BG46" s="116"/>
-      <c r="BH46" s="116"/>
-      <c r="BI46" s="116"/>
-      <c r="BJ46" s="116"/>
-      <c r="BK46" s="116"/>
-      <c r="BL46" s="116"/>
-      <c r="BM46" s="116"/>
-      <c r="BN46" s="116"/>
-      <c r="BO46" s="116"/>
-      <c r="BP46" s="116"/>
-      <c r="BQ46" s="116"/>
-      <c r="BR46" s="116"/>
-      <c r="BS46" s="116"/>
-      <c r="BT46" s="116"/>
-      <c r="BU46" s="116"/>
-      <c r="BV46" s="116"/>
-      <c r="BW46" s="116"/>
-      <c r="BX46" s="116"/>
-      <c r="BY46" s="116"/>
-      <c r="BZ46" s="116"/>
-      <c r="CA46" s="116"/>
-      <c r="CB46" s="117"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="99"/>
+      <c r="AQ46" s="97"/>
+      <c r="AR46" s="98"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="98"/>
+      <c r="AU46" s="98"/>
+      <c r="AV46" s="98"/>
+      <c r="AW46" s="98"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="98"/>
+      <c r="BA46" s="98"/>
+      <c r="BB46" s="98"/>
+      <c r="BC46" s="98"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="98"/>
+      <c r="BF46" s="98"/>
+      <c r="BG46" s="98"/>
+      <c r="BH46" s="98"/>
+      <c r="BI46" s="98"/>
+      <c r="BJ46" s="98"/>
+      <c r="BK46" s="98"/>
+      <c r="BL46" s="98"/>
+      <c r="BM46" s="98"/>
+      <c r="BN46" s="98"/>
+      <c r="BO46" s="98"/>
+      <c r="BP46" s="98"/>
+      <c r="BQ46" s="98"/>
+      <c r="BR46" s="98"/>
+      <c r="BS46" s="98"/>
+      <c r="BT46" s="98"/>
+      <c r="BU46" s="98"/>
+      <c r="BV46" s="98"/>
+      <c r="BW46" s="98"/>
+      <c r="BX46" s="98"/>
+      <c r="BY46" s="98"/>
+      <c r="BZ46" s="98"/>
+      <c r="CA46" s="98"/>
+      <c r="CB46" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9DA03-7CD1-4D49-8B29-C5DBF05D7E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CD14C-8C3A-46A7-8F6A-95DD81C05F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -613,10 +613,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1298,7 +1299,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,6 +1601,9 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8843,7 +8847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -12653,7 +12657,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12714,7 +12718,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
@@ -12729,13 +12733,13 @@
       </c>
       <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
-        <v>Bermuda</v>
+        <v>Calça jeans</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
       </c>
       <c r="F7" s="50" t="str">
-        <f>HLOOKUP(WEEKDAY(F6),'Cadastros Auxiliares'!B4:I5,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(WEEKDAY(F6),'Cadastros Auxiliares'!B4:I5,2,FALSE),"")</f>
         <v>Sábado</v>
       </c>
       <c r="G7" s="49"/>
@@ -12746,7 +12750,7 @@
       </c>
       <c r="C8" s="48" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
-        <v>M</v>
+        <v>P</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>164</v>
@@ -12775,9 +12779,9 @@
       <c r="B10" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="118">
         <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,6,0),"Não encontrado")</f>
-        <v>69.900000000000006</v>
+        <v>85.9</v>
       </c>
       <c r="G10" s="49"/>
     </row>
@@ -12785,7 +12789,10 @@
       <c r="B11" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="48">
+        <f>VLOOKUP(C6,TB_Produtos[#All],5,FALSE)</f>
+        <v>24</v>
+      </c>
       <c r="F11" t="s">
         <v>169</v>
       </c>
@@ -12795,7 +12802,10 @@
       <c r="B12" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="118" t="str">
+        <f>IF(C11&gt;10,"Estoque OK", IF(C11=0,"Estoque zerado", "Rever estoque"))</f>
+        <v>Estoque OK</v>
+      </c>
       <c r="E12" s="80"/>
       <c r="F12" t="s">
         <v>170</v>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CD14C-8C3A-46A7-8F6A-95DD81C05F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303BEE8-D77E-4854-9E20-F45F3DCDD6D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="172">
   <si>
     <t>Produtos</t>
   </si>
@@ -594,9 +594,6 @@
     <t xml:space="preserve">Preço Unitário: </t>
   </si>
   <si>
-    <t xml:space="preserve">Situação: </t>
-  </si>
-  <si>
     <t>PROCV</t>
   </si>
   <si>
@@ -607,6 +604,12 @@
   </si>
   <si>
     <t>PROCV(DIA.DA.SEMANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação SE: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação SES: </t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1494,6 +1497,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1520,33 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1602,8 +1581,32 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8660,88 +8663,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -10157,10 +10160,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.15" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -12657,7 +12660,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12702,15 +12705,15 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
@@ -12779,7 +12782,7 @@
       <c r="B10" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="82">
         <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,6,0),"Não encontrado")</f>
         <v>85.9</v>
       </c>
@@ -12794,34 +12797,41 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
       <c r="B12" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="118" t="str">
+        <v>170</v>
+      </c>
+      <c r="C12" s="82" t="str">
         <f>IF(C11&gt;10,"Estoque OK", IF(C11=0,"Estoque zerado", "Rever estoque"))</f>
         <v>Estoque OK</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="23.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" thickBot="1">
+      <c r="B13" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="82" t="str">
+        <f>_xlfn.IFS(C11=0,"Estoque Zerado",C11&gt;=10,"Estoque ok",1, "Rever estoque")</f>
+        <v>Estoque ok</v>
+      </c>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="15.75" thickTop="1">
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9"/>
@@ -12840,7 +12850,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{386D00EA-C09E-4AF2-85F6-0FFA8584E7FB}">
           <x14:formula1>
             <xm:f>Produtos!$B:$B</xm:f>
@@ -13308,3300 +13318,3300 @@
   <sheetData>
     <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="87"/>
-      <c r="AQ2" s="85" t="s">
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="88"/>
+      <c r="AQ2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="87"/>
-      <c r="BK2" s="85" t="s">
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="88"/>
+      <c r="BK2" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="86"/>
-      <c r="BO2" s="86"/>
-      <c r="BP2" s="86"/>
-      <c r="BQ2" s="86"/>
-      <c r="BR2" s="86"/>
-      <c r="BS2" s="86"/>
-      <c r="BT2" s="86"/>
-      <c r="BU2" s="86"/>
-      <c r="BV2" s="86"/>
-      <c r="BW2" s="86"/>
-      <c r="BX2" s="86"/>
-      <c r="BY2" s="86"/>
-      <c r="BZ2" s="86"/>
-      <c r="CA2" s="86"/>
-      <c r="CB2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87"/>
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
+      <c r="BY2" s="87"/>
+      <c r="BZ2" s="87"/>
+      <c r="CA2" s="87"/>
+      <c r="CB2" s="88"/>
     </row>
     <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="88"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="90"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="89"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="89"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="89"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="89"/>
-      <c r="BF3" s="89"/>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="90"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="89"/>
-      <c r="BM3" s="89"/>
-      <c r="BN3" s="89"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
-      <c r="BU3" s="89"/>
-      <c r="BV3" s="89"/>
-      <c r="BW3" s="89"/>
-      <c r="BX3" s="89"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="90"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="91"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="91"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="91"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="100">
+      <c r="W4" s="92">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="102"/>
-      <c r="AQ4" s="100">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94"/>
+      <c r="AQ4" s="92">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="102"/>
-      <c r="BK4" s="109">
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BK4" s="101">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111"/>
+      <c r="BL4" s="102"/>
+      <c r="BM4" s="102"/>
+      <c r="BN4" s="102"/>
+      <c r="BO4" s="102"/>
+      <c r="BP4" s="102"/>
+      <c r="BQ4" s="102"/>
+      <c r="BR4" s="102"/>
+      <c r="BS4" s="102"/>
+      <c r="BT4" s="102"/>
+      <c r="BU4" s="102"/>
+      <c r="BV4" s="102"/>
+      <c r="BW4" s="102"/>
+      <c r="BX4" s="102"/>
+      <c r="BY4" s="102"/>
+      <c r="BZ4" s="102"/>
+      <c r="CA4" s="102"/>
+      <c r="CB4" s="103"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="103"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="105"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
-      <c r="BR5" s="113"/>
-      <c r="BS5" s="113"/>
-      <c r="BT5" s="113"/>
-      <c r="BU5" s="113"/>
-      <c r="BV5" s="113"/>
-      <c r="BW5" s="113"/>
-      <c r="BX5" s="113"/>
-      <c r="BY5" s="113"/>
-      <c r="BZ5" s="113"/>
-      <c r="CA5" s="113"/>
-      <c r="CB5" s="114"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="97"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="96"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="96"/>
+      <c r="AU5" s="96"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="96"/>
+      <c r="AX5" s="96"/>
+      <c r="AY5" s="96"/>
+      <c r="AZ5" s="96"/>
+      <c r="BA5" s="96"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="96"/>
+      <c r="BD5" s="96"/>
+      <c r="BE5" s="96"/>
+      <c r="BF5" s="96"/>
+      <c r="BG5" s="96"/>
+      <c r="BH5" s="97"/>
+      <c r="BK5" s="104"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="105"/>
+      <c r="BN5" s="105"/>
+      <c r="BO5" s="105"/>
+      <c r="BP5" s="105"/>
+      <c r="BQ5" s="105"/>
+      <c r="BR5" s="105"/>
+      <c r="BS5" s="105"/>
+      <c r="BT5" s="105"/>
+      <c r="BU5" s="105"/>
+      <c r="BV5" s="105"/>
+      <c r="BW5" s="105"/>
+      <c r="BX5" s="105"/>
+      <c r="BY5" s="105"/>
+      <c r="BZ5" s="105"/>
+      <c r="CA5" s="105"/>
+      <c r="CB5" s="106"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="103"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="105"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="105"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="113"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="113"/>
-      <c r="BQ6" s="113"/>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="113"/>
-      <c r="BU6" s="113"/>
-      <c r="BV6" s="113"/>
-      <c r="BW6" s="113"/>
-      <c r="BX6" s="113"/>
-      <c r="BY6" s="113"/>
-      <c r="BZ6" s="113"/>
-      <c r="CA6" s="113"/>
-      <c r="CB6" s="114"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="97"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96"/>
+      <c r="AZ6" s="96"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="97"/>
+      <c r="BK6" s="104"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
+      <c r="BR6" s="105"/>
+      <c r="BS6" s="105"/>
+      <c r="BT6" s="105"/>
+      <c r="BU6" s="105"/>
+      <c r="BV6" s="105"/>
+      <c r="BW6" s="105"/>
+      <c r="BX6" s="105"/>
+      <c r="BY6" s="105"/>
+      <c r="BZ6" s="105"/>
+      <c r="CA6" s="105"/>
+      <c r="CB6" s="106"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="108"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="117"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="100"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="99"/>
+      <c r="BB7" s="99"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="99"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="100"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="108"/>
+      <c r="BM7" s="108"/>
+      <c r="BN7" s="108"/>
+      <c r="BO7" s="108"/>
+      <c r="BP7" s="108"/>
+      <c r="BQ7" s="108"/>
+      <c r="BR7" s="108"/>
+      <c r="BS7" s="108"/>
+      <c r="BT7" s="108"/>
+      <c r="BU7" s="108"/>
+      <c r="BV7" s="108"/>
+      <c r="BW7" s="108"/>
+      <c r="BX7" s="108"/>
+      <c r="BY7" s="108"/>
+      <c r="BZ7" s="108"/>
+      <c r="CA7" s="108"/>
+      <c r="CB7" s="109"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="86"/>
-      <c r="BF9" s="86"/>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="86"/>
-      <c r="BM9" s="86"/>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="86"/>
-      <c r="CA9" s="86"/>
-      <c r="CB9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="87"/>
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="87"/>
+      <c r="BJ9" s="87"/>
+      <c r="BK9" s="87"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="87"/>
+      <c r="BN9" s="87"/>
+      <c r="BO9" s="87"/>
+      <c r="BP9" s="87"/>
+      <c r="BQ9" s="87"/>
+      <c r="BR9" s="87"/>
+      <c r="BS9" s="87"/>
+      <c r="BT9" s="87"/>
+      <c r="BU9" s="87"/>
+      <c r="BV9" s="87"/>
+      <c r="BW9" s="87"/>
+      <c r="BX9" s="87"/>
+      <c r="BY9" s="87"/>
+      <c r="BZ9" s="87"/>
+      <c r="CA9" s="87"/>
+      <c r="CB9" s="88"/>
     </row>
     <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="89"/>
-      <c r="BR10" s="89"/>
-      <c r="BS10" s="89"/>
-      <c r="BT10" s="89"/>
-      <c r="BU10" s="89"/>
-      <c r="BV10" s="89"/>
-      <c r="BW10" s="89"/>
-      <c r="BX10" s="89"/>
-      <c r="BY10" s="89"/>
-      <c r="BZ10" s="89"/>
-      <c r="CA10" s="89"/>
-      <c r="CB10" s="90"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
+      <c r="BP10" s="90"/>
+      <c r="BQ10" s="90"/>
+      <c r="BR10" s="90"/>
+      <c r="BS10" s="90"/>
+      <c r="BT10" s="90"/>
+      <c r="BU10" s="90"/>
+      <c r="BV10" s="90"/>
+      <c r="BW10" s="90"/>
+      <c r="BX10" s="90"/>
+      <c r="BY10" s="90"/>
+      <c r="BZ10" s="90"/>
+      <c r="CA10" s="90"/>
+      <c r="CB10" s="91"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="111"/>
+      <c r="AZ11" s="111"/>
+      <c r="BA11" s="111"/>
+      <c r="BB11" s="111"/>
+      <c r="BC11" s="111"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="111"/>
+      <c r="BF11" s="111"/>
+      <c r="BG11" s="111"/>
+      <c r="BH11" s="111"/>
+      <c r="BI11" s="111"/>
+      <c r="BJ11" s="111"/>
+      <c r="BK11" s="111"/>
+      <c r="BL11" s="111"/>
+      <c r="BM11" s="111"/>
+      <c r="BN11" s="111"/>
+      <c r="BO11" s="111"/>
+      <c r="BP11" s="111"/>
+      <c r="BQ11" s="111"/>
+      <c r="BR11" s="111"/>
+      <c r="BS11" s="111"/>
+      <c r="BT11" s="111"/>
+      <c r="BU11" s="111"/>
+      <c r="BV11" s="111"/>
+      <c r="BW11" s="111"/>
+      <c r="BX11" s="111"/>
+      <c r="BY11" s="111"/>
+      <c r="BZ11" s="111"/>
+      <c r="CA11" s="111"/>
+      <c r="CB11" s="112"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="96"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="114"/>
+      <c r="BN12" s="114"/>
+      <c r="BO12" s="114"/>
+      <c r="BP12" s="114"/>
+      <c r="BQ12" s="114"/>
+      <c r="BR12" s="114"/>
+      <c r="BS12" s="114"/>
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="114"/>
+      <c r="BV12" s="114"/>
+      <c r="BW12" s="114"/>
+      <c r="BX12" s="114"/>
+      <c r="BY12" s="114"/>
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="114"/>
+      <c r="CB12" s="115"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="96"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
+      <c r="BM13" s="114"/>
+      <c r="BN13" s="114"/>
+      <c r="BO13" s="114"/>
+      <c r="BP13" s="114"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="114"/>
+      <c r="BS13" s="114"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="114"/>
+      <c r="BV13" s="114"/>
+      <c r="BW13" s="114"/>
+      <c r="BX13" s="114"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="115"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="96"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="114"/>
+      <c r="BN14" s="114"/>
+      <c r="BO14" s="114"/>
+      <c r="BP14" s="114"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="114"/>
+      <c r="BS14" s="114"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="114"/>
+      <c r="BV14" s="114"/>
+      <c r="BW14" s="114"/>
+      <c r="BX14" s="114"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="115"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="96"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
+      <c r="BM15" s="114"/>
+      <c r="BN15" s="114"/>
+      <c r="BO15" s="114"/>
+      <c r="BP15" s="114"/>
+      <c r="BQ15" s="114"/>
+      <c r="BR15" s="114"/>
+      <c r="BS15" s="114"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="114"/>
+      <c r="BV15" s="114"/>
+      <c r="BW15" s="114"/>
+      <c r="BX15" s="114"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="115"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="96"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
+      <c r="BJ16" s="114"/>
+      <c r="BK16" s="114"/>
+      <c r="BL16" s="114"/>
+      <c r="BM16" s="114"/>
+      <c r="BN16" s="114"/>
+      <c r="BO16" s="114"/>
+      <c r="BP16" s="114"/>
+      <c r="BQ16" s="114"/>
+      <c r="BR16" s="114"/>
+      <c r="BS16" s="114"/>
+      <c r="BT16" s="114"/>
+      <c r="BU16" s="114"/>
+      <c r="BV16" s="114"/>
+      <c r="BW16" s="114"/>
+      <c r="BX16" s="114"/>
+      <c r="BY16" s="114"/>
+      <c r="BZ16" s="114"/>
+      <c r="CA16" s="114"/>
+      <c r="CB16" s="115"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="96"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="114"/>
+      <c r="AL17" s="114"/>
+      <c r="AM17" s="114"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="114"/>
+      <c r="BK17" s="114"/>
+      <c r="BL17" s="114"/>
+      <c r="BM17" s="114"/>
+      <c r="BN17" s="114"/>
+      <c r="BO17" s="114"/>
+      <c r="BP17" s="114"/>
+      <c r="BQ17" s="114"/>
+      <c r="BR17" s="114"/>
+      <c r="BS17" s="114"/>
+      <c r="BT17" s="114"/>
+      <c r="BU17" s="114"/>
+      <c r="BV17" s="114"/>
+      <c r="BW17" s="114"/>
+      <c r="BX17" s="114"/>
+      <c r="BY17" s="114"/>
+      <c r="BZ17" s="114"/>
+      <c r="CA17" s="114"/>
+      <c r="CB17" s="115"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="96"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="114"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="114"/>
+      <c r="BL18" s="114"/>
+      <c r="BM18" s="114"/>
+      <c r="BN18" s="114"/>
+      <c r="BO18" s="114"/>
+      <c r="BP18" s="114"/>
+      <c r="BQ18" s="114"/>
+      <c r="BR18" s="114"/>
+      <c r="BS18" s="114"/>
+      <c r="BT18" s="114"/>
+      <c r="BU18" s="114"/>
+      <c r="BV18" s="114"/>
+      <c r="BW18" s="114"/>
+      <c r="BX18" s="114"/>
+      <c r="BY18" s="114"/>
+      <c r="BZ18" s="114"/>
+      <c r="CA18" s="114"/>
+      <c r="CB18" s="115"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="96"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="114"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="114"/>
+      <c r="AL19" s="114"/>
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
+      <c r="BI19" s="114"/>
+      <c r="BJ19" s="114"/>
+      <c r="BK19" s="114"/>
+      <c r="BL19" s="114"/>
+      <c r="BM19" s="114"/>
+      <c r="BN19" s="114"/>
+      <c r="BO19" s="114"/>
+      <c r="BP19" s="114"/>
+      <c r="BQ19" s="114"/>
+      <c r="BR19" s="114"/>
+      <c r="BS19" s="114"/>
+      <c r="BT19" s="114"/>
+      <c r="BU19" s="114"/>
+      <c r="BV19" s="114"/>
+      <c r="BW19" s="114"/>
+      <c r="BX19" s="114"/>
+      <c r="BY19" s="114"/>
+      <c r="BZ19" s="114"/>
+      <c r="CA19" s="114"/>
+      <c r="CB19" s="115"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
-      <c r="BJ20" s="95"/>
-      <c r="BK20" s="95"/>
-      <c r="BL20" s="95"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="95"/>
-      <c r="BR20" s="95"/>
-      <c r="BS20" s="95"/>
-      <c r="BT20" s="95"/>
-      <c r="BU20" s="95"/>
-      <c r="BV20" s="95"/>
-      <c r="BW20" s="95"/>
-      <c r="BX20" s="95"/>
-      <c r="BY20" s="95"/>
-      <c r="BZ20" s="95"/>
-      <c r="CA20" s="95"/>
-      <c r="CB20" s="96"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
+      <c r="BI20" s="114"/>
+      <c r="BJ20" s="114"/>
+      <c r="BK20" s="114"/>
+      <c r="BL20" s="114"/>
+      <c r="BM20" s="114"/>
+      <c r="BN20" s="114"/>
+      <c r="BO20" s="114"/>
+      <c r="BP20" s="114"/>
+      <c r="BQ20" s="114"/>
+      <c r="BR20" s="114"/>
+      <c r="BS20" s="114"/>
+      <c r="BT20" s="114"/>
+      <c r="BU20" s="114"/>
+      <c r="BV20" s="114"/>
+      <c r="BW20" s="114"/>
+      <c r="BX20" s="114"/>
+      <c r="BY20" s="114"/>
+      <c r="BZ20" s="114"/>
+      <c r="CA20" s="114"/>
+      <c r="CB20" s="115"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="95"/>
-      <c r="BK21" s="95"/>
-      <c r="BL21" s="95"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="95"/>
-      <c r="BR21" s="95"/>
-      <c r="BS21" s="95"/>
-      <c r="BT21" s="95"/>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="95"/>
-      <c r="BW21" s="95"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="95"/>
-      <c r="BZ21" s="95"/>
-      <c r="CA21" s="95"/>
-      <c r="CB21" s="96"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
+      <c r="BK21" s="114"/>
+      <c r="BL21" s="114"/>
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
+      <c r="BP21" s="114"/>
+      <c r="BQ21" s="114"/>
+      <c r="BR21" s="114"/>
+      <c r="BS21" s="114"/>
+      <c r="BT21" s="114"/>
+      <c r="BU21" s="114"/>
+      <c r="BV21" s="114"/>
+      <c r="BW21" s="114"/>
+      <c r="BX21" s="114"/>
+      <c r="BY21" s="114"/>
+      <c r="BZ21" s="114"/>
+      <c r="CA21" s="114"/>
+      <c r="CB21" s="115"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="95"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="96"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="114"/>
+      <c r="BJ22" s="114"/>
+      <c r="BK22" s="114"/>
+      <c r="BL22" s="114"/>
+      <c r="BM22" s="114"/>
+      <c r="BN22" s="114"/>
+      <c r="BO22" s="114"/>
+      <c r="BP22" s="114"/>
+      <c r="BQ22" s="114"/>
+      <c r="BR22" s="114"/>
+      <c r="BS22" s="114"/>
+      <c r="BT22" s="114"/>
+      <c r="BU22" s="114"/>
+      <c r="BV22" s="114"/>
+      <c r="BW22" s="114"/>
+      <c r="BX22" s="114"/>
+      <c r="BY22" s="114"/>
+      <c r="BZ22" s="114"/>
+      <c r="CA22" s="114"/>
+      <c r="CB22" s="115"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="95"/>
-      <c r="BL23" s="95"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="95"/>
-      <c r="BU23" s="95"/>
-      <c r="BV23" s="95"/>
-      <c r="BW23" s="95"/>
-      <c r="BX23" s="95"/>
-      <c r="BY23" s="95"/>
-      <c r="BZ23" s="95"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="96"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
+      <c r="BH23" s="114"/>
+      <c r="BI23" s="114"/>
+      <c r="BJ23" s="114"/>
+      <c r="BK23" s="114"/>
+      <c r="BL23" s="114"/>
+      <c r="BM23" s="114"/>
+      <c r="BN23" s="114"/>
+      <c r="BO23" s="114"/>
+      <c r="BP23" s="114"/>
+      <c r="BQ23" s="114"/>
+      <c r="BR23" s="114"/>
+      <c r="BS23" s="114"/>
+      <c r="BT23" s="114"/>
+      <c r="BU23" s="114"/>
+      <c r="BV23" s="114"/>
+      <c r="BW23" s="114"/>
+      <c r="BX23" s="114"/>
+      <c r="BY23" s="114"/>
+      <c r="BZ23" s="114"/>
+      <c r="CA23" s="114"/>
+      <c r="CB23" s="115"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="98"/>
-      <c r="BM24" s="98"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="98"/>
-      <c r="BP24" s="98"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="98"/>
-      <c r="BS24" s="98"/>
-      <c r="BT24" s="98"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="98"/>
-      <c r="BZ24" s="98"/>
-      <c r="CA24" s="98"/>
-      <c r="CB24" s="99"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+      <c r="AS24" s="117"/>
+      <c r="AT24" s="117"/>
+      <c r="AU24" s="117"/>
+      <c r="AV24" s="117"/>
+      <c r="AW24" s="117"/>
+      <c r="AX24" s="117"/>
+      <c r="AY24" s="117"/>
+      <c r="AZ24" s="117"/>
+      <c r="BA24" s="117"/>
+      <c r="BB24" s="117"/>
+      <c r="BC24" s="117"/>
+      <c r="BD24" s="117"/>
+      <c r="BE24" s="117"/>
+      <c r="BF24" s="117"/>
+      <c r="BG24" s="117"/>
+      <c r="BH24" s="117"/>
+      <c r="BI24" s="117"/>
+      <c r="BJ24" s="117"/>
+      <c r="BK24" s="117"/>
+      <c r="BL24" s="117"/>
+      <c r="BM24" s="117"/>
+      <c r="BN24" s="117"/>
+      <c r="BO24" s="117"/>
+      <c r="BP24" s="117"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="117"/>
+      <c r="BX24" s="117"/>
+      <c r="BY24" s="117"/>
+      <c r="BZ24" s="117"/>
+      <c r="CA24" s="117"/>
+      <c r="CB24" s="118"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="88"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
-      <c r="AQ26" s="85" t="s">
+      <c r="AQ26" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="86"/>
-      <c r="BC26" s="86"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="86"/>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="86"/>
-      <c r="BM26" s="86"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="86"/>
-      <c r="BP26" s="86"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="86"/>
-      <c r="BS26" s="86"/>
-      <c r="BT26" s="86"/>
-      <c r="BU26" s="86"/>
-      <c r="BV26" s="86"/>
-      <c r="BW26" s="86"/>
-      <c r="BX26" s="86"/>
-      <c r="BY26" s="86"/>
-      <c r="BZ26" s="86"/>
-      <c r="CA26" s="86"/>
-      <c r="CB26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
+      <c r="BE26" s="87"/>
+      <c r="BF26" s="87"/>
+      <c r="BG26" s="87"/>
+      <c r="BH26" s="87"/>
+      <c r="BI26" s="87"/>
+      <c r="BJ26" s="87"/>
+      <c r="BK26" s="87"/>
+      <c r="BL26" s="87"/>
+      <c r="BM26" s="87"/>
+      <c r="BN26" s="87"/>
+      <c r="BO26" s="87"/>
+      <c r="BP26" s="87"/>
+      <c r="BQ26" s="87"/>
+      <c r="BR26" s="87"/>
+      <c r="BS26" s="87"/>
+      <c r="BT26" s="87"/>
+      <c r="BU26" s="87"/>
+      <c r="BV26" s="87"/>
+      <c r="BW26" s="87"/>
+      <c r="BX26" s="87"/>
+      <c r="BY26" s="87"/>
+      <c r="BZ26" s="87"/>
+      <c r="CA26" s="87"/>
+      <c r="CB26" s="88"/>
     </row>
     <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="90"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="91"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="89"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="89"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="89"/>
-      <c r="BC27" s="89"/>
-      <c r="BD27" s="89"/>
-      <c r="BE27" s="89"/>
-      <c r="BF27" s="89"/>
-      <c r="BG27" s="89"/>
-      <c r="BH27" s="89"/>
-      <c r="BI27" s="89"/>
-      <c r="BJ27" s="89"/>
-      <c r="BK27" s="89"/>
-      <c r="BL27" s="89"/>
-      <c r="BM27" s="89"/>
-      <c r="BN27" s="89"/>
-      <c r="BO27" s="89"/>
-      <c r="BP27" s="89"/>
-      <c r="BQ27" s="89"/>
-      <c r="BR27" s="89"/>
-      <c r="BS27" s="89"/>
-      <c r="BT27" s="89"/>
-      <c r="BU27" s="89"/>
-      <c r="BV27" s="89"/>
-      <c r="BW27" s="89"/>
-      <c r="BX27" s="89"/>
-      <c r="BY27" s="89"/>
-      <c r="BZ27" s="89"/>
-      <c r="CA27" s="89"/>
-      <c r="CB27" s="90"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="90"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="90"/>
+      <c r="BG27" s="90"/>
+      <c r="BH27" s="90"/>
+      <c r="BI27" s="90"/>
+      <c r="BJ27" s="90"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="90"/>
+      <c r="BM27" s="90"/>
+      <c r="BN27" s="90"/>
+      <c r="BO27" s="90"/>
+      <c r="BP27" s="90"/>
+      <c r="BQ27" s="90"/>
+      <c r="BR27" s="90"/>
+      <c r="BS27" s="90"/>
+      <c r="BT27" s="90"/>
+      <c r="BU27" s="90"/>
+      <c r="BV27" s="90"/>
+      <c r="BW27" s="90"/>
+      <c r="BX27" s="90"/>
+      <c r="BY27" s="90"/>
+      <c r="BZ27" s="90"/>
+      <c r="CA27" s="90"/>
+      <c r="CB27" s="91"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
-      <c r="BN28" s="92"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="92"/>
-      <c r="BQ28" s="92"/>
-      <c r="BR28" s="92"/>
-      <c r="BS28" s="92"/>
-      <c r="BT28" s="92"/>
-      <c r="BU28" s="92"/>
-      <c r="BV28" s="92"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="92"/>
-      <c r="BY28" s="92"/>
-      <c r="BZ28" s="92"/>
-      <c r="CA28" s="92"/>
-      <c r="CB28" s="93"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="111"/>
+      <c r="AN28" s="112"/>
+      <c r="AQ28" s="110"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="111"/>
+      <c r="BD28" s="111"/>
+      <c r="BE28" s="111"/>
+      <c r="BF28" s="111"/>
+      <c r="BG28" s="111"/>
+      <c r="BH28" s="111"/>
+      <c r="BI28" s="111"/>
+      <c r="BJ28" s="111"/>
+      <c r="BK28" s="111"/>
+      <c r="BL28" s="111"/>
+      <c r="BM28" s="111"/>
+      <c r="BN28" s="111"/>
+      <c r="BO28" s="111"/>
+      <c r="BP28" s="111"/>
+      <c r="BQ28" s="111"/>
+      <c r="BR28" s="111"/>
+      <c r="BS28" s="111"/>
+      <c r="BT28" s="111"/>
+      <c r="BU28" s="111"/>
+      <c r="BV28" s="111"/>
+      <c r="BW28" s="111"/>
+      <c r="BX28" s="111"/>
+      <c r="BY28" s="111"/>
+      <c r="BZ28" s="111"/>
+      <c r="CA28" s="111"/>
+      <c r="CB28" s="112"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="96"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="96"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="115"/>
+      <c r="AQ29" s="113"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="114"/>
+      <c r="BG29" s="114"/>
+      <c r="BH29" s="114"/>
+      <c r="BI29" s="114"/>
+      <c r="BJ29" s="114"/>
+      <c r="BK29" s="114"/>
+      <c r="BL29" s="114"/>
+      <c r="BM29" s="114"/>
+      <c r="BN29" s="114"/>
+      <c r="BO29" s="114"/>
+      <c r="BP29" s="114"/>
+      <c r="BQ29" s="114"/>
+      <c r="BR29" s="114"/>
+      <c r="BS29" s="114"/>
+      <c r="BT29" s="114"/>
+      <c r="BU29" s="114"/>
+      <c r="BV29" s="114"/>
+      <c r="BW29" s="114"/>
+      <c r="BX29" s="114"/>
+      <c r="BY29" s="114"/>
+      <c r="BZ29" s="114"/>
+      <c r="CA29" s="114"/>
+      <c r="CB29" s="115"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="96"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="96"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="115"/>
+      <c r="AQ30" s="113"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
+      <c r="BM30" s="114"/>
+      <c r="BN30" s="114"/>
+      <c r="BO30" s="114"/>
+      <c r="BP30" s="114"/>
+      <c r="BQ30" s="114"/>
+      <c r="BR30" s="114"/>
+      <c r="BS30" s="114"/>
+      <c r="BT30" s="114"/>
+      <c r="BU30" s="114"/>
+      <c r="BV30" s="114"/>
+      <c r="BW30" s="114"/>
+      <c r="BX30" s="114"/>
+      <c r="BY30" s="114"/>
+      <c r="BZ30" s="114"/>
+      <c r="CA30" s="114"/>
+      <c r="CB30" s="115"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="96"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="115"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+      <c r="AX31" s="114"/>
+      <c r="AY31" s="114"/>
+      <c r="AZ31" s="114"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="114"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="114"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="114"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="114"/>
+      <c r="BU31" s="114"/>
+      <c r="BV31" s="114"/>
+      <c r="BW31" s="114"/>
+      <c r="BX31" s="114"/>
+      <c r="BY31" s="114"/>
+      <c r="BZ31" s="114"/>
+      <c r="CA31" s="114"/>
+      <c r="CB31" s="115"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="96"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="96"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="114"/>
+      <c r="AL32" s="114"/>
+      <c r="AM32" s="114"/>
+      <c r="AN32" s="115"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
+      <c r="AX32" s="114"/>
+      <c r="AY32" s="114"/>
+      <c r="AZ32" s="114"/>
+      <c r="BA32" s="114"/>
+      <c r="BB32" s="114"/>
+      <c r="BC32" s="114"/>
+      <c r="BD32" s="114"/>
+      <c r="BE32" s="114"/>
+      <c r="BF32" s="114"/>
+      <c r="BG32" s="114"/>
+      <c r="BH32" s="114"/>
+      <c r="BI32" s="114"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="114"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
+      <c r="BQ32" s="114"/>
+      <c r="BR32" s="114"/>
+      <c r="BS32" s="114"/>
+      <c r="BT32" s="114"/>
+      <c r="BU32" s="114"/>
+      <c r="BV32" s="114"/>
+      <c r="BW32" s="114"/>
+      <c r="BX32" s="114"/>
+      <c r="BY32" s="114"/>
+      <c r="BZ32" s="114"/>
+      <c r="CA32" s="114"/>
+      <c r="CB32" s="115"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="96"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="96"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="115"/>
+      <c r="AQ33" s="113"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="114"/>
+      <c r="BD33" s="114"/>
+      <c r="BE33" s="114"/>
+      <c r="BF33" s="114"/>
+      <c r="BG33" s="114"/>
+      <c r="BH33" s="114"/>
+      <c r="BI33" s="114"/>
+      <c r="BJ33" s="114"/>
+      <c r="BK33" s="114"/>
+      <c r="BL33" s="114"/>
+      <c r="BM33" s="114"/>
+      <c r="BN33" s="114"/>
+      <c r="BO33" s="114"/>
+      <c r="BP33" s="114"/>
+      <c r="BQ33" s="114"/>
+      <c r="BR33" s="114"/>
+      <c r="BS33" s="114"/>
+      <c r="BT33" s="114"/>
+      <c r="BU33" s="114"/>
+      <c r="BV33" s="114"/>
+      <c r="BW33" s="114"/>
+      <c r="BX33" s="114"/>
+      <c r="BY33" s="114"/>
+      <c r="BZ33" s="114"/>
+      <c r="CA33" s="114"/>
+      <c r="CB33" s="115"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="96"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="96"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="115"/>
+      <c r="AQ34" s="113"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="114"/>
+      <c r="BD34" s="114"/>
+      <c r="BE34" s="114"/>
+      <c r="BF34" s="114"/>
+      <c r="BG34" s="114"/>
+      <c r="BH34" s="114"/>
+      <c r="BI34" s="114"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="114"/>
+      <c r="BL34" s="114"/>
+      <c r="BM34" s="114"/>
+      <c r="BN34" s="114"/>
+      <c r="BO34" s="114"/>
+      <c r="BP34" s="114"/>
+      <c r="BQ34" s="114"/>
+      <c r="BR34" s="114"/>
+      <c r="BS34" s="114"/>
+      <c r="BT34" s="114"/>
+      <c r="BU34" s="114"/>
+      <c r="BV34" s="114"/>
+      <c r="BW34" s="114"/>
+      <c r="BX34" s="114"/>
+      <c r="BY34" s="114"/>
+      <c r="BZ34" s="114"/>
+      <c r="CA34" s="114"/>
+      <c r="CB34" s="115"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="96"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="96"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114"/>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
+      <c r="AG35" s="114"/>
+      <c r="AH35" s="114"/>
+      <c r="AI35" s="114"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="115"/>
+      <c r="AQ35" s="113"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
+      <c r="BB35" s="114"/>
+      <c r="BC35" s="114"/>
+      <c r="BD35" s="114"/>
+      <c r="BE35" s="114"/>
+      <c r="BF35" s="114"/>
+      <c r="BG35" s="114"/>
+      <c r="BH35" s="114"/>
+      <c r="BI35" s="114"/>
+      <c r="BJ35" s="114"/>
+      <c r="BK35" s="114"/>
+      <c r="BL35" s="114"/>
+      <c r="BM35" s="114"/>
+      <c r="BN35" s="114"/>
+      <c r="BO35" s="114"/>
+      <c r="BP35" s="114"/>
+      <c r="BQ35" s="114"/>
+      <c r="BR35" s="114"/>
+      <c r="BS35" s="114"/>
+      <c r="BT35" s="114"/>
+      <c r="BU35" s="114"/>
+      <c r="BV35" s="114"/>
+      <c r="BW35" s="114"/>
+      <c r="BX35" s="114"/>
+      <c r="BY35" s="114"/>
+      <c r="BZ35" s="114"/>
+      <c r="CA35" s="114"/>
+      <c r="CB35" s="115"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="96"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="96"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="114"/>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="114"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="114"/>
+      <c r="AN36" s="115"/>
+      <c r="AQ36" s="113"/>
+      <c r="AR36" s="114"/>
+      <c r="AS36" s="114"/>
+      <c r="AT36" s="114"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="114"/>
+      <c r="AW36" s="114"/>
+      <c r="AX36" s="114"/>
+      <c r="AY36" s="114"/>
+      <c r="AZ36" s="114"/>
+      <c r="BA36" s="114"/>
+      <c r="BB36" s="114"/>
+      <c r="BC36" s="114"/>
+      <c r="BD36" s="114"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="114"/>
+      <c r="BG36" s="114"/>
+      <c r="BH36" s="114"/>
+      <c r="BI36" s="114"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="114"/>
+      <c r="BL36" s="114"/>
+      <c r="BM36" s="114"/>
+      <c r="BN36" s="114"/>
+      <c r="BO36" s="114"/>
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="114"/>
+      <c r="BR36" s="114"/>
+      <c r="BS36" s="114"/>
+      <c r="BT36" s="114"/>
+      <c r="BU36" s="114"/>
+      <c r="BV36" s="114"/>
+      <c r="BW36" s="114"/>
+      <c r="BX36" s="114"/>
+      <c r="BY36" s="114"/>
+      <c r="BZ36" s="114"/>
+      <c r="CA36" s="114"/>
+      <c r="CB36" s="115"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="96"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="95"/>
-      <c r="BL37" s="95"/>
-      <c r="BM37" s="95"/>
-      <c r="BN37" s="95"/>
-      <c r="BO37" s="95"/>
-      <c r="BP37" s="95"/>
-      <c r="BQ37" s="95"/>
-      <c r="BR37" s="95"/>
-      <c r="BS37" s="95"/>
-      <c r="BT37" s="95"/>
-      <c r="BU37" s="95"/>
-      <c r="BV37" s="95"/>
-      <c r="BW37" s="95"/>
-      <c r="BX37" s="95"/>
-      <c r="BY37" s="95"/>
-      <c r="BZ37" s="95"/>
-      <c r="CA37" s="95"/>
-      <c r="CB37" s="96"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="114"/>
+      <c r="AC37" s="114"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="114"/>
+      <c r="AI37" s="114"/>
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="114"/>
+      <c r="AL37" s="114"/>
+      <c r="AM37" s="114"/>
+      <c r="AN37" s="115"/>
+      <c r="AQ37" s="113"/>
+      <c r="AR37" s="114"/>
+      <c r="AS37" s="114"/>
+      <c r="AT37" s="114"/>
+      <c r="AU37" s="114"/>
+      <c r="AV37" s="114"/>
+      <c r="AW37" s="114"/>
+      <c r="AX37" s="114"/>
+      <c r="AY37" s="114"/>
+      <c r="AZ37" s="114"/>
+      <c r="BA37" s="114"/>
+      <c r="BB37" s="114"/>
+      <c r="BC37" s="114"/>
+      <c r="BD37" s="114"/>
+      <c r="BE37" s="114"/>
+      <c r="BF37" s="114"/>
+      <c r="BG37" s="114"/>
+      <c r="BH37" s="114"/>
+      <c r="BI37" s="114"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="114"/>
+      <c r="BL37" s="114"/>
+      <c r="BM37" s="114"/>
+      <c r="BN37" s="114"/>
+      <c r="BO37" s="114"/>
+      <c r="BP37" s="114"/>
+      <c r="BQ37" s="114"/>
+      <c r="BR37" s="114"/>
+      <c r="BS37" s="114"/>
+      <c r="BT37" s="114"/>
+      <c r="BU37" s="114"/>
+      <c r="BV37" s="114"/>
+      <c r="BW37" s="114"/>
+      <c r="BX37" s="114"/>
+      <c r="BY37" s="114"/>
+      <c r="BZ37" s="114"/>
+      <c r="CA37" s="114"/>
+      <c r="CB37" s="115"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="96"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="95"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="95"/>
-      <c r="BO38" s="95"/>
-      <c r="BP38" s="95"/>
-      <c r="BQ38" s="95"/>
-      <c r="BR38" s="95"/>
-      <c r="BS38" s="95"/>
-      <c r="BT38" s="95"/>
-      <c r="BU38" s="95"/>
-      <c r="BV38" s="95"/>
-      <c r="BW38" s="95"/>
-      <c r="BX38" s="95"/>
-      <c r="BY38" s="95"/>
-      <c r="BZ38" s="95"/>
-      <c r="CA38" s="95"/>
-      <c r="CB38" s="96"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="114"/>
+      <c r="Z38" s="114"/>
+      <c r="AA38" s="114"/>
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
+      <c r="AG38" s="114"/>
+      <c r="AH38" s="114"/>
+      <c r="AI38" s="114"/>
+      <c r="AJ38" s="114"/>
+      <c r="AK38" s="114"/>
+      <c r="AL38" s="114"/>
+      <c r="AM38" s="114"/>
+      <c r="AN38" s="115"/>
+      <c r="AQ38" s="113"/>
+      <c r="AR38" s="114"/>
+      <c r="AS38" s="114"/>
+      <c r="AT38" s="114"/>
+      <c r="AU38" s="114"/>
+      <c r="AV38" s="114"/>
+      <c r="AW38" s="114"/>
+      <c r="AX38" s="114"/>
+      <c r="AY38" s="114"/>
+      <c r="AZ38" s="114"/>
+      <c r="BA38" s="114"/>
+      <c r="BB38" s="114"/>
+      <c r="BC38" s="114"/>
+      <c r="BD38" s="114"/>
+      <c r="BE38" s="114"/>
+      <c r="BF38" s="114"/>
+      <c r="BG38" s="114"/>
+      <c r="BH38" s="114"/>
+      <c r="BI38" s="114"/>
+      <c r="BJ38" s="114"/>
+      <c r="BK38" s="114"/>
+      <c r="BL38" s="114"/>
+      <c r="BM38" s="114"/>
+      <c r="BN38" s="114"/>
+      <c r="BO38" s="114"/>
+      <c r="BP38" s="114"/>
+      <c r="BQ38" s="114"/>
+      <c r="BR38" s="114"/>
+      <c r="BS38" s="114"/>
+      <c r="BT38" s="114"/>
+      <c r="BU38" s="114"/>
+      <c r="BV38" s="114"/>
+      <c r="BW38" s="114"/>
+      <c r="BX38" s="114"/>
+      <c r="BY38" s="114"/>
+      <c r="BZ38" s="114"/>
+      <c r="CA38" s="114"/>
+      <c r="CB38" s="115"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
-      <c r="BF39" s="95"/>
-      <c r="BG39" s="95"/>
-      <c r="BH39" s="95"/>
-      <c r="BI39" s="95"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="95"/>
-      <c r="BP39" s="95"/>
-      <c r="BQ39" s="95"/>
-      <c r="BR39" s="95"/>
-      <c r="BS39" s="95"/>
-      <c r="BT39" s="95"/>
-      <c r="BU39" s="95"/>
-      <c r="BV39" s="95"/>
-      <c r="BW39" s="95"/>
-      <c r="BX39" s="95"/>
-      <c r="BY39" s="95"/>
-      <c r="BZ39" s="95"/>
-      <c r="CA39" s="95"/>
-      <c r="CB39" s="96"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
+      <c r="Z39" s="114"/>
+      <c r="AA39" s="114"/>
+      <c r="AB39" s="114"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="114"/>
+      <c r="AF39" s="114"/>
+      <c r="AG39" s="114"/>
+      <c r="AH39" s="114"/>
+      <c r="AI39" s="114"/>
+      <c r="AJ39" s="114"/>
+      <c r="AK39" s="114"/>
+      <c r="AL39" s="114"/>
+      <c r="AM39" s="114"/>
+      <c r="AN39" s="115"/>
+      <c r="AQ39" s="113"/>
+      <c r="AR39" s="114"/>
+      <c r="AS39" s="114"/>
+      <c r="AT39" s="114"/>
+      <c r="AU39" s="114"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="114"/>
+      <c r="AX39" s="114"/>
+      <c r="AY39" s="114"/>
+      <c r="AZ39" s="114"/>
+      <c r="BA39" s="114"/>
+      <c r="BB39" s="114"/>
+      <c r="BC39" s="114"/>
+      <c r="BD39" s="114"/>
+      <c r="BE39" s="114"/>
+      <c r="BF39" s="114"/>
+      <c r="BG39" s="114"/>
+      <c r="BH39" s="114"/>
+      <c r="BI39" s="114"/>
+      <c r="BJ39" s="114"/>
+      <c r="BK39" s="114"/>
+      <c r="BL39" s="114"/>
+      <c r="BM39" s="114"/>
+      <c r="BN39" s="114"/>
+      <c r="BO39" s="114"/>
+      <c r="BP39" s="114"/>
+      <c r="BQ39" s="114"/>
+      <c r="BR39" s="114"/>
+      <c r="BS39" s="114"/>
+      <c r="BT39" s="114"/>
+      <c r="BU39" s="114"/>
+      <c r="BV39" s="114"/>
+      <c r="BW39" s="114"/>
+      <c r="BX39" s="114"/>
+      <c r="BY39" s="114"/>
+      <c r="BZ39" s="114"/>
+      <c r="CA39" s="114"/>
+      <c r="CB39" s="115"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="96"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="114"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="114"/>
+      <c r="AN40" s="115"/>
+      <c r="AQ40" s="113"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
+      <c r="AZ40" s="114"/>
+      <c r="BA40" s="114"/>
+      <c r="BB40" s="114"/>
+      <c r="BC40" s="114"/>
+      <c r="BD40" s="114"/>
+      <c r="BE40" s="114"/>
+      <c r="BF40" s="114"/>
+      <c r="BG40" s="114"/>
+      <c r="BH40" s="114"/>
+      <c r="BI40" s="114"/>
+      <c r="BJ40" s="114"/>
+      <c r="BK40" s="114"/>
+      <c r="BL40" s="114"/>
+      <c r="BM40" s="114"/>
+      <c r="BN40" s="114"/>
+      <c r="BO40" s="114"/>
+      <c r="BP40" s="114"/>
+      <c r="BQ40" s="114"/>
+      <c r="BR40" s="114"/>
+      <c r="BS40" s="114"/>
+      <c r="BT40" s="114"/>
+      <c r="BU40" s="114"/>
+      <c r="BV40" s="114"/>
+      <c r="BW40" s="114"/>
+      <c r="BX40" s="114"/>
+      <c r="BY40" s="114"/>
+      <c r="BZ40" s="114"/>
+      <c r="CA40" s="114"/>
+      <c r="CB40" s="115"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="95"/>
-      <c r="BT41" s="95"/>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="95"/>
-      <c r="BW41" s="95"/>
-      <c r="BX41" s="95"/>
-      <c r="BY41" s="95"/>
-      <c r="BZ41" s="95"/>
-      <c r="CA41" s="95"/>
-      <c r="CB41" s="96"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
+      <c r="AB41" s="114"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="114"/>
+      <c r="AJ41" s="114"/>
+      <c r="AK41" s="114"/>
+      <c r="AL41" s="114"/>
+      <c r="AM41" s="114"/>
+      <c r="AN41" s="115"/>
+      <c r="AQ41" s="113"/>
+      <c r="AR41" s="114"/>
+      <c r="AS41" s="114"/>
+      <c r="AT41" s="114"/>
+      <c r="AU41" s="114"/>
+      <c r="AV41" s="114"/>
+      <c r="AW41" s="114"/>
+      <c r="AX41" s="114"/>
+      <c r="AY41" s="114"/>
+      <c r="AZ41" s="114"/>
+      <c r="BA41" s="114"/>
+      <c r="BB41" s="114"/>
+      <c r="BC41" s="114"/>
+      <c r="BD41" s="114"/>
+      <c r="BE41" s="114"/>
+      <c r="BF41" s="114"/>
+      <c r="BG41" s="114"/>
+      <c r="BH41" s="114"/>
+      <c r="BI41" s="114"/>
+      <c r="BJ41" s="114"/>
+      <c r="BK41" s="114"/>
+      <c r="BL41" s="114"/>
+      <c r="BM41" s="114"/>
+      <c r="BN41" s="114"/>
+      <c r="BO41" s="114"/>
+      <c r="BP41" s="114"/>
+      <c r="BQ41" s="114"/>
+      <c r="BR41" s="114"/>
+      <c r="BS41" s="114"/>
+      <c r="BT41" s="114"/>
+      <c r="BU41" s="114"/>
+      <c r="BV41" s="114"/>
+      <c r="BW41" s="114"/>
+      <c r="BX41" s="114"/>
+      <c r="BY41" s="114"/>
+      <c r="BZ41" s="114"/>
+      <c r="CA41" s="114"/>
+      <c r="CB41" s="115"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-      <c r="BM42" s="95"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="95"/>
-      <c r="BT42" s="95"/>
-      <c r="BU42" s="95"/>
-      <c r="BV42" s="95"/>
-      <c r="BW42" s="95"/>
-      <c r="BX42" s="95"/>
-      <c r="BY42" s="95"/>
-      <c r="BZ42" s="95"/>
-      <c r="CA42" s="95"/>
-      <c r="CB42" s="96"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="114"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="114"/>
+      <c r="AK42" s="114"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="114"/>
+      <c r="AN42" s="115"/>
+      <c r="AQ42" s="113"/>
+      <c r="AR42" s="114"/>
+      <c r="AS42" s="114"/>
+      <c r="AT42" s="114"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="114"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="114"/>
+      <c r="AY42" s="114"/>
+      <c r="AZ42" s="114"/>
+      <c r="BA42" s="114"/>
+      <c r="BB42" s="114"/>
+      <c r="BC42" s="114"/>
+      <c r="BD42" s="114"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="114"/>
+      <c r="BG42" s="114"/>
+      <c r="BH42" s="114"/>
+      <c r="BI42" s="114"/>
+      <c r="BJ42" s="114"/>
+      <c r="BK42" s="114"/>
+      <c r="BL42" s="114"/>
+      <c r="BM42" s="114"/>
+      <c r="BN42" s="114"/>
+      <c r="BO42" s="114"/>
+      <c r="BP42" s="114"/>
+      <c r="BQ42" s="114"/>
+      <c r="BR42" s="114"/>
+      <c r="BS42" s="114"/>
+      <c r="BT42" s="114"/>
+      <c r="BU42" s="114"/>
+      <c r="BV42" s="114"/>
+      <c r="BW42" s="114"/>
+      <c r="BX42" s="114"/>
+      <c r="BY42" s="114"/>
+      <c r="BZ42" s="114"/>
+      <c r="CA42" s="114"/>
+      <c r="CB42" s="115"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="95"/>
-      <c r="CA43" s="95"/>
-      <c r="CB43" s="96"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="115"/>
+      <c r="AQ43" s="113"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="114"/>
+      <c r="AZ43" s="114"/>
+      <c r="BA43" s="114"/>
+      <c r="BB43" s="114"/>
+      <c r="BC43" s="114"/>
+      <c r="BD43" s="114"/>
+      <c r="BE43" s="114"/>
+      <c r="BF43" s="114"/>
+      <c r="BG43" s="114"/>
+      <c r="BH43" s="114"/>
+      <c r="BI43" s="114"/>
+      <c r="BJ43" s="114"/>
+      <c r="BK43" s="114"/>
+      <c r="BL43" s="114"/>
+      <c r="BM43" s="114"/>
+      <c r="BN43" s="114"/>
+      <c r="BO43" s="114"/>
+      <c r="BP43" s="114"/>
+      <c r="BQ43" s="114"/>
+      <c r="BR43" s="114"/>
+      <c r="BS43" s="114"/>
+      <c r="BT43" s="114"/>
+      <c r="BU43" s="114"/>
+      <c r="BV43" s="114"/>
+      <c r="BW43" s="114"/>
+      <c r="BX43" s="114"/>
+      <c r="BY43" s="114"/>
+      <c r="BZ43" s="114"/>
+      <c r="CA43" s="114"/>
+      <c r="CB43" s="115"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="96"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="114"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="114"/>
+      <c r="AB44" s="114"/>
+      <c r="AC44" s="114"/>
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="114"/>
+      <c r="AF44" s="114"/>
+      <c r="AG44" s="114"/>
+      <c r="AH44" s="114"/>
+      <c r="AI44" s="114"/>
+      <c r="AJ44" s="114"/>
+      <c r="AK44" s="114"/>
+      <c r="AL44" s="114"/>
+      <c r="AM44" s="114"/>
+      <c r="AN44" s="115"/>
+      <c r="AQ44" s="113"/>
+      <c r="AR44" s="114"/>
+      <c r="AS44" s="114"/>
+      <c r="AT44" s="114"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="114"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="114"/>
+      <c r="AY44" s="114"/>
+      <c r="AZ44" s="114"/>
+      <c r="BA44" s="114"/>
+      <c r="BB44" s="114"/>
+      <c r="BC44" s="114"/>
+      <c r="BD44" s="114"/>
+      <c r="BE44" s="114"/>
+      <c r="BF44" s="114"/>
+      <c r="BG44" s="114"/>
+      <c r="BH44" s="114"/>
+      <c r="BI44" s="114"/>
+      <c r="BJ44" s="114"/>
+      <c r="BK44" s="114"/>
+      <c r="BL44" s="114"/>
+      <c r="BM44" s="114"/>
+      <c r="BN44" s="114"/>
+      <c r="BO44" s="114"/>
+      <c r="BP44" s="114"/>
+      <c r="BQ44" s="114"/>
+      <c r="BR44" s="114"/>
+      <c r="BS44" s="114"/>
+      <c r="BT44" s="114"/>
+      <c r="BU44" s="114"/>
+      <c r="BV44" s="114"/>
+      <c r="BW44" s="114"/>
+      <c r="BX44" s="114"/>
+      <c r="BY44" s="114"/>
+      <c r="BZ44" s="114"/>
+      <c r="CA44" s="114"/>
+      <c r="CB44" s="115"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="95"/>
-      <c r="BH45" s="95"/>
-      <c r="BI45" s="95"/>
-      <c r="BJ45" s="95"/>
-      <c r="BK45" s="95"/>
-      <c r="BL45" s="95"/>
-      <c r="BM45" s="95"/>
-      <c r="BN45" s="95"/>
-      <c r="BO45" s="95"/>
-      <c r="BP45" s="95"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="95"/>
-      <c r="BU45" s="95"/>
-      <c r="BV45" s="95"/>
-      <c r="BW45" s="95"/>
-      <c r="BX45" s="95"/>
-      <c r="BY45" s="95"/>
-      <c r="BZ45" s="95"/>
-      <c r="CA45" s="95"/>
-      <c r="CB45" s="96"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
+      <c r="Z45" s="114"/>
+      <c r="AA45" s="114"/>
+      <c r="AB45" s="114"/>
+      <c r="AC45" s="114"/>
+      <c r="AD45" s="114"/>
+      <c r="AE45" s="114"/>
+      <c r="AF45" s="114"/>
+      <c r="AG45" s="114"/>
+      <c r="AH45" s="114"/>
+      <c r="AI45" s="114"/>
+      <c r="AJ45" s="114"/>
+      <c r="AK45" s="114"/>
+      <c r="AL45" s="114"/>
+      <c r="AM45" s="114"/>
+      <c r="AN45" s="115"/>
+      <c r="AQ45" s="113"/>
+      <c r="AR45" s="114"/>
+      <c r="AS45" s="114"/>
+      <c r="AT45" s="114"/>
+      <c r="AU45" s="114"/>
+      <c r="AV45" s="114"/>
+      <c r="AW45" s="114"/>
+      <c r="AX45" s="114"/>
+      <c r="AY45" s="114"/>
+      <c r="AZ45" s="114"/>
+      <c r="BA45" s="114"/>
+      <c r="BB45" s="114"/>
+      <c r="BC45" s="114"/>
+      <c r="BD45" s="114"/>
+      <c r="BE45" s="114"/>
+      <c r="BF45" s="114"/>
+      <c r="BG45" s="114"/>
+      <c r="BH45" s="114"/>
+      <c r="BI45" s="114"/>
+      <c r="BJ45" s="114"/>
+      <c r="BK45" s="114"/>
+      <c r="BL45" s="114"/>
+      <c r="BM45" s="114"/>
+      <c r="BN45" s="114"/>
+      <c r="BO45" s="114"/>
+      <c r="BP45" s="114"/>
+      <c r="BQ45" s="114"/>
+      <c r="BR45" s="114"/>
+      <c r="BS45" s="114"/>
+      <c r="BT45" s="114"/>
+      <c r="BU45" s="114"/>
+      <c r="BV45" s="114"/>
+      <c r="BW45" s="114"/>
+      <c r="BX45" s="114"/>
+      <c r="BY45" s="114"/>
+      <c r="BZ45" s="114"/>
+      <c r="CA45" s="114"/>
+      <c r="CB45" s="115"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98"/>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98"/>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98"/>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="99"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="117"/>
+      <c r="AD46" s="117"/>
+      <c r="AE46" s="117"/>
+      <c r="AF46" s="117"/>
+      <c r="AG46" s="117"/>
+      <c r="AH46" s="117"/>
+      <c r="AI46" s="117"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="117"/>
+      <c r="AL46" s="117"/>
+      <c r="AM46" s="117"/>
+      <c r="AN46" s="118"/>
+      <c r="AQ46" s="116"/>
+      <c r="AR46" s="117"/>
+      <c r="AS46" s="117"/>
+      <c r="AT46" s="117"/>
+      <c r="AU46" s="117"/>
+      <c r="AV46" s="117"/>
+      <c r="AW46" s="117"/>
+      <c r="AX46" s="117"/>
+      <c r="AY46" s="117"/>
+      <c r="AZ46" s="117"/>
+      <c r="BA46" s="117"/>
+      <c r="BB46" s="117"/>
+      <c r="BC46" s="117"/>
+      <c r="BD46" s="117"/>
+      <c r="BE46" s="117"/>
+      <c r="BF46" s="117"/>
+      <c r="BG46" s="117"/>
+      <c r="BH46" s="117"/>
+      <c r="BI46" s="117"/>
+      <c r="BJ46" s="117"/>
+      <c r="BK46" s="117"/>
+      <c r="BL46" s="117"/>
+      <c r="BM46" s="117"/>
+      <c r="BN46" s="117"/>
+      <c r="BO46" s="117"/>
+      <c r="BP46" s="117"/>
+      <c r="BQ46" s="117"/>
+      <c r="BR46" s="117"/>
+      <c r="BS46" s="117"/>
+      <c r="BT46" s="117"/>
+      <c r="BU46" s="117"/>
+      <c r="BV46" s="117"/>
+      <c r="BW46" s="117"/>
+      <c r="BX46" s="117"/>
+      <c r="BY46" s="117"/>
+      <c r="BZ46" s="117"/>
+      <c r="CA46" s="117"/>
+      <c r="CB46" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303BEE8-D77E-4854-9E20-F45F3DCDD6D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A827619-39AA-4C3E-89FC-B62C864D5E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="171">
   <si>
     <t>Produtos</t>
   </si>
@@ -594,12 +594,6 @@
     <t xml:space="preserve">Preço Unitário: </t>
   </si>
   <si>
-    <t>PROCV</t>
-  </si>
-  <si>
-    <t>PROCX</t>
-  </si>
-  <si>
     <t>DIA.DA.SEMANA</t>
   </si>
   <si>
@@ -610,6 +604,9 @@
   </si>
   <si>
     <t xml:space="preserve">Situação SES: </t>
+  </si>
+  <si>
+    <t>Estoque Mínimo</t>
   </si>
 </sst>
 </file>
@@ -622,7 +619,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,13 +779,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Montserrat"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1302,7 +1292,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1466,8 +1456,6 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,11 +1480,8 @@
     <xf numFmtId="165" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,7 +1491,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,6 +1511,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,32 +1593,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1619,6 +1610,16 @@
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1661,16 +1662,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -8329,24 +8320,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Cabeçalho Meteora">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Cabeçalho Meteora">
   <autoFilter ref="A4:I86" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="9">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="8">
       <calculatedColumnFormula>PROPER(TEXT(DATE(,TB_Vendas[[#This Row],[Nº]],1),"Mmm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="2" dataCellStyle="Porcentagem"/>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem"/>
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8663,88 +8654,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -8850,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -10160,10 +10151,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.15" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -10363,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="71"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10391,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="71"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10419,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="71"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10447,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10475,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10503,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10531,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="71"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10559,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="71"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10587,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="71"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10615,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10643,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="71"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10671,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10699,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="71"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10727,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10755,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="71"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10783,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10811,7 +10802,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="71"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10839,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="71"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10867,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="71"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10895,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10923,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10951,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -10979,7 +10970,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11007,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11035,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11063,7 +11054,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="29"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11091,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="71"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11119,7 +11110,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11147,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="71"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11175,7 +11166,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="29"/>
-      <c r="G34" s="71"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11203,7 +11194,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="71"/>
+      <c r="G35" s="69"/>
       <c r="H35" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11231,7 +11222,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="71"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11259,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="71"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11287,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="71"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11315,7 +11306,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="G39" s="71"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11343,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="29"/>
-      <c r="G40" s="71"/>
+      <c r="G40" s="69"/>
       <c r="H40" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11371,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="29"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11399,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="29"/>
-      <c r="G42" s="71"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11427,7 +11418,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="29"/>
-      <c r="G43" s="71"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11455,7 +11446,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="71"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11483,7 +11474,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="29"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11511,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="29"/>
-      <c r="G46" s="71"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11539,7 +11530,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="29"/>
-      <c r="G47" s="71"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11567,7 +11558,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="29"/>
-      <c r="G48" s="71"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11595,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="29"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11623,7 +11614,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="71"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11651,7 +11642,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="29"/>
-      <c r="G51" s="71"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11679,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="29"/>
-      <c r="G52" s="71"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11707,7 +11698,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="29"/>
-      <c r="G53" s="71"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11735,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="29"/>
-      <c r="G54" s="71"/>
+      <c r="G54" s="69"/>
       <c r="H54" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11763,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="29"/>
-      <c r="G55" s="71"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11791,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="29"/>
-      <c r="G56" s="71"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11819,7 +11810,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="29"/>
-      <c r="G57" s="71"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11847,7 +11838,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="29"/>
-      <c r="G58" s="71"/>
+      <c r="G58" s="69"/>
       <c r="H58" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11875,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="29"/>
-      <c r="G59" s="71"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11903,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="29"/>
-      <c r="G60" s="71"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11931,7 +11922,7 @@
         <v>5</v>
       </c>
       <c r="F61" s="29"/>
-      <c r="G61" s="71"/>
+      <c r="G61" s="69"/>
       <c r="H61" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11959,7 +11950,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="29"/>
-      <c r="G62" s="71"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -11987,7 +11978,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="29"/>
-      <c r="G63" s="71"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12015,7 +12006,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="29"/>
-      <c r="G64" s="71"/>
+      <c r="G64" s="69"/>
       <c r="H64" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12043,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="29"/>
-      <c r="G65" s="71"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12071,7 +12062,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="29"/>
-      <c r="G66" s="71"/>
+      <c r="G66" s="69"/>
       <c r="H66" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12099,7 +12090,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="29"/>
-      <c r="G67" s="71"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12127,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="F68" s="29"/>
-      <c r="G68" s="71"/>
+      <c r="G68" s="69"/>
       <c r="H68" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12155,7 +12146,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="29"/>
-      <c r="G69" s="71"/>
+      <c r="G69" s="69"/>
       <c r="H69" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12183,7 +12174,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="29"/>
-      <c r="G70" s="71"/>
+      <c r="G70" s="69"/>
       <c r="H70" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12211,7 +12202,7 @@
         <v>4</v>
       </c>
       <c r="F71" s="29"/>
-      <c r="G71" s="71"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12239,7 +12230,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="29"/>
-      <c r="G72" s="71"/>
+      <c r="G72" s="69"/>
       <c r="H72" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12267,7 +12258,7 @@
         <v>9</v>
       </c>
       <c r="F73" s="29"/>
-      <c r="G73" s="71"/>
+      <c r="G73" s="69"/>
       <c r="H73" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12295,7 +12286,7 @@
         <v>4</v>
       </c>
       <c r="F74" s="29"/>
-      <c r="G74" s="71"/>
+      <c r="G74" s="69"/>
       <c r="H74" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12323,7 +12314,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="29"/>
-      <c r="G75" s="71"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12351,7 +12342,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="29"/>
-      <c r="G76" s="71"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12379,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="29"/>
-      <c r="G77" s="71"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12407,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="29"/>
-      <c r="G78" s="71"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12435,7 +12426,7 @@
         <v>8</v>
       </c>
       <c r="F79" s="29"/>
-      <c r="G79" s="71"/>
+      <c r="G79" s="69"/>
       <c r="H79" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12463,7 +12454,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="29"/>
-      <c r="G80" s="71"/>
+      <c r="G80" s="69"/>
       <c r="H80" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12491,7 +12482,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="29"/>
-      <c r="G81" s="71"/>
+      <c r="G81" s="69"/>
       <c r="H81" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12519,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="29"/>
-      <c r="G82" s="71"/>
+      <c r="G82" s="69"/>
       <c r="H82" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12547,7 +12538,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="29"/>
-      <c r="G83" s="71"/>
+      <c r="G83" s="69"/>
       <c r="H83" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12575,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="29"/>
-      <c r="G84" s="71"/>
+      <c r="G84" s="69"/>
       <c r="H84" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12603,7 +12594,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="29"/>
-      <c r="G85" s="71"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12631,7 +12622,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="29"/>
-      <c r="G86" s="71"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>0</v>
@@ -12643,7 +12634,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E4:G4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12660,7 +12651,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12705,40 +12696,40 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="75">
         <v>45024</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
         <v>Calça jeans</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="71" t="s">
         <v>163</v>
       </c>
       <c r="F7" s="50" t="str">
@@ -12748,28 +12739,28 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="72" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="48" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
         <v>P</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="78"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>158</v>
       </c>
       <c r="C9" s="48" t="str">
         <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,4,0),"Não encontrado")</f>
         <v>Vestuário</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="74" t="s">
         <v>162</v>
       </c>
       <c r="F9" s="51">
@@ -12779,17 +12770,17 @@
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="79">
         <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,6,0),"Não encontrado")</f>
         <v>85.9</v>
       </c>
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>159</v>
       </c>
       <c r="C11" s="48">
@@ -12797,44 +12788,52 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
+      <c r="B12" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
-      <c r="B12" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="48" t="str">
         <f>IF(C11&gt;10,"Estoque OK", IF(C11=0,"Estoque zerado", "Rever estoque"))</f>
         <v>Estoque OK</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="77"/>
       <c r="F12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" thickTop="1" thickBot="1">
+      <c r="B13" s="71" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" thickBot="1">
-      <c r="B13" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="82" t="str">
-        <f>_xlfn.IFS(C11=0,"Estoque Zerado",C11&gt;=10,"Estoque ok",1, "Rever estoque")</f>
+      <c r="C13" s="48" t="str">
+        <f>_xlfn.IFS(C11=0,"Estoque Zerado",C11&gt;=C14,"Estoque ok",1, "Rever estoque")</f>
         <v>Estoque ok</v>
       </c>
-      <c r="E13" s="81"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickTop="1">
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="117">
+        <f>VLOOKUP(C9,'Cadastros Auxiliares'!G8:H11,2,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
+      <c r="B15" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="48" t="str">
+        <f>_xlfn.IFS(C13=0,"Estoque Zerado",C13&gt;=VLOOKUP(C9,'Cadastros Auxiliares'!G8:H11,2,FALSE),"Estoque ok",1, "Rever estoque")</f>
+        <v>Estoque ok</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>
@@ -12877,7 +12876,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12982,6 +12981,12 @@
       <c r="E8" s="61" t="s">
         <v>14</v>
       </c>
+      <c r="G8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
       <c r="B9" s="55">
@@ -12996,7 +13001,12 @@
       <c r="E9" s="62">
         <v>0</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="116">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1">
       <c r="B10" s="55">
@@ -13011,7 +13021,12 @@
       <c r="E10" s="62">
         <v>0.1</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="116">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
       <c r="B11" s="55">
@@ -13026,6 +13041,12 @@
       <c r="E11" s="62">
         <v>0.15</v>
       </c>
+      <c r="G11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="116">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="55">
@@ -13054,7 +13075,6 @@
       <c r="E13" s="62">
         <v>0.3</v>
       </c>
-      <c r="G13" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -13318,3300 +13338,3300 @@
   <sheetData>
     <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="88"/>
-      <c r="AQ2" s="86" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
+      <c r="AQ2" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="88"/>
-      <c r="BK2" s="86" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="85"/>
+      <c r="BK2" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="87"/>
-      <c r="BO2" s="87"/>
-      <c r="BP2" s="87"/>
-      <c r="BQ2" s="87"/>
-      <c r="BR2" s="87"/>
-      <c r="BS2" s="87"/>
-      <c r="BT2" s="87"/>
-      <c r="BU2" s="87"/>
-      <c r="BV2" s="87"/>
-      <c r="BW2" s="87"/>
-      <c r="BX2" s="87"/>
-      <c r="BY2" s="87"/>
-      <c r="BZ2" s="87"/>
-      <c r="CA2" s="87"/>
-      <c r="CB2" s="88"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="84"/>
+      <c r="BU2" s="84"/>
+      <c r="BV2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="84"/>
+      <c r="BY2" s="84"/>
+      <c r="BZ2" s="84"/>
+      <c r="CA2" s="84"/>
+      <c r="CB2" s="85"/>
     </row>
     <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="89"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="91"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="91"/>
-      <c r="BK3" s="89"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BX3" s="90"/>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CB3" s="91"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="88"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="87"/>
+      <c r="BH3" s="88"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="87"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="87"/>
+      <c r="BQ3" s="87"/>
+      <c r="BR3" s="87"/>
+      <c r="BS3" s="87"/>
+      <c r="BT3" s="87"/>
+      <c r="BU3" s="87"/>
+      <c r="BV3" s="87"/>
+      <c r="BW3" s="87"/>
+      <c r="BX3" s="87"/>
+      <c r="BY3" s="87"/>
+      <c r="BZ3" s="87"/>
+      <c r="CA3" s="87"/>
+      <c r="CB3" s="88"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="92">
+      <c r="W4" s="98">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94"/>
-      <c r="AQ4" s="92">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="100"/>
+      <c r="AQ4" s="98">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="94"/>
-      <c r="BK4" s="101">
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="100"/>
+      <c r="BK4" s="107">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102"/>
-      <c r="BP4" s="102"/>
-      <c r="BQ4" s="102"/>
-      <c r="BR4" s="102"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="102"/>
-      <c r="BW4" s="102"/>
-      <c r="BX4" s="102"/>
-      <c r="BY4" s="102"/>
-      <c r="BZ4" s="102"/>
-      <c r="CA4" s="102"/>
-      <c r="CB4" s="103"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="108"/>
+      <c r="BN4" s="108"/>
+      <c r="BO4" s="108"/>
+      <c r="BP4" s="108"/>
+      <c r="BQ4" s="108"/>
+      <c r="BR4" s="108"/>
+      <c r="BS4" s="108"/>
+      <c r="BT4" s="108"/>
+      <c r="BU4" s="108"/>
+      <c r="BV4" s="108"/>
+      <c r="BW4" s="108"/>
+      <c r="BX4" s="108"/>
+      <c r="BY4" s="108"/>
+      <c r="BZ4" s="108"/>
+      <c r="CA4" s="108"/>
+      <c r="CB4" s="109"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="95"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="97"/>
-      <c r="AQ5" s="95"/>
-      <c r="AR5" s="96"/>
-      <c r="AS5" s="96"/>
-      <c r="AT5" s="96"/>
-      <c r="AU5" s="96"/>
-      <c r="AV5" s="96"/>
-      <c r="AW5" s="96"/>
-      <c r="AX5" s="96"/>
-      <c r="AY5" s="96"/>
-      <c r="AZ5" s="96"/>
-      <c r="BA5" s="96"/>
-      <c r="BB5" s="96"/>
-      <c r="BC5" s="96"/>
-      <c r="BD5" s="96"/>
-      <c r="BE5" s="96"/>
-      <c r="BF5" s="96"/>
-      <c r="BG5" s="96"/>
-      <c r="BH5" s="97"/>
-      <c r="BK5" s="104"/>
-      <c r="BL5" s="105"/>
-      <c r="BM5" s="105"/>
-      <c r="BN5" s="105"/>
-      <c r="BO5" s="105"/>
-      <c r="BP5" s="105"/>
-      <c r="BQ5" s="105"/>
-      <c r="BR5" s="105"/>
-      <c r="BS5" s="105"/>
-      <c r="BT5" s="105"/>
-      <c r="BU5" s="105"/>
-      <c r="BV5" s="105"/>
-      <c r="BW5" s="105"/>
-      <c r="BX5" s="105"/>
-      <c r="BY5" s="105"/>
-      <c r="BZ5" s="105"/>
-      <c r="CA5" s="105"/>
-      <c r="CB5" s="106"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="103"/>
+      <c r="AQ5" s="101"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
+      <c r="BH5" s="103"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="111"/>
+      <c r="BO5" s="111"/>
+      <c r="BP5" s="111"/>
+      <c r="BQ5" s="111"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="111"/>
+      <c r="BV5" s="111"/>
+      <c r="BW5" s="111"/>
+      <c r="BX5" s="111"/>
+      <c r="BY5" s="111"/>
+      <c r="BZ5" s="111"/>
+      <c r="CA5" s="111"/>
+      <c r="CB5" s="112"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="95"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="97"/>
-      <c r="AQ6" s="95"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="96"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="96"/>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="97"/>
-      <c r="BK6" s="104"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
-      <c r="BR6" s="105"/>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
-      <c r="BU6" s="105"/>
-      <c r="BV6" s="105"/>
-      <c r="BW6" s="105"/>
-      <c r="BX6" s="105"/>
-      <c r="BY6" s="105"/>
-      <c r="BZ6" s="105"/>
-      <c r="CA6" s="105"/>
-      <c r="CB6" s="106"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="103"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="102"/>
+      <c r="AY6" s="102"/>
+      <c r="AZ6" s="102"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="102"/>
+      <c r="BC6" s="102"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="102"/>
+      <c r="BG6" s="102"/>
+      <c r="BH6" s="103"/>
+      <c r="BK6" s="110"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
+      <c r="BP6" s="111"/>
+      <c r="BQ6" s="111"/>
+      <c r="BR6" s="111"/>
+      <c r="BS6" s="111"/>
+      <c r="BT6" s="111"/>
+      <c r="BU6" s="111"/>
+      <c r="BV6" s="111"/>
+      <c r="BW6" s="111"/>
+      <c r="BX6" s="111"/>
+      <c r="BY6" s="111"/>
+      <c r="BZ6" s="111"/>
+      <c r="CA6" s="111"/>
+      <c r="CB6" s="112"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="98"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="100"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="100"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="108"/>
-      <c r="BM7" s="108"/>
-      <c r="BN7" s="108"/>
-      <c r="BO7" s="108"/>
-      <c r="BP7" s="108"/>
-      <c r="BQ7" s="108"/>
-      <c r="BR7" s="108"/>
-      <c r="BS7" s="108"/>
-      <c r="BT7" s="108"/>
-      <c r="BU7" s="108"/>
-      <c r="BV7" s="108"/>
-      <c r="BW7" s="108"/>
-      <c r="BX7" s="108"/>
-      <c r="BY7" s="108"/>
-      <c r="BZ7" s="108"/>
-      <c r="CA7" s="108"/>
-      <c r="CB7" s="109"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="106"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="106"/>
+      <c r="BK7" s="113"/>
+      <c r="BL7" s="114"/>
+      <c r="BM7" s="114"/>
+      <c r="BN7" s="114"/>
+      <c r="BO7" s="114"/>
+      <c r="BP7" s="114"/>
+      <c r="BQ7" s="114"/>
+      <c r="BR7" s="114"/>
+      <c r="BS7" s="114"/>
+      <c r="BT7" s="114"/>
+      <c r="BU7" s="114"/>
+      <c r="BV7" s="114"/>
+      <c r="BW7" s="114"/>
+      <c r="BX7" s="114"/>
+      <c r="BY7" s="114"/>
+      <c r="BZ7" s="114"/>
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="115"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="87"/>
-      <c r="BA9" s="87"/>
-      <c r="BB9" s="87"/>
-      <c r="BC9" s="87"/>
-      <c r="BD9" s="87"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="87"/>
-      <c r="BG9" s="87"/>
-      <c r="BH9" s="87"/>
-      <c r="BI9" s="87"/>
-      <c r="BJ9" s="87"/>
-      <c r="BK9" s="87"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="87"/>
-      <c r="BN9" s="87"/>
-      <c r="BO9" s="87"/>
-      <c r="BP9" s="87"/>
-      <c r="BQ9" s="87"/>
-      <c r="BR9" s="87"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="87"/>
-      <c r="BU9" s="87"/>
-      <c r="BV9" s="87"/>
-      <c r="BW9" s="87"/>
-      <c r="BX9" s="87"/>
-      <c r="BY9" s="87"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="87"/>
-      <c r="CB9" s="88"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BD9" s="84"/>
+      <c r="BE9" s="84"/>
+      <c r="BF9" s="84"/>
+      <c r="BG9" s="84"/>
+      <c r="BH9" s="84"/>
+      <c r="BI9" s="84"/>
+      <c r="BJ9" s="84"/>
+      <c r="BK9" s="84"/>
+      <c r="BL9" s="84"/>
+      <c r="BM9" s="84"/>
+      <c r="BN9" s="84"/>
+      <c r="BO9" s="84"/>
+      <c r="BP9" s="84"/>
+      <c r="BQ9" s="84"/>
+      <c r="BR9" s="84"/>
+      <c r="BS9" s="84"/>
+      <c r="BT9" s="84"/>
+      <c r="BU9" s="84"/>
+      <c r="BV9" s="84"/>
+      <c r="BW9" s="84"/>
+      <c r="BX9" s="84"/>
+      <c r="BY9" s="84"/>
+      <c r="BZ9" s="84"/>
+      <c r="CA9" s="84"/>
+      <c r="CB9" s="85"/>
     </row>
     <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BO10" s="90"/>
-      <c r="BP10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BR10" s="90"/>
-      <c r="BS10" s="90"/>
-      <c r="BT10" s="90"/>
-      <c r="BU10" s="90"/>
-      <c r="BV10" s="90"/>
-      <c r="BW10" s="90"/>
-      <c r="BX10" s="90"/>
-      <c r="BY10" s="90"/>
-      <c r="BZ10" s="90"/>
-      <c r="CA10" s="90"/>
-      <c r="CB10" s="91"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
+      <c r="BQ10" s="87"/>
+      <c r="BR10" s="87"/>
+      <c r="BS10" s="87"/>
+      <c r="BT10" s="87"/>
+      <c r="BU10" s="87"/>
+      <c r="BV10" s="87"/>
+      <c r="BW10" s="87"/>
+      <c r="BX10" s="87"/>
+      <c r="BY10" s="87"/>
+      <c r="BZ10" s="87"/>
+      <c r="CA10" s="87"/>
+      <c r="CB10" s="88"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
-      <c r="AY11" s="111"/>
-      <c r="AZ11" s="111"/>
-      <c r="BA11" s="111"/>
-      <c r="BB11" s="111"/>
-      <c r="BC11" s="111"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="111"/>
-      <c r="BF11" s="111"/>
-      <c r="BG11" s="111"/>
-      <c r="BH11" s="111"/>
-      <c r="BI11" s="111"/>
-      <c r="BJ11" s="111"/>
-      <c r="BK11" s="111"/>
-      <c r="BL11" s="111"/>
-      <c r="BM11" s="111"/>
-      <c r="BN11" s="111"/>
-      <c r="BO11" s="111"/>
-      <c r="BP11" s="111"/>
-      <c r="BQ11" s="111"/>
-      <c r="BR11" s="111"/>
-      <c r="BS11" s="111"/>
-      <c r="BT11" s="111"/>
-      <c r="BU11" s="111"/>
-      <c r="BV11" s="111"/>
-      <c r="BW11" s="111"/>
-      <c r="BX11" s="111"/>
-      <c r="BY11" s="111"/>
-      <c r="BZ11" s="111"/>
-      <c r="CA11" s="111"/>
-      <c r="CB11" s="112"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="90"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="90"/>
+      <c r="BN11" s="90"/>
+      <c r="BO11" s="90"/>
+      <c r="BP11" s="90"/>
+      <c r="BQ11" s="90"/>
+      <c r="BR11" s="90"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="90"/>
+      <c r="BU11" s="90"/>
+      <c r="BV11" s="90"/>
+      <c r="BW11" s="90"/>
+      <c r="BX11" s="90"/>
+      <c r="BY11" s="90"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="90"/>
+      <c r="CB11" s="91"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="114"/>
-      <c r="AK12" s="114"/>
-      <c r="AL12" s="114"/>
-      <c r="AM12" s="114"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
-      <c r="AX12" s="114"/>
-      <c r="AY12" s="114"/>
-      <c r="AZ12" s="114"/>
-      <c r="BA12" s="114"/>
-      <c r="BB12" s="114"/>
-      <c r="BC12" s="114"/>
-      <c r="BD12" s="114"/>
-      <c r="BE12" s="114"/>
-      <c r="BF12" s="114"/>
-      <c r="BG12" s="114"/>
-      <c r="BH12" s="114"/>
-      <c r="BI12" s="114"/>
-      <c r="BJ12" s="114"/>
-      <c r="BK12" s="114"/>
-      <c r="BL12" s="114"/>
-      <c r="BM12" s="114"/>
-      <c r="BN12" s="114"/>
-      <c r="BO12" s="114"/>
-      <c r="BP12" s="114"/>
-      <c r="BQ12" s="114"/>
-      <c r="BR12" s="114"/>
-      <c r="BS12" s="114"/>
-      <c r="BT12" s="114"/>
-      <c r="BU12" s="114"/>
-      <c r="BV12" s="114"/>
-      <c r="BW12" s="114"/>
-      <c r="BX12" s="114"/>
-      <c r="BY12" s="114"/>
-      <c r="BZ12" s="114"/>
-      <c r="CA12" s="114"/>
-      <c r="CB12" s="115"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="93"/>
+      <c r="BL12" s="93"/>
+      <c r="BM12" s="93"/>
+      <c r="BN12" s="93"/>
+      <c r="BO12" s="93"/>
+      <c r="BP12" s="93"/>
+      <c r="BQ12" s="93"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="93"/>
+      <c r="BU12" s="93"/>
+      <c r="BV12" s="93"/>
+      <c r="BW12" s="93"/>
+      <c r="BX12" s="93"/>
+      <c r="BY12" s="93"/>
+      <c r="BZ12" s="93"/>
+      <c r="CA12" s="93"/>
+      <c r="CB12" s="94"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-      <c r="AX13" s="114"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="114"/>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="114"/>
-      <c r="BC13" s="114"/>
-      <c r="BD13" s="114"/>
-      <c r="BE13" s="114"/>
-      <c r="BF13" s="114"/>
-      <c r="BG13" s="114"/>
-      <c r="BH13" s="114"/>
-      <c r="BI13" s="114"/>
-      <c r="BJ13" s="114"/>
-      <c r="BK13" s="114"/>
-      <c r="BL13" s="114"/>
-      <c r="BM13" s="114"/>
-      <c r="BN13" s="114"/>
-      <c r="BO13" s="114"/>
-      <c r="BP13" s="114"/>
-      <c r="BQ13" s="114"/>
-      <c r="BR13" s="114"/>
-      <c r="BS13" s="114"/>
-      <c r="BT13" s="114"/>
-      <c r="BU13" s="114"/>
-      <c r="BV13" s="114"/>
-      <c r="BW13" s="114"/>
-      <c r="BX13" s="114"/>
-      <c r="BY13" s="114"/>
-      <c r="BZ13" s="114"/>
-      <c r="CA13" s="114"/>
-      <c r="CB13" s="115"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="93"/>
+      <c r="BF13" s="93"/>
+      <c r="BG13" s="93"/>
+      <c r="BH13" s="93"/>
+      <c r="BI13" s="93"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="93"/>
+      <c r="BL13" s="93"/>
+      <c r="BM13" s="93"/>
+      <c r="BN13" s="93"/>
+      <c r="BO13" s="93"/>
+      <c r="BP13" s="93"/>
+      <c r="BQ13" s="93"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="93"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="93"/>
+      <c r="BW13" s="93"/>
+      <c r="BX13" s="93"/>
+      <c r="BY13" s="93"/>
+      <c r="BZ13" s="93"/>
+      <c r="CA13" s="93"/>
+      <c r="CB13" s="94"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="114"/>
-      <c r="AK14" s="114"/>
-      <c r="AL14" s="114"/>
-      <c r="AM14" s="114"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
-      <c r="AX14" s="114"/>
-      <c r="AY14" s="114"/>
-      <c r="AZ14" s="114"/>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="114"/>
-      <c r="BC14" s="114"/>
-      <c r="BD14" s="114"/>
-      <c r="BE14" s="114"/>
-      <c r="BF14" s="114"/>
-      <c r="BG14" s="114"/>
-      <c r="BH14" s="114"/>
-      <c r="BI14" s="114"/>
-      <c r="BJ14" s="114"/>
-      <c r="BK14" s="114"/>
-      <c r="BL14" s="114"/>
-      <c r="BM14" s="114"/>
-      <c r="BN14" s="114"/>
-      <c r="BO14" s="114"/>
-      <c r="BP14" s="114"/>
-      <c r="BQ14" s="114"/>
-      <c r="BR14" s="114"/>
-      <c r="BS14" s="114"/>
-      <c r="BT14" s="114"/>
-      <c r="BU14" s="114"/>
-      <c r="BV14" s="114"/>
-      <c r="BW14" s="114"/>
-      <c r="BX14" s="114"/>
-      <c r="BY14" s="114"/>
-      <c r="BZ14" s="114"/>
-      <c r="CA14" s="114"/>
-      <c r="CB14" s="115"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="93"/>
+      <c r="BF14" s="93"/>
+      <c r="BG14" s="93"/>
+      <c r="BH14" s="93"/>
+      <c r="BI14" s="93"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="93"/>
+      <c r="BL14" s="93"/>
+      <c r="BM14" s="93"/>
+      <c r="BN14" s="93"/>
+      <c r="BO14" s="93"/>
+      <c r="BP14" s="93"/>
+      <c r="BQ14" s="93"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="93"/>
+      <c r="BU14" s="93"/>
+      <c r="BV14" s="93"/>
+      <c r="BW14" s="93"/>
+      <c r="BX14" s="93"/>
+      <c r="BY14" s="93"/>
+      <c r="BZ14" s="93"/>
+      <c r="CA14" s="93"/>
+      <c r="CB14" s="94"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="114"/>
-      <c r="AK15" s="114"/>
-      <c r="AL15" s="114"/>
-      <c r="AM15" s="114"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
-      <c r="AX15" s="114"/>
-      <c r="AY15" s="114"/>
-      <c r="AZ15" s="114"/>
-      <c r="BA15" s="114"/>
-      <c r="BB15" s="114"/>
-      <c r="BC15" s="114"/>
-      <c r="BD15" s="114"/>
-      <c r="BE15" s="114"/>
-      <c r="BF15" s="114"/>
-      <c r="BG15" s="114"/>
-      <c r="BH15" s="114"/>
-      <c r="BI15" s="114"/>
-      <c r="BJ15" s="114"/>
-      <c r="BK15" s="114"/>
-      <c r="BL15" s="114"/>
-      <c r="BM15" s="114"/>
-      <c r="BN15" s="114"/>
-      <c r="BO15" s="114"/>
-      <c r="BP15" s="114"/>
-      <c r="BQ15" s="114"/>
-      <c r="BR15" s="114"/>
-      <c r="BS15" s="114"/>
-      <c r="BT15" s="114"/>
-      <c r="BU15" s="114"/>
-      <c r="BV15" s="114"/>
-      <c r="BW15" s="114"/>
-      <c r="BX15" s="114"/>
-      <c r="BY15" s="114"/>
-      <c r="BZ15" s="114"/>
-      <c r="CA15" s="114"/>
-      <c r="CB15" s="115"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="93"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="93"/>
+      <c r="BE15" s="93"/>
+      <c r="BF15" s="93"/>
+      <c r="BG15" s="93"/>
+      <c r="BH15" s="93"/>
+      <c r="BI15" s="93"/>
+      <c r="BJ15" s="93"/>
+      <c r="BK15" s="93"/>
+      <c r="BL15" s="93"/>
+      <c r="BM15" s="93"/>
+      <c r="BN15" s="93"/>
+      <c r="BO15" s="93"/>
+      <c r="BP15" s="93"/>
+      <c r="BQ15" s="93"/>
+      <c r="BR15" s="93"/>
+      <c r="BS15" s="93"/>
+      <c r="BT15" s="93"/>
+      <c r="BU15" s="93"/>
+      <c r="BV15" s="93"/>
+      <c r="BW15" s="93"/>
+      <c r="BX15" s="93"/>
+      <c r="BY15" s="93"/>
+      <c r="BZ15" s="93"/>
+      <c r="CA15" s="93"/>
+      <c r="CB15" s="94"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="114"/>
-      <c r="AJ16" s="114"/>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="114"/>
-      <c r="AM16" s="114"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="114"/>
-      <c r="AP16" s="114"/>
-      <c r="AQ16" s="114"/>
-      <c r="AR16" s="114"/>
-      <c r="AS16" s="114"/>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
-      <c r="AX16" s="114"/>
-      <c r="AY16" s="114"/>
-      <c r="AZ16" s="114"/>
-      <c r="BA16" s="114"/>
-      <c r="BB16" s="114"/>
-      <c r="BC16" s="114"/>
-      <c r="BD16" s="114"/>
-      <c r="BE16" s="114"/>
-      <c r="BF16" s="114"/>
-      <c r="BG16" s="114"/>
-      <c r="BH16" s="114"/>
-      <c r="BI16" s="114"/>
-      <c r="BJ16" s="114"/>
-      <c r="BK16" s="114"/>
-      <c r="BL16" s="114"/>
-      <c r="BM16" s="114"/>
-      <c r="BN16" s="114"/>
-      <c r="BO16" s="114"/>
-      <c r="BP16" s="114"/>
-      <c r="BQ16" s="114"/>
-      <c r="BR16" s="114"/>
-      <c r="BS16" s="114"/>
-      <c r="BT16" s="114"/>
-      <c r="BU16" s="114"/>
-      <c r="BV16" s="114"/>
-      <c r="BW16" s="114"/>
-      <c r="BX16" s="114"/>
-      <c r="BY16" s="114"/>
-      <c r="BZ16" s="114"/>
-      <c r="CA16" s="114"/>
-      <c r="CB16" s="115"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="93"/>
+      <c r="BQ16" s="93"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="93"/>
+      <c r="BU16" s="93"/>
+      <c r="BV16" s="93"/>
+      <c r="BW16" s="93"/>
+      <c r="BX16" s="93"/>
+      <c r="BY16" s="93"/>
+      <c r="BZ16" s="93"/>
+      <c r="CA16" s="93"/>
+      <c r="CB16" s="94"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="114"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="114"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="114"/>
-      <c r="AJ17" s="114"/>
-      <c r="AK17" s="114"/>
-      <c r="AL17" s="114"/>
-      <c r="AM17" s="114"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="114"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="114"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="114"/>
-      <c r="AW17" s="114"/>
-      <c r="AX17" s="114"/>
-      <c r="AY17" s="114"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="114"/>
-      <c r="BB17" s="114"/>
-      <c r="BC17" s="114"/>
-      <c r="BD17" s="114"/>
-      <c r="BE17" s="114"/>
-      <c r="BF17" s="114"/>
-      <c r="BG17" s="114"/>
-      <c r="BH17" s="114"/>
-      <c r="BI17" s="114"/>
-      <c r="BJ17" s="114"/>
-      <c r="BK17" s="114"/>
-      <c r="BL17" s="114"/>
-      <c r="BM17" s="114"/>
-      <c r="BN17" s="114"/>
-      <c r="BO17" s="114"/>
-      <c r="BP17" s="114"/>
-      <c r="BQ17" s="114"/>
-      <c r="BR17" s="114"/>
-      <c r="BS17" s="114"/>
-      <c r="BT17" s="114"/>
-      <c r="BU17" s="114"/>
-      <c r="BV17" s="114"/>
-      <c r="BW17" s="114"/>
-      <c r="BX17" s="114"/>
-      <c r="BY17" s="114"/>
-      <c r="BZ17" s="114"/>
-      <c r="CA17" s="114"/>
-      <c r="CB17" s="115"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="93"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="93"/>
+      <c r="BQ17" s="93"/>
+      <c r="BR17" s="93"/>
+      <c r="BS17" s="93"/>
+      <c r="BT17" s="93"/>
+      <c r="BU17" s="93"/>
+      <c r="BV17" s="93"/>
+      <c r="BW17" s="93"/>
+      <c r="BX17" s="93"/>
+      <c r="BY17" s="93"/>
+      <c r="BZ17" s="93"/>
+      <c r="CA17" s="93"/>
+      <c r="CB17" s="94"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114"/>
-      <c r="AC18" s="114"/>
-      <c r="AD18" s="114"/>
-      <c r="AE18" s="114"/>
-      <c r="AF18" s="114"/>
-      <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="114"/>
-      <c r="AK18" s="114"/>
-      <c r="AL18" s="114"/>
-      <c r="AM18" s="114"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
-      <c r="AX18" s="114"/>
-      <c r="AY18" s="114"/>
-      <c r="AZ18" s="114"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="114"/>
-      <c r="BC18" s="114"/>
-      <c r="BD18" s="114"/>
-      <c r="BE18" s="114"/>
-      <c r="BF18" s="114"/>
-      <c r="BG18" s="114"/>
-      <c r="BH18" s="114"/>
-      <c r="BI18" s="114"/>
-      <c r="BJ18" s="114"/>
-      <c r="BK18" s="114"/>
-      <c r="BL18" s="114"/>
-      <c r="BM18" s="114"/>
-      <c r="BN18" s="114"/>
-      <c r="BO18" s="114"/>
-      <c r="BP18" s="114"/>
-      <c r="BQ18" s="114"/>
-      <c r="BR18" s="114"/>
-      <c r="BS18" s="114"/>
-      <c r="BT18" s="114"/>
-      <c r="BU18" s="114"/>
-      <c r="BV18" s="114"/>
-      <c r="BW18" s="114"/>
-      <c r="BX18" s="114"/>
-      <c r="BY18" s="114"/>
-      <c r="BZ18" s="114"/>
-      <c r="CA18" s="114"/>
-      <c r="CB18" s="115"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="93"/>
+      <c r="BQ18" s="93"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="93"/>
+      <c r="BU18" s="93"/>
+      <c r="BV18" s="93"/>
+      <c r="BW18" s="93"/>
+      <c r="BX18" s="93"/>
+      <c r="BY18" s="93"/>
+      <c r="BZ18" s="93"/>
+      <c r="CA18" s="93"/>
+      <c r="CB18" s="94"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="114"/>
-      <c r="AA19" s="114"/>
-      <c r="AB19" s="114"/>
-      <c r="AC19" s="114"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="114"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="114"/>
-      <c r="AJ19" s="114"/>
-      <c r="AK19" s="114"/>
-      <c r="AL19" s="114"/>
-      <c r="AM19" s="114"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
-      <c r="AX19" s="114"/>
-      <c r="AY19" s="114"/>
-      <c r="AZ19" s="114"/>
-      <c r="BA19" s="114"/>
-      <c r="BB19" s="114"/>
-      <c r="BC19" s="114"/>
-      <c r="BD19" s="114"/>
-      <c r="BE19" s="114"/>
-      <c r="BF19" s="114"/>
-      <c r="BG19" s="114"/>
-      <c r="BH19" s="114"/>
-      <c r="BI19" s="114"/>
-      <c r="BJ19" s="114"/>
-      <c r="BK19" s="114"/>
-      <c r="BL19" s="114"/>
-      <c r="BM19" s="114"/>
-      <c r="BN19" s="114"/>
-      <c r="BO19" s="114"/>
-      <c r="BP19" s="114"/>
-      <c r="BQ19" s="114"/>
-      <c r="BR19" s="114"/>
-      <c r="BS19" s="114"/>
-      <c r="BT19" s="114"/>
-      <c r="BU19" s="114"/>
-      <c r="BV19" s="114"/>
-      <c r="BW19" s="114"/>
-      <c r="BX19" s="114"/>
-      <c r="BY19" s="114"/>
-      <c r="BZ19" s="114"/>
-      <c r="CA19" s="114"/>
-      <c r="CB19" s="115"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="93"/>
+      <c r="BQ19" s="93"/>
+      <c r="BR19" s="93"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="93"/>
+      <c r="BV19" s="93"/>
+      <c r="BW19" s="93"/>
+      <c r="BX19" s="93"/>
+      <c r="BY19" s="93"/>
+      <c r="BZ19" s="93"/>
+      <c r="CA19" s="93"/>
+      <c r="CB19" s="94"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="114"/>
-      <c r="AX20" s="114"/>
-      <c r="AY20" s="114"/>
-      <c r="AZ20" s="114"/>
-      <c r="BA20" s="114"/>
-      <c r="BB20" s="114"/>
-      <c r="BC20" s="114"/>
-      <c r="BD20" s="114"/>
-      <c r="BE20" s="114"/>
-      <c r="BF20" s="114"/>
-      <c r="BG20" s="114"/>
-      <c r="BH20" s="114"/>
-      <c r="BI20" s="114"/>
-      <c r="BJ20" s="114"/>
-      <c r="BK20" s="114"/>
-      <c r="BL20" s="114"/>
-      <c r="BM20" s="114"/>
-      <c r="BN20" s="114"/>
-      <c r="BO20" s="114"/>
-      <c r="BP20" s="114"/>
-      <c r="BQ20" s="114"/>
-      <c r="BR20" s="114"/>
-      <c r="BS20" s="114"/>
-      <c r="BT20" s="114"/>
-      <c r="BU20" s="114"/>
-      <c r="BV20" s="114"/>
-      <c r="BW20" s="114"/>
-      <c r="BX20" s="114"/>
-      <c r="BY20" s="114"/>
-      <c r="BZ20" s="114"/>
-      <c r="CA20" s="114"/>
-      <c r="CB20" s="115"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="93"/>
+      <c r="BE20" s="93"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="93"/>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="93"/>
+      <c r="BK20" s="93"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="93"/>
+      <c r="BN20" s="93"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="93"/>
+      <c r="BQ20" s="93"/>
+      <c r="BR20" s="93"/>
+      <c r="BS20" s="93"/>
+      <c r="BT20" s="93"/>
+      <c r="BU20" s="93"/>
+      <c r="BV20" s="93"/>
+      <c r="BW20" s="93"/>
+      <c r="BX20" s="93"/>
+      <c r="BY20" s="93"/>
+      <c r="BZ20" s="93"/>
+      <c r="CA20" s="93"/>
+      <c r="CB20" s="94"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
-      <c r="AB21" s="114"/>
-      <c r="AC21" s="114"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="114"/>
-      <c r="AJ21" s="114"/>
-      <c r="AK21" s="114"/>
-      <c r="AL21" s="114"/>
-      <c r="AM21" s="114"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
-      <c r="AX21" s="114"/>
-      <c r="AY21" s="114"/>
-      <c r="AZ21" s="114"/>
-      <c r="BA21" s="114"/>
-      <c r="BB21" s="114"/>
-      <c r="BC21" s="114"/>
-      <c r="BD21" s="114"/>
-      <c r="BE21" s="114"/>
-      <c r="BF21" s="114"/>
-      <c r="BG21" s="114"/>
-      <c r="BH21" s="114"/>
-      <c r="BI21" s="114"/>
-      <c r="BJ21" s="114"/>
-      <c r="BK21" s="114"/>
-      <c r="BL21" s="114"/>
-      <c r="BM21" s="114"/>
-      <c r="BN21" s="114"/>
-      <c r="BO21" s="114"/>
-      <c r="BP21" s="114"/>
-      <c r="BQ21" s="114"/>
-      <c r="BR21" s="114"/>
-      <c r="BS21" s="114"/>
-      <c r="BT21" s="114"/>
-      <c r="BU21" s="114"/>
-      <c r="BV21" s="114"/>
-      <c r="BW21" s="114"/>
-      <c r="BX21" s="114"/>
-      <c r="BY21" s="114"/>
-      <c r="BZ21" s="114"/>
-      <c r="CA21" s="114"/>
-      <c r="CB21" s="115"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="93"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="93"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="93"/>
+      <c r="AY21" s="93"/>
+      <c r="AZ21" s="93"/>
+      <c r="BA21" s="93"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="93"/>
+      <c r="BE21" s="93"/>
+      <c r="BF21" s="93"/>
+      <c r="BG21" s="93"/>
+      <c r="BH21" s="93"/>
+      <c r="BI21" s="93"/>
+      <c r="BJ21" s="93"/>
+      <c r="BK21" s="93"/>
+      <c r="BL21" s="93"/>
+      <c r="BM21" s="93"/>
+      <c r="BN21" s="93"/>
+      <c r="BO21" s="93"/>
+      <c r="BP21" s="93"/>
+      <c r="BQ21" s="93"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="93"/>
+      <c r="BW21" s="93"/>
+      <c r="BX21" s="93"/>
+      <c r="BY21" s="93"/>
+      <c r="BZ21" s="93"/>
+      <c r="CA21" s="93"/>
+      <c r="CB21" s="94"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="114"/>
-      <c r="AB22" s="114"/>
-      <c r="AC22" s="114"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="114"/>
-      <c r="AJ22" s="114"/>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="114"/>
-      <c r="AM22" s="114"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="114"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="114"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="114"/>
-      <c r="AX22" s="114"/>
-      <c r="AY22" s="114"/>
-      <c r="AZ22" s="114"/>
-      <c r="BA22" s="114"/>
-      <c r="BB22" s="114"/>
-      <c r="BC22" s="114"/>
-      <c r="BD22" s="114"/>
-      <c r="BE22" s="114"/>
-      <c r="BF22" s="114"/>
-      <c r="BG22" s="114"/>
-      <c r="BH22" s="114"/>
-      <c r="BI22" s="114"/>
-      <c r="BJ22" s="114"/>
-      <c r="BK22" s="114"/>
-      <c r="BL22" s="114"/>
-      <c r="BM22" s="114"/>
-      <c r="BN22" s="114"/>
-      <c r="BO22" s="114"/>
-      <c r="BP22" s="114"/>
-      <c r="BQ22" s="114"/>
-      <c r="BR22" s="114"/>
-      <c r="BS22" s="114"/>
-      <c r="BT22" s="114"/>
-      <c r="BU22" s="114"/>
-      <c r="BV22" s="114"/>
-      <c r="BW22" s="114"/>
-      <c r="BX22" s="114"/>
-      <c r="BY22" s="114"/>
-      <c r="BZ22" s="114"/>
-      <c r="CA22" s="114"/>
-      <c r="CB22" s="115"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
+      <c r="AW22" s="93"/>
+      <c r="AX22" s="93"/>
+      <c r="AY22" s="93"/>
+      <c r="AZ22" s="93"/>
+      <c r="BA22" s="93"/>
+      <c r="BB22" s="93"/>
+      <c r="BC22" s="93"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="93"/>
+      <c r="BF22" s="93"/>
+      <c r="BG22" s="93"/>
+      <c r="BH22" s="93"/>
+      <c r="BI22" s="93"/>
+      <c r="BJ22" s="93"/>
+      <c r="BK22" s="93"/>
+      <c r="BL22" s="93"/>
+      <c r="BM22" s="93"/>
+      <c r="BN22" s="93"/>
+      <c r="BO22" s="93"/>
+      <c r="BP22" s="93"/>
+      <c r="BQ22" s="93"/>
+      <c r="BR22" s="93"/>
+      <c r="BS22" s="93"/>
+      <c r="BT22" s="93"/>
+      <c r="BU22" s="93"/>
+      <c r="BV22" s="93"/>
+      <c r="BW22" s="93"/>
+      <c r="BX22" s="93"/>
+      <c r="BY22" s="93"/>
+      <c r="BZ22" s="93"/>
+      <c r="CA22" s="93"/>
+      <c r="CB22" s="94"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="114"/>
-      <c r="AB23" s="114"/>
-      <c r="AC23" s="114"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="114"/>
-      <c r="AJ23" s="114"/>
-      <c r="AK23" s="114"/>
-      <c r="AL23" s="114"/>
-      <c r="AM23" s="114"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
-      <c r="AX23" s="114"/>
-      <c r="AY23" s="114"/>
-      <c r="AZ23" s="114"/>
-      <c r="BA23" s="114"/>
-      <c r="BB23" s="114"/>
-      <c r="BC23" s="114"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="114"/>
-      <c r="BF23" s="114"/>
-      <c r="BG23" s="114"/>
-      <c r="BH23" s="114"/>
-      <c r="BI23" s="114"/>
-      <c r="BJ23" s="114"/>
-      <c r="BK23" s="114"/>
-      <c r="BL23" s="114"/>
-      <c r="BM23" s="114"/>
-      <c r="BN23" s="114"/>
-      <c r="BO23" s="114"/>
-      <c r="BP23" s="114"/>
-      <c r="BQ23" s="114"/>
-      <c r="BR23" s="114"/>
-      <c r="BS23" s="114"/>
-      <c r="BT23" s="114"/>
-      <c r="BU23" s="114"/>
-      <c r="BV23" s="114"/>
-      <c r="BW23" s="114"/>
-      <c r="BX23" s="114"/>
-      <c r="BY23" s="114"/>
-      <c r="BZ23" s="114"/>
-      <c r="CA23" s="114"/>
-      <c r="CB23" s="115"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="93"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="93"/>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="93"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="93"/>
+      <c r="BA23" s="93"/>
+      <c r="BB23" s="93"/>
+      <c r="BC23" s="93"/>
+      <c r="BD23" s="93"/>
+      <c r="BE23" s="93"/>
+      <c r="BF23" s="93"/>
+      <c r="BG23" s="93"/>
+      <c r="BH23" s="93"/>
+      <c r="BI23" s="93"/>
+      <c r="BJ23" s="93"/>
+      <c r="BK23" s="93"/>
+      <c r="BL23" s="93"/>
+      <c r="BM23" s="93"/>
+      <c r="BN23" s="93"/>
+      <c r="BO23" s="93"/>
+      <c r="BP23" s="93"/>
+      <c r="BQ23" s="93"/>
+      <c r="BR23" s="93"/>
+      <c r="BS23" s="93"/>
+      <c r="BT23" s="93"/>
+      <c r="BU23" s="93"/>
+      <c r="BV23" s="93"/>
+      <c r="BW23" s="93"/>
+      <c r="BX23" s="93"/>
+      <c r="BY23" s="93"/>
+      <c r="BZ23" s="93"/>
+      <c r="CA23" s="93"/>
+      <c r="CB23" s="94"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="117"/>
-      <c r="AS24" s="117"/>
-      <c r="AT24" s="117"/>
-      <c r="AU24" s="117"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
-      <c r="AX24" s="117"/>
-      <c r="AY24" s="117"/>
-      <c r="AZ24" s="117"/>
-      <c r="BA24" s="117"/>
-      <c r="BB24" s="117"/>
-      <c r="BC24" s="117"/>
-      <c r="BD24" s="117"/>
-      <c r="BE24" s="117"/>
-      <c r="BF24" s="117"/>
-      <c r="BG24" s="117"/>
-      <c r="BH24" s="117"/>
-      <c r="BI24" s="117"/>
-      <c r="BJ24" s="117"/>
-      <c r="BK24" s="117"/>
-      <c r="BL24" s="117"/>
-      <c r="BM24" s="117"/>
-      <c r="BN24" s="117"/>
-      <c r="BO24" s="117"/>
-      <c r="BP24" s="117"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="117"/>
-      <c r="BX24" s="117"/>
-      <c r="BY24" s="117"/>
-      <c r="BZ24" s="117"/>
-      <c r="CA24" s="117"/>
-      <c r="CB24" s="118"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="96"/>
+      <c r="AN24" s="96"/>
+      <c r="AO24" s="96"/>
+      <c r="AP24" s="96"/>
+      <c r="AQ24" s="96"/>
+      <c r="AR24" s="96"/>
+      <c r="AS24" s="96"/>
+      <c r="AT24" s="96"/>
+      <c r="AU24" s="96"/>
+      <c r="AV24" s="96"/>
+      <c r="AW24" s="96"/>
+      <c r="AX24" s="96"/>
+      <c r="AY24" s="96"/>
+      <c r="AZ24" s="96"/>
+      <c r="BA24" s="96"/>
+      <c r="BB24" s="96"/>
+      <c r="BC24" s="96"/>
+      <c r="BD24" s="96"/>
+      <c r="BE24" s="96"/>
+      <c r="BF24" s="96"/>
+      <c r="BG24" s="96"/>
+      <c r="BH24" s="96"/>
+      <c r="BI24" s="96"/>
+      <c r="BJ24" s="96"/>
+      <c r="BK24" s="96"/>
+      <c r="BL24" s="96"/>
+      <c r="BM24" s="96"/>
+      <c r="BN24" s="96"/>
+      <c r="BO24" s="96"/>
+      <c r="BP24" s="96"/>
+      <c r="BQ24" s="96"/>
+      <c r="BR24" s="96"/>
+      <c r="BS24" s="96"/>
+      <c r="BT24" s="96"/>
+      <c r="BU24" s="96"/>
+      <c r="BV24" s="96"/>
+      <c r="BW24" s="96"/>
+      <c r="BX24" s="96"/>
+      <c r="BY24" s="96"/>
+      <c r="BZ24" s="96"/>
+      <c r="CA24" s="96"/>
+      <c r="CB24" s="97"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="88"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="84"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="84"/>
+      <c r="AM26" s="84"/>
+      <c r="AN26" s="85"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
-      <c r="AQ26" s="86" t="s">
+      <c r="AQ26" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="87"/>
-      <c r="BD26" s="87"/>
-      <c r="BE26" s="87"/>
-      <c r="BF26" s="87"/>
-      <c r="BG26" s="87"/>
-      <c r="BH26" s="87"/>
-      <c r="BI26" s="87"/>
-      <c r="BJ26" s="87"/>
-      <c r="BK26" s="87"/>
-      <c r="BL26" s="87"/>
-      <c r="BM26" s="87"/>
-      <c r="BN26" s="87"/>
-      <c r="BO26" s="87"/>
-      <c r="BP26" s="87"/>
-      <c r="BQ26" s="87"/>
-      <c r="BR26" s="87"/>
-      <c r="BS26" s="87"/>
-      <c r="BT26" s="87"/>
-      <c r="BU26" s="87"/>
-      <c r="BV26" s="87"/>
-      <c r="BW26" s="87"/>
-      <c r="BX26" s="87"/>
-      <c r="BY26" s="87"/>
-      <c r="BZ26" s="87"/>
-      <c r="CA26" s="87"/>
-      <c r="CB26" s="88"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="84"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="84"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
+      <c r="BK26" s="84"/>
+      <c r="BL26" s="84"/>
+      <c r="BM26" s="84"/>
+      <c r="BN26" s="84"/>
+      <c r="BO26" s="84"/>
+      <c r="BP26" s="84"/>
+      <c r="BQ26" s="84"/>
+      <c r="BR26" s="84"/>
+      <c r="BS26" s="84"/>
+      <c r="BT26" s="84"/>
+      <c r="BU26" s="84"/>
+      <c r="BV26" s="84"/>
+      <c r="BW26" s="84"/>
+      <c r="BX26" s="84"/>
+      <c r="BY26" s="84"/>
+      <c r="BZ26" s="84"/>
+      <c r="CA26" s="84"/>
+      <c r="CB26" s="85"/>
     </row>
     <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="91"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="88"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="90"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="90"/>
-      <c r="BH27" s="90"/>
-      <c r="BI27" s="90"/>
-      <c r="BJ27" s="90"/>
-      <c r="BK27" s="90"/>
-      <c r="BL27" s="90"/>
-      <c r="BM27" s="90"/>
-      <c r="BN27" s="90"/>
-      <c r="BO27" s="90"/>
-      <c r="BP27" s="90"/>
-      <c r="BQ27" s="90"/>
-      <c r="BR27" s="90"/>
-      <c r="BS27" s="90"/>
-      <c r="BT27" s="90"/>
-      <c r="BU27" s="90"/>
-      <c r="BV27" s="90"/>
-      <c r="BW27" s="90"/>
-      <c r="BX27" s="90"/>
-      <c r="BY27" s="90"/>
-      <c r="BZ27" s="90"/>
-      <c r="CA27" s="90"/>
-      <c r="CB27" s="91"/>
+      <c r="AQ27" s="86"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="87"/>
+      <c r="BG27" s="87"/>
+      <c r="BH27" s="87"/>
+      <c r="BI27" s="87"/>
+      <c r="BJ27" s="87"/>
+      <c r="BK27" s="87"/>
+      <c r="BL27" s="87"/>
+      <c r="BM27" s="87"/>
+      <c r="BN27" s="87"/>
+      <c r="BO27" s="87"/>
+      <c r="BP27" s="87"/>
+      <c r="BQ27" s="87"/>
+      <c r="BR27" s="87"/>
+      <c r="BS27" s="87"/>
+      <c r="BT27" s="87"/>
+      <c r="BU27" s="87"/>
+      <c r="BV27" s="87"/>
+      <c r="BW27" s="87"/>
+      <c r="BX27" s="87"/>
+      <c r="BY27" s="87"/>
+      <c r="BZ27" s="87"/>
+      <c r="CA27" s="87"/>
+      <c r="CB27" s="88"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="111"/>
-      <c r="AH28" s="111"/>
-      <c r="AI28" s="111"/>
-      <c r="AJ28" s="111"/>
-      <c r="AK28" s="111"/>
-      <c r="AL28" s="111"/>
-      <c r="AM28" s="111"/>
-      <c r="AN28" s="112"/>
-      <c r="AQ28" s="110"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
-      <c r="AX28" s="111"/>
-      <c r="AY28" s="111"/>
-      <c r="AZ28" s="111"/>
-      <c r="BA28" s="111"/>
-      <c r="BB28" s="111"/>
-      <c r="BC28" s="111"/>
-      <c r="BD28" s="111"/>
-      <c r="BE28" s="111"/>
-      <c r="BF28" s="111"/>
-      <c r="BG28" s="111"/>
-      <c r="BH28" s="111"/>
-      <c r="BI28" s="111"/>
-      <c r="BJ28" s="111"/>
-      <c r="BK28" s="111"/>
-      <c r="BL28" s="111"/>
-      <c r="BM28" s="111"/>
-      <c r="BN28" s="111"/>
-      <c r="BO28" s="111"/>
-      <c r="BP28" s="111"/>
-      <c r="BQ28" s="111"/>
-      <c r="BR28" s="111"/>
-      <c r="BS28" s="111"/>
-      <c r="BT28" s="111"/>
-      <c r="BU28" s="111"/>
-      <c r="BV28" s="111"/>
-      <c r="BW28" s="111"/>
-      <c r="BX28" s="111"/>
-      <c r="BY28" s="111"/>
-      <c r="BZ28" s="111"/>
-      <c r="CA28" s="111"/>
-      <c r="CB28" s="112"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="90"/>
+      <c r="AM28" s="90"/>
+      <c r="AN28" s="91"/>
+      <c r="AQ28" s="89"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BB28" s="90"/>
+      <c r="BC28" s="90"/>
+      <c r="BD28" s="90"/>
+      <c r="BE28" s="90"/>
+      <c r="BF28" s="90"/>
+      <c r="BG28" s="90"/>
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="90"/>
+      <c r="BJ28" s="90"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="90"/>
+      <c r="BM28" s="90"/>
+      <c r="BN28" s="90"/>
+      <c r="BO28" s="90"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="90"/>
+      <c r="BR28" s="90"/>
+      <c r="BS28" s="90"/>
+      <c r="BT28" s="90"/>
+      <c r="BU28" s="90"/>
+      <c r="BV28" s="90"/>
+      <c r="BW28" s="90"/>
+      <c r="BX28" s="90"/>
+      <c r="BY28" s="90"/>
+      <c r="BZ28" s="90"/>
+      <c r="CA28" s="90"/>
+      <c r="CB28" s="91"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="114"/>
-      <c r="AL29" s="114"/>
-      <c r="AM29" s="114"/>
-      <c r="AN29" s="115"/>
-      <c r="AQ29" s="113"/>
-      <c r="AR29" s="114"/>
-      <c r="AS29" s="114"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="114"/>
-      <c r="AX29" s="114"/>
-      <c r="AY29" s="114"/>
-      <c r="AZ29" s="114"/>
-      <c r="BA29" s="114"/>
-      <c r="BB29" s="114"/>
-      <c r="BC29" s="114"/>
-      <c r="BD29" s="114"/>
-      <c r="BE29" s="114"/>
-      <c r="BF29" s="114"/>
-      <c r="BG29" s="114"/>
-      <c r="BH29" s="114"/>
-      <c r="BI29" s="114"/>
-      <c r="BJ29" s="114"/>
-      <c r="BK29" s="114"/>
-      <c r="BL29" s="114"/>
-      <c r="BM29" s="114"/>
-      <c r="BN29" s="114"/>
-      <c r="BO29" s="114"/>
-      <c r="BP29" s="114"/>
-      <c r="BQ29" s="114"/>
-      <c r="BR29" s="114"/>
-      <c r="BS29" s="114"/>
-      <c r="BT29" s="114"/>
-      <c r="BU29" s="114"/>
-      <c r="BV29" s="114"/>
-      <c r="BW29" s="114"/>
-      <c r="BX29" s="114"/>
-      <c r="BY29" s="114"/>
-      <c r="BZ29" s="114"/>
-      <c r="CA29" s="114"/>
-      <c r="CB29" s="115"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="93"/>
+      <c r="AN29" s="94"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="93"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="93"/>
+      <c r="AU29" s="93"/>
+      <c r="AV29" s="93"/>
+      <c r="AW29" s="93"/>
+      <c r="AX29" s="93"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="93"/>
+      <c r="BA29" s="93"/>
+      <c r="BB29" s="93"/>
+      <c r="BC29" s="93"/>
+      <c r="BD29" s="93"/>
+      <c r="BE29" s="93"/>
+      <c r="BF29" s="93"/>
+      <c r="BG29" s="93"/>
+      <c r="BH29" s="93"/>
+      <c r="BI29" s="93"/>
+      <c r="BJ29" s="93"/>
+      <c r="BK29" s="93"/>
+      <c r="BL29" s="93"/>
+      <c r="BM29" s="93"/>
+      <c r="BN29" s="93"/>
+      <c r="BO29" s="93"/>
+      <c r="BP29" s="93"/>
+      <c r="BQ29" s="93"/>
+      <c r="BR29" s="93"/>
+      <c r="BS29" s="93"/>
+      <c r="BT29" s="93"/>
+      <c r="BU29" s="93"/>
+      <c r="BV29" s="93"/>
+      <c r="BW29" s="93"/>
+      <c r="BX29" s="93"/>
+      <c r="BY29" s="93"/>
+      <c r="BZ29" s="93"/>
+      <c r="CA29" s="93"/>
+      <c r="CB29" s="94"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114"/>
-      <c r="AL30" s="114"/>
-      <c r="AM30" s="114"/>
-      <c r="AN30" s="115"/>
-      <c r="AQ30" s="113"/>
-      <c r="AR30" s="114"/>
-      <c r="AS30" s="114"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="114"/>
-      <c r="AX30" s="114"/>
-      <c r="AY30" s="114"/>
-      <c r="AZ30" s="114"/>
-      <c r="BA30" s="114"/>
-      <c r="BB30" s="114"/>
-      <c r="BC30" s="114"/>
-      <c r="BD30" s="114"/>
-      <c r="BE30" s="114"/>
-      <c r="BF30" s="114"/>
-      <c r="BG30" s="114"/>
-      <c r="BH30" s="114"/>
-      <c r="BI30" s="114"/>
-      <c r="BJ30" s="114"/>
-      <c r="BK30" s="114"/>
-      <c r="BL30" s="114"/>
-      <c r="BM30" s="114"/>
-      <c r="BN30" s="114"/>
-      <c r="BO30" s="114"/>
-      <c r="BP30" s="114"/>
-      <c r="BQ30" s="114"/>
-      <c r="BR30" s="114"/>
-      <c r="BS30" s="114"/>
-      <c r="BT30" s="114"/>
-      <c r="BU30" s="114"/>
-      <c r="BV30" s="114"/>
-      <c r="BW30" s="114"/>
-      <c r="BX30" s="114"/>
-      <c r="BY30" s="114"/>
-      <c r="BZ30" s="114"/>
-      <c r="CA30" s="114"/>
-      <c r="CB30" s="115"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="93"/>
+      <c r="AN30" s="94"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="93"/>
+      <c r="AS30" s="93"/>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="93"/>
+      <c r="AV30" s="93"/>
+      <c r="AW30" s="93"/>
+      <c r="AX30" s="93"/>
+      <c r="AY30" s="93"/>
+      <c r="AZ30" s="93"/>
+      <c r="BA30" s="93"/>
+      <c r="BB30" s="93"/>
+      <c r="BC30" s="93"/>
+      <c r="BD30" s="93"/>
+      <c r="BE30" s="93"/>
+      <c r="BF30" s="93"/>
+      <c r="BG30" s="93"/>
+      <c r="BH30" s="93"/>
+      <c r="BI30" s="93"/>
+      <c r="BJ30" s="93"/>
+      <c r="BK30" s="93"/>
+      <c r="BL30" s="93"/>
+      <c r="BM30" s="93"/>
+      <c r="BN30" s="93"/>
+      <c r="BO30" s="93"/>
+      <c r="BP30" s="93"/>
+      <c r="BQ30" s="93"/>
+      <c r="BR30" s="93"/>
+      <c r="BS30" s="93"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="93"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="93"/>
+      <c r="BX30" s="93"/>
+      <c r="BY30" s="93"/>
+      <c r="BZ30" s="93"/>
+      <c r="CA30" s="93"/>
+      <c r="CB30" s="94"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="115"/>
-      <c r="AQ31" s="113"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="114"/>
-      <c r="AX31" s="114"/>
-      <c r="AY31" s="114"/>
-      <c r="AZ31" s="114"/>
-      <c r="BA31" s="114"/>
-      <c r="BB31" s="114"/>
-      <c r="BC31" s="114"/>
-      <c r="BD31" s="114"/>
-      <c r="BE31" s="114"/>
-      <c r="BF31" s="114"/>
-      <c r="BG31" s="114"/>
-      <c r="BH31" s="114"/>
-      <c r="BI31" s="114"/>
-      <c r="BJ31" s="114"/>
-      <c r="BK31" s="114"/>
-      <c r="BL31" s="114"/>
-      <c r="BM31" s="114"/>
-      <c r="BN31" s="114"/>
-      <c r="BO31" s="114"/>
-      <c r="BP31" s="114"/>
-      <c r="BQ31" s="114"/>
-      <c r="BR31" s="114"/>
-      <c r="BS31" s="114"/>
-      <c r="BT31" s="114"/>
-      <c r="BU31" s="114"/>
-      <c r="BV31" s="114"/>
-      <c r="BW31" s="114"/>
-      <c r="BX31" s="114"/>
-      <c r="BY31" s="114"/>
-      <c r="BZ31" s="114"/>
-      <c r="CA31" s="114"/>
-      <c r="CB31" s="115"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="93"/>
+      <c r="AJ31" s="93"/>
+      <c r="AK31" s="93"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="93"/>
+      <c r="AN31" s="94"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="93"/>
+      <c r="AS31" s="93"/>
+      <c r="AT31" s="93"/>
+      <c r="AU31" s="93"/>
+      <c r="AV31" s="93"/>
+      <c r="AW31" s="93"/>
+      <c r="AX31" s="93"/>
+      <c r="AY31" s="93"/>
+      <c r="AZ31" s="93"/>
+      <c r="BA31" s="93"/>
+      <c r="BB31" s="93"/>
+      <c r="BC31" s="93"/>
+      <c r="BD31" s="93"/>
+      <c r="BE31" s="93"/>
+      <c r="BF31" s="93"/>
+      <c r="BG31" s="93"/>
+      <c r="BH31" s="93"/>
+      <c r="BI31" s="93"/>
+      <c r="BJ31" s="93"/>
+      <c r="BK31" s="93"/>
+      <c r="BL31" s="93"/>
+      <c r="BM31" s="93"/>
+      <c r="BN31" s="93"/>
+      <c r="BO31" s="93"/>
+      <c r="BP31" s="93"/>
+      <c r="BQ31" s="93"/>
+      <c r="BR31" s="93"/>
+      <c r="BS31" s="93"/>
+      <c r="BT31" s="93"/>
+      <c r="BU31" s="93"/>
+      <c r="BV31" s="93"/>
+      <c r="BW31" s="93"/>
+      <c r="BX31" s="93"/>
+      <c r="BY31" s="93"/>
+      <c r="BZ31" s="93"/>
+      <c r="CA31" s="93"/>
+      <c r="CB31" s="94"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="114"/>
-      <c r="AC32" s="114"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="114"/>
-      <c r="AK32" s="114"/>
-      <c r="AL32" s="114"/>
-      <c r="AM32" s="114"/>
-      <c r="AN32" s="115"/>
-      <c r="AQ32" s="113"/>
-      <c r="AR32" s="114"/>
-      <c r="AS32" s="114"/>
-      <c r="AT32" s="114"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="114"/>
-      <c r="AX32" s="114"/>
-      <c r="AY32" s="114"/>
-      <c r="AZ32" s="114"/>
-      <c r="BA32" s="114"/>
-      <c r="BB32" s="114"/>
-      <c r="BC32" s="114"/>
-      <c r="BD32" s="114"/>
-      <c r="BE32" s="114"/>
-      <c r="BF32" s="114"/>
-      <c r="BG32" s="114"/>
-      <c r="BH32" s="114"/>
-      <c r="BI32" s="114"/>
-      <c r="BJ32" s="114"/>
-      <c r="BK32" s="114"/>
-      <c r="BL32" s="114"/>
-      <c r="BM32" s="114"/>
-      <c r="BN32" s="114"/>
-      <c r="BO32" s="114"/>
-      <c r="BP32" s="114"/>
-      <c r="BQ32" s="114"/>
-      <c r="BR32" s="114"/>
-      <c r="BS32" s="114"/>
-      <c r="BT32" s="114"/>
-      <c r="BU32" s="114"/>
-      <c r="BV32" s="114"/>
-      <c r="BW32" s="114"/>
-      <c r="BX32" s="114"/>
-      <c r="BY32" s="114"/>
-      <c r="BZ32" s="114"/>
-      <c r="CA32" s="114"/>
-      <c r="CB32" s="115"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="93"/>
+      <c r="AJ32" s="93"/>
+      <c r="AK32" s="93"/>
+      <c r="AL32" s="93"/>
+      <c r="AM32" s="93"/>
+      <c r="AN32" s="94"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="93"/>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="93"/>
+      <c r="AV32" s="93"/>
+      <c r="AW32" s="93"/>
+      <c r="AX32" s="93"/>
+      <c r="AY32" s="93"/>
+      <c r="AZ32" s="93"/>
+      <c r="BA32" s="93"/>
+      <c r="BB32" s="93"/>
+      <c r="BC32" s="93"/>
+      <c r="BD32" s="93"/>
+      <c r="BE32" s="93"/>
+      <c r="BF32" s="93"/>
+      <c r="BG32" s="93"/>
+      <c r="BH32" s="93"/>
+      <c r="BI32" s="93"/>
+      <c r="BJ32" s="93"/>
+      <c r="BK32" s="93"/>
+      <c r="BL32" s="93"/>
+      <c r="BM32" s="93"/>
+      <c r="BN32" s="93"/>
+      <c r="BO32" s="93"/>
+      <c r="BP32" s="93"/>
+      <c r="BQ32" s="93"/>
+      <c r="BR32" s="93"/>
+      <c r="BS32" s="93"/>
+      <c r="BT32" s="93"/>
+      <c r="BU32" s="93"/>
+      <c r="BV32" s="93"/>
+      <c r="BW32" s="93"/>
+      <c r="BX32" s="93"/>
+      <c r="BY32" s="93"/>
+      <c r="BZ32" s="93"/>
+      <c r="CA32" s="93"/>
+      <c r="CB32" s="94"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="113"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="114"/>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="115"/>
-      <c r="AQ33" s="113"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="114"/>
-      <c r="BA33" s="114"/>
-      <c r="BB33" s="114"/>
-      <c r="BC33" s="114"/>
-      <c r="BD33" s="114"/>
-      <c r="BE33" s="114"/>
-      <c r="BF33" s="114"/>
-      <c r="BG33" s="114"/>
-      <c r="BH33" s="114"/>
-      <c r="BI33" s="114"/>
-      <c r="BJ33" s="114"/>
-      <c r="BK33" s="114"/>
-      <c r="BL33" s="114"/>
-      <c r="BM33" s="114"/>
-      <c r="BN33" s="114"/>
-      <c r="BO33" s="114"/>
-      <c r="BP33" s="114"/>
-      <c r="BQ33" s="114"/>
-      <c r="BR33" s="114"/>
-      <c r="BS33" s="114"/>
-      <c r="BT33" s="114"/>
-      <c r="BU33" s="114"/>
-      <c r="BV33" s="114"/>
-      <c r="BW33" s="114"/>
-      <c r="BX33" s="114"/>
-      <c r="BY33" s="114"/>
-      <c r="BZ33" s="114"/>
-      <c r="CA33" s="114"/>
-      <c r="CB33" s="115"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="93"/>
+      <c r="AN33" s="94"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="93"/>
+      <c r="AS33" s="93"/>
+      <c r="AT33" s="93"/>
+      <c r="AU33" s="93"/>
+      <c r="AV33" s="93"/>
+      <c r="AW33" s="93"/>
+      <c r="AX33" s="93"/>
+      <c r="AY33" s="93"/>
+      <c r="AZ33" s="93"/>
+      <c r="BA33" s="93"/>
+      <c r="BB33" s="93"/>
+      <c r="BC33" s="93"/>
+      <c r="BD33" s="93"/>
+      <c r="BE33" s="93"/>
+      <c r="BF33" s="93"/>
+      <c r="BG33" s="93"/>
+      <c r="BH33" s="93"/>
+      <c r="BI33" s="93"/>
+      <c r="BJ33" s="93"/>
+      <c r="BK33" s="93"/>
+      <c r="BL33" s="93"/>
+      <c r="BM33" s="93"/>
+      <c r="BN33" s="93"/>
+      <c r="BO33" s="93"/>
+      <c r="BP33" s="93"/>
+      <c r="BQ33" s="93"/>
+      <c r="BR33" s="93"/>
+      <c r="BS33" s="93"/>
+      <c r="BT33" s="93"/>
+      <c r="BU33" s="93"/>
+      <c r="BV33" s="93"/>
+      <c r="BW33" s="93"/>
+      <c r="BX33" s="93"/>
+      <c r="BY33" s="93"/>
+      <c r="BZ33" s="93"/>
+      <c r="CA33" s="93"/>
+      <c r="CB33" s="94"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
-      <c r="AC34" s="114"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="115"/>
-      <c r="AQ34" s="113"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
-      <c r="AX34" s="114"/>
-      <c r="AY34" s="114"/>
-      <c r="AZ34" s="114"/>
-      <c r="BA34" s="114"/>
-      <c r="BB34" s="114"/>
-      <c r="BC34" s="114"/>
-      <c r="BD34" s="114"/>
-      <c r="BE34" s="114"/>
-      <c r="BF34" s="114"/>
-      <c r="BG34" s="114"/>
-      <c r="BH34" s="114"/>
-      <c r="BI34" s="114"/>
-      <c r="BJ34" s="114"/>
-      <c r="BK34" s="114"/>
-      <c r="BL34" s="114"/>
-      <c r="BM34" s="114"/>
-      <c r="BN34" s="114"/>
-      <c r="BO34" s="114"/>
-      <c r="BP34" s="114"/>
-      <c r="BQ34" s="114"/>
-      <c r="BR34" s="114"/>
-      <c r="BS34" s="114"/>
-      <c r="BT34" s="114"/>
-      <c r="BU34" s="114"/>
-      <c r="BV34" s="114"/>
-      <c r="BW34" s="114"/>
-      <c r="BX34" s="114"/>
-      <c r="BY34" s="114"/>
-      <c r="BZ34" s="114"/>
-      <c r="CA34" s="114"/>
-      <c r="CB34" s="115"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93"/>
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="93"/>
+      <c r="AN34" s="94"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="93"/>
+      <c r="AS34" s="93"/>
+      <c r="AT34" s="93"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93"/>
+      <c r="AW34" s="93"/>
+      <c r="AX34" s="93"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="93"/>
+      <c r="BA34" s="93"/>
+      <c r="BB34" s="93"/>
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="93"/>
+      <c r="BE34" s="93"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="93"/>
+      <c r="BH34" s="93"/>
+      <c r="BI34" s="93"/>
+      <c r="BJ34" s="93"/>
+      <c r="BK34" s="93"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="93"/>
+      <c r="BO34" s="93"/>
+      <c r="BP34" s="93"/>
+      <c r="BQ34" s="93"/>
+      <c r="BR34" s="93"/>
+      <c r="BS34" s="93"/>
+      <c r="BT34" s="93"/>
+      <c r="BU34" s="93"/>
+      <c r="BV34" s="93"/>
+      <c r="BW34" s="93"/>
+      <c r="BX34" s="93"/>
+      <c r="BY34" s="93"/>
+      <c r="BZ34" s="93"/>
+      <c r="CA34" s="93"/>
+      <c r="CB34" s="94"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
-      <c r="AC35" s="114"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="114"/>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="115"/>
-      <c r="AQ35" s="113"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="114"/>
-      <c r="AX35" s="114"/>
-      <c r="AY35" s="114"/>
-      <c r="AZ35" s="114"/>
-      <c r="BA35" s="114"/>
-      <c r="BB35" s="114"/>
-      <c r="BC35" s="114"/>
-      <c r="BD35" s="114"/>
-      <c r="BE35" s="114"/>
-      <c r="BF35" s="114"/>
-      <c r="BG35" s="114"/>
-      <c r="BH35" s="114"/>
-      <c r="BI35" s="114"/>
-      <c r="BJ35" s="114"/>
-      <c r="BK35" s="114"/>
-      <c r="BL35" s="114"/>
-      <c r="BM35" s="114"/>
-      <c r="BN35" s="114"/>
-      <c r="BO35" s="114"/>
-      <c r="BP35" s="114"/>
-      <c r="BQ35" s="114"/>
-      <c r="BR35" s="114"/>
-      <c r="BS35" s="114"/>
-      <c r="BT35" s="114"/>
-      <c r="BU35" s="114"/>
-      <c r="BV35" s="114"/>
-      <c r="BW35" s="114"/>
-      <c r="BX35" s="114"/>
-      <c r="BY35" s="114"/>
-      <c r="BZ35" s="114"/>
-      <c r="CA35" s="114"/>
-      <c r="CB35" s="115"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="94"/>
+      <c r="AQ35" s="92"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="93"/>
+      <c r="BP35" s="93"/>
+      <c r="BQ35" s="93"/>
+      <c r="BR35" s="93"/>
+      <c r="BS35" s="93"/>
+      <c r="BT35" s="93"/>
+      <c r="BU35" s="93"/>
+      <c r="BV35" s="93"/>
+      <c r="BW35" s="93"/>
+      <c r="BX35" s="93"/>
+      <c r="BY35" s="93"/>
+      <c r="BZ35" s="93"/>
+      <c r="CA35" s="93"/>
+      <c r="CB35" s="94"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="113"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="114"/>
-      <c r="AF36" s="114"/>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="114"/>
-      <c r="AI36" s="114"/>
-      <c r="AJ36" s="114"/>
-      <c r="AK36" s="114"/>
-      <c r="AL36" s="114"/>
-      <c r="AM36" s="114"/>
-      <c r="AN36" s="115"/>
-      <c r="AQ36" s="113"/>
-      <c r="AR36" s="114"/>
-      <c r="AS36" s="114"/>
-      <c r="AT36" s="114"/>
-      <c r="AU36" s="114"/>
-      <c r="AV36" s="114"/>
-      <c r="AW36" s="114"/>
-      <c r="AX36" s="114"/>
-      <c r="AY36" s="114"/>
-      <c r="AZ36" s="114"/>
-      <c r="BA36" s="114"/>
-      <c r="BB36" s="114"/>
-      <c r="BC36" s="114"/>
-      <c r="BD36" s="114"/>
-      <c r="BE36" s="114"/>
-      <c r="BF36" s="114"/>
-      <c r="BG36" s="114"/>
-      <c r="BH36" s="114"/>
-      <c r="BI36" s="114"/>
-      <c r="BJ36" s="114"/>
-      <c r="BK36" s="114"/>
-      <c r="BL36" s="114"/>
-      <c r="BM36" s="114"/>
-      <c r="BN36" s="114"/>
-      <c r="BO36" s="114"/>
-      <c r="BP36" s="114"/>
-      <c r="BQ36" s="114"/>
-      <c r="BR36" s="114"/>
-      <c r="BS36" s="114"/>
-      <c r="BT36" s="114"/>
-      <c r="BU36" s="114"/>
-      <c r="BV36" s="114"/>
-      <c r="BW36" s="114"/>
-      <c r="BX36" s="114"/>
-      <c r="BY36" s="114"/>
-      <c r="BZ36" s="114"/>
-      <c r="CA36" s="114"/>
-      <c r="CB36" s="115"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93"/>
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="93"/>
+      <c r="AL36" s="93"/>
+      <c r="AM36" s="93"/>
+      <c r="AN36" s="94"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="93"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="93"/>
+      <c r="AV36" s="93"/>
+      <c r="AW36" s="93"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="93"/>
+      <c r="BA36" s="93"/>
+      <c r="BB36" s="93"/>
+      <c r="BC36" s="93"/>
+      <c r="BD36" s="93"/>
+      <c r="BE36" s="93"/>
+      <c r="BF36" s="93"/>
+      <c r="BG36" s="93"/>
+      <c r="BH36" s="93"/>
+      <c r="BI36" s="93"/>
+      <c r="BJ36" s="93"/>
+      <c r="BK36" s="93"/>
+      <c r="BL36" s="93"/>
+      <c r="BM36" s="93"/>
+      <c r="BN36" s="93"/>
+      <c r="BO36" s="93"/>
+      <c r="BP36" s="93"/>
+      <c r="BQ36" s="93"/>
+      <c r="BR36" s="93"/>
+      <c r="BS36" s="93"/>
+      <c r="BT36" s="93"/>
+      <c r="BU36" s="93"/>
+      <c r="BV36" s="93"/>
+      <c r="BW36" s="93"/>
+      <c r="BX36" s="93"/>
+      <c r="BY36" s="93"/>
+      <c r="BZ36" s="93"/>
+      <c r="CA36" s="93"/>
+      <c r="CB36" s="94"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="114"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="114"/>
-      <c r="AF37" s="114"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="114"/>
-      <c r="AJ37" s="114"/>
-      <c r="AK37" s="114"/>
-      <c r="AL37" s="114"/>
-      <c r="AM37" s="114"/>
-      <c r="AN37" s="115"/>
-      <c r="AQ37" s="113"/>
-      <c r="AR37" s="114"/>
-      <c r="AS37" s="114"/>
-      <c r="AT37" s="114"/>
-      <c r="AU37" s="114"/>
-      <c r="AV37" s="114"/>
-      <c r="AW37" s="114"/>
-      <c r="AX37" s="114"/>
-      <c r="AY37" s="114"/>
-      <c r="AZ37" s="114"/>
-      <c r="BA37" s="114"/>
-      <c r="BB37" s="114"/>
-      <c r="BC37" s="114"/>
-      <c r="BD37" s="114"/>
-      <c r="BE37" s="114"/>
-      <c r="BF37" s="114"/>
-      <c r="BG37" s="114"/>
-      <c r="BH37" s="114"/>
-      <c r="BI37" s="114"/>
-      <c r="BJ37" s="114"/>
-      <c r="BK37" s="114"/>
-      <c r="BL37" s="114"/>
-      <c r="BM37" s="114"/>
-      <c r="BN37" s="114"/>
-      <c r="BO37" s="114"/>
-      <c r="BP37" s="114"/>
-      <c r="BQ37" s="114"/>
-      <c r="BR37" s="114"/>
-      <c r="BS37" s="114"/>
-      <c r="BT37" s="114"/>
-      <c r="BU37" s="114"/>
-      <c r="BV37" s="114"/>
-      <c r="BW37" s="114"/>
-      <c r="BX37" s="114"/>
-      <c r="BY37" s="114"/>
-      <c r="BZ37" s="114"/>
-      <c r="CA37" s="114"/>
-      <c r="CB37" s="115"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
+      <c r="AK37" s="93"/>
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="93"/>
+      <c r="AN37" s="94"/>
+      <c r="AQ37" s="92"/>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="93"/>
+      <c r="AT37" s="93"/>
+      <c r="AU37" s="93"/>
+      <c r="AV37" s="93"/>
+      <c r="AW37" s="93"/>
+      <c r="AX37" s="93"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BA37" s="93"/>
+      <c r="BB37" s="93"/>
+      <c r="BC37" s="93"/>
+      <c r="BD37" s="93"/>
+      <c r="BE37" s="93"/>
+      <c r="BF37" s="93"/>
+      <c r="BG37" s="93"/>
+      <c r="BH37" s="93"/>
+      <c r="BI37" s="93"/>
+      <c r="BJ37" s="93"/>
+      <c r="BK37" s="93"/>
+      <c r="BL37" s="93"/>
+      <c r="BM37" s="93"/>
+      <c r="BN37" s="93"/>
+      <c r="BO37" s="93"/>
+      <c r="BP37" s="93"/>
+      <c r="BQ37" s="93"/>
+      <c r="BR37" s="93"/>
+      <c r="BS37" s="93"/>
+      <c r="BT37" s="93"/>
+      <c r="BU37" s="93"/>
+      <c r="BV37" s="93"/>
+      <c r="BW37" s="93"/>
+      <c r="BX37" s="93"/>
+      <c r="BY37" s="93"/>
+      <c r="BZ37" s="93"/>
+      <c r="CA37" s="93"/>
+      <c r="CB37" s="94"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="114"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="114"/>
-      <c r="AF38" s="114"/>
-      <c r="AG38" s="114"/>
-      <c r="AH38" s="114"/>
-      <c r="AI38" s="114"/>
-      <c r="AJ38" s="114"/>
-      <c r="AK38" s="114"/>
-      <c r="AL38" s="114"/>
-      <c r="AM38" s="114"/>
-      <c r="AN38" s="115"/>
-      <c r="AQ38" s="113"/>
-      <c r="AR38" s="114"/>
-      <c r="AS38" s="114"/>
-      <c r="AT38" s="114"/>
-      <c r="AU38" s="114"/>
-      <c r="AV38" s="114"/>
-      <c r="AW38" s="114"/>
-      <c r="AX38" s="114"/>
-      <c r="AY38" s="114"/>
-      <c r="AZ38" s="114"/>
-      <c r="BA38" s="114"/>
-      <c r="BB38" s="114"/>
-      <c r="BC38" s="114"/>
-      <c r="BD38" s="114"/>
-      <c r="BE38" s="114"/>
-      <c r="BF38" s="114"/>
-      <c r="BG38" s="114"/>
-      <c r="BH38" s="114"/>
-      <c r="BI38" s="114"/>
-      <c r="BJ38" s="114"/>
-      <c r="BK38" s="114"/>
-      <c r="BL38" s="114"/>
-      <c r="BM38" s="114"/>
-      <c r="BN38" s="114"/>
-      <c r="BO38" s="114"/>
-      <c r="BP38" s="114"/>
-      <c r="BQ38" s="114"/>
-      <c r="BR38" s="114"/>
-      <c r="BS38" s="114"/>
-      <c r="BT38" s="114"/>
-      <c r="BU38" s="114"/>
-      <c r="BV38" s="114"/>
-      <c r="BW38" s="114"/>
-      <c r="BX38" s="114"/>
-      <c r="BY38" s="114"/>
-      <c r="BZ38" s="114"/>
-      <c r="CA38" s="114"/>
-      <c r="CB38" s="115"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
+      <c r="AH38" s="93"/>
+      <c r="AI38" s="93"/>
+      <c r="AJ38" s="93"/>
+      <c r="AK38" s="93"/>
+      <c r="AL38" s="93"/>
+      <c r="AM38" s="93"/>
+      <c r="AN38" s="94"/>
+      <c r="AQ38" s="92"/>
+      <c r="AR38" s="93"/>
+      <c r="AS38" s="93"/>
+      <c r="AT38" s="93"/>
+      <c r="AU38" s="93"/>
+      <c r="AV38" s="93"/>
+      <c r="AW38" s="93"/>
+      <c r="AX38" s="93"/>
+      <c r="AY38" s="93"/>
+      <c r="AZ38" s="93"/>
+      <c r="BA38" s="93"/>
+      <c r="BB38" s="93"/>
+      <c r="BC38" s="93"/>
+      <c r="BD38" s="93"/>
+      <c r="BE38" s="93"/>
+      <c r="BF38" s="93"/>
+      <c r="BG38" s="93"/>
+      <c r="BH38" s="93"/>
+      <c r="BI38" s="93"/>
+      <c r="BJ38" s="93"/>
+      <c r="BK38" s="93"/>
+      <c r="BL38" s="93"/>
+      <c r="BM38" s="93"/>
+      <c r="BN38" s="93"/>
+      <c r="BO38" s="93"/>
+      <c r="BP38" s="93"/>
+      <c r="BQ38" s="93"/>
+      <c r="BR38" s="93"/>
+      <c r="BS38" s="93"/>
+      <c r="BT38" s="93"/>
+      <c r="BU38" s="93"/>
+      <c r="BV38" s="93"/>
+      <c r="BW38" s="93"/>
+      <c r="BX38" s="93"/>
+      <c r="BY38" s="93"/>
+      <c r="BZ38" s="93"/>
+      <c r="CA38" s="93"/>
+      <c r="CB38" s="94"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" s="114"/>
-      <c r="AA39" s="114"/>
-      <c r="AB39" s="114"/>
-      <c r="AC39" s="114"/>
-      <c r="AD39" s="114"/>
-      <c r="AE39" s="114"/>
-      <c r="AF39" s="114"/>
-      <c r="AG39" s="114"/>
-      <c r="AH39" s="114"/>
-      <c r="AI39" s="114"/>
-      <c r="AJ39" s="114"/>
-      <c r="AK39" s="114"/>
-      <c r="AL39" s="114"/>
-      <c r="AM39" s="114"/>
-      <c r="AN39" s="115"/>
-      <c r="AQ39" s="113"/>
-      <c r="AR39" s="114"/>
-      <c r="AS39" s="114"/>
-      <c r="AT39" s="114"/>
-      <c r="AU39" s="114"/>
-      <c r="AV39" s="114"/>
-      <c r="AW39" s="114"/>
-      <c r="AX39" s="114"/>
-      <c r="AY39" s="114"/>
-      <c r="AZ39" s="114"/>
-      <c r="BA39" s="114"/>
-      <c r="BB39" s="114"/>
-      <c r="BC39" s="114"/>
-      <c r="BD39" s="114"/>
-      <c r="BE39" s="114"/>
-      <c r="BF39" s="114"/>
-      <c r="BG39" s="114"/>
-      <c r="BH39" s="114"/>
-      <c r="BI39" s="114"/>
-      <c r="BJ39" s="114"/>
-      <c r="BK39" s="114"/>
-      <c r="BL39" s="114"/>
-      <c r="BM39" s="114"/>
-      <c r="BN39" s="114"/>
-      <c r="BO39" s="114"/>
-      <c r="BP39" s="114"/>
-      <c r="BQ39" s="114"/>
-      <c r="BR39" s="114"/>
-      <c r="BS39" s="114"/>
-      <c r="BT39" s="114"/>
-      <c r="BU39" s="114"/>
-      <c r="BV39" s="114"/>
-      <c r="BW39" s="114"/>
-      <c r="BX39" s="114"/>
-      <c r="BY39" s="114"/>
-      <c r="BZ39" s="114"/>
-      <c r="CA39" s="114"/>
-      <c r="CB39" s="115"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="93"/>
+      <c r="AH39" s="93"/>
+      <c r="AI39" s="93"/>
+      <c r="AJ39" s="93"/>
+      <c r="AK39" s="93"/>
+      <c r="AL39" s="93"/>
+      <c r="AM39" s="93"/>
+      <c r="AN39" s="94"/>
+      <c r="AQ39" s="92"/>
+      <c r="AR39" s="93"/>
+      <c r="AS39" s="93"/>
+      <c r="AT39" s="93"/>
+      <c r="AU39" s="93"/>
+      <c r="AV39" s="93"/>
+      <c r="AW39" s="93"/>
+      <c r="AX39" s="93"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="93"/>
+      <c r="BD39" s="93"/>
+      <c r="BE39" s="93"/>
+      <c r="BF39" s="93"/>
+      <c r="BG39" s="93"/>
+      <c r="BH39" s="93"/>
+      <c r="BI39" s="93"/>
+      <c r="BJ39" s="93"/>
+      <c r="BK39" s="93"/>
+      <c r="BL39" s="93"/>
+      <c r="BM39" s="93"/>
+      <c r="BN39" s="93"/>
+      <c r="BO39" s="93"/>
+      <c r="BP39" s="93"/>
+      <c r="BQ39" s="93"/>
+      <c r="BR39" s="93"/>
+      <c r="BS39" s="93"/>
+      <c r="BT39" s="93"/>
+      <c r="BU39" s="93"/>
+      <c r="BV39" s="93"/>
+      <c r="BW39" s="93"/>
+      <c r="BX39" s="93"/>
+      <c r="BY39" s="93"/>
+      <c r="BZ39" s="93"/>
+      <c r="CA39" s="93"/>
+      <c r="CB39" s="94"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="113"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="114"/>
-      <c r="AB40" s="114"/>
-      <c r="AC40" s="114"/>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="114"/>
-      <c r="AF40" s="114"/>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="114"/>
-      <c r="AJ40" s="114"/>
-      <c r="AK40" s="114"/>
-      <c r="AL40" s="114"/>
-      <c r="AM40" s="114"/>
-      <c r="AN40" s="115"/>
-      <c r="AQ40" s="113"/>
-      <c r="AR40" s="114"/>
-      <c r="AS40" s="114"/>
-      <c r="AT40" s="114"/>
-      <c r="AU40" s="114"/>
-      <c r="AV40" s="114"/>
-      <c r="AW40" s="114"/>
-      <c r="AX40" s="114"/>
-      <c r="AY40" s="114"/>
-      <c r="AZ40" s="114"/>
-      <c r="BA40" s="114"/>
-      <c r="BB40" s="114"/>
-      <c r="BC40" s="114"/>
-      <c r="BD40" s="114"/>
-      <c r="BE40" s="114"/>
-      <c r="BF40" s="114"/>
-      <c r="BG40" s="114"/>
-      <c r="BH40" s="114"/>
-      <c r="BI40" s="114"/>
-      <c r="BJ40" s="114"/>
-      <c r="BK40" s="114"/>
-      <c r="BL40" s="114"/>
-      <c r="BM40" s="114"/>
-      <c r="BN40" s="114"/>
-      <c r="BO40" s="114"/>
-      <c r="BP40" s="114"/>
-      <c r="BQ40" s="114"/>
-      <c r="BR40" s="114"/>
-      <c r="BS40" s="114"/>
-      <c r="BT40" s="114"/>
-      <c r="BU40" s="114"/>
-      <c r="BV40" s="114"/>
-      <c r="BW40" s="114"/>
-      <c r="BX40" s="114"/>
-      <c r="BY40" s="114"/>
-      <c r="BZ40" s="114"/>
-      <c r="CA40" s="114"/>
-      <c r="CB40" s="115"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="93"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="93"/>
+      <c r="AH40" s="93"/>
+      <c r="AI40" s="93"/>
+      <c r="AJ40" s="93"/>
+      <c r="AK40" s="93"/>
+      <c r="AL40" s="93"/>
+      <c r="AM40" s="93"/>
+      <c r="AN40" s="94"/>
+      <c r="AQ40" s="92"/>
+      <c r="AR40" s="93"/>
+      <c r="AS40" s="93"/>
+      <c r="AT40" s="93"/>
+      <c r="AU40" s="93"/>
+      <c r="AV40" s="93"/>
+      <c r="AW40" s="93"/>
+      <c r="AX40" s="93"/>
+      <c r="AY40" s="93"/>
+      <c r="AZ40" s="93"/>
+      <c r="BA40" s="93"/>
+      <c r="BB40" s="93"/>
+      <c r="BC40" s="93"/>
+      <c r="BD40" s="93"/>
+      <c r="BE40" s="93"/>
+      <c r="BF40" s="93"/>
+      <c r="BG40" s="93"/>
+      <c r="BH40" s="93"/>
+      <c r="BI40" s="93"/>
+      <c r="BJ40" s="93"/>
+      <c r="BK40" s="93"/>
+      <c r="BL40" s="93"/>
+      <c r="BM40" s="93"/>
+      <c r="BN40" s="93"/>
+      <c r="BO40" s="93"/>
+      <c r="BP40" s="93"/>
+      <c r="BQ40" s="93"/>
+      <c r="BR40" s="93"/>
+      <c r="BS40" s="93"/>
+      <c r="BT40" s="93"/>
+      <c r="BU40" s="93"/>
+      <c r="BV40" s="93"/>
+      <c r="BW40" s="93"/>
+      <c r="BX40" s="93"/>
+      <c r="BY40" s="93"/>
+      <c r="BZ40" s="93"/>
+      <c r="CA40" s="93"/>
+      <c r="CB40" s="94"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="114"/>
-      <c r="AB41" s="114"/>
-      <c r="AC41" s="114"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="114"/>
-      <c r="AF41" s="114"/>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="114"/>
-      <c r="AJ41" s="114"/>
-      <c r="AK41" s="114"/>
-      <c r="AL41" s="114"/>
-      <c r="AM41" s="114"/>
-      <c r="AN41" s="115"/>
-      <c r="AQ41" s="113"/>
-      <c r="AR41" s="114"/>
-      <c r="AS41" s="114"/>
-      <c r="AT41" s="114"/>
-      <c r="AU41" s="114"/>
-      <c r="AV41" s="114"/>
-      <c r="AW41" s="114"/>
-      <c r="AX41" s="114"/>
-      <c r="AY41" s="114"/>
-      <c r="AZ41" s="114"/>
-      <c r="BA41" s="114"/>
-      <c r="BB41" s="114"/>
-      <c r="BC41" s="114"/>
-      <c r="BD41" s="114"/>
-      <c r="BE41" s="114"/>
-      <c r="BF41" s="114"/>
-      <c r="BG41" s="114"/>
-      <c r="BH41" s="114"/>
-      <c r="BI41" s="114"/>
-      <c r="BJ41" s="114"/>
-      <c r="BK41" s="114"/>
-      <c r="BL41" s="114"/>
-      <c r="BM41" s="114"/>
-      <c r="BN41" s="114"/>
-      <c r="BO41" s="114"/>
-      <c r="BP41" s="114"/>
-      <c r="BQ41" s="114"/>
-      <c r="BR41" s="114"/>
-      <c r="BS41" s="114"/>
-      <c r="BT41" s="114"/>
-      <c r="BU41" s="114"/>
-      <c r="BV41" s="114"/>
-      <c r="BW41" s="114"/>
-      <c r="BX41" s="114"/>
-      <c r="BY41" s="114"/>
-      <c r="BZ41" s="114"/>
-      <c r="CA41" s="114"/>
-      <c r="CB41" s="115"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="93"/>
+      <c r="AH41" s="93"/>
+      <c r="AI41" s="93"/>
+      <c r="AJ41" s="93"/>
+      <c r="AK41" s="93"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="93"/>
+      <c r="AN41" s="94"/>
+      <c r="AQ41" s="92"/>
+      <c r="AR41" s="93"/>
+      <c r="AS41" s="93"/>
+      <c r="AT41" s="93"/>
+      <c r="AU41" s="93"/>
+      <c r="AV41" s="93"/>
+      <c r="AW41" s="93"/>
+      <c r="AX41" s="93"/>
+      <c r="AY41" s="93"/>
+      <c r="AZ41" s="93"/>
+      <c r="BA41" s="93"/>
+      <c r="BB41" s="93"/>
+      <c r="BC41" s="93"/>
+      <c r="BD41" s="93"/>
+      <c r="BE41" s="93"/>
+      <c r="BF41" s="93"/>
+      <c r="BG41" s="93"/>
+      <c r="BH41" s="93"/>
+      <c r="BI41" s="93"/>
+      <c r="BJ41" s="93"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="93"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="93"/>
+      <c r="BQ41" s="93"/>
+      <c r="BR41" s="93"/>
+      <c r="BS41" s="93"/>
+      <c r="BT41" s="93"/>
+      <c r="BU41" s="93"/>
+      <c r="BV41" s="93"/>
+      <c r="BW41" s="93"/>
+      <c r="BX41" s="93"/>
+      <c r="BY41" s="93"/>
+      <c r="BZ41" s="93"/>
+      <c r="CA41" s="93"/>
+      <c r="CB41" s="94"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="114"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="114"/>
-      <c r="AJ42" s="114"/>
-      <c r="AK42" s="114"/>
-      <c r="AL42" s="114"/>
-      <c r="AM42" s="114"/>
-      <c r="AN42" s="115"/>
-      <c r="AQ42" s="113"/>
-      <c r="AR42" s="114"/>
-      <c r="AS42" s="114"/>
-      <c r="AT42" s="114"/>
-      <c r="AU42" s="114"/>
-      <c r="AV42" s="114"/>
-      <c r="AW42" s="114"/>
-      <c r="AX42" s="114"/>
-      <c r="AY42" s="114"/>
-      <c r="AZ42" s="114"/>
-      <c r="BA42" s="114"/>
-      <c r="BB42" s="114"/>
-      <c r="BC42" s="114"/>
-      <c r="BD42" s="114"/>
-      <c r="BE42" s="114"/>
-      <c r="BF42" s="114"/>
-      <c r="BG42" s="114"/>
-      <c r="BH42" s="114"/>
-      <c r="BI42" s="114"/>
-      <c r="BJ42" s="114"/>
-      <c r="BK42" s="114"/>
-      <c r="BL42" s="114"/>
-      <c r="BM42" s="114"/>
-      <c r="BN42" s="114"/>
-      <c r="BO42" s="114"/>
-      <c r="BP42" s="114"/>
-      <c r="BQ42" s="114"/>
-      <c r="BR42" s="114"/>
-      <c r="BS42" s="114"/>
-      <c r="BT42" s="114"/>
-      <c r="BU42" s="114"/>
-      <c r="BV42" s="114"/>
-      <c r="BW42" s="114"/>
-      <c r="BX42" s="114"/>
-      <c r="BY42" s="114"/>
-      <c r="BZ42" s="114"/>
-      <c r="CA42" s="114"/>
-      <c r="CB42" s="115"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="93"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="93"/>
+      <c r="AM42" s="93"/>
+      <c r="AN42" s="94"/>
+      <c r="AQ42" s="92"/>
+      <c r="AR42" s="93"/>
+      <c r="AS42" s="93"/>
+      <c r="AT42" s="93"/>
+      <c r="AU42" s="93"/>
+      <c r="AV42" s="93"/>
+      <c r="AW42" s="93"/>
+      <c r="AX42" s="93"/>
+      <c r="AY42" s="93"/>
+      <c r="AZ42" s="93"/>
+      <c r="BA42" s="93"/>
+      <c r="BB42" s="93"/>
+      <c r="BC42" s="93"/>
+      <c r="BD42" s="93"/>
+      <c r="BE42" s="93"/>
+      <c r="BF42" s="93"/>
+      <c r="BG42" s="93"/>
+      <c r="BH42" s="93"/>
+      <c r="BI42" s="93"/>
+      <c r="BJ42" s="93"/>
+      <c r="BK42" s="93"/>
+      <c r="BL42" s="93"/>
+      <c r="BM42" s="93"/>
+      <c r="BN42" s="93"/>
+      <c r="BO42" s="93"/>
+      <c r="BP42" s="93"/>
+      <c r="BQ42" s="93"/>
+      <c r="BR42" s="93"/>
+      <c r="BS42" s="93"/>
+      <c r="BT42" s="93"/>
+      <c r="BU42" s="93"/>
+      <c r="BV42" s="93"/>
+      <c r="BW42" s="93"/>
+      <c r="BX42" s="93"/>
+      <c r="BY42" s="93"/>
+      <c r="BZ42" s="93"/>
+      <c r="CA42" s="93"/>
+      <c r="CB42" s="94"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="114"/>
-      <c r="AG43" s="114"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="114"/>
-      <c r="AJ43" s="114"/>
-      <c r="AK43" s="114"/>
-      <c r="AL43" s="114"/>
-      <c r="AM43" s="114"/>
-      <c r="AN43" s="115"/>
-      <c r="AQ43" s="113"/>
-      <c r="AR43" s="114"/>
-      <c r="AS43" s="114"/>
-      <c r="AT43" s="114"/>
-      <c r="AU43" s="114"/>
-      <c r="AV43" s="114"/>
-      <c r="AW43" s="114"/>
-      <c r="AX43" s="114"/>
-      <c r="AY43" s="114"/>
-      <c r="AZ43" s="114"/>
-      <c r="BA43" s="114"/>
-      <c r="BB43" s="114"/>
-      <c r="BC43" s="114"/>
-      <c r="BD43" s="114"/>
-      <c r="BE43" s="114"/>
-      <c r="BF43" s="114"/>
-      <c r="BG43" s="114"/>
-      <c r="BH43" s="114"/>
-      <c r="BI43" s="114"/>
-      <c r="BJ43" s="114"/>
-      <c r="BK43" s="114"/>
-      <c r="BL43" s="114"/>
-      <c r="BM43" s="114"/>
-      <c r="BN43" s="114"/>
-      <c r="BO43" s="114"/>
-      <c r="BP43" s="114"/>
-      <c r="BQ43" s="114"/>
-      <c r="BR43" s="114"/>
-      <c r="BS43" s="114"/>
-      <c r="BT43" s="114"/>
-      <c r="BU43" s="114"/>
-      <c r="BV43" s="114"/>
-      <c r="BW43" s="114"/>
-      <c r="BX43" s="114"/>
-      <c r="BY43" s="114"/>
-      <c r="BZ43" s="114"/>
-      <c r="CA43" s="114"/>
-      <c r="CB43" s="115"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="93"/>
+      <c r="AG43" s="93"/>
+      <c r="AH43" s="93"/>
+      <c r="AI43" s="93"/>
+      <c r="AJ43" s="93"/>
+      <c r="AK43" s="93"/>
+      <c r="AL43" s="93"/>
+      <c r="AM43" s="93"/>
+      <c r="AN43" s="94"/>
+      <c r="AQ43" s="92"/>
+      <c r="AR43" s="93"/>
+      <c r="AS43" s="93"/>
+      <c r="AT43" s="93"/>
+      <c r="AU43" s="93"/>
+      <c r="AV43" s="93"/>
+      <c r="AW43" s="93"/>
+      <c r="AX43" s="93"/>
+      <c r="AY43" s="93"/>
+      <c r="AZ43" s="93"/>
+      <c r="BA43" s="93"/>
+      <c r="BB43" s="93"/>
+      <c r="BC43" s="93"/>
+      <c r="BD43" s="93"/>
+      <c r="BE43" s="93"/>
+      <c r="BF43" s="93"/>
+      <c r="BG43" s="93"/>
+      <c r="BH43" s="93"/>
+      <c r="BI43" s="93"/>
+      <c r="BJ43" s="93"/>
+      <c r="BK43" s="93"/>
+      <c r="BL43" s="93"/>
+      <c r="BM43" s="93"/>
+      <c r="BN43" s="93"/>
+      <c r="BO43" s="93"/>
+      <c r="BP43" s="93"/>
+      <c r="BQ43" s="93"/>
+      <c r="BR43" s="93"/>
+      <c r="BS43" s="93"/>
+      <c r="BT43" s="93"/>
+      <c r="BU43" s="93"/>
+      <c r="BV43" s="93"/>
+      <c r="BW43" s="93"/>
+      <c r="BX43" s="93"/>
+      <c r="BY43" s="93"/>
+      <c r="BZ43" s="93"/>
+      <c r="CA43" s="93"/>
+      <c r="CB43" s="94"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="113"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
-      <c r="Y44" s="114"/>
-      <c r="Z44" s="114"/>
-      <c r="AA44" s="114"/>
-      <c r="AB44" s="114"/>
-      <c r="AC44" s="114"/>
-      <c r="AD44" s="114"/>
-      <c r="AE44" s="114"/>
-      <c r="AF44" s="114"/>
-      <c r="AG44" s="114"/>
-      <c r="AH44" s="114"/>
-      <c r="AI44" s="114"/>
-      <c r="AJ44" s="114"/>
-      <c r="AK44" s="114"/>
-      <c r="AL44" s="114"/>
-      <c r="AM44" s="114"/>
-      <c r="AN44" s="115"/>
-      <c r="AQ44" s="113"/>
-      <c r="AR44" s="114"/>
-      <c r="AS44" s="114"/>
-      <c r="AT44" s="114"/>
-      <c r="AU44" s="114"/>
-      <c r="AV44" s="114"/>
-      <c r="AW44" s="114"/>
-      <c r="AX44" s="114"/>
-      <c r="AY44" s="114"/>
-      <c r="AZ44" s="114"/>
-      <c r="BA44" s="114"/>
-      <c r="BB44" s="114"/>
-      <c r="BC44" s="114"/>
-      <c r="BD44" s="114"/>
-      <c r="BE44" s="114"/>
-      <c r="BF44" s="114"/>
-      <c r="BG44" s="114"/>
-      <c r="BH44" s="114"/>
-      <c r="BI44" s="114"/>
-      <c r="BJ44" s="114"/>
-      <c r="BK44" s="114"/>
-      <c r="BL44" s="114"/>
-      <c r="BM44" s="114"/>
-      <c r="BN44" s="114"/>
-      <c r="BO44" s="114"/>
-      <c r="BP44" s="114"/>
-      <c r="BQ44" s="114"/>
-      <c r="BR44" s="114"/>
-      <c r="BS44" s="114"/>
-      <c r="BT44" s="114"/>
-      <c r="BU44" s="114"/>
-      <c r="BV44" s="114"/>
-      <c r="BW44" s="114"/>
-      <c r="BX44" s="114"/>
-      <c r="BY44" s="114"/>
-      <c r="BZ44" s="114"/>
-      <c r="CA44" s="114"/>
-      <c r="CB44" s="115"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="93"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="93"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="93"/>
+      <c r="AF44" s="93"/>
+      <c r="AG44" s="93"/>
+      <c r="AH44" s="93"/>
+      <c r="AI44" s="93"/>
+      <c r="AJ44" s="93"/>
+      <c r="AK44" s="93"/>
+      <c r="AL44" s="93"/>
+      <c r="AM44" s="93"/>
+      <c r="AN44" s="94"/>
+      <c r="AQ44" s="92"/>
+      <c r="AR44" s="93"/>
+      <c r="AS44" s="93"/>
+      <c r="AT44" s="93"/>
+      <c r="AU44" s="93"/>
+      <c r="AV44" s="93"/>
+      <c r="AW44" s="93"/>
+      <c r="AX44" s="93"/>
+      <c r="AY44" s="93"/>
+      <c r="AZ44" s="93"/>
+      <c r="BA44" s="93"/>
+      <c r="BB44" s="93"/>
+      <c r="BC44" s="93"/>
+      <c r="BD44" s="93"/>
+      <c r="BE44" s="93"/>
+      <c r="BF44" s="93"/>
+      <c r="BG44" s="93"/>
+      <c r="BH44" s="93"/>
+      <c r="BI44" s="93"/>
+      <c r="BJ44" s="93"/>
+      <c r="BK44" s="93"/>
+      <c r="BL44" s="93"/>
+      <c r="BM44" s="93"/>
+      <c r="BN44" s="93"/>
+      <c r="BO44" s="93"/>
+      <c r="BP44" s="93"/>
+      <c r="BQ44" s="93"/>
+      <c r="BR44" s="93"/>
+      <c r="BS44" s="93"/>
+      <c r="BT44" s="93"/>
+      <c r="BU44" s="93"/>
+      <c r="BV44" s="93"/>
+      <c r="BW44" s="93"/>
+      <c r="BX44" s="93"/>
+      <c r="BY44" s="93"/>
+      <c r="BZ44" s="93"/>
+      <c r="CA44" s="93"/>
+      <c r="CB44" s="94"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="114"/>
-      <c r="Z45" s="114"/>
-      <c r="AA45" s="114"/>
-      <c r="AB45" s="114"/>
-      <c r="AC45" s="114"/>
-      <c r="AD45" s="114"/>
-      <c r="AE45" s="114"/>
-      <c r="AF45" s="114"/>
-      <c r="AG45" s="114"/>
-      <c r="AH45" s="114"/>
-      <c r="AI45" s="114"/>
-      <c r="AJ45" s="114"/>
-      <c r="AK45" s="114"/>
-      <c r="AL45" s="114"/>
-      <c r="AM45" s="114"/>
-      <c r="AN45" s="115"/>
-      <c r="AQ45" s="113"/>
-      <c r="AR45" s="114"/>
-      <c r="AS45" s="114"/>
-      <c r="AT45" s="114"/>
-      <c r="AU45" s="114"/>
-      <c r="AV45" s="114"/>
-      <c r="AW45" s="114"/>
-      <c r="AX45" s="114"/>
-      <c r="AY45" s="114"/>
-      <c r="AZ45" s="114"/>
-      <c r="BA45" s="114"/>
-      <c r="BB45" s="114"/>
-      <c r="BC45" s="114"/>
-      <c r="BD45" s="114"/>
-      <c r="BE45" s="114"/>
-      <c r="BF45" s="114"/>
-      <c r="BG45" s="114"/>
-      <c r="BH45" s="114"/>
-      <c r="BI45" s="114"/>
-      <c r="BJ45" s="114"/>
-      <c r="BK45" s="114"/>
-      <c r="BL45" s="114"/>
-      <c r="BM45" s="114"/>
-      <c r="BN45" s="114"/>
-      <c r="BO45" s="114"/>
-      <c r="BP45" s="114"/>
-      <c r="BQ45" s="114"/>
-      <c r="BR45" s="114"/>
-      <c r="BS45" s="114"/>
-      <c r="BT45" s="114"/>
-      <c r="BU45" s="114"/>
-      <c r="BV45" s="114"/>
-      <c r="BW45" s="114"/>
-      <c r="BX45" s="114"/>
-      <c r="BY45" s="114"/>
-      <c r="BZ45" s="114"/>
-      <c r="CA45" s="114"/>
-      <c r="CB45" s="115"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
+      <c r="AC45" s="93"/>
+      <c r="AD45" s="93"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="93"/>
+      <c r="AH45" s="93"/>
+      <c r="AI45" s="93"/>
+      <c r="AJ45" s="93"/>
+      <c r="AK45" s="93"/>
+      <c r="AL45" s="93"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="94"/>
+      <c r="AQ45" s="92"/>
+      <c r="AR45" s="93"/>
+      <c r="AS45" s="93"/>
+      <c r="AT45" s="93"/>
+      <c r="AU45" s="93"/>
+      <c r="AV45" s="93"/>
+      <c r="AW45" s="93"/>
+      <c r="AX45" s="93"/>
+      <c r="AY45" s="93"/>
+      <c r="AZ45" s="93"/>
+      <c r="BA45" s="93"/>
+      <c r="BB45" s="93"/>
+      <c r="BC45" s="93"/>
+      <c r="BD45" s="93"/>
+      <c r="BE45" s="93"/>
+      <c r="BF45" s="93"/>
+      <c r="BG45" s="93"/>
+      <c r="BH45" s="93"/>
+      <c r="BI45" s="93"/>
+      <c r="BJ45" s="93"/>
+      <c r="BK45" s="93"/>
+      <c r="BL45" s="93"/>
+      <c r="BM45" s="93"/>
+      <c r="BN45" s="93"/>
+      <c r="BO45" s="93"/>
+      <c r="BP45" s="93"/>
+      <c r="BQ45" s="93"/>
+      <c r="BR45" s="93"/>
+      <c r="BS45" s="93"/>
+      <c r="BT45" s="93"/>
+      <c r="BU45" s="93"/>
+      <c r="BV45" s="93"/>
+      <c r="BW45" s="93"/>
+      <c r="BX45" s="93"/>
+      <c r="BY45" s="93"/>
+      <c r="BZ45" s="93"/>
+      <c r="CA45" s="93"/>
+      <c r="CB45" s="94"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="117"/>
-      <c r="Z46" s="117"/>
-      <c r="AA46" s="117"/>
-      <c r="AB46" s="117"/>
-      <c r="AC46" s="117"/>
-      <c r="AD46" s="117"/>
-      <c r="AE46" s="117"/>
-      <c r="AF46" s="117"/>
-      <c r="AG46" s="117"/>
-      <c r="AH46" s="117"/>
-      <c r="AI46" s="117"/>
-      <c r="AJ46" s="117"/>
-      <c r="AK46" s="117"/>
-      <c r="AL46" s="117"/>
-      <c r="AM46" s="117"/>
-      <c r="AN46" s="118"/>
-      <c r="AQ46" s="116"/>
-      <c r="AR46" s="117"/>
-      <c r="AS46" s="117"/>
-      <c r="AT46" s="117"/>
-      <c r="AU46" s="117"/>
-      <c r="AV46" s="117"/>
-      <c r="AW46" s="117"/>
-      <c r="AX46" s="117"/>
-      <c r="AY46" s="117"/>
-      <c r="AZ46" s="117"/>
-      <c r="BA46" s="117"/>
-      <c r="BB46" s="117"/>
-      <c r="BC46" s="117"/>
-      <c r="BD46" s="117"/>
-      <c r="BE46" s="117"/>
-      <c r="BF46" s="117"/>
-      <c r="BG46" s="117"/>
-      <c r="BH46" s="117"/>
-      <c r="BI46" s="117"/>
-      <c r="BJ46" s="117"/>
-      <c r="BK46" s="117"/>
-      <c r="BL46" s="117"/>
-      <c r="BM46" s="117"/>
-      <c r="BN46" s="117"/>
-      <c r="BO46" s="117"/>
-      <c r="BP46" s="117"/>
-      <c r="BQ46" s="117"/>
-      <c r="BR46" s="117"/>
-      <c r="BS46" s="117"/>
-      <c r="BT46" s="117"/>
-      <c r="BU46" s="117"/>
-      <c r="BV46" s="117"/>
-      <c r="BW46" s="117"/>
-      <c r="BX46" s="117"/>
-      <c r="BY46" s="117"/>
-      <c r="BZ46" s="117"/>
-      <c r="CA46" s="117"/>
-      <c r="CB46" s="118"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="96"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="96"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="96"/>
+      <c r="AK46" s="96"/>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="97"/>
+      <c r="AQ46" s="95"/>
+      <c r="AR46" s="96"/>
+      <c r="AS46" s="96"/>
+      <c r="AT46" s="96"/>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="96"/>
+      <c r="AW46" s="96"/>
+      <c r="AX46" s="96"/>
+      <c r="AY46" s="96"/>
+      <c r="AZ46" s="96"/>
+      <c r="BA46" s="96"/>
+      <c r="BB46" s="96"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="96"/>
+      <c r="BE46" s="96"/>
+      <c r="BF46" s="96"/>
+      <c r="BG46" s="96"/>
+      <c r="BH46" s="96"/>
+      <c r="BI46" s="96"/>
+      <c r="BJ46" s="96"/>
+      <c r="BK46" s="96"/>
+      <c r="BL46" s="96"/>
+      <c r="BM46" s="96"/>
+      <c r="BN46" s="96"/>
+      <c r="BO46" s="96"/>
+      <c r="BP46" s="96"/>
+      <c r="BQ46" s="96"/>
+      <c r="BR46" s="96"/>
+      <c r="BS46" s="96"/>
+      <c r="BT46" s="96"/>
+      <c r="BU46" s="96"/>
+      <c r="BV46" s="96"/>
+      <c r="BW46" s="96"/>
+      <c r="BX46" s="96"/>
+      <c r="BY46" s="96"/>
+      <c r="BZ46" s="96"/>
+      <c r="CA46" s="96"/>
+      <c r="CB46" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A827619-39AA-4C3E-89FC-B62C864D5E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC8A29-BFC5-4112-8F71-01A3AF75BF65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="5" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -89,12 +89,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{951887BD-8385-4008-8735-78A1B7AA86FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>1º Parâmetro: 
+          Célula do código
+2º Parâmetro:
+          Selecionar toda a tabela onde será procurado.
+3º Parâmetro:
+          O id da COLUNA (inicia da esquerda para direita, valor 1 para a primeira coluna.
+4º Parâmetro:
+          • verdadeiro: Valores aproximados;
+          • falso: Valores EXATOS.
+Na PROCV não consigo procurar 'Bermuda' e retornar o coódigo dele, ou seja, selecionar o número da coluna antes dele.
+PROCV -- Procura Vertical (Colunas)
+PROCH -- Procura Horizontal (Linhas)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rafa RPG</author>
+  </authors>
+  <commentList>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{B06CBAAC-3553-4C73-AEBE-098C99276FD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Corresp
+1º Parâmetro:
+          Célula de busca
+2º Parâmetro
+          A Linha ou Coluna dos Dados (não a matriz inteira
+3º Parâmetro
+          Tipo de pesquisa
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="174">
   <si>
     <t>Produtos</t>
   </si>
@@ -607,6 +663,15 @@
   </si>
   <si>
     <t>Estoque Mínimo</t>
+  </si>
+  <si>
+    <t>CORRESP</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Linha</t>
   </si>
 </sst>
 </file>
@@ -619,7 +684,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +867,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -846,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1278,6 +1350,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1292,7 +1373,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1485,6 +1566,12 @@
     <xf numFmtId="166" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,33 +1598,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,12 +1653,37 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -1611,14 +1696,8 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1628,10 +1707,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1662,6 +1737,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2037,22 +2122,22 @@
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1750.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2974.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3698.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3651.0999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2776.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3477.7000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8320,19 +8405,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Cabeçalho Meteora">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Cabeçalho Meteora">
   <autoFilter ref="A4:I86" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="8">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="7">
       <calculatedColumnFormula>PROPER(TEXT(DATE(,TB_Vendas[[#This Row],[Nº]],1),"Mmm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem"/>
     <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
@@ -8654,88 +8741,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -8841,8 +8928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -10137,9 +10224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DDB36B-A116-48A3-A416-7A80B429A8F5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10151,10 +10236,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.15" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -10263,8 +10348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF34D44-0E29-4A7F-B47B-66AF094D5F9D}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10353,11 +10438,14 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G5" s="69"/>
       <c r="H5" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>127</v>
@@ -10381,11 +10469,14 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G6" s="69"/>
       <c r="H6" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>127</v>
@@ -10409,11 +10500,14 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>32.9</v>
+      </c>
       <c r="G7" s="69"/>
       <c r="H7" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>126</v>
@@ -10437,11 +10531,14 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>46.9</v>
+      </c>
       <c r="G8" s="69"/>
       <c r="H8" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>130</v>
@@ -10465,11 +10562,14 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>29.9</v>
+      </c>
       <c r="G9" s="69"/>
       <c r="H9" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>127</v>
@@ -10493,11 +10593,14 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>299.89999999999998</v>
+      </c>
       <c r="G10" s="69"/>
       <c r="H10" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>130</v>
@@ -10521,11 +10624,14 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>146</v>
+      </c>
       <c r="G11" s="69"/>
       <c r="H11" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>128</v>
@@ -10549,11 +10655,14 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>89.9</v>
+      </c>
       <c r="G12" s="69"/>
       <c r="H12" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>128</v>
@@ -10577,11 +10686,14 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>250</v>
+      </c>
       <c r="G13" s="69"/>
       <c r="H13" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>127</v>
@@ -10605,11 +10717,14 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G14" s="69"/>
       <c r="H14" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>127</v>
@@ -10633,11 +10748,14 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>142.9</v>
+      </c>
       <c r="G15" s="69"/>
       <c r="H15" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>129</v>
@@ -10661,11 +10779,14 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>300</v>
+      </c>
       <c r="G16" s="69"/>
       <c r="H16" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>128</v>
@@ -10689,11 +10810,14 @@
       <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>289.89999999999998</v>
+      </c>
       <c r="G17" s="69"/>
       <c r="H17" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>579.79999999999995</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>129</v>
@@ -10717,11 +10841,14 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>249.9</v>
+      </c>
       <c r="G18" s="69"/>
       <c r="H18" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>249.9</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>129</v>
@@ -10745,11 +10872,14 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G19" s="69"/>
       <c r="H19" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>129</v>
@@ -10773,11 +10903,14 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>289.89999999999998</v>
+      </c>
       <c r="G20" s="69"/>
       <c r="H20" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1159.5999999999999</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>129</v>
@@ -10801,11 +10934,14 @@
       <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>180</v>
+      </c>
       <c r="G21" s="69"/>
       <c r="H21" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>127</v>
@@ -10829,11 +10965,14 @@
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>32.9</v>
+      </c>
       <c r="G22" s="69"/>
       <c r="H22" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>126</v>
@@ -10857,11 +10996,14 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>255</v>
+      </c>
       <c r="G23" s="69"/>
       <c r="H23" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>129</v>
@@ -10885,11 +11027,14 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>142.9</v>
+      </c>
       <c r="G24" s="69"/>
       <c r="H24" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>126</v>
@@ -10913,11 +11058,14 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>92.9</v>
+      </c>
       <c r="G25" s="69"/>
       <c r="H25" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>371.6</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>128</v>
@@ -10941,11 +11089,14 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>54.9</v>
+      </c>
       <c r="G26" s="69"/>
       <c r="H26" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>109.8</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>126</v>
@@ -10969,11 +11120,14 @@
       <c r="E27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>142.9</v>
+      </c>
       <c r="G27" s="69"/>
       <c r="H27" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>428.70000000000005</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>127</v>
@@ -10997,11 +11151,14 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>120</v>
+      </c>
       <c r="G28" s="69"/>
       <c r="H28" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>127</v>
@@ -11025,11 +11182,14 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>65.900000000000006</v>
+      </c>
       <c r="G29" s="69"/>
       <c r="H29" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>129</v>
@@ -11053,11 +11213,14 @@
       <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>32.9</v>
+      </c>
       <c r="G30" s="69"/>
       <c r="H30" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>164.5</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>130</v>
@@ -11081,11 +11244,14 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>180</v>
+      </c>
       <c r="G31" s="69"/>
       <c r="H31" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>127</v>
@@ -11109,11 +11275,14 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>349.9</v>
+      </c>
       <c r="G32" s="69"/>
       <c r="H32" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1049.6999999999998</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>126</v>
@@ -11137,11 +11306,14 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>72.5</v>
+      </c>
       <c r="G33" s="69"/>
       <c r="H33" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>128</v>
@@ -11165,11 +11337,14 @@
       <c r="E34" s="1">
         <v>4</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G34" s="69"/>
       <c r="H34" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1039.5999999999999</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>126</v>
@@ -11193,11 +11368,14 @@
       <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>25.9</v>
+      </c>
       <c r="G35" s="69"/>
       <c r="H35" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>77.699999999999989</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>127</v>
@@ -11221,11 +11399,14 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>145</v>
+      </c>
       <c r="G36" s="69"/>
       <c r="H36" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>126</v>
@@ -11249,11 +11430,14 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G37" s="69"/>
       <c r="H37" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>127</v>
@@ -11277,11 +11461,14 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>349.9</v>
+      </c>
       <c r="G38" s="69"/>
       <c r="H38" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1049.6999999999998</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>129</v>
@@ -11305,11 +11492,14 @@
       <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>89.9</v>
+      </c>
       <c r="G39" s="69"/>
       <c r="H39" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>359.6</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>126</v>
@@ -11333,11 +11523,14 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>89.9</v>
+      </c>
       <c r="G40" s="69"/>
       <c r="H40" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>129</v>
@@ -11361,11 +11554,14 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>69.900000000000006</v>
+      </c>
       <c r="G41" s="69"/>
       <c r="H41" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>209.70000000000002</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>126</v>
@@ -11389,11 +11585,14 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>145</v>
+      </c>
       <c r="G42" s="69"/>
       <c r="H42" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>130</v>
@@ -11417,11 +11616,14 @@
       <c r="E43" s="1">
         <v>4</v>
       </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>46.9</v>
+      </c>
       <c r="G43" s="69"/>
       <c r="H43" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>187.6</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>126</v>
@@ -11445,11 +11647,14 @@
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>72.5</v>
+      </c>
       <c r="G44" s="69"/>
       <c r="H44" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>130</v>
@@ -11473,11 +11678,14 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="29"/>
+      <c r="F45" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>140</v>
+      </c>
       <c r="G45" s="69"/>
       <c r="H45" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>129</v>
@@ -11501,11 +11709,14 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>91.4</v>
+      </c>
       <c r="G46" s="69"/>
       <c r="H46" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>91.4</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>127</v>
@@ -11529,11 +11740,14 @@
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="29"/>
+      <c r="F47" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>349.9</v>
+      </c>
       <c r="G47" s="69"/>
       <c r="H47" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>699.8</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>129</v>
@@ -11557,11 +11771,14 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="29"/>
+      <c r="F48" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>65.900000000000006</v>
+      </c>
       <c r="G48" s="69"/>
       <c r="H48" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>197.70000000000002</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>127</v>
@@ -11585,11 +11802,14 @@
       <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="F49" s="29"/>
+      <c r="F49" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>91.4</v>
+      </c>
       <c r="G49" s="69"/>
       <c r="H49" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>182.8</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>126</v>
@@ -11613,11 +11833,14 @@
       <c r="E50" s="1">
         <v>4</v>
       </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G50" s="69"/>
       <c r="H50" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1039.5999999999999</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>127</v>
@@ -11641,11 +11864,14 @@
       <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>145</v>
+      </c>
       <c r="G51" s="69"/>
       <c r="H51" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>126</v>
@@ -11669,11 +11895,14 @@
       <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>142.9</v>
+      </c>
       <c r="G52" s="69"/>
       <c r="H52" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>285.8</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>128</v>
@@ -11697,11 +11926,14 @@
       <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="29"/>
+      <c r="F53" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>180</v>
+      </c>
       <c r="G53" s="69"/>
       <c r="H53" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>126</v>
@@ -11725,11 +11957,14 @@
       <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="F54" s="29"/>
+      <c r="F54" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>42.5</v>
+      </c>
       <c r="G54" s="69"/>
       <c r="H54" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>128</v>
@@ -11753,11 +11988,14 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="29"/>
+      <c r="F55" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>65.900000000000006</v>
+      </c>
       <c r="G55" s="69"/>
       <c r="H55" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>127</v>
@@ -11781,11 +12019,14 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="29"/>
+      <c r="F56" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>180</v>
+      </c>
       <c r="G56" s="69"/>
       <c r="H56" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>128</v>
@@ -11809,11 +12050,14 @@
       <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F57" s="29"/>
+      <c r="F57" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>32.9</v>
+      </c>
       <c r="G57" s="69"/>
       <c r="H57" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>98.699999999999989</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>127</v>
@@ -11837,11 +12081,14 @@
       <c r="E58" s="1">
         <v>4</v>
       </c>
-      <c r="F58" s="29"/>
+      <c r="F58" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>92.9</v>
+      </c>
       <c r="G58" s="69"/>
       <c r="H58" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>371.6</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>126</v>
@@ -11865,11 +12112,14 @@
       <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="F59" s="29"/>
+      <c r="F59" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G59" s="69"/>
       <c r="H59" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>519.79999999999995</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>128</v>
@@ -11893,11 +12143,14 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-      <c r="F60" s="29"/>
+      <c r="F60" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G60" s="69"/>
       <c r="H60" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>130</v>
@@ -11921,11 +12174,14 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>42.5</v>
+      </c>
       <c r="G61" s="69"/>
       <c r="H61" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>130</v>
@@ -11949,11 +12205,14 @@
       <c r="E62" s="1">
         <v>2</v>
       </c>
-      <c r="F62" s="29"/>
+      <c r="F62" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>32.9</v>
+      </c>
       <c r="G62" s="69"/>
       <c r="H62" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>130</v>
@@ -11977,11 +12236,14 @@
       <c r="E63" s="1">
         <v>3</v>
       </c>
-      <c r="F63" s="29"/>
+      <c r="F63" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>92.9</v>
+      </c>
       <c r="G63" s="69"/>
       <c r="H63" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>278.70000000000005</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>126</v>
@@ -12005,11 +12267,14 @@
       <c r="E64" s="1">
         <v>10</v>
       </c>
-      <c r="F64" s="29"/>
+      <c r="F64" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>25.9</v>
+      </c>
       <c r="G64" s="69"/>
       <c r="H64" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>126</v>
@@ -12033,11 +12298,14 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="29"/>
+      <c r="F65" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>72.5</v>
+      </c>
       <c r="G65" s="69"/>
       <c r="H65" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>127</v>
@@ -12061,11 +12329,14 @@
       <c r="E66" s="1">
         <v>4</v>
       </c>
-      <c r="F66" s="29"/>
+      <c r="F66" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>302.89999999999998</v>
+      </c>
       <c r="G66" s="69"/>
       <c r="H66" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>130</v>
@@ -12089,11 +12360,14 @@
       <c r="E67" s="1">
         <v>8</v>
       </c>
-      <c r="F67" s="29"/>
+      <c r="F67" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>289.89999999999998</v>
+      </c>
       <c r="G67" s="69"/>
       <c r="H67" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>2319.1999999999998</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>126</v>
@@ -12117,11 +12391,14 @@
       <c r="E68" s="1">
         <v>2</v>
       </c>
-      <c r="F68" s="29"/>
+      <c r="F68" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>54.9</v>
+      </c>
       <c r="G68" s="69"/>
       <c r="H68" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>109.8</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>126</v>
@@ -12145,11 +12422,14 @@
       <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="F69" s="29"/>
+      <c r="F69" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G69" s="69"/>
       <c r="H69" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>130</v>
@@ -12173,11 +12453,14 @@
       <c r="E70" s="1">
         <v>7</v>
       </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>54.9</v>
+      </c>
       <c r="G70" s="69"/>
       <c r="H70" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>384.3</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>129</v>
@@ -12201,11 +12484,14 @@
       <c r="E71" s="1">
         <v>4</v>
       </c>
-      <c r="F71" s="29"/>
+      <c r="F71" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>299.89999999999998</v>
+      </c>
       <c r="G71" s="69"/>
       <c r="H71" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>130</v>
@@ -12229,11 +12515,14 @@
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="29"/>
+      <c r="F72" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>259.89999999999998</v>
+      </c>
       <c r="G72" s="69"/>
       <c r="H72" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>779.69999999999993</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>129</v>
@@ -12257,11 +12546,14 @@
       <c r="E73" s="1">
         <v>9</v>
       </c>
-      <c r="F73" s="29"/>
+      <c r="F73" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>72.5</v>
+      </c>
       <c r="G73" s="69"/>
       <c r="H73" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>652.5</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>128</v>
@@ -12285,11 +12577,14 @@
       <c r="E74" s="1">
         <v>4</v>
       </c>
-      <c r="F74" s="29"/>
+      <c r="F74" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>300</v>
+      </c>
       <c r="G74" s="69"/>
       <c r="H74" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>130</v>
@@ -12313,11 +12608,14 @@
       <c r="E75" s="1">
         <v>9</v>
       </c>
-      <c r="F75" s="29"/>
+      <c r="F75" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>65.900000000000006</v>
+      </c>
       <c r="G75" s="69"/>
       <c r="H75" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>593.1</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>130</v>
@@ -12341,11 +12639,14 @@
       <c r="E76" s="1">
         <v>10</v>
       </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>92.9</v>
+      </c>
       <c r="G76" s="69"/>
       <c r="H76" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>130</v>
@@ -12369,11 +12670,14 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="29"/>
+      <c r="F77" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>89.9</v>
+      </c>
       <c r="G77" s="69"/>
       <c r="H77" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>89.9</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>128</v>
@@ -12397,11 +12701,14 @@
       <c r="E78" s="1">
         <v>2</v>
       </c>
-      <c r="F78" s="29"/>
+      <c r="F78" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>49.9</v>
+      </c>
       <c r="G78" s="69"/>
       <c r="H78" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>128</v>
@@ -12425,11 +12732,14 @@
       <c r="E79" s="1">
         <v>8</v>
       </c>
-      <c r="F79" s="29"/>
+      <c r="F79" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>70</v>
+      </c>
       <c r="G79" s="69"/>
       <c r="H79" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>127</v>
@@ -12453,11 +12763,14 @@
       <c r="E80" s="1">
         <v>5</v>
       </c>
-      <c r="F80" s="29"/>
+      <c r="F80" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>46.9</v>
+      </c>
       <c r="G80" s="69"/>
       <c r="H80" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>234.5</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>128</v>
@@ -12481,11 +12794,14 @@
       <c r="E81" s="1">
         <v>10</v>
       </c>
-      <c r="F81" s="29"/>
+      <c r="F81" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>289.89999999999998</v>
+      </c>
       <c r="G81" s="69"/>
       <c r="H81" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>2899</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>127</v>
@@ -12509,11 +12825,14 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="29"/>
+      <c r="F82" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>42.5</v>
+      </c>
       <c r="G82" s="69"/>
       <c r="H82" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>128</v>
@@ -12537,11 +12856,14 @@
       <c r="E83" s="1">
         <v>2</v>
       </c>
-      <c r="F83" s="29"/>
+      <c r="F83" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>89.9</v>
+      </c>
       <c r="G83" s="69"/>
       <c r="H83" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>127</v>
@@ -12565,11 +12887,14 @@
       <c r="E84" s="1">
         <v>3</v>
       </c>
-      <c r="F84" s="29"/>
+      <c r="F84" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>255</v>
+      </c>
       <c r="G84" s="69"/>
       <c r="H84" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>126</v>
@@ -12593,11 +12918,14 @@
       <c r="E85" s="1">
         <v>6</v>
       </c>
-      <c r="F85" s="29"/>
+      <c r="F85" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>42.5</v>
+      </c>
       <c r="G85" s="69"/>
       <c r="H85" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>129</v>
@@ -12621,11 +12949,14 @@
       <c r="E86" s="1">
         <v>8</v>
       </c>
-      <c r="F86" s="29"/>
+      <c r="F86" s="29">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
+        <v>39.9</v>
+      </c>
       <c r="G86" s="69"/>
       <c r="H86" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
-        <v>0</v>
+        <v>319.2</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>127</v>
@@ -12634,7 +12965,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E4:G4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12650,8 +12981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5CD809-06A9-4A05-BD08-554A0B4697F5}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12696,15 +13027,15 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="82"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
@@ -12726,7 +13057,7 @@
         <v>156</v>
       </c>
       <c r="C7" s="50" t="str">
-        <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
+        <f>VLOOKUP(C6,TB_Produtos[#All],2,0)</f>
         <v>Calça jeans</v>
       </c>
       <c r="E7" s="71" t="s">
@@ -12819,10 +13150,11 @@
       <c r="B14" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="81">
         <f>VLOOKUP(C9,'Cadastros Auxiliares'!G8:H11,2,FALSE)</f>
         <v>10</v>
       </c>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
       <c r="B15" s="71" t="s">
@@ -12869,14 +13201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512BDC0-A65B-4C9D-82C8-12971CC672AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512BDC0-A65B-4C9D-82C8-12971CC672AB}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13004,7 +13336,7 @@
       <c r="G9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="80">
         <v>5</v>
       </c>
     </row>
@@ -13024,7 +13356,7 @@
       <c r="G10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="80">
         <v>10</v>
       </c>
     </row>
@@ -13044,7 +13376,7 @@
       <c r="G11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="80">
         <v>15</v>
       </c>
     </row>
@@ -13074,12 +13406,68 @@
       </c>
       <c r="E13" s="62">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <f>MATCH(C19,B8:E8,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="119">
+        <f>VLOOKUP(C18,B8:E13,MATCH(C19,B8:E8,0),1)</f>
+        <v>0.15</v>
+      </c>
+      <c r="F18">
+        <f>MATCH(C19,B8:E8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="str">
+        <f>VLOOKUP(C17,TB_Produtos[],4,0)</f>
+        <v>Acessórios</v>
+      </c>
+      <c r="F19">
+        <f>MATCH(C18,B8:B13,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="F20">
+        <f>INDEX(B8:E13,F19,F18)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="F21">
+        <f>INDEX(B8:E13,MATCH(C18,B8:B13,1),MATCH(C19,B8:E8,0))</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13150,7 +13538,7 @@
       </c>
       <c r="F2" s="6">
         <f>SUMIF(TB_Vendas[Nº],D2,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>1750.9</v>
       </c>
       <c r="G2" s="20">
         <f>SUMIF(TB_Vendas[Nº],D2,TB_Vendas[Qtd])</f>
@@ -13188,7 +13576,7 @@
       </c>
       <c r="F3" s="6">
         <f>SUMIF(TB_Vendas[Nº],D3,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>2974.9</v>
       </c>
       <c r="G3" s="20">
         <f>SUMIF(TB_Vendas[Nº],D3,TB_Vendas[Qtd])</f>
@@ -13226,7 +13614,7 @@
       </c>
       <c r="F4" s="6">
         <f>SUMIF(TB_Vendas[Nº],D4,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>3698.1</v>
       </c>
       <c r="G4" s="20">
         <f>SUMIF(TB_Vendas[Nº],D4,TB_Vendas[Qtd])</f>
@@ -13257,7 +13645,7 @@
       </c>
       <c r="F5" s="6">
         <f>SUMIF(TB_Vendas[Nº],D5,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>3651.0999999999995</v>
       </c>
       <c r="G5" s="20">
         <f>SUMIF(TB_Vendas[Nº],D5,TB_Vendas[Qtd])</f>
@@ -13273,7 +13661,7 @@
       </c>
       <c r="F6" s="6">
         <f>SUMIF(TB_Vendas[Nº],D6,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>2776.2999999999997</v>
       </c>
       <c r="G6" s="20">
         <f>SUMIF(TB_Vendas[Nº],D6,TB_Vendas[Qtd])</f>
@@ -13289,7 +13677,7 @@
       </c>
       <c r="F7" s="7">
         <f>SUMIF(TB_Vendas[Nº],D7,TB_Vendas[Total])</f>
-        <v>0</v>
+        <v>3477.7000000000007</v>
       </c>
       <c r="G7" s="21">
         <f>SUMIF(TB_Vendas[Nº],D7,TB_Vendas[Qtd])</f>
@@ -13338,3300 +13726,3300 @@
   <sheetData>
     <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="83" t="s">
+      <c r="W2" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
-      <c r="AQ2" s="83" t="s">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
+      <c r="AQ2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="85"/>
-      <c r="BK2" s="83" t="s">
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="86"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="87"/>
+      <c r="BK2" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
-      <c r="BX2" s="84"/>
-      <c r="BY2" s="84"/>
-      <c r="BZ2" s="84"/>
-      <c r="CA2" s="84"/>
-      <c r="CB2" s="85"/>
+      <c r="BL2" s="86"/>
+      <c r="BM2" s="86"/>
+      <c r="BN2" s="86"/>
+      <c r="BO2" s="86"/>
+      <c r="BP2" s="86"/>
+      <c r="BQ2" s="86"/>
+      <c r="BR2" s="86"/>
+      <c r="BS2" s="86"/>
+      <c r="BT2" s="86"/>
+      <c r="BU2" s="86"/>
+      <c r="BV2" s="86"/>
+      <c r="BW2" s="86"/>
+      <c r="BX2" s="86"/>
+      <c r="BY2" s="86"/>
+      <c r="BZ2" s="86"/>
+      <c r="CA2" s="86"/>
+      <c r="CB2" s="87"/>
     </row>
     <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="86"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="88"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="87"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="87"/>
-      <c r="BP3" s="87"/>
-      <c r="BQ3" s="87"/>
-      <c r="BR3" s="87"/>
-      <c r="BS3" s="87"/>
-      <c r="BT3" s="87"/>
-      <c r="BU3" s="87"/>
-      <c r="BV3" s="87"/>
-      <c r="BW3" s="87"/>
-      <c r="BX3" s="87"/>
-      <c r="BY3" s="87"/>
-      <c r="BZ3" s="87"/>
-      <c r="CA3" s="87"/>
-      <c r="CB3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="90"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="90"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="89"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
+      <c r="BU3" s="89"/>
+      <c r="BV3" s="89"/>
+      <c r="BW3" s="89"/>
+      <c r="BX3" s="89"/>
+      <c r="BY3" s="89"/>
+      <c r="BZ3" s="89"/>
+      <c r="CA3" s="89"/>
+      <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="98">
+      <c r="W4" s="91">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="100"/>
-      <c r="AQ4" s="98">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93"/>
+      <c r="AQ4" s="91">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="100"/>
-      <c r="BK4" s="107">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BK4" s="100">
         <f>SUM(TB_Vendas[Total])</f>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="108"/>
-      <c r="BN4" s="108"/>
-      <c r="BO4" s="108"/>
-      <c r="BP4" s="108"/>
-      <c r="BQ4" s="108"/>
-      <c r="BR4" s="108"/>
-      <c r="BS4" s="108"/>
-      <c r="BT4" s="108"/>
-      <c r="BU4" s="108"/>
-      <c r="BV4" s="108"/>
-      <c r="BW4" s="108"/>
-      <c r="BX4" s="108"/>
-      <c r="BY4" s="108"/>
-      <c r="BZ4" s="108"/>
-      <c r="CA4" s="108"/>
-      <c r="CB4" s="109"/>
+        <v>33304.799999999988</v>
+      </c>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="102"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="101"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="103"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="103"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111"/>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111"/>
-      <c r="BQ5" s="111"/>
-      <c r="BR5" s="111"/>
-      <c r="BS5" s="111"/>
-      <c r="BT5" s="111"/>
-      <c r="BU5" s="111"/>
-      <c r="BV5" s="111"/>
-      <c r="BW5" s="111"/>
-      <c r="BX5" s="111"/>
-      <c r="BY5" s="111"/>
-      <c r="BZ5" s="111"/>
-      <c r="CA5" s="111"/>
-      <c r="CB5" s="112"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
+      <c r="BO5" s="104"/>
+      <c r="BP5" s="104"/>
+      <c r="BQ5" s="104"/>
+      <c r="BR5" s="104"/>
+      <c r="BS5" s="104"/>
+      <c r="BT5" s="104"/>
+      <c r="BU5" s="104"/>
+      <c r="BV5" s="104"/>
+      <c r="BW5" s="104"/>
+      <c r="BX5" s="104"/>
+      <c r="BY5" s="104"/>
+      <c r="BZ5" s="104"/>
+      <c r="CA5" s="104"/>
+      <c r="CB5" s="105"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="101"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="103"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="103"/>
-      <c r="BK6" s="110"/>
-      <c r="BL6" s="111"/>
-      <c r="BM6" s="111"/>
-      <c r="BN6" s="111"/>
-      <c r="BO6" s="111"/>
-      <c r="BP6" s="111"/>
-      <c r="BQ6" s="111"/>
-      <c r="BR6" s="111"/>
-      <c r="BS6" s="111"/>
-      <c r="BT6" s="111"/>
-      <c r="BU6" s="111"/>
-      <c r="BV6" s="111"/>
-      <c r="BW6" s="111"/>
-      <c r="BX6" s="111"/>
-      <c r="BY6" s="111"/>
-      <c r="BZ6" s="111"/>
-      <c r="CA6" s="111"/>
-      <c r="CB6" s="112"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="96"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="96"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="105"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="104"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="106"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="106"/>
-      <c r="BK7" s="113"/>
-      <c r="BL7" s="114"/>
-      <c r="BM7" s="114"/>
-      <c r="BN7" s="114"/>
-      <c r="BO7" s="114"/>
-      <c r="BP7" s="114"/>
-      <c r="BQ7" s="114"/>
-      <c r="BR7" s="114"/>
-      <c r="BS7" s="114"/>
-      <c r="BT7" s="114"/>
-      <c r="BU7" s="114"/>
-      <c r="BV7" s="114"/>
-      <c r="BW7" s="114"/>
-      <c r="BX7" s="114"/>
-      <c r="BY7" s="114"/>
-      <c r="BZ7" s="114"/>
-      <c r="CA7" s="114"/>
-      <c r="CB7" s="115"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="99"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="99"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="107"/>
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="84"/>
-      <c r="BG9" s="84"/>
-      <c r="BH9" s="84"/>
-      <c r="BI9" s="84"/>
-      <c r="BJ9" s="84"/>
-      <c r="BK9" s="84"/>
-      <c r="BL9" s="84"/>
-      <c r="BM9" s="84"/>
-      <c r="BN9" s="84"/>
-      <c r="BO9" s="84"/>
-      <c r="BP9" s="84"/>
-      <c r="BQ9" s="84"/>
-      <c r="BR9" s="84"/>
-      <c r="BS9" s="84"/>
-      <c r="BT9" s="84"/>
-      <c r="BU9" s="84"/>
-      <c r="BV9" s="84"/>
-      <c r="BW9" s="84"/>
-      <c r="BX9" s="84"/>
-      <c r="BY9" s="84"/>
-      <c r="BZ9" s="84"/>
-      <c r="CA9" s="84"/>
-      <c r="CB9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="86"/>
+      <c r="BM9" s="86"/>
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="86"/>
+      <c r="BT9" s="86"/>
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="86"/>
+      <c r="CA9" s="86"/>
+      <c r="CB9" s="87"/>
     </row>
     <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="87"/>
-      <c r="BG10" s="87"/>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
-      <c r="BQ10" s="87"/>
-      <c r="BR10" s="87"/>
-      <c r="BS10" s="87"/>
-      <c r="BT10" s="87"/>
-      <c r="BU10" s="87"/>
-      <c r="BV10" s="87"/>
-      <c r="BW10" s="87"/>
-      <c r="BX10" s="87"/>
-      <c r="BY10" s="87"/>
-      <c r="BZ10" s="87"/>
-      <c r="CA10" s="87"/>
-      <c r="CB10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
+      <c r="BC10" s="89"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="89"/>
+      <c r="BK10" s="89"/>
+      <c r="BL10" s="89"/>
+      <c r="BM10" s="89"/>
+      <c r="BN10" s="89"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
+      <c r="BQ10" s="89"/>
+      <c r="BR10" s="89"/>
+      <c r="BS10" s="89"/>
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="89"/>
+      <c r="BW10" s="89"/>
+      <c r="BX10" s="89"/>
+      <c r="BY10" s="89"/>
+      <c r="BZ10" s="89"/>
+      <c r="CA10" s="89"/>
+      <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="90"/>
-      <c r="BO11" s="90"/>
-      <c r="BP11" s="90"/>
-      <c r="BQ11" s="90"/>
-      <c r="BR11" s="90"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="90"/>
-      <c r="BU11" s="90"/>
-      <c r="BV11" s="90"/>
-      <c r="BW11" s="90"/>
-      <c r="BX11" s="90"/>
-      <c r="BY11" s="90"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="90"/>
-      <c r="CB11" s="91"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="110"/>
+      <c r="BW11" s="110"/>
+      <c r="BX11" s="110"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="111"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="93"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="93"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="93"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="93"/>
-      <c r="CA12" s="93"/>
-      <c r="CB12" s="94"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="113"/>
+      <c r="BI12" s="113"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="113"/>
+      <c r="BU12" s="113"/>
+      <c r="BV12" s="113"/>
+      <c r="BW12" s="113"/>
+      <c r="BX12" s="113"/>
+      <c r="BY12" s="113"/>
+      <c r="BZ12" s="113"/>
+      <c r="CA12" s="113"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="93"/>
-      <c r="BH13" s="93"/>
-      <c r="BI13" s="93"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="93"/>
-      <c r="BP13" s="93"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="93"/>
-      <c r="BX13" s="93"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="93"/>
-      <c r="CA13" s="93"/>
-      <c r="CB13" s="94"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="113"/>
+      <c r="BI13" s="113"/>
+      <c r="BJ13" s="113"/>
+      <c r="BK13" s="113"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="113"/>
+      <c r="BO13" s="113"/>
+      <c r="BP13" s="113"/>
+      <c r="BQ13" s="113"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="113"/>
+      <c r="BZ13" s="113"/>
+      <c r="CA13" s="113"/>
+      <c r="CB13" s="114"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="93"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="93"/>
-      <c r="BG14" s="93"/>
-      <c r="BH14" s="93"/>
-      <c r="BI14" s="93"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="93"/>
-      <c r="BL14" s="93"/>
-      <c r="BM14" s="93"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="93"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="93"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="93"/>
-      <c r="BV14" s="93"/>
-      <c r="BW14" s="93"/>
-      <c r="BX14" s="93"/>
-      <c r="BY14" s="93"/>
-      <c r="BZ14" s="93"/>
-      <c r="CA14" s="93"/>
-      <c r="CB14" s="94"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="113"/>
+      <c r="BM14" s="113"/>
+      <c r="BN14" s="113"/>
+      <c r="BO14" s="113"/>
+      <c r="BP14" s="113"/>
+      <c r="BQ14" s="113"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="113"/>
+      <c r="BU14" s="113"/>
+      <c r="BV14" s="113"/>
+      <c r="BW14" s="113"/>
+      <c r="BX14" s="113"/>
+      <c r="BY14" s="113"/>
+      <c r="BZ14" s="113"/>
+      <c r="CA14" s="113"/>
+      <c r="CB14" s="114"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="93"/>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="93"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="93"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="93"/>
-      <c r="BG15" s="93"/>
-      <c r="BH15" s="93"/>
-      <c r="BI15" s="93"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="93"/>
-      <c r="BL15" s="93"/>
-      <c r="BM15" s="93"/>
-      <c r="BN15" s="93"/>
-      <c r="BO15" s="93"/>
-      <c r="BP15" s="93"/>
-      <c r="BQ15" s="93"/>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="93"/>
-      <c r="BT15" s="93"/>
-      <c r="BU15" s="93"/>
-      <c r="BV15" s="93"/>
-      <c r="BW15" s="93"/>
-      <c r="BX15" s="93"/>
-      <c r="BY15" s="93"/>
-      <c r="BZ15" s="93"/>
-      <c r="CA15" s="93"/>
-      <c r="CB15" s="94"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="113"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="113"/>
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="113"/>
+      <c r="BI15" s="113"/>
+      <c r="BJ15" s="113"/>
+      <c r="BK15" s="113"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="113"/>
+      <c r="BU15" s="113"/>
+      <c r="BV15" s="113"/>
+      <c r="BW15" s="113"/>
+      <c r="BX15" s="113"/>
+      <c r="BY15" s="113"/>
+      <c r="BZ15" s="113"/>
+      <c r="CA15" s="113"/>
+      <c r="CB15" s="114"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="93"/>
-      <c r="BL16" s="93"/>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="93"/>
-      <c r="BO16" s="93"/>
-      <c r="BP16" s="93"/>
-      <c r="BQ16" s="93"/>
-      <c r="BR16" s="93"/>
-      <c r="BS16" s="93"/>
-      <c r="BT16" s="93"/>
-      <c r="BU16" s="93"/>
-      <c r="BV16" s="93"/>
-      <c r="BW16" s="93"/>
-      <c r="BX16" s="93"/>
-      <c r="BY16" s="93"/>
-      <c r="BZ16" s="93"/>
-      <c r="CA16" s="93"/>
-      <c r="CB16" s="94"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="113"/>
+      <c r="BE16" s="113"/>
+      <c r="BF16" s="113"/>
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="113"/>
+      <c r="BI16" s="113"/>
+      <c r="BJ16" s="113"/>
+      <c r="BK16" s="113"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="113"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="113"/>
+      <c r="BU16" s="113"/>
+      <c r="BV16" s="113"/>
+      <c r="BW16" s="113"/>
+      <c r="BX16" s="113"/>
+      <c r="BY16" s="113"/>
+      <c r="BZ16" s="113"/>
+      <c r="CA16" s="113"/>
+      <c r="CB16" s="114"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
-      <c r="AQ17" s="93"/>
-      <c r="AR17" s="93"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="93"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="93"/>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="93"/>
-      <c r="BN17" s="93"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="93"/>
-      <c r="BQ17" s="93"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="93"/>
-      <c r="BU17" s="93"/>
-      <c r="BV17" s="93"/>
-      <c r="BW17" s="93"/>
-      <c r="BX17" s="93"/>
-      <c r="BY17" s="93"/>
-      <c r="BZ17" s="93"/>
-      <c r="CA17" s="93"/>
-      <c r="CB17" s="94"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="113"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="113"/>
+      <c r="BZ17" s="113"/>
+      <c r="CA17" s="113"/>
+      <c r="CB17" s="114"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="93"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="93"/>
-      <c r="BA18" s="93"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="93"/>
-      <c r="BF18" s="93"/>
-      <c r="BG18" s="93"/>
-      <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="93"/>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="93"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="93"/>
-      <c r="BQ18" s="93"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="93"/>
-      <c r="BU18" s="93"/>
-      <c r="BV18" s="93"/>
-      <c r="BW18" s="93"/>
-      <c r="BX18" s="93"/>
-      <c r="BY18" s="93"/>
-      <c r="BZ18" s="93"/>
-      <c r="CA18" s="93"/>
-      <c r="CB18" s="94"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="113"/>
+      <c r="BK18" s="113"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="113"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="113"/>
+      <c r="BR18" s="113"/>
+      <c r="BS18" s="113"/>
+      <c r="BT18" s="113"/>
+      <c r="BU18" s="113"/>
+      <c r="BV18" s="113"/>
+      <c r="BW18" s="113"/>
+      <c r="BX18" s="113"/>
+      <c r="BY18" s="113"/>
+      <c r="BZ18" s="113"/>
+      <c r="CA18" s="113"/>
+      <c r="CB18" s="114"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="93"/>
-      <c r="BA19" s="93"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="93"/>
-      <c r="BF19" s="93"/>
-      <c r="BG19" s="93"/>
-      <c r="BH19" s="93"/>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="93"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="93"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="93"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="93"/>
-      <c r="BU19" s="93"/>
-      <c r="BV19" s="93"/>
-      <c r="BW19" s="93"/>
-      <c r="BX19" s="93"/>
-      <c r="BY19" s="93"/>
-      <c r="BZ19" s="93"/>
-      <c r="CA19" s="93"/>
-      <c r="CB19" s="94"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+      <c r="BC19" s="113"/>
+      <c r="BD19" s="113"/>
+      <c r="BE19" s="113"/>
+      <c r="BF19" s="113"/>
+      <c r="BG19" s="113"/>
+      <c r="BH19" s="113"/>
+      <c r="BI19" s="113"/>
+      <c r="BJ19" s="113"/>
+      <c r="BK19" s="113"/>
+      <c r="BL19" s="113"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="113"/>
+      <c r="BO19" s="113"/>
+      <c r="BP19" s="113"/>
+      <c r="BQ19" s="113"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="113"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="113"/>
+      <c r="BZ19" s="113"/>
+      <c r="CA19" s="113"/>
+      <c r="CB19" s="114"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="93"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="93"/>
-      <c r="BW20" s="93"/>
-      <c r="BX20" s="93"/>
-      <c r="BY20" s="93"/>
-      <c r="BZ20" s="93"/>
-      <c r="CA20" s="93"/>
-      <c r="CB20" s="94"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="113"/>
+      <c r="BM20" s="113"/>
+      <c r="BN20" s="113"/>
+      <c r="BO20" s="113"/>
+      <c r="BP20" s="113"/>
+      <c r="BQ20" s="113"/>
+      <c r="BR20" s="113"/>
+      <c r="BS20" s="113"/>
+      <c r="BT20" s="113"/>
+      <c r="BU20" s="113"/>
+      <c r="BV20" s="113"/>
+      <c r="BW20" s="113"/>
+      <c r="BX20" s="113"/>
+      <c r="BY20" s="113"/>
+      <c r="BZ20" s="113"/>
+      <c r="CA20" s="113"/>
+      <c r="CB20" s="114"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="93"/>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="93"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93"/>
-      <c r="AV21" s="93"/>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="93"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="93"/>
-      <c r="BA21" s="93"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="93"/>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="93"/>
-      <c r="BH21" s="93"/>
-      <c r="BI21" s="93"/>
-      <c r="BJ21" s="93"/>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="93"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="93"/>
-      <c r="BY21" s="93"/>
-      <c r="BZ21" s="93"/>
-      <c r="CA21" s="93"/>
-      <c r="CB21" s="94"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="113"/>
+      <c r="BV21" s="113"/>
+      <c r="BW21" s="113"/>
+      <c r="BX21" s="113"/>
+      <c r="BY21" s="113"/>
+      <c r="BZ21" s="113"/>
+      <c r="CA21" s="113"/>
+      <c r="CB21" s="114"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="93"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="93"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="93"/>
-      <c r="AV22" s="93"/>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="93"/>
-      <c r="AY22" s="93"/>
-      <c r="AZ22" s="93"/>
-      <c r="BA22" s="93"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="93"/>
-      <c r="BF22" s="93"/>
-      <c r="BG22" s="93"/>
-      <c r="BH22" s="93"/>
-      <c r="BI22" s="93"/>
-      <c r="BJ22" s="93"/>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="93"/>
-      <c r="BM22" s="93"/>
-      <c r="BN22" s="93"/>
-      <c r="BO22" s="93"/>
-      <c r="BP22" s="93"/>
-      <c r="BQ22" s="93"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="93"/>
-      <c r="BU22" s="93"/>
-      <c r="BV22" s="93"/>
-      <c r="BW22" s="93"/>
-      <c r="BX22" s="93"/>
-      <c r="BY22" s="93"/>
-      <c r="BZ22" s="93"/>
-      <c r="CA22" s="93"/>
-      <c r="CB22" s="94"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="113"/>
+      <c r="BE22" s="113"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="113"/>
+      <c r="BV22" s="113"/>
+      <c r="BW22" s="113"/>
+      <c r="BX22" s="113"/>
+      <c r="BY22" s="113"/>
+      <c r="BZ22" s="113"/>
+      <c r="CA22" s="113"/>
+      <c r="CB22" s="114"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="93"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="93"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="93"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="93"/>
-      <c r="BE23" s="93"/>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="93"/>
-      <c r="BH23" s="93"/>
-      <c r="BI23" s="93"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="93"/>
-      <c r="BQ23" s="93"/>
-      <c r="BR23" s="93"/>
-      <c r="BS23" s="93"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="93"/>
-      <c r="BW23" s="93"/>
-      <c r="BX23" s="93"/>
-      <c r="BY23" s="93"/>
-      <c r="BZ23" s="93"/>
-      <c r="CA23" s="93"/>
-      <c r="CB23" s="94"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="113"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="113"/>
+      <c r="BR23" s="113"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="113"/>
+      <c r="BU23" s="113"/>
+      <c r="BV23" s="113"/>
+      <c r="BW23" s="113"/>
+      <c r="BX23" s="113"/>
+      <c r="BY23" s="113"/>
+      <c r="BZ23" s="113"/>
+      <c r="CA23" s="113"/>
+      <c r="CB23" s="114"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="96"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="96"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="96"/>
-      <c r="AX24" s="96"/>
-      <c r="AY24" s="96"/>
-      <c r="AZ24" s="96"/>
-      <c r="BA24" s="96"/>
-      <c r="BB24" s="96"/>
-      <c r="BC24" s="96"/>
-      <c r="BD24" s="96"/>
-      <c r="BE24" s="96"/>
-      <c r="BF24" s="96"/>
-      <c r="BG24" s="96"/>
-      <c r="BH24" s="96"/>
-      <c r="BI24" s="96"/>
-      <c r="BJ24" s="96"/>
-      <c r="BK24" s="96"/>
-      <c r="BL24" s="96"/>
-      <c r="BM24" s="96"/>
-      <c r="BN24" s="96"/>
-      <c r="BO24" s="96"/>
-      <c r="BP24" s="96"/>
-      <c r="BQ24" s="96"/>
-      <c r="BR24" s="96"/>
-      <c r="BS24" s="96"/>
-      <c r="BT24" s="96"/>
-      <c r="BU24" s="96"/>
-      <c r="BV24" s="96"/>
-      <c r="BW24" s="96"/>
-      <c r="BX24" s="96"/>
-      <c r="BY24" s="96"/>
-      <c r="BZ24" s="96"/>
-      <c r="CA24" s="96"/>
-      <c r="CB24" s="97"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="116"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="116"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="116"/>
+      <c r="BT24" s="116"/>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="116"/>
+      <c r="BW24" s="116"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="116"/>
+      <c r="BZ24" s="116"/>
+      <c r="CA24" s="116"/>
+      <c r="CB24" s="117"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="84"/>
-      <c r="AL26" s="84"/>
-      <c r="AM26" s="84"/>
-      <c r="AN26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="87"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
-      <c r="AQ26" s="83" t="s">
+      <c r="AQ26" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="AR26" s="84"/>
-      <c r="AS26" s="84"/>
-      <c r="AT26" s="84"/>
-      <c r="AU26" s="84"/>
-      <c r="AV26" s="84"/>
-      <c r="AW26" s="84"/>
-      <c r="AX26" s="84"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="84"/>
-      <c r="BA26" s="84"/>
-      <c r="BB26" s="84"/>
-      <c r="BC26" s="84"/>
-      <c r="BD26" s="84"/>
-      <c r="BE26" s="84"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
-      <c r="BH26" s="84"/>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="84"/>
-      <c r="BL26" s="84"/>
-      <c r="BM26" s="84"/>
-      <c r="BN26" s="84"/>
-      <c r="BO26" s="84"/>
-      <c r="BP26" s="84"/>
-      <c r="BQ26" s="84"/>
-      <c r="BR26" s="84"/>
-      <c r="BS26" s="84"/>
-      <c r="BT26" s="84"/>
-      <c r="BU26" s="84"/>
-      <c r="BV26" s="84"/>
-      <c r="BW26" s="84"/>
-      <c r="BX26" s="84"/>
-      <c r="BY26" s="84"/>
-      <c r="BZ26" s="84"/>
-      <c r="CA26" s="84"/>
-      <c r="CB26" s="85"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="86"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="86"/>
+      <c r="AV26" s="86"/>
+      <c r="AW26" s="86"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="86"/>
+      <c r="AZ26" s="86"/>
+      <c r="BA26" s="86"/>
+      <c r="BB26" s="86"/>
+      <c r="BC26" s="86"/>
+      <c r="BD26" s="86"/>
+      <c r="BE26" s="86"/>
+      <c r="BF26" s="86"/>
+      <c r="BG26" s="86"/>
+      <c r="BH26" s="86"/>
+      <c r="BI26" s="86"/>
+      <c r="BJ26" s="86"/>
+      <c r="BK26" s="86"/>
+      <c r="BL26" s="86"/>
+      <c r="BM26" s="86"/>
+      <c r="BN26" s="86"/>
+      <c r="BO26" s="86"/>
+      <c r="BP26" s="86"/>
+      <c r="BQ26" s="86"/>
+      <c r="BR26" s="86"/>
+      <c r="BS26" s="86"/>
+      <c r="BT26" s="86"/>
+      <c r="BU26" s="86"/>
+      <c r="BV26" s="86"/>
+      <c r="BW26" s="86"/>
+      <c r="BX26" s="86"/>
+      <c r="BY26" s="86"/>
+      <c r="BZ26" s="86"/>
+      <c r="CA26" s="86"/>
+      <c r="CB26" s="87"/>
     </row>
     <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
-      <c r="AQ27" s="86"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
-      <c r="BD27" s="87"/>
-      <c r="BE27" s="87"/>
-      <c r="BF27" s="87"/>
-      <c r="BG27" s="87"/>
-      <c r="BH27" s="87"/>
-      <c r="BI27" s="87"/>
-      <c r="BJ27" s="87"/>
-      <c r="BK27" s="87"/>
-      <c r="BL27" s="87"/>
-      <c r="BM27" s="87"/>
-      <c r="BN27" s="87"/>
-      <c r="BO27" s="87"/>
-      <c r="BP27" s="87"/>
-      <c r="BQ27" s="87"/>
-      <c r="BR27" s="87"/>
-      <c r="BS27" s="87"/>
-      <c r="BT27" s="87"/>
-      <c r="BU27" s="87"/>
-      <c r="BV27" s="87"/>
-      <c r="BW27" s="87"/>
-      <c r="BX27" s="87"/>
-      <c r="BY27" s="87"/>
-      <c r="BZ27" s="87"/>
-      <c r="CA27" s="87"/>
-      <c r="CB27" s="88"/>
+      <c r="AQ27" s="88"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="89"/>
+      <c r="AZ27" s="89"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="89"/>
+      <c r="BC27" s="89"/>
+      <c r="BD27" s="89"/>
+      <c r="BE27" s="89"/>
+      <c r="BF27" s="89"/>
+      <c r="BG27" s="89"/>
+      <c r="BH27" s="89"/>
+      <c r="BI27" s="89"/>
+      <c r="BJ27" s="89"/>
+      <c r="BK27" s="89"/>
+      <c r="BL27" s="89"/>
+      <c r="BM27" s="89"/>
+      <c r="BN27" s="89"/>
+      <c r="BO27" s="89"/>
+      <c r="BP27" s="89"/>
+      <c r="BQ27" s="89"/>
+      <c r="BR27" s="89"/>
+      <c r="BS27" s="89"/>
+      <c r="BT27" s="89"/>
+      <c r="BU27" s="89"/>
+      <c r="BV27" s="89"/>
+      <c r="BW27" s="89"/>
+      <c r="BX27" s="89"/>
+      <c r="BY27" s="89"/>
+      <c r="BZ27" s="89"/>
+      <c r="CA27" s="89"/>
+      <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="90"/>
-      <c r="AN28" s="91"/>
-      <c r="AQ28" s="89"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="90"/>
-      <c r="AV28" s="90"/>
-      <c r="AW28" s="90"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="90"/>
-      <c r="BB28" s="90"/>
-      <c r="BC28" s="90"/>
-      <c r="BD28" s="90"/>
-      <c r="BE28" s="90"/>
-      <c r="BF28" s="90"/>
-      <c r="BG28" s="90"/>
-      <c r="BH28" s="90"/>
-      <c r="BI28" s="90"/>
-      <c r="BJ28" s="90"/>
-      <c r="BK28" s="90"/>
-      <c r="BL28" s="90"/>
-      <c r="BM28" s="90"/>
-      <c r="BN28" s="90"/>
-      <c r="BO28" s="90"/>
-      <c r="BP28" s="90"/>
-      <c r="BQ28" s="90"/>
-      <c r="BR28" s="90"/>
-      <c r="BS28" s="90"/>
-      <c r="BT28" s="90"/>
-      <c r="BU28" s="90"/>
-      <c r="BV28" s="90"/>
-      <c r="BW28" s="90"/>
-      <c r="BX28" s="90"/>
-      <c r="BY28" s="90"/>
-      <c r="BZ28" s="90"/>
-      <c r="CA28" s="90"/>
-      <c r="CB28" s="91"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="111"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="110"/>
+      <c r="AS28" s="110"/>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="110"/>
+      <c r="BG28" s="110"/>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="111"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="93"/>
-      <c r="AK29" s="93"/>
-      <c r="AL29" s="93"/>
-      <c r="AM29" s="93"/>
-      <c r="AN29" s="94"/>
-      <c r="AQ29" s="92"/>
-      <c r="AR29" s="93"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="93"/>
-      <c r="AV29" s="93"/>
-      <c r="AW29" s="93"/>
-      <c r="AX29" s="93"/>
-      <c r="AY29" s="93"/>
-      <c r="AZ29" s="93"/>
-      <c r="BA29" s="93"/>
-      <c r="BB29" s="93"/>
-      <c r="BC29" s="93"/>
-      <c r="BD29" s="93"/>
-      <c r="BE29" s="93"/>
-      <c r="BF29" s="93"/>
-      <c r="BG29" s="93"/>
-      <c r="BH29" s="93"/>
-      <c r="BI29" s="93"/>
-      <c r="BJ29" s="93"/>
-      <c r="BK29" s="93"/>
-      <c r="BL29" s="93"/>
-      <c r="BM29" s="93"/>
-      <c r="BN29" s="93"/>
-      <c r="BO29" s="93"/>
-      <c r="BP29" s="93"/>
-      <c r="BQ29" s="93"/>
-      <c r="BR29" s="93"/>
-      <c r="BS29" s="93"/>
-      <c r="BT29" s="93"/>
-      <c r="BU29" s="93"/>
-      <c r="BV29" s="93"/>
-      <c r="BW29" s="93"/>
-      <c r="BX29" s="93"/>
-      <c r="BY29" s="93"/>
-      <c r="BZ29" s="93"/>
-      <c r="CA29" s="93"/>
-      <c r="CB29" s="94"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="114"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="113"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="113"/>
+      <c r="BP29" s="113"/>
+      <c r="BQ29" s="113"/>
+      <c r="BR29" s="113"/>
+      <c r="BS29" s="113"/>
+      <c r="BT29" s="113"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="113"/>
+      <c r="BW29" s="113"/>
+      <c r="BX29" s="113"/>
+      <c r="BY29" s="113"/>
+      <c r="BZ29" s="113"/>
+      <c r="CA29" s="113"/>
+      <c r="CB29" s="114"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="93"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="93"/>
-      <c r="AM30" s="93"/>
-      <c r="AN30" s="94"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="93"/>
-      <c r="AS30" s="93"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="93"/>
-      <c r="AV30" s="93"/>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="93"/>
-      <c r="AY30" s="93"/>
-      <c r="AZ30" s="93"/>
-      <c r="BA30" s="93"/>
-      <c r="BB30" s="93"/>
-      <c r="BC30" s="93"/>
-      <c r="BD30" s="93"/>
-      <c r="BE30" s="93"/>
-      <c r="BF30" s="93"/>
-      <c r="BG30" s="93"/>
-      <c r="BH30" s="93"/>
-      <c r="BI30" s="93"/>
-      <c r="BJ30" s="93"/>
-      <c r="BK30" s="93"/>
-      <c r="BL30" s="93"/>
-      <c r="BM30" s="93"/>
-      <c r="BN30" s="93"/>
-      <c r="BO30" s="93"/>
-      <c r="BP30" s="93"/>
-      <c r="BQ30" s="93"/>
-      <c r="BR30" s="93"/>
-      <c r="BS30" s="93"/>
-      <c r="BT30" s="93"/>
-      <c r="BU30" s="93"/>
-      <c r="BV30" s="93"/>
-      <c r="BW30" s="93"/>
-      <c r="BX30" s="93"/>
-      <c r="BY30" s="93"/>
-      <c r="BZ30" s="93"/>
-      <c r="CA30" s="93"/>
-      <c r="CB30" s="94"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="114"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="113"/>
+      <c r="BA30" s="113"/>
+      <c r="BB30" s="113"/>
+      <c r="BC30" s="113"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="113"/>
+      <c r="BF30" s="113"/>
+      <c r="BG30" s="113"/>
+      <c r="BH30" s="113"/>
+      <c r="BI30" s="113"/>
+      <c r="BJ30" s="113"/>
+      <c r="BK30" s="113"/>
+      <c r="BL30" s="113"/>
+      <c r="BM30" s="113"/>
+      <c r="BN30" s="113"/>
+      <c r="BO30" s="113"/>
+      <c r="BP30" s="113"/>
+      <c r="BQ30" s="113"/>
+      <c r="BR30" s="113"/>
+      <c r="BS30" s="113"/>
+      <c r="BT30" s="113"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="113"/>
+      <c r="BW30" s="113"/>
+      <c r="BX30" s="113"/>
+      <c r="BY30" s="113"/>
+      <c r="BZ30" s="113"/>
+      <c r="CA30" s="113"/>
+      <c r="CB30" s="114"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="93"/>
-      <c r="AJ31" s="93"/>
-      <c r="AK31" s="93"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="93"/>
-      <c r="AN31" s="94"/>
-      <c r="AQ31" s="92"/>
-      <c r="AR31" s="93"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="93"/>
-      <c r="AU31" s="93"/>
-      <c r="AV31" s="93"/>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="93"/>
-      <c r="AY31" s="93"/>
-      <c r="AZ31" s="93"/>
-      <c r="BA31" s="93"/>
-      <c r="BB31" s="93"/>
-      <c r="BC31" s="93"/>
-      <c r="BD31" s="93"/>
-      <c r="BE31" s="93"/>
-      <c r="BF31" s="93"/>
-      <c r="BG31" s="93"/>
-      <c r="BH31" s="93"/>
-      <c r="BI31" s="93"/>
-      <c r="BJ31" s="93"/>
-      <c r="BK31" s="93"/>
-      <c r="BL31" s="93"/>
-      <c r="BM31" s="93"/>
-      <c r="BN31" s="93"/>
-      <c r="BO31" s="93"/>
-      <c r="BP31" s="93"/>
-      <c r="BQ31" s="93"/>
-      <c r="BR31" s="93"/>
-      <c r="BS31" s="93"/>
-      <c r="BT31" s="93"/>
-      <c r="BU31" s="93"/>
-      <c r="BV31" s="93"/>
-      <c r="BW31" s="93"/>
-      <c r="BX31" s="93"/>
-      <c r="BY31" s="93"/>
-      <c r="BZ31" s="93"/>
-      <c r="CA31" s="93"/>
-      <c r="CB31" s="94"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="114"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
+      <c r="BD31" s="113"/>
+      <c r="BE31" s="113"/>
+      <c r="BF31" s="113"/>
+      <c r="BG31" s="113"/>
+      <c r="BH31" s="113"/>
+      <c r="BI31" s="113"/>
+      <c r="BJ31" s="113"/>
+      <c r="BK31" s="113"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="113"/>
+      <c r="BR31" s="113"/>
+      <c r="BS31" s="113"/>
+      <c r="BT31" s="113"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="113"/>
+      <c r="BW31" s="113"/>
+      <c r="BX31" s="113"/>
+      <c r="BY31" s="113"/>
+      <c r="BZ31" s="113"/>
+      <c r="CA31" s="113"/>
+      <c r="CB31" s="114"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="93"/>
-      <c r="AJ32" s="93"/>
-      <c r="AK32" s="93"/>
-      <c r="AL32" s="93"/>
-      <c r="AM32" s="93"/>
-      <c r="AN32" s="94"/>
-      <c r="AQ32" s="92"/>
-      <c r="AR32" s="93"/>
-      <c r="AS32" s="93"/>
-      <c r="AT32" s="93"/>
-      <c r="AU32" s="93"/>
-      <c r="AV32" s="93"/>
-      <c r="AW32" s="93"/>
-      <c r="AX32" s="93"/>
-      <c r="AY32" s="93"/>
-      <c r="AZ32" s="93"/>
-      <c r="BA32" s="93"/>
-      <c r="BB32" s="93"/>
-      <c r="BC32" s="93"/>
-      <c r="BD32" s="93"/>
-      <c r="BE32" s="93"/>
-      <c r="BF32" s="93"/>
-      <c r="BG32" s="93"/>
-      <c r="BH32" s="93"/>
-      <c r="BI32" s="93"/>
-      <c r="BJ32" s="93"/>
-      <c r="BK32" s="93"/>
-      <c r="BL32" s="93"/>
-      <c r="BM32" s="93"/>
-      <c r="BN32" s="93"/>
-      <c r="BO32" s="93"/>
-      <c r="BP32" s="93"/>
-      <c r="BQ32" s="93"/>
-      <c r="BR32" s="93"/>
-      <c r="BS32" s="93"/>
-      <c r="BT32" s="93"/>
-      <c r="BU32" s="93"/>
-      <c r="BV32" s="93"/>
-      <c r="BW32" s="93"/>
-      <c r="BX32" s="93"/>
-      <c r="BY32" s="93"/>
-      <c r="BZ32" s="93"/>
-      <c r="CA32" s="93"/>
-      <c r="CB32" s="94"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="114"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="113"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
+      <c r="BS32" s="113"/>
+      <c r="BT32" s="113"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="113"/>
+      <c r="BW32" s="113"/>
+      <c r="BX32" s="113"/>
+      <c r="BY32" s="113"/>
+      <c r="BZ32" s="113"/>
+      <c r="CA32" s="113"/>
+      <c r="CB32" s="114"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="93"/>
-      <c r="AJ33" s="93"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="93"/>
-      <c r="AN33" s="94"/>
-      <c r="AQ33" s="92"/>
-      <c r="AR33" s="93"/>
-      <c r="AS33" s="93"/>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="93"/>
-      <c r="AV33" s="93"/>
-      <c r="AW33" s="93"/>
-      <c r="AX33" s="93"/>
-      <c r="AY33" s="93"/>
-      <c r="AZ33" s="93"/>
-      <c r="BA33" s="93"/>
-      <c r="BB33" s="93"/>
-      <c r="BC33" s="93"/>
-      <c r="BD33" s="93"/>
-      <c r="BE33" s="93"/>
-      <c r="BF33" s="93"/>
-      <c r="BG33" s="93"/>
-      <c r="BH33" s="93"/>
-      <c r="BI33" s="93"/>
-      <c r="BJ33" s="93"/>
-      <c r="BK33" s="93"/>
-      <c r="BL33" s="93"/>
-      <c r="BM33" s="93"/>
-      <c r="BN33" s="93"/>
-      <c r="BO33" s="93"/>
-      <c r="BP33" s="93"/>
-      <c r="BQ33" s="93"/>
-      <c r="BR33" s="93"/>
-      <c r="BS33" s="93"/>
-      <c r="BT33" s="93"/>
-      <c r="BU33" s="93"/>
-      <c r="BV33" s="93"/>
-      <c r="BW33" s="93"/>
-      <c r="BX33" s="93"/>
-      <c r="BY33" s="93"/>
-      <c r="BZ33" s="93"/>
-      <c r="CA33" s="93"/>
-      <c r="CB33" s="94"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="114"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="113"/>
+      <c r="BD33" s="113"/>
+      <c r="BE33" s="113"/>
+      <c r="BF33" s="113"/>
+      <c r="BG33" s="113"/>
+      <c r="BH33" s="113"/>
+      <c r="BI33" s="113"/>
+      <c r="BJ33" s="113"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
+      <c r="BS33" s="113"/>
+      <c r="BT33" s="113"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="113"/>
+      <c r="BW33" s="113"/>
+      <c r="BX33" s="113"/>
+      <c r="BY33" s="113"/>
+      <c r="BZ33" s="113"/>
+      <c r="CA33" s="113"/>
+      <c r="CB33" s="114"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="93"/>
-      <c r="AK34" s="93"/>
-      <c r="AL34" s="93"/>
-      <c r="AM34" s="93"/>
-      <c r="AN34" s="94"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="93"/>
-      <c r="AS34" s="93"/>
-      <c r="AT34" s="93"/>
-      <c r="AU34" s="93"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="93"/>
-      <c r="AX34" s="93"/>
-      <c r="AY34" s="93"/>
-      <c r="AZ34" s="93"/>
-      <c r="BA34" s="93"/>
-      <c r="BB34" s="93"/>
-      <c r="BC34" s="93"/>
-      <c r="BD34" s="93"/>
-      <c r="BE34" s="93"/>
-      <c r="BF34" s="93"/>
-      <c r="BG34" s="93"/>
-      <c r="BH34" s="93"/>
-      <c r="BI34" s="93"/>
-      <c r="BJ34" s="93"/>
-      <c r="BK34" s="93"/>
-      <c r="BL34" s="93"/>
-      <c r="BM34" s="93"/>
-      <c r="BN34" s="93"/>
-      <c r="BO34" s="93"/>
-      <c r="BP34" s="93"/>
-      <c r="BQ34" s="93"/>
-      <c r="BR34" s="93"/>
-      <c r="BS34" s="93"/>
-      <c r="BT34" s="93"/>
-      <c r="BU34" s="93"/>
-      <c r="BV34" s="93"/>
-      <c r="BW34" s="93"/>
-      <c r="BX34" s="93"/>
-      <c r="BY34" s="93"/>
-      <c r="BZ34" s="93"/>
-      <c r="CA34" s="93"/>
-      <c r="CB34" s="94"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="114"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
+      <c r="BS34" s="113"/>
+      <c r="BT34" s="113"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="113"/>
+      <c r="BW34" s="113"/>
+      <c r="BX34" s="113"/>
+      <c r="BY34" s="113"/>
+      <c r="BZ34" s="113"/>
+      <c r="CA34" s="113"/>
+      <c r="CB34" s="114"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="93"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="93"/>
-      <c r="AJ35" s="93"/>
-      <c r="AK35" s="93"/>
-      <c r="AL35" s="93"/>
-      <c r="AM35" s="93"/>
-      <c r="AN35" s="94"/>
-      <c r="AQ35" s="92"/>
-      <c r="AR35" s="93"/>
-      <c r="AS35" s="93"/>
-      <c r="AT35" s="93"/>
-      <c r="AU35" s="93"/>
-      <c r="AV35" s="93"/>
-      <c r="AW35" s="93"/>
-      <c r="AX35" s="93"/>
-      <c r="AY35" s="93"/>
-      <c r="AZ35" s="93"/>
-      <c r="BA35" s="93"/>
-      <c r="BB35" s="93"/>
-      <c r="BC35" s="93"/>
-      <c r="BD35" s="93"/>
-      <c r="BE35" s="93"/>
-      <c r="BF35" s="93"/>
-      <c r="BG35" s="93"/>
-      <c r="BH35" s="93"/>
-      <c r="BI35" s="93"/>
-      <c r="BJ35" s="93"/>
-      <c r="BK35" s="93"/>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="93"/>
-      <c r="BO35" s="93"/>
-      <c r="BP35" s="93"/>
-      <c r="BQ35" s="93"/>
-      <c r="BR35" s="93"/>
-      <c r="BS35" s="93"/>
-      <c r="BT35" s="93"/>
-      <c r="BU35" s="93"/>
-      <c r="BV35" s="93"/>
-      <c r="BW35" s="93"/>
-      <c r="BX35" s="93"/>
-      <c r="BY35" s="93"/>
-      <c r="BZ35" s="93"/>
-      <c r="CA35" s="93"/>
-      <c r="CB35" s="94"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="114"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
+      <c r="BB35" s="113"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="113"/>
+      <c r="BF35" s="113"/>
+      <c r="BG35" s="113"/>
+      <c r="BH35" s="113"/>
+      <c r="BI35" s="113"/>
+      <c r="BJ35" s="113"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
+      <c r="BS35" s="113"/>
+      <c r="BT35" s="113"/>
+      <c r="BU35" s="113"/>
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="113"/>
+      <c r="BY35" s="113"/>
+      <c r="BZ35" s="113"/>
+      <c r="CA35" s="113"/>
+      <c r="CB35" s="114"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="93"/>
-      <c r="AH36" s="93"/>
-      <c r="AI36" s="93"/>
-      <c r="AJ36" s="93"/>
-      <c r="AK36" s="93"/>
-      <c r="AL36" s="93"/>
-      <c r="AM36" s="93"/>
-      <c r="AN36" s="94"/>
-      <c r="AQ36" s="92"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="93"/>
-      <c r="AT36" s="93"/>
-      <c r="AU36" s="93"/>
-      <c r="AV36" s="93"/>
-      <c r="AW36" s="93"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="93"/>
-      <c r="AZ36" s="93"/>
-      <c r="BA36" s="93"/>
-      <c r="BB36" s="93"/>
-      <c r="BC36" s="93"/>
-      <c r="BD36" s="93"/>
-      <c r="BE36" s="93"/>
-      <c r="BF36" s="93"/>
-      <c r="BG36" s="93"/>
-      <c r="BH36" s="93"/>
-      <c r="BI36" s="93"/>
-      <c r="BJ36" s="93"/>
-      <c r="BK36" s="93"/>
-      <c r="BL36" s="93"/>
-      <c r="BM36" s="93"/>
-      <c r="BN36" s="93"/>
-      <c r="BO36" s="93"/>
-      <c r="BP36" s="93"/>
-      <c r="BQ36" s="93"/>
-      <c r="BR36" s="93"/>
-      <c r="BS36" s="93"/>
-      <c r="BT36" s="93"/>
-      <c r="BU36" s="93"/>
-      <c r="BV36" s="93"/>
-      <c r="BW36" s="93"/>
-      <c r="BX36" s="93"/>
-      <c r="BY36" s="93"/>
-      <c r="BZ36" s="93"/>
-      <c r="CA36" s="93"/>
-      <c r="CB36" s="94"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="113"/>
+      <c r="AJ36" s="113"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="113"/>
+      <c r="AM36" s="113"/>
+      <c r="AN36" s="114"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="113"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="113"/>
+      <c r="AU36" s="113"/>
+      <c r="AV36" s="113"/>
+      <c r="AW36" s="113"/>
+      <c r="AX36" s="113"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="113"/>
+      <c r="BA36" s="113"/>
+      <c r="BB36" s="113"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="113"/>
+      <c r="BF36" s="113"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="113"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
+      <c r="BS36" s="113"/>
+      <c r="BT36" s="113"/>
+      <c r="BU36" s="113"/>
+      <c r="BV36" s="113"/>
+      <c r="BW36" s="113"/>
+      <c r="BX36" s="113"/>
+      <c r="BY36" s="113"/>
+      <c r="BZ36" s="113"/>
+      <c r="CA36" s="113"/>
+      <c r="CB36" s="114"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="93"/>
-      <c r="X37" s="93"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="93"/>
-      <c r="AI37" s="93"/>
-      <c r="AJ37" s="93"/>
-      <c r="AK37" s="93"/>
-      <c r="AL37" s="93"/>
-      <c r="AM37" s="93"/>
-      <c r="AN37" s="94"/>
-      <c r="AQ37" s="92"/>
-      <c r="AR37" s="93"/>
-      <c r="AS37" s="93"/>
-      <c r="AT37" s="93"/>
-      <c r="AU37" s="93"/>
-      <c r="AV37" s="93"/>
-      <c r="AW37" s="93"/>
-      <c r="AX37" s="93"/>
-      <c r="AY37" s="93"/>
-      <c r="AZ37" s="93"/>
-      <c r="BA37" s="93"/>
-      <c r="BB37" s="93"/>
-      <c r="BC37" s="93"/>
-      <c r="BD37" s="93"/>
-      <c r="BE37" s="93"/>
-      <c r="BF37" s="93"/>
-      <c r="BG37" s="93"/>
-      <c r="BH37" s="93"/>
-      <c r="BI37" s="93"/>
-      <c r="BJ37" s="93"/>
-      <c r="BK37" s="93"/>
-      <c r="BL37" s="93"/>
-      <c r="BM37" s="93"/>
-      <c r="BN37" s="93"/>
-      <c r="BO37" s="93"/>
-      <c r="BP37" s="93"/>
-      <c r="BQ37" s="93"/>
-      <c r="BR37" s="93"/>
-      <c r="BS37" s="93"/>
-      <c r="BT37" s="93"/>
-      <c r="BU37" s="93"/>
-      <c r="BV37" s="93"/>
-      <c r="BW37" s="93"/>
-      <c r="BX37" s="93"/>
-      <c r="BY37" s="93"/>
-      <c r="BZ37" s="93"/>
-      <c r="CA37" s="93"/>
-      <c r="CB37" s="94"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="113"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="114"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="113"/>
+      <c r="BF37" s="113"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="113"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
+      <c r="BS37" s="113"/>
+      <c r="BT37" s="113"/>
+      <c r="BU37" s="113"/>
+      <c r="BV37" s="113"/>
+      <c r="BW37" s="113"/>
+      <c r="BX37" s="113"/>
+      <c r="BY37" s="113"/>
+      <c r="BZ37" s="113"/>
+      <c r="CA37" s="113"/>
+      <c r="CB37" s="114"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="93"/>
-      <c r="AA38" s="93"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="93"/>
-      <c r="AH38" s="93"/>
-      <c r="AI38" s="93"/>
-      <c r="AJ38" s="93"/>
-      <c r="AK38" s="93"/>
-      <c r="AL38" s="93"/>
-      <c r="AM38" s="93"/>
-      <c r="AN38" s="94"/>
-      <c r="AQ38" s="92"/>
-      <c r="AR38" s="93"/>
-      <c r="AS38" s="93"/>
-      <c r="AT38" s="93"/>
-      <c r="AU38" s="93"/>
-      <c r="AV38" s="93"/>
-      <c r="AW38" s="93"/>
-      <c r="AX38" s="93"/>
-      <c r="AY38" s="93"/>
-      <c r="AZ38" s="93"/>
-      <c r="BA38" s="93"/>
-      <c r="BB38" s="93"/>
-      <c r="BC38" s="93"/>
-      <c r="BD38" s="93"/>
-      <c r="BE38" s="93"/>
-      <c r="BF38" s="93"/>
-      <c r="BG38" s="93"/>
-      <c r="BH38" s="93"/>
-      <c r="BI38" s="93"/>
-      <c r="BJ38" s="93"/>
-      <c r="BK38" s="93"/>
-      <c r="BL38" s="93"/>
-      <c r="BM38" s="93"/>
-      <c r="BN38" s="93"/>
-      <c r="BO38" s="93"/>
-      <c r="BP38" s="93"/>
-      <c r="BQ38" s="93"/>
-      <c r="BR38" s="93"/>
-      <c r="BS38" s="93"/>
-      <c r="BT38" s="93"/>
-      <c r="BU38" s="93"/>
-      <c r="BV38" s="93"/>
-      <c r="BW38" s="93"/>
-      <c r="BX38" s="93"/>
-      <c r="BY38" s="93"/>
-      <c r="BZ38" s="93"/>
-      <c r="CA38" s="93"/>
-      <c r="CB38" s="94"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="114"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="113"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="113"/>
+      <c r="BH38" s="113"/>
+      <c r="BI38" s="113"/>
+      <c r="BJ38" s="113"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="113"/>
+      <c r="BR38" s="113"/>
+      <c r="BS38" s="113"/>
+      <c r="BT38" s="113"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="113"/>
+      <c r="BW38" s="113"/>
+      <c r="BX38" s="113"/>
+      <c r="BY38" s="113"/>
+      <c r="BZ38" s="113"/>
+      <c r="CA38" s="113"/>
+      <c r="CB38" s="114"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="93"/>
-      <c r="AF39" s="93"/>
-      <c r="AG39" s="93"/>
-      <c r="AH39" s="93"/>
-      <c r="AI39" s="93"/>
-      <c r="AJ39" s="93"/>
-      <c r="AK39" s="93"/>
-      <c r="AL39" s="93"/>
-      <c r="AM39" s="93"/>
-      <c r="AN39" s="94"/>
-      <c r="AQ39" s="92"/>
-      <c r="AR39" s="93"/>
-      <c r="AS39" s="93"/>
-      <c r="AT39" s="93"/>
-      <c r="AU39" s="93"/>
-      <c r="AV39" s="93"/>
-      <c r="AW39" s="93"/>
-      <c r="AX39" s="93"/>
-      <c r="AY39" s="93"/>
-      <c r="AZ39" s="93"/>
-      <c r="BA39" s="93"/>
-      <c r="BB39" s="93"/>
-      <c r="BC39" s="93"/>
-      <c r="BD39" s="93"/>
-      <c r="BE39" s="93"/>
-      <c r="BF39" s="93"/>
-      <c r="BG39" s="93"/>
-      <c r="BH39" s="93"/>
-      <c r="BI39" s="93"/>
-      <c r="BJ39" s="93"/>
-      <c r="BK39" s="93"/>
-      <c r="BL39" s="93"/>
-      <c r="BM39" s="93"/>
-      <c r="BN39" s="93"/>
-      <c r="BO39" s="93"/>
-      <c r="BP39" s="93"/>
-      <c r="BQ39" s="93"/>
-      <c r="BR39" s="93"/>
-      <c r="BS39" s="93"/>
-      <c r="BT39" s="93"/>
-      <c r="BU39" s="93"/>
-      <c r="BV39" s="93"/>
-      <c r="BW39" s="93"/>
-      <c r="BX39" s="93"/>
-      <c r="BY39" s="93"/>
-      <c r="BZ39" s="93"/>
-      <c r="CA39" s="93"/>
-      <c r="CB39" s="94"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="113"/>
+      <c r="BF39" s="113"/>
+      <c r="BG39" s="113"/>
+      <c r="BH39" s="113"/>
+      <c r="BI39" s="113"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="113"/>
+      <c r="BL39" s="113"/>
+      <c r="BM39" s="113"/>
+      <c r="BN39" s="113"/>
+      <c r="BO39" s="113"/>
+      <c r="BP39" s="113"/>
+      <c r="BQ39" s="113"/>
+      <c r="BR39" s="113"/>
+      <c r="BS39" s="113"/>
+      <c r="BT39" s="113"/>
+      <c r="BU39" s="113"/>
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="113"/>
+      <c r="BY39" s="113"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="113"/>
+      <c r="CB39" s="114"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="93"/>
-      <c r="AF40" s="93"/>
-      <c r="AG40" s="93"/>
-      <c r="AH40" s="93"/>
-      <c r="AI40" s="93"/>
-      <c r="AJ40" s="93"/>
-      <c r="AK40" s="93"/>
-      <c r="AL40" s="93"/>
-      <c r="AM40" s="93"/>
-      <c r="AN40" s="94"/>
-      <c r="AQ40" s="92"/>
-      <c r="AR40" s="93"/>
-      <c r="AS40" s="93"/>
-      <c r="AT40" s="93"/>
-      <c r="AU40" s="93"/>
-      <c r="AV40" s="93"/>
-      <c r="AW40" s="93"/>
-      <c r="AX40" s="93"/>
-      <c r="AY40" s="93"/>
-      <c r="AZ40" s="93"/>
-      <c r="BA40" s="93"/>
-      <c r="BB40" s="93"/>
-      <c r="BC40" s="93"/>
-      <c r="BD40" s="93"/>
-      <c r="BE40" s="93"/>
-      <c r="BF40" s="93"/>
-      <c r="BG40" s="93"/>
-      <c r="BH40" s="93"/>
-      <c r="BI40" s="93"/>
-      <c r="BJ40" s="93"/>
-      <c r="BK40" s="93"/>
-      <c r="BL40" s="93"/>
-      <c r="BM40" s="93"/>
-      <c r="BN40" s="93"/>
-      <c r="BO40" s="93"/>
-      <c r="BP40" s="93"/>
-      <c r="BQ40" s="93"/>
-      <c r="BR40" s="93"/>
-      <c r="BS40" s="93"/>
-      <c r="BT40" s="93"/>
-      <c r="BU40" s="93"/>
-      <c r="BV40" s="93"/>
-      <c r="BW40" s="93"/>
-      <c r="BX40" s="93"/>
-      <c r="BY40" s="93"/>
-      <c r="BZ40" s="93"/>
-      <c r="CA40" s="93"/>
-      <c r="CB40" s="94"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="114"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="113"/>
+      <c r="BF40" s="113"/>
+      <c r="BG40" s="113"/>
+      <c r="BH40" s="113"/>
+      <c r="BI40" s="113"/>
+      <c r="BJ40" s="113"/>
+      <c r="BK40" s="113"/>
+      <c r="BL40" s="113"/>
+      <c r="BM40" s="113"/>
+      <c r="BN40" s="113"/>
+      <c r="BO40" s="113"/>
+      <c r="BP40" s="113"/>
+      <c r="BQ40" s="113"/>
+      <c r="BR40" s="113"/>
+      <c r="BS40" s="113"/>
+      <c r="BT40" s="113"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="113"/>
+      <c r="BW40" s="113"/>
+      <c r="BX40" s="113"/>
+      <c r="BY40" s="113"/>
+      <c r="BZ40" s="113"/>
+      <c r="CA40" s="113"/>
+      <c r="CB40" s="114"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="93"/>
-      <c r="Z41" s="93"/>
-      <c r="AA41" s="93"/>
-      <c r="AB41" s="93"/>
-      <c r="AC41" s="93"/>
-      <c r="AD41" s="93"/>
-      <c r="AE41" s="93"/>
-      <c r="AF41" s="93"/>
-      <c r="AG41" s="93"/>
-      <c r="AH41" s="93"/>
-      <c r="AI41" s="93"/>
-      <c r="AJ41" s="93"/>
-      <c r="AK41" s="93"/>
-      <c r="AL41" s="93"/>
-      <c r="AM41" s="93"/>
-      <c r="AN41" s="94"/>
-      <c r="AQ41" s="92"/>
-      <c r="AR41" s="93"/>
-      <c r="AS41" s="93"/>
-      <c r="AT41" s="93"/>
-      <c r="AU41" s="93"/>
-      <c r="AV41" s="93"/>
-      <c r="AW41" s="93"/>
-      <c r="AX41" s="93"/>
-      <c r="AY41" s="93"/>
-      <c r="AZ41" s="93"/>
-      <c r="BA41" s="93"/>
-      <c r="BB41" s="93"/>
-      <c r="BC41" s="93"/>
-      <c r="BD41" s="93"/>
-      <c r="BE41" s="93"/>
-      <c r="BF41" s="93"/>
-      <c r="BG41" s="93"/>
-      <c r="BH41" s="93"/>
-      <c r="BI41" s="93"/>
-      <c r="BJ41" s="93"/>
-      <c r="BK41" s="93"/>
-      <c r="BL41" s="93"/>
-      <c r="BM41" s="93"/>
-      <c r="BN41" s="93"/>
-      <c r="BO41" s="93"/>
-      <c r="BP41" s="93"/>
-      <c r="BQ41" s="93"/>
-      <c r="BR41" s="93"/>
-      <c r="BS41" s="93"/>
-      <c r="BT41" s="93"/>
-      <c r="BU41" s="93"/>
-      <c r="BV41" s="93"/>
-      <c r="BW41" s="93"/>
-      <c r="BX41" s="93"/>
-      <c r="BY41" s="93"/>
-      <c r="BZ41" s="93"/>
-      <c r="CA41" s="93"/>
-      <c r="CB41" s="94"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="114"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="113"/>
+      <c r="BF41" s="113"/>
+      <c r="BG41" s="113"/>
+      <c r="BH41" s="113"/>
+      <c r="BI41" s="113"/>
+      <c r="BJ41" s="113"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="113"/>
+      <c r="BR41" s="113"/>
+      <c r="BS41" s="113"/>
+      <c r="BT41" s="113"/>
+      <c r="BU41" s="113"/>
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="113"/>
+      <c r="BY41" s="113"/>
+      <c r="BZ41" s="113"/>
+      <c r="CA41" s="113"/>
+      <c r="CB41" s="114"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="93"/>
-      <c r="AI42" s="93"/>
-      <c r="AJ42" s="93"/>
-      <c r="AK42" s="93"/>
-      <c r="AL42" s="93"/>
-      <c r="AM42" s="93"/>
-      <c r="AN42" s="94"/>
-      <c r="AQ42" s="92"/>
-      <c r="AR42" s="93"/>
-      <c r="AS42" s="93"/>
-      <c r="AT42" s="93"/>
-      <c r="AU42" s="93"/>
-      <c r="AV42" s="93"/>
-      <c r="AW42" s="93"/>
-      <c r="AX42" s="93"/>
-      <c r="AY42" s="93"/>
-      <c r="AZ42" s="93"/>
-      <c r="BA42" s="93"/>
-      <c r="BB42" s="93"/>
-      <c r="BC42" s="93"/>
-      <c r="BD42" s="93"/>
-      <c r="BE42" s="93"/>
-      <c r="BF42" s="93"/>
-      <c r="BG42" s="93"/>
-      <c r="BH42" s="93"/>
-      <c r="BI42" s="93"/>
-      <c r="BJ42" s="93"/>
-      <c r="BK42" s="93"/>
-      <c r="BL42" s="93"/>
-      <c r="BM42" s="93"/>
-      <c r="BN42" s="93"/>
-      <c r="BO42" s="93"/>
-      <c r="BP42" s="93"/>
-      <c r="BQ42" s="93"/>
-      <c r="BR42" s="93"/>
-      <c r="BS42" s="93"/>
-      <c r="BT42" s="93"/>
-      <c r="BU42" s="93"/>
-      <c r="BV42" s="93"/>
-      <c r="BW42" s="93"/>
-      <c r="BX42" s="93"/>
-      <c r="BY42" s="93"/>
-      <c r="BZ42" s="93"/>
-      <c r="CA42" s="93"/>
-      <c r="CB42" s="94"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="113"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="113"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="114"/>
+      <c r="AQ42" s="112"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="113"/>
+      <c r="BF42" s="113"/>
+      <c r="BG42" s="113"/>
+      <c r="BH42" s="113"/>
+      <c r="BI42" s="113"/>
+      <c r="BJ42" s="113"/>
+      <c r="BK42" s="113"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="113"/>
+      <c r="BR42" s="113"/>
+      <c r="BS42" s="113"/>
+      <c r="BT42" s="113"/>
+      <c r="BU42" s="113"/>
+      <c r="BV42" s="113"/>
+      <c r="BW42" s="113"/>
+      <c r="BX42" s="113"/>
+      <c r="BY42" s="113"/>
+      <c r="BZ42" s="113"/>
+      <c r="CA42" s="113"/>
+      <c r="CB42" s="114"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="93"/>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="93"/>
-      <c r="AH43" s="93"/>
-      <c r="AI43" s="93"/>
-      <c r="AJ43" s="93"/>
-      <c r="AK43" s="93"/>
-      <c r="AL43" s="93"/>
-      <c r="AM43" s="93"/>
-      <c r="AN43" s="94"/>
-      <c r="AQ43" s="92"/>
-      <c r="AR43" s="93"/>
-      <c r="AS43" s="93"/>
-      <c r="AT43" s="93"/>
-      <c r="AU43" s="93"/>
-      <c r="AV43" s="93"/>
-      <c r="AW43" s="93"/>
-      <c r="AX43" s="93"/>
-      <c r="AY43" s="93"/>
-      <c r="AZ43" s="93"/>
-      <c r="BA43" s="93"/>
-      <c r="BB43" s="93"/>
-      <c r="BC43" s="93"/>
-      <c r="BD43" s="93"/>
-      <c r="BE43" s="93"/>
-      <c r="BF43" s="93"/>
-      <c r="BG43" s="93"/>
-      <c r="BH43" s="93"/>
-      <c r="BI43" s="93"/>
-      <c r="BJ43" s="93"/>
-      <c r="BK43" s="93"/>
-      <c r="BL43" s="93"/>
-      <c r="BM43" s="93"/>
-      <c r="BN43" s="93"/>
-      <c r="BO43" s="93"/>
-      <c r="BP43" s="93"/>
-      <c r="BQ43" s="93"/>
-      <c r="BR43" s="93"/>
-      <c r="BS43" s="93"/>
-      <c r="BT43" s="93"/>
-      <c r="BU43" s="93"/>
-      <c r="BV43" s="93"/>
-      <c r="BW43" s="93"/>
-      <c r="BX43" s="93"/>
-      <c r="BY43" s="93"/>
-      <c r="BZ43" s="93"/>
-      <c r="CA43" s="93"/>
-      <c r="CB43" s="94"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="114"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="113"/>
+      <c r="BF43" s="113"/>
+      <c r="BG43" s="113"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="113"/>
+      <c r="BJ43" s="113"/>
+      <c r="BK43" s="113"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="113"/>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="113"/>
+      <c r="BU43" s="113"/>
+      <c r="BV43" s="113"/>
+      <c r="BW43" s="113"/>
+      <c r="BX43" s="113"/>
+      <c r="BY43" s="113"/>
+      <c r="BZ43" s="113"/>
+      <c r="CA43" s="113"/>
+      <c r="CB43" s="114"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="93"/>
-      <c r="AF44" s="93"/>
-      <c r="AG44" s="93"/>
-      <c r="AH44" s="93"/>
-      <c r="AI44" s="93"/>
-      <c r="AJ44" s="93"/>
-      <c r="AK44" s="93"/>
-      <c r="AL44" s="93"/>
-      <c r="AM44" s="93"/>
-      <c r="AN44" s="94"/>
-      <c r="AQ44" s="92"/>
-      <c r="AR44" s="93"/>
-      <c r="AS44" s="93"/>
-      <c r="AT44" s="93"/>
-      <c r="AU44" s="93"/>
-      <c r="AV44" s="93"/>
-      <c r="AW44" s="93"/>
-      <c r="AX44" s="93"/>
-      <c r="AY44" s="93"/>
-      <c r="AZ44" s="93"/>
-      <c r="BA44" s="93"/>
-      <c r="BB44" s="93"/>
-      <c r="BC44" s="93"/>
-      <c r="BD44" s="93"/>
-      <c r="BE44" s="93"/>
-      <c r="BF44" s="93"/>
-      <c r="BG44" s="93"/>
-      <c r="BH44" s="93"/>
-      <c r="BI44" s="93"/>
-      <c r="BJ44" s="93"/>
-      <c r="BK44" s="93"/>
-      <c r="BL44" s="93"/>
-      <c r="BM44" s="93"/>
-      <c r="BN44" s="93"/>
-      <c r="BO44" s="93"/>
-      <c r="BP44" s="93"/>
-      <c r="BQ44" s="93"/>
-      <c r="BR44" s="93"/>
-      <c r="BS44" s="93"/>
-      <c r="BT44" s="93"/>
-      <c r="BU44" s="93"/>
-      <c r="BV44" s="93"/>
-      <c r="BW44" s="93"/>
-      <c r="BX44" s="93"/>
-      <c r="BY44" s="93"/>
-      <c r="BZ44" s="93"/>
-      <c r="CA44" s="93"/>
-      <c r="CB44" s="94"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="114"/>
+      <c r="AQ44" s="112"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="113"/>
+      <c r="BF44" s="113"/>
+      <c r="BG44" s="113"/>
+      <c r="BH44" s="113"/>
+      <c r="BI44" s="113"/>
+      <c r="BJ44" s="113"/>
+      <c r="BK44" s="113"/>
+      <c r="BL44" s="113"/>
+      <c r="BM44" s="113"/>
+      <c r="BN44" s="113"/>
+      <c r="BO44" s="113"/>
+      <c r="BP44" s="113"/>
+      <c r="BQ44" s="113"/>
+      <c r="BR44" s="113"/>
+      <c r="BS44" s="113"/>
+      <c r="BT44" s="113"/>
+      <c r="BU44" s="113"/>
+      <c r="BV44" s="113"/>
+      <c r="BW44" s="113"/>
+      <c r="BX44" s="113"/>
+      <c r="BY44" s="113"/>
+      <c r="BZ44" s="113"/>
+      <c r="CA44" s="113"/>
+      <c r="CB44" s="114"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
-      <c r="AC45" s="93"/>
-      <c r="AD45" s="93"/>
-      <c r="AE45" s="93"/>
-      <c r="AF45" s="93"/>
-      <c r="AG45" s="93"/>
-      <c r="AH45" s="93"/>
-      <c r="AI45" s="93"/>
-      <c r="AJ45" s="93"/>
-      <c r="AK45" s="93"/>
-      <c r="AL45" s="93"/>
-      <c r="AM45" s="93"/>
-      <c r="AN45" s="94"/>
-      <c r="AQ45" s="92"/>
-      <c r="AR45" s="93"/>
-      <c r="AS45" s="93"/>
-      <c r="AT45" s="93"/>
-      <c r="AU45" s="93"/>
-      <c r="AV45" s="93"/>
-      <c r="AW45" s="93"/>
-      <c r="AX45" s="93"/>
-      <c r="AY45" s="93"/>
-      <c r="AZ45" s="93"/>
-      <c r="BA45" s="93"/>
-      <c r="BB45" s="93"/>
-      <c r="BC45" s="93"/>
-      <c r="BD45" s="93"/>
-      <c r="BE45" s="93"/>
-      <c r="BF45" s="93"/>
-      <c r="BG45" s="93"/>
-      <c r="BH45" s="93"/>
-      <c r="BI45" s="93"/>
-      <c r="BJ45" s="93"/>
-      <c r="BK45" s="93"/>
-      <c r="BL45" s="93"/>
-      <c r="BM45" s="93"/>
-      <c r="BN45" s="93"/>
-      <c r="BO45" s="93"/>
-      <c r="BP45" s="93"/>
-      <c r="BQ45" s="93"/>
-      <c r="BR45" s="93"/>
-      <c r="BS45" s="93"/>
-      <c r="BT45" s="93"/>
-      <c r="BU45" s="93"/>
-      <c r="BV45" s="93"/>
-      <c r="BW45" s="93"/>
-      <c r="BX45" s="93"/>
-      <c r="BY45" s="93"/>
-      <c r="BZ45" s="93"/>
-      <c r="CA45" s="93"/>
-      <c r="CB45" s="94"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="114"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="113"/>
+      <c r="BF45" s="113"/>
+      <c r="BG45" s="113"/>
+      <c r="BH45" s="113"/>
+      <c r="BI45" s="113"/>
+      <c r="BJ45" s="113"/>
+      <c r="BK45" s="113"/>
+      <c r="BL45" s="113"/>
+      <c r="BM45" s="113"/>
+      <c r="BN45" s="113"/>
+      <c r="BO45" s="113"/>
+      <c r="BP45" s="113"/>
+      <c r="BQ45" s="113"/>
+      <c r="BR45" s="113"/>
+      <c r="BS45" s="113"/>
+      <c r="BT45" s="113"/>
+      <c r="BU45" s="113"/>
+      <c r="BV45" s="113"/>
+      <c r="BW45" s="113"/>
+      <c r="BX45" s="113"/>
+      <c r="BY45" s="113"/>
+      <c r="BZ45" s="113"/>
+      <c r="CA45" s="113"/>
+      <c r="CB45" s="114"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="96"/>
-      <c r="AH46" s="96"/>
-      <c r="AI46" s="96"/>
-      <c r="AJ46" s="96"/>
-      <c r="AK46" s="96"/>
-      <c r="AL46" s="96"/>
-      <c r="AM46" s="96"/>
-      <c r="AN46" s="97"/>
-      <c r="AQ46" s="95"/>
-      <c r="AR46" s="96"/>
-      <c r="AS46" s="96"/>
-      <c r="AT46" s="96"/>
-      <c r="AU46" s="96"/>
-      <c r="AV46" s="96"/>
-      <c r="AW46" s="96"/>
-      <c r="AX46" s="96"/>
-      <c r="AY46" s="96"/>
-      <c r="AZ46" s="96"/>
-      <c r="BA46" s="96"/>
-      <c r="BB46" s="96"/>
-      <c r="BC46" s="96"/>
-      <c r="BD46" s="96"/>
-      <c r="BE46" s="96"/>
-      <c r="BF46" s="96"/>
-      <c r="BG46" s="96"/>
-      <c r="BH46" s="96"/>
-      <c r="BI46" s="96"/>
-      <c r="BJ46" s="96"/>
-      <c r="BK46" s="96"/>
-      <c r="BL46" s="96"/>
-      <c r="BM46" s="96"/>
-      <c r="BN46" s="96"/>
-      <c r="BO46" s="96"/>
-      <c r="BP46" s="96"/>
-      <c r="BQ46" s="96"/>
-      <c r="BR46" s="96"/>
-      <c r="BS46" s="96"/>
-      <c r="BT46" s="96"/>
-      <c r="BU46" s="96"/>
-      <c r="BV46" s="96"/>
-      <c r="BW46" s="96"/>
-      <c r="BX46" s="96"/>
-      <c r="BY46" s="96"/>
-      <c r="BZ46" s="96"/>
-      <c r="CA46" s="96"/>
-      <c r="CB46" s="97"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="117"/>
+      <c r="AQ46" s="115"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
+      <c r="BA46" s="116"/>
+      <c r="BB46" s="116"/>
+      <c r="BC46" s="116"/>
+      <c r="BD46" s="116"/>
+      <c r="BE46" s="116"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="116"/>
+      <c r="BH46" s="116"/>
+      <c r="BI46" s="116"/>
+      <c r="BJ46" s="116"/>
+      <c r="BK46" s="116"/>
+      <c r="BL46" s="116"/>
+      <c r="BM46" s="116"/>
+      <c r="BN46" s="116"/>
+      <c r="BO46" s="116"/>
+      <c r="BP46" s="116"/>
+      <c r="BQ46" s="116"/>
+      <c r="BR46" s="116"/>
+      <c r="BS46" s="116"/>
+      <c r="BT46" s="116"/>
+      <c r="BU46" s="116"/>
+      <c r="BV46" s="116"/>
+      <c r="BW46" s="116"/>
+      <c r="BX46" s="116"/>
+      <c r="BY46" s="116"/>
+      <c r="BZ46" s="116"/>
+      <c r="CA46" s="116"/>
+      <c r="CB46" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC8A29-BFC5-4112-8F71-01A3AF75BF65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B17876-927B-4871-9D45-B88A86959A36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="5" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -24,6 +24,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendas!$C$4:$E$86</definedName>
+    <definedName name="Desc_Categorias">'Cadastros Auxiliares'!$B$8:$E$8</definedName>
+    <definedName name="Desc_Quantidades">'Cadastros Auxiliares'!$B$8:$B$13</definedName>
+    <definedName name="Desc_TabelaToda">'Cadastros Auxiliares'!$B$8:$E$13</definedName>
+    <definedName name="Int_Desc_Categorias">'Cadastros Auxiliares'!$B$8:$E$8</definedName>
     <definedName name="Int_Nome_Produtos">#REF!</definedName>
     <definedName name="Int_Quantidade">#REF!</definedName>
   </definedNames>
@@ -67,7 +71,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{5C41B4FB-D364-450E-8959-2F3FADB11998}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{E1EE0359-1C7D-4DB2-ABBE-0EE231A818B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>1º Parâmetro: 
+          Célula do código
+2º Parâmetro:
+          Selecionar toda a tabela onde será procurado.
+3º Parâmetro:
+          O id da COLUNA (inicia da esquerda para direita, valor 1 para a primeira coluna.
+4º Parâmetro:
+          • verdadeiro: Valores aproximados;
+          • falso: Valores EXATOS.
+Na PROCV não consigo procurar 'Bermuda' e retornar o coódigo dele, ou seja, selecionar o número da coluna antes dele.
+PROCV -- Procura Vertical (Colunas)
+PROCH -- Procura Horizontal (Linhas)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{5C41B4FB-D364-450E-8959-2F3FADB11998}">
       <text>
         <r>
           <rPr>
@@ -150,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
   <si>
     <t>Produtos</t>
   </si>
@@ -1572,6 +1601,10 @@
     <xf numFmtId="1" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1598,6 +1631,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,37 +1713,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -1696,8 +1725,14 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1707,6 +1742,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1737,16 +1776,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -8405,22 +8434,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Cabeçalho Meteora">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Cabeçalho Meteora">
   <autoFilter ref="A4:I86" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="9">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="8">
       <calculatedColumnFormula>PROPER(TEXT(DATE(,TB_Vendas[[#This Row],[Nº]],1),"Mmm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem"/>
+    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
@@ -8741,88 +8772,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -8929,7 +8960,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -10236,10 +10267,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.15" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -10348,8 +10379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF34D44-0E29-4A7F-B47B-66AF094D5F9D}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10442,7 +10473,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
@@ -10473,7 +10507,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259.89999999999998</v>
@@ -10504,7 +10541,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>32.9</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H7" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
@@ -10535,7 +10575,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>46.9</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H8" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>46.9</v>
@@ -10566,7 +10609,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>29.9</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H9" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>29.9</v>
@@ -10597,7 +10643,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H10" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>299.89999999999998</v>
@@ -10628,7 +10677,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>146</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H11" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>146</v>
@@ -10659,7 +10711,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>89.9</v>
       </c>
-      <c r="G12" s="69"/>
+      <c r="G12" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H12" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
@@ -10690,7 +10745,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>250</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H13" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>500</v>
@@ -10721,7 +10779,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H14" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
@@ -10752,7 +10813,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>142.9</v>
       </c>
-      <c r="G15" s="69"/>
+      <c r="G15" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H15" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>142.9</v>
@@ -10783,7 +10847,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>300</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H16" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>300</v>
@@ -10814,7 +10881,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>289.89999999999998</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H17" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>579.79999999999995</v>
@@ -10845,7 +10915,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>249.9</v>
       </c>
-      <c r="G18" s="69"/>
+      <c r="G18" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H18" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>249.9</v>
@@ -10876,7 +10949,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G19" s="69"/>
+      <c r="G19" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H19" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>79.8</v>
@@ -10907,7 +10983,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>289.89999999999998</v>
       </c>
-      <c r="G20" s="69"/>
+      <c r="G20" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H20" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1159.5999999999999</v>
@@ -10938,7 +11017,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>180</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H21" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>540</v>
@@ -10969,7 +11051,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>32.9</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H22" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
@@ -11000,7 +11085,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>255</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H23" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>765</v>
@@ -11031,7 +11119,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>142.9</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H24" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>142.9</v>
@@ -11062,7 +11153,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>92.9</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H25" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>371.6</v>
@@ -11093,7 +11187,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>54.9</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H26" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>109.8</v>
@@ -11124,7 +11221,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>142.9</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H27" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>428.70000000000005</v>
@@ -11155,7 +11255,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>120</v>
       </c>
-      <c r="G28" s="69"/>
+      <c r="G28" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.05</v>
+      </c>
       <c r="H28" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>240</v>
@@ -11186,7 +11289,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H29" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.900000000000006</v>
@@ -11217,7 +11323,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>32.9</v>
       </c>
-      <c r="G30" s="69"/>
+      <c r="G30" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H30" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>164.5</v>
@@ -11248,7 +11357,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>180</v>
       </c>
-      <c r="G31" s="69"/>
+      <c r="G31" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H31" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>360</v>
@@ -11279,7 +11391,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>349.9</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H32" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1049.6999999999998</v>
@@ -11310,7 +11425,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>72.5</v>
       </c>
-      <c r="G33" s="69"/>
+      <c r="G33" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H33" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>72.5</v>
@@ -11341,7 +11459,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H34" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1039.5999999999999</v>
@@ -11372,7 +11493,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>25.9</v>
       </c>
-      <c r="G35" s="69"/>
+      <c r="G35" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H35" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>77.699999999999989</v>
@@ -11403,7 +11527,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>145</v>
       </c>
-      <c r="G36" s="69"/>
+      <c r="G36" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.05</v>
+      </c>
       <c r="H36" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>290</v>
@@ -11434,7 +11561,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G37" s="69"/>
+      <c r="G37" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H37" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
@@ -11465,7 +11595,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>349.9</v>
       </c>
-      <c r="G38" s="69"/>
+      <c r="G38" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H38" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1049.6999999999998</v>
@@ -11496,7 +11629,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>89.9</v>
       </c>
-      <c r="G39" s="69"/>
+      <c r="G39" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H39" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>359.6</v>
@@ -11527,7 +11663,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>89.9</v>
       </c>
-      <c r="G40" s="69"/>
+      <c r="G40" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H40" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
@@ -11558,7 +11697,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="G41" s="69"/>
+      <c r="G41" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H41" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>209.70000000000002</v>
@@ -11589,7 +11731,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>145</v>
       </c>
-      <c r="G42" s="69"/>
+      <c r="G42" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H42" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>145</v>
@@ -11620,7 +11765,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>46.9</v>
       </c>
-      <c r="G43" s="69"/>
+      <c r="G43" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H43" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>187.6</v>
@@ -11651,7 +11799,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>72.5</v>
       </c>
-      <c r="G44" s="69"/>
+      <c r="G44" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H44" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>145</v>
@@ -11682,7 +11833,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>140</v>
       </c>
-      <c r="G45" s="69"/>
+      <c r="G45" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H45" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>420</v>
@@ -11713,7 +11867,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>91.4</v>
       </c>
-      <c r="G46" s="69"/>
+      <c r="G46" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H46" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>91.4</v>
@@ -11744,7 +11901,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>349.9</v>
       </c>
-      <c r="G47" s="69"/>
+      <c r="G47" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.05</v>
+      </c>
       <c r="H47" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>699.8</v>
@@ -11775,7 +11935,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="G48" s="69"/>
+      <c r="G48" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H48" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>197.70000000000002</v>
@@ -11806,7 +11969,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>91.4</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H49" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>182.8</v>
@@ -11837,7 +12003,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G50" s="69"/>
+      <c r="G50" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H50" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1039.5999999999999</v>
@@ -11868,7 +12037,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>145</v>
       </c>
-      <c r="G51" s="69"/>
+      <c r="G51" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H51" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>435</v>
@@ -11899,7 +12071,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>142.9</v>
       </c>
-      <c r="G52" s="69"/>
+      <c r="G52" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H52" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>285.8</v>
@@ -11930,7 +12105,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>180</v>
       </c>
-      <c r="G53" s="69"/>
+      <c r="G53" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H53" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>360</v>
@@ -11961,7 +12139,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>42.5</v>
       </c>
-      <c r="G54" s="69"/>
+      <c r="G54" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H54" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>85</v>
@@ -11992,7 +12173,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="G55" s="69"/>
+      <c r="G55" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H55" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.900000000000006</v>
@@ -12023,7 +12207,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>180</v>
       </c>
-      <c r="G56" s="69"/>
+      <c r="G56" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H56" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>180</v>
@@ -12054,7 +12241,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>32.9</v>
       </c>
-      <c r="G57" s="69"/>
+      <c r="G57" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H57" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>98.699999999999989</v>
@@ -12085,7 +12275,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>92.9</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H58" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>371.6</v>
@@ -12116,7 +12309,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G59" s="69"/>
+      <c r="G59" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H59" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>519.79999999999995</v>
@@ -12147,7 +12343,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G60" s="69"/>
+      <c r="G60" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H60" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259.89999999999998</v>
@@ -12178,7 +12377,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>42.5</v>
       </c>
-      <c r="G61" s="69"/>
+      <c r="G61" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H61" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>212.5</v>
@@ -12209,7 +12411,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>32.9</v>
       </c>
-      <c r="G62" s="69"/>
+      <c r="G62" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H62" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
@@ -12240,7 +12445,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>92.9</v>
       </c>
-      <c r="G63" s="69"/>
+      <c r="G63" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H63" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>278.70000000000005</v>
@@ -12271,7 +12479,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>25.9</v>
       </c>
-      <c r="G64" s="69"/>
+      <c r="G64" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.3</v>
+      </c>
       <c r="H64" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259</v>
@@ -12302,7 +12513,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>72.5</v>
       </c>
-      <c r="G65" s="69"/>
+      <c r="G65" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H65" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>72.5</v>
@@ -12333,7 +12547,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>302.89999999999998</v>
       </c>
-      <c r="G66" s="69"/>
+      <c r="G66" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H66" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1211.5999999999999</v>
@@ -12364,7 +12581,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>289.89999999999998</v>
       </c>
-      <c r="G67" s="69"/>
+      <c r="G67" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H67" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>2319.1999999999998</v>
@@ -12395,7 +12615,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>54.9</v>
       </c>
-      <c r="G68" s="69"/>
+      <c r="G68" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H68" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>109.8</v>
@@ -12426,7 +12649,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G69" s="69"/>
+      <c r="G69" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H69" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>79.8</v>
@@ -12457,7 +12683,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>54.9</v>
       </c>
-      <c r="G70" s="69"/>
+      <c r="G70" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H70" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>384.3</v>
@@ -12488,7 +12717,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="G71" s="69"/>
+      <c r="G71" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H71" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1199.5999999999999</v>
@@ -12519,7 +12751,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G72" s="69"/>
+      <c r="G72" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H72" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>779.69999999999993</v>
@@ -12550,7 +12785,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>72.5</v>
       </c>
-      <c r="G73" s="69"/>
+      <c r="G73" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H73" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>652.5</v>
@@ -12581,7 +12819,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>300</v>
       </c>
-      <c r="G74" s="69"/>
+      <c r="G74" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.2</v>
+      </c>
       <c r="H74" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1200</v>
@@ -12612,7 +12853,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="G75" s="69"/>
+      <c r="G75" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H75" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>593.1</v>
@@ -12643,7 +12887,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>92.9</v>
       </c>
-      <c r="G76" s="69"/>
+      <c r="G76" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.3</v>
+      </c>
       <c r="H76" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>929</v>
@@ -12674,7 +12921,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>89.9</v>
       </c>
-      <c r="G77" s="69"/>
+      <c r="G77" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0</v>
+      </c>
       <c r="H77" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>89.9</v>
@@ -12705,7 +12955,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>49.9</v>
       </c>
-      <c r="G78" s="69"/>
+      <c r="G78" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H78" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>99.8</v>
@@ -12736,7 +12989,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>70</v>
       </c>
-      <c r="G79" s="69"/>
+      <c r="G79" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H79" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>560</v>
@@ -12767,7 +13023,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>46.9</v>
       </c>
-      <c r="G80" s="69"/>
+      <c r="G80" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H80" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>234.5</v>
@@ -12798,7 +13057,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>289.89999999999998</v>
       </c>
-      <c r="G81" s="69"/>
+      <c r="G81" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.3</v>
+      </c>
       <c r="H81" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>2899</v>
@@ -12829,7 +13091,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>42.5</v>
       </c>
-      <c r="G82" s="69"/>
+      <c r="G82" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H82" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>42.5</v>
@@ -12860,7 +13125,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>89.9</v>
       </c>
-      <c r="G83" s="69"/>
+      <c r="G83" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.1</v>
+      </c>
       <c r="H83" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
@@ -12891,7 +13159,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>255</v>
       </c>
-      <c r="G84" s="69"/>
+      <c r="G84" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.15</v>
+      </c>
       <c r="H84" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>765</v>
@@ -12922,7 +13193,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>42.5</v>
       </c>
-      <c r="G85" s="69"/>
+      <c r="G85" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H85" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>255</v>
@@ -12953,7 +13227,10 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</f>
         <v>39.9</v>
       </c>
-      <c r="G86" s="69"/>
+      <c r="G86" s="69">
+        <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
+        <v>0.25</v>
+      </c>
       <c r="H86" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>319.2</v>
@@ -12965,7 +13242,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E4:G4">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13027,15 +13304,15 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
@@ -13043,7 +13320,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>160</v>
@@ -13058,7 +13335,7 @@
       </c>
       <c r="C7" s="50" t="str">
         <f>VLOOKUP(C6,TB_Produtos[#All],2,0)</f>
-        <v>Calça jeans</v>
+        <v>Tênis Atitas</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>163</v>
@@ -13070,12 +13347,12 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="48" t="str">
-        <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
-        <v>P</v>
+      <c r="B8" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="50" t="str">
+        <f>VLOOKUP(C6,TB_Produtos[#All],MATCH("Produtos", TB_Produtos[#Headers], 0),0)</f>
+        <v>Tênis Atitas</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>164</v>
@@ -13084,12 +13361,12 @@
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="48" t="str">
-        <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,4,0),"Não encontrado")</f>
-        <v>Vestuário</v>
+      <c r="B9" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="48">
+        <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],3,FALSE),"Não encontrado")</f>
+        <v>37</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>162</v>
@@ -13102,21 +13379,21 @@
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="B10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="48" t="str">
+        <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,4,0),"Não encontrado")</f>
+        <v>Calçado</v>
+      </c>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C11" s="79">
         <f>IFERROR(VLOOKUP($C$6,Produtos!$B$6:$G$66,6,0),"Não encontrado")</f>
-        <v>85.9</v>
-      </c>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="48">
-        <f>VLOOKUP(C6,TB_Produtos[#All],5,FALSE)</f>
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
         <v>166</v>
@@ -13125,11 +13402,11 @@
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
       <c r="B12" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="48" t="str">
-        <f>IF(C11&gt;10,"Estoque OK", IF(C11=0,"Estoque zerado", "Rever estoque"))</f>
-        <v>Estoque OK</v>
+        <v>159</v>
+      </c>
+      <c r="C12" s="48">
+        <f>VLOOKUP(C6,TB_Produtos[#All],5,FALSE)</f>
+        <v>41</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" t="s">
@@ -13138,38 +13415,54 @@
     </row>
     <row r="13" spans="1:9" ht="24.75" thickTop="1" thickBot="1">
       <c r="B13" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="48" t="str">
-        <f>_xlfn.IFS(C11=0,"Estoque Zerado",C11&gt;=C14,"Estoque ok",1, "Rever estoque")</f>
-        <v>Estoque ok</v>
+        <f>IF(C12&gt;10,"Estoque OK", IF(C12=0,"Estoque zerado", "Rever estoque"))</f>
+        <v>Estoque OK</v>
       </c>
       <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="81">
-        <f>VLOOKUP(C9,'Cadastros Auxiliares'!G8:H11,2,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="E14" s="50"/>
+        <v>169</v>
+      </c>
+      <c r="C14" s="48" t="str">
+        <f>_xlfn.IFS(C12=0,"Estoque Zerado",C12&gt;=C15,"Estoque ok",1, "Rever estoque")</f>
+        <v>Estoque ok</v>
+      </c>
+      <c r="E14" s="50" t="str">
+        <f>INDEX(TB_Produtos[Categoria],MATCH(C6,TB_Produtos[Código],0))</f>
+        <v>Calçado</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
       <c r="B15" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="81">
+        <f>VLOOKUP(C10,'Cadastros Auxiliares'!G8:H11,2,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
+      <c r="B16" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="48" t="str">
-        <f>_xlfn.IFS(C13=0,"Estoque Zerado",C13&gt;=VLOOKUP(C9,'Cadastros Auxiliares'!G8:H11,2,FALSE),"Estoque ok",1, "Rever estoque")</f>
+      <c r="C16" s="48" t="str">
+        <f>_xlfn.IFS(C14=0,"Estoque Zerado",C14&gt;=VLOOKUP(C10,'Cadastros Auxiliares'!G8:H11,2,FALSE),"Estoque ok",1, "Rever estoque")</f>
         <v>Estoque ok</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickTop="1"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="17" spans="5:5" ht="15.75" thickTop="1"/>
+    <row r="18" spans="5:5">
+      <c r="E18">
+        <f>MATCH("Produtos", TB_Produtos[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5"/>
+    <row r="20" spans="5:5"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
@@ -13207,8 +13500,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13414,25 +13707,25 @@
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="118" t="s">
-        <v>37</v>
+      <c r="C17" s="82" t="s">
+        <v>38</v>
       </c>
       <c r="D17">
         <f>MATCH(C19,B8:E8,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="83">
         <f>VLOOKUP(C18,B8:E13,MATCH(C19,B8:E8,0),1)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <f>MATCH(C19,B8:E8,0)</f>
-        <v>2</v>
+        <f>MATCH(VLOOKUP(C17,TB_Produtos[],4,0),Desc_Categorias,0)</f>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>172</v>
@@ -13441,7 +13734,7 @@
     <row r="19" spans="3:7">
       <c r="C19" t="str">
         <f>VLOOKUP(C17,TB_Produtos[],4,0)</f>
-        <v>Acessórios</v>
+        <v>Vestuário</v>
       </c>
       <c r="F19">
         <f>MATCH(C18,B8:B13,1)</f>
@@ -13454,13 +13747,13 @@
     <row r="20" spans="3:7">
       <c r="F20">
         <f>INDEX(B8:E13,F19,F18)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="F21">
         <f>INDEX(B8:E13,MATCH(C18,B8:B13,1),MATCH(C19,B8:E8,0))</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -13726,3300 +14019,3300 @@
   <sheetData>
     <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="87"/>
-      <c r="AQ2" s="85" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="89"/>
+      <c r="AQ2" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="87"/>
-      <c r="BK2" s="85" t="s">
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="89"/>
+      <c r="BK2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="86"/>
-      <c r="BO2" s="86"/>
-      <c r="BP2" s="86"/>
-      <c r="BQ2" s="86"/>
-      <c r="BR2" s="86"/>
-      <c r="BS2" s="86"/>
-      <c r="BT2" s="86"/>
-      <c r="BU2" s="86"/>
-      <c r="BV2" s="86"/>
-      <c r="BW2" s="86"/>
-      <c r="BX2" s="86"/>
-      <c r="BY2" s="86"/>
-      <c r="BZ2" s="86"/>
-      <c r="CA2" s="86"/>
-      <c r="CB2" s="87"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
+      <c r="BX2" s="88"/>
+      <c r="BY2" s="88"/>
+      <c r="BZ2" s="88"/>
+      <c r="CA2" s="88"/>
+      <c r="CB2" s="89"/>
     </row>
     <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="88"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="90"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="89"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="89"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="89"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="89"/>
-      <c r="BF3" s="89"/>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="90"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="89"/>
-      <c r="BM3" s="89"/>
-      <c r="BN3" s="89"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
-      <c r="BU3" s="89"/>
-      <c r="BV3" s="89"/>
-      <c r="BW3" s="89"/>
-      <c r="BX3" s="89"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="92"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="91"/>
+      <c r="BD3" s="91"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="91"/>
+      <c r="BG3" s="91"/>
+      <c r="BH3" s="92"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="91"/>
+      <c r="BM3" s="91"/>
+      <c r="BN3" s="91"/>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="91"/>
+      <c r="BT3" s="91"/>
+      <c r="BU3" s="91"/>
+      <c r="BV3" s="91"/>
+      <c r="BW3" s="91"/>
+      <c r="BX3" s="91"/>
+      <c r="BY3" s="91"/>
+      <c r="BZ3" s="91"/>
+      <c r="CA3" s="91"/>
+      <c r="CB3" s="92"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="91">
+      <c r="W4" s="102">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93"/>
-      <c r="AQ4" s="91">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="104"/>
+      <c r="AQ4" s="102">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="93"/>
-      <c r="BK4" s="100">
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="104"/>
+      <c r="BK4" s="111">
         <f>SUM(TB_Vendas[Total])</f>
         <v>33304.799999999988</v>
       </c>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="102"/>
+      <c r="BL4" s="112"/>
+      <c r="BM4" s="112"/>
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="112"/>
+      <c r="BP4" s="112"/>
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="112"/>
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="112"/>
+      <c r="BV4" s="112"/>
+      <c r="BW4" s="112"/>
+      <c r="BX4" s="112"/>
+      <c r="BY4" s="112"/>
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="112"/>
+      <c r="CB4" s="113"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="95"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="96"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="104"/>
-      <c r="BO5" s="104"/>
-      <c r="BP5" s="104"/>
-      <c r="BQ5" s="104"/>
-      <c r="BR5" s="104"/>
-      <c r="BS5" s="104"/>
-      <c r="BT5" s="104"/>
-      <c r="BU5" s="104"/>
-      <c r="BV5" s="104"/>
-      <c r="BW5" s="104"/>
-      <c r="BX5" s="104"/>
-      <c r="BY5" s="104"/>
-      <c r="BZ5" s="104"/>
-      <c r="CA5" s="104"/>
-      <c r="CB5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="107"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="106"/>
+      <c r="BC5" s="106"/>
+      <c r="BD5" s="106"/>
+      <c r="BE5" s="106"/>
+      <c r="BF5" s="106"/>
+      <c r="BG5" s="106"/>
+      <c r="BH5" s="107"/>
+      <c r="BK5" s="114"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="115"/>
+      <c r="BO5" s="115"/>
+      <c r="BP5" s="115"/>
+      <c r="BQ5" s="115"/>
+      <c r="BR5" s="115"/>
+      <c r="BS5" s="115"/>
+      <c r="BT5" s="115"/>
+      <c r="BU5" s="115"/>
+      <c r="BV5" s="115"/>
+      <c r="BW5" s="115"/>
+      <c r="BX5" s="115"/>
+      <c r="BY5" s="115"/>
+      <c r="BZ5" s="115"/>
+      <c r="CA5" s="115"/>
+      <c r="CB5" s="116"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="95"/>
-      <c r="AN6" s="96"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="96"/>
-      <c r="BK6" s="103"/>
-      <c r="BL6" s="104"/>
-      <c r="BM6" s="104"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="104"/>
-      <c r="BQ6" s="104"/>
-      <c r="BR6" s="104"/>
-      <c r="BS6" s="104"/>
-      <c r="BT6" s="104"/>
-      <c r="BU6" s="104"/>
-      <c r="BV6" s="104"/>
-      <c r="BW6" s="104"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="104"/>
-      <c r="BZ6" s="104"/>
-      <c r="CA6" s="104"/>
-      <c r="CB6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="107"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="106"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+      <c r="BC6" s="106"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="106"/>
+      <c r="BF6" s="106"/>
+      <c r="BG6" s="106"/>
+      <c r="BH6" s="107"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="115"/>
+      <c r="BP6" s="115"/>
+      <c r="BQ6" s="115"/>
+      <c r="BR6" s="115"/>
+      <c r="BS6" s="115"/>
+      <c r="BT6" s="115"/>
+      <c r="BU6" s="115"/>
+      <c r="BV6" s="115"/>
+      <c r="BW6" s="115"/>
+      <c r="BX6" s="115"/>
+      <c r="BY6" s="115"/>
+      <c r="BZ6" s="115"/>
+      <c r="CA6" s="115"/>
+      <c r="CB6" s="116"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="97"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="99"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="99"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="107"/>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="109"/>
+      <c r="AI7" s="109"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="109"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="110"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="109"/>
+      <c r="AW7" s="109"/>
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="109"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="109"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="109"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="110"/>
+      <c r="BK7" s="117"/>
+      <c r="BL7" s="118"/>
+      <c r="BM7" s="118"/>
+      <c r="BN7" s="118"/>
+      <c r="BO7" s="118"/>
+      <c r="BP7" s="118"/>
+      <c r="BQ7" s="118"/>
+      <c r="BR7" s="118"/>
+      <c r="BS7" s="118"/>
+      <c r="BT7" s="118"/>
+      <c r="BU7" s="118"/>
+      <c r="BV7" s="118"/>
+      <c r="BW7" s="118"/>
+      <c r="BX7" s="118"/>
+      <c r="BY7" s="118"/>
+      <c r="BZ7" s="118"/>
+      <c r="CA7" s="118"/>
+      <c r="CB7" s="119"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="86"/>
-      <c r="BF9" s="86"/>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="86"/>
-      <c r="BM9" s="86"/>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="86"/>
-      <c r="CA9" s="86"/>
-      <c r="CB9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="88"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="88"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="88"/>
+      <c r="AV9" s="88"/>
+      <c r="AW9" s="88"/>
+      <c r="AX9" s="88"/>
+      <c r="AY9" s="88"/>
+      <c r="AZ9" s="88"/>
+      <c r="BA9" s="88"/>
+      <c r="BB9" s="88"/>
+      <c r="BC9" s="88"/>
+      <c r="BD9" s="88"/>
+      <c r="BE9" s="88"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="88"/>
+      <c r="BH9" s="88"/>
+      <c r="BI9" s="88"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="88"/>
+      <c r="BL9" s="88"/>
+      <c r="BM9" s="88"/>
+      <c r="BN9" s="88"/>
+      <c r="BO9" s="88"/>
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="88"/>
+      <c r="BR9" s="88"/>
+      <c r="BS9" s="88"/>
+      <c r="BT9" s="88"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
+      <c r="BW9" s="88"/>
+      <c r="BX9" s="88"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CB9" s="89"/>
     </row>
     <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="89"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="89"/>
-      <c r="BR10" s="89"/>
-      <c r="BS10" s="89"/>
-      <c r="BT10" s="89"/>
-      <c r="BU10" s="89"/>
-      <c r="BV10" s="89"/>
-      <c r="BW10" s="89"/>
-      <c r="BX10" s="89"/>
-      <c r="BY10" s="89"/>
-      <c r="BZ10" s="89"/>
-      <c r="CA10" s="89"/>
-      <c r="CB10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="91"/>
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="91"/>
+      <c r="BT10" s="91"/>
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="91"/>
+      <c r="CA10" s="91"/>
+      <c r="CB10" s="92"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="110"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="110"/>
-      <c r="BV11" s="110"/>
-      <c r="BW11" s="110"/>
-      <c r="BX11" s="110"/>
-      <c r="BY11" s="110"/>
-      <c r="BZ11" s="110"/>
-      <c r="CA11" s="110"/>
-      <c r="CB11" s="111"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="94"/>
+      <c r="BH11" s="94"/>
+      <c r="BI11" s="94"/>
+      <c r="BJ11" s="94"/>
+      <c r="BK11" s="94"/>
+      <c r="BL11" s="94"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="94"/>
+      <c r="BO11" s="94"/>
+      <c r="BP11" s="94"/>
+      <c r="BQ11" s="94"/>
+      <c r="BR11" s="94"/>
+      <c r="BS11" s="94"/>
+      <c r="BT11" s="94"/>
+      <c r="BU11" s="94"/>
+      <c r="BV11" s="94"/>
+      <c r="BW11" s="94"/>
+      <c r="BX11" s="94"/>
+      <c r="BY11" s="94"/>
+      <c r="BZ11" s="94"/>
+      <c r="CA11" s="94"/>
+      <c r="CB11" s="95"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="113"/>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="113"/>
-      <c r="BI12" s="113"/>
-      <c r="BJ12" s="113"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="113"/>
-      <c r="BP12" s="113"/>
-      <c r="BQ12" s="113"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="113"/>
-      <c r="BU12" s="113"/>
-      <c r="BV12" s="113"/>
-      <c r="BW12" s="113"/>
-      <c r="BX12" s="113"/>
-      <c r="BY12" s="113"/>
-      <c r="BZ12" s="113"/>
-      <c r="CA12" s="113"/>
-      <c r="CB12" s="114"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="97"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="97"/>
+      <c r="AW12" s="97"/>
+      <c r="AX12" s="97"/>
+      <c r="AY12" s="97"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="97"/>
+      <c r="BB12" s="97"/>
+      <c r="BC12" s="97"/>
+      <c r="BD12" s="97"/>
+      <c r="BE12" s="97"/>
+      <c r="BF12" s="97"/>
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="97"/>
+      <c r="BI12" s="97"/>
+      <c r="BJ12" s="97"/>
+      <c r="BK12" s="97"/>
+      <c r="BL12" s="97"/>
+      <c r="BM12" s="97"/>
+      <c r="BN12" s="97"/>
+      <c r="BO12" s="97"/>
+      <c r="BP12" s="97"/>
+      <c r="BQ12" s="97"/>
+      <c r="BR12" s="97"/>
+      <c r="BS12" s="97"/>
+      <c r="BT12" s="97"/>
+      <c r="BU12" s="97"/>
+      <c r="BV12" s="97"/>
+      <c r="BW12" s="97"/>
+      <c r="BX12" s="97"/>
+      <c r="BY12" s="97"/>
+      <c r="BZ12" s="97"/>
+      <c r="CA12" s="97"/>
+      <c r="CB12" s="98"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="113"/>
-      <c r="BI13" s="113"/>
-      <c r="BJ13" s="113"/>
-      <c r="BK13" s="113"/>
-      <c r="BL13" s="113"/>
-      <c r="BM13" s="113"/>
-      <c r="BN13" s="113"/>
-      <c r="BO13" s="113"/>
-      <c r="BP13" s="113"/>
-      <c r="BQ13" s="113"/>
-      <c r="BR13" s="113"/>
-      <c r="BS13" s="113"/>
-      <c r="BT13" s="113"/>
-      <c r="BU13" s="113"/>
-      <c r="BV13" s="113"/>
-      <c r="BW13" s="113"/>
-      <c r="BX13" s="113"/>
-      <c r="BY13" s="113"/>
-      <c r="BZ13" s="113"/>
-      <c r="CA13" s="113"/>
-      <c r="CB13" s="114"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="97"/>
+      <c r="AY13" s="97"/>
+      <c r="AZ13" s="97"/>
+      <c r="BA13" s="97"/>
+      <c r="BB13" s="97"/>
+      <c r="BC13" s="97"/>
+      <c r="BD13" s="97"/>
+      <c r="BE13" s="97"/>
+      <c r="BF13" s="97"/>
+      <c r="BG13" s="97"/>
+      <c r="BH13" s="97"/>
+      <c r="BI13" s="97"/>
+      <c r="BJ13" s="97"/>
+      <c r="BK13" s="97"/>
+      <c r="BL13" s="97"/>
+      <c r="BM13" s="97"/>
+      <c r="BN13" s="97"/>
+      <c r="BO13" s="97"/>
+      <c r="BP13" s="97"/>
+      <c r="BQ13" s="97"/>
+      <c r="BR13" s="97"/>
+      <c r="BS13" s="97"/>
+      <c r="BT13" s="97"/>
+      <c r="BU13" s="97"/>
+      <c r="BV13" s="97"/>
+      <c r="BW13" s="97"/>
+      <c r="BX13" s="97"/>
+      <c r="BY13" s="97"/>
+      <c r="BZ13" s="97"/>
+      <c r="CA13" s="97"/>
+      <c r="CB13" s="98"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="113"/>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="113"/>
-      <c r="BI14" s="113"/>
-      <c r="BJ14" s="113"/>
-      <c r="BK14" s="113"/>
-      <c r="BL14" s="113"/>
-      <c r="BM14" s="113"/>
-      <c r="BN14" s="113"/>
-      <c r="BO14" s="113"/>
-      <c r="BP14" s="113"/>
-      <c r="BQ14" s="113"/>
-      <c r="BR14" s="113"/>
-      <c r="BS14" s="113"/>
-      <c r="BT14" s="113"/>
-      <c r="BU14" s="113"/>
-      <c r="BV14" s="113"/>
-      <c r="BW14" s="113"/>
-      <c r="BX14" s="113"/>
-      <c r="BY14" s="113"/>
-      <c r="BZ14" s="113"/>
-      <c r="CA14" s="113"/>
-      <c r="CB14" s="114"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="97"/>
+      <c r="AW14" s="97"/>
+      <c r="AX14" s="97"/>
+      <c r="AY14" s="97"/>
+      <c r="AZ14" s="97"/>
+      <c r="BA14" s="97"/>
+      <c r="BB14" s="97"/>
+      <c r="BC14" s="97"/>
+      <c r="BD14" s="97"/>
+      <c r="BE14" s="97"/>
+      <c r="BF14" s="97"/>
+      <c r="BG14" s="97"/>
+      <c r="BH14" s="97"/>
+      <c r="BI14" s="97"/>
+      <c r="BJ14" s="97"/>
+      <c r="BK14" s="97"/>
+      <c r="BL14" s="97"/>
+      <c r="BM14" s="97"/>
+      <c r="BN14" s="97"/>
+      <c r="BO14" s="97"/>
+      <c r="BP14" s="97"/>
+      <c r="BQ14" s="97"/>
+      <c r="BR14" s="97"/>
+      <c r="BS14" s="97"/>
+      <c r="BT14" s="97"/>
+      <c r="BU14" s="97"/>
+      <c r="BV14" s="97"/>
+      <c r="BW14" s="97"/>
+      <c r="BX14" s="97"/>
+      <c r="BY14" s="97"/>
+      <c r="BZ14" s="97"/>
+      <c r="CA14" s="97"/>
+      <c r="CB14" s="98"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="113"/>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="113"/>
-      <c r="BI15" s="113"/>
-      <c r="BJ15" s="113"/>
-      <c r="BK15" s="113"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
-      <c r="BN15" s="113"/>
-      <c r="BO15" s="113"/>
-      <c r="BP15" s="113"/>
-      <c r="BQ15" s="113"/>
-      <c r="BR15" s="113"/>
-      <c r="BS15" s="113"/>
-      <c r="BT15" s="113"/>
-      <c r="BU15" s="113"/>
-      <c r="BV15" s="113"/>
-      <c r="BW15" s="113"/>
-      <c r="BX15" s="113"/>
-      <c r="BY15" s="113"/>
-      <c r="BZ15" s="113"/>
-      <c r="CA15" s="113"/>
-      <c r="CB15" s="114"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="97"/>
+      <c r="AW15" s="97"/>
+      <c r="AX15" s="97"/>
+      <c r="AY15" s="97"/>
+      <c r="AZ15" s="97"/>
+      <c r="BA15" s="97"/>
+      <c r="BB15" s="97"/>
+      <c r="BC15" s="97"/>
+      <c r="BD15" s="97"/>
+      <c r="BE15" s="97"/>
+      <c r="BF15" s="97"/>
+      <c r="BG15" s="97"/>
+      <c r="BH15" s="97"/>
+      <c r="BI15" s="97"/>
+      <c r="BJ15" s="97"/>
+      <c r="BK15" s="97"/>
+      <c r="BL15" s="97"/>
+      <c r="BM15" s="97"/>
+      <c r="BN15" s="97"/>
+      <c r="BO15" s="97"/>
+      <c r="BP15" s="97"/>
+      <c r="BQ15" s="97"/>
+      <c r="BR15" s="97"/>
+      <c r="BS15" s="97"/>
+      <c r="BT15" s="97"/>
+      <c r="BU15" s="97"/>
+      <c r="BV15" s="97"/>
+      <c r="BW15" s="97"/>
+      <c r="BX15" s="97"/>
+      <c r="BY15" s="97"/>
+      <c r="BZ15" s="97"/>
+      <c r="CA15" s="97"/>
+      <c r="CB15" s="98"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
-      <c r="BN16" s="113"/>
-      <c r="BO16" s="113"/>
-      <c r="BP16" s="113"/>
-      <c r="BQ16" s="113"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="113"/>
-      <c r="BU16" s="113"/>
-      <c r="BV16" s="113"/>
-      <c r="BW16" s="113"/>
-      <c r="BX16" s="113"/>
-      <c r="BY16" s="113"/>
-      <c r="BZ16" s="113"/>
-      <c r="CA16" s="113"/>
-      <c r="CB16" s="114"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="97"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="97"/>
+      <c r="BJ16" s="97"/>
+      <c r="BK16" s="97"/>
+      <c r="BL16" s="97"/>
+      <c r="BM16" s="97"/>
+      <c r="BN16" s="97"/>
+      <c r="BO16" s="97"/>
+      <c r="BP16" s="97"/>
+      <c r="BQ16" s="97"/>
+      <c r="BR16" s="97"/>
+      <c r="BS16" s="97"/>
+      <c r="BT16" s="97"/>
+      <c r="BU16" s="97"/>
+      <c r="BV16" s="97"/>
+      <c r="BW16" s="97"/>
+      <c r="BX16" s="97"/>
+      <c r="BY16" s="97"/>
+      <c r="BZ16" s="97"/>
+      <c r="CA16" s="97"/>
+      <c r="CB16" s="98"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
-      <c r="BN17" s="113"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="113"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="113"/>
-      <c r="BU17" s="113"/>
-      <c r="BV17" s="113"/>
-      <c r="BW17" s="113"/>
-      <c r="BX17" s="113"/>
-      <c r="BY17" s="113"/>
-      <c r="BZ17" s="113"/>
-      <c r="CA17" s="113"/>
-      <c r="CB17" s="114"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="97"/>
+      <c r="AW17" s="97"/>
+      <c r="AX17" s="97"/>
+      <c r="AY17" s="97"/>
+      <c r="AZ17" s="97"/>
+      <c r="BA17" s="97"/>
+      <c r="BB17" s="97"/>
+      <c r="BC17" s="97"/>
+      <c r="BD17" s="97"/>
+      <c r="BE17" s="97"/>
+      <c r="BF17" s="97"/>
+      <c r="BG17" s="97"/>
+      <c r="BH17" s="97"/>
+      <c r="BI17" s="97"/>
+      <c r="BJ17" s="97"/>
+      <c r="BK17" s="97"/>
+      <c r="BL17" s="97"/>
+      <c r="BM17" s="97"/>
+      <c r="BN17" s="97"/>
+      <c r="BO17" s="97"/>
+      <c r="BP17" s="97"/>
+      <c r="BQ17" s="97"/>
+      <c r="BR17" s="97"/>
+      <c r="BS17" s="97"/>
+      <c r="BT17" s="97"/>
+      <c r="BU17" s="97"/>
+      <c r="BV17" s="97"/>
+      <c r="BW17" s="97"/>
+      <c r="BX17" s="97"/>
+      <c r="BY17" s="97"/>
+      <c r="BZ17" s="97"/>
+      <c r="CA17" s="97"/>
+      <c r="CB17" s="98"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="113"/>
-      <c r="BK18" s="113"/>
-      <c r="BL18" s="113"/>
-      <c r="BM18" s="113"/>
-      <c r="BN18" s="113"/>
-      <c r="BO18" s="113"/>
-      <c r="BP18" s="113"/>
-      <c r="BQ18" s="113"/>
-      <c r="BR18" s="113"/>
-      <c r="BS18" s="113"/>
-      <c r="BT18" s="113"/>
-      <c r="BU18" s="113"/>
-      <c r="BV18" s="113"/>
-      <c r="BW18" s="113"/>
-      <c r="BX18" s="113"/>
-      <c r="BY18" s="113"/>
-      <c r="BZ18" s="113"/>
-      <c r="CA18" s="113"/>
-      <c r="CB18" s="114"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="97"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="97"/>
+      <c r="AZ18" s="97"/>
+      <c r="BA18" s="97"/>
+      <c r="BB18" s="97"/>
+      <c r="BC18" s="97"/>
+      <c r="BD18" s="97"/>
+      <c r="BE18" s="97"/>
+      <c r="BF18" s="97"/>
+      <c r="BG18" s="97"/>
+      <c r="BH18" s="97"/>
+      <c r="BI18" s="97"/>
+      <c r="BJ18" s="97"/>
+      <c r="BK18" s="97"/>
+      <c r="BL18" s="97"/>
+      <c r="BM18" s="97"/>
+      <c r="BN18" s="97"/>
+      <c r="BO18" s="97"/>
+      <c r="BP18" s="97"/>
+      <c r="BQ18" s="97"/>
+      <c r="BR18" s="97"/>
+      <c r="BS18" s="97"/>
+      <c r="BT18" s="97"/>
+      <c r="BU18" s="97"/>
+      <c r="BV18" s="97"/>
+      <c r="BW18" s="97"/>
+      <c r="BX18" s="97"/>
+      <c r="BY18" s="97"/>
+      <c r="BZ18" s="97"/>
+      <c r="CA18" s="97"/>
+      <c r="CB18" s="98"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="113"/>
-      <c r="BG19" s="113"/>
-      <c r="BH19" s="113"/>
-      <c r="BI19" s="113"/>
-      <c r="BJ19" s="113"/>
-      <c r="BK19" s="113"/>
-      <c r="BL19" s="113"/>
-      <c r="BM19" s="113"/>
-      <c r="BN19" s="113"/>
-      <c r="BO19" s="113"/>
-      <c r="BP19" s="113"/>
-      <c r="BQ19" s="113"/>
-      <c r="BR19" s="113"/>
-      <c r="BS19" s="113"/>
-      <c r="BT19" s="113"/>
-      <c r="BU19" s="113"/>
-      <c r="BV19" s="113"/>
-      <c r="BW19" s="113"/>
-      <c r="BX19" s="113"/>
-      <c r="BY19" s="113"/>
-      <c r="BZ19" s="113"/>
-      <c r="CA19" s="113"/>
-      <c r="CB19" s="114"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="97"/>
+      <c r="AI19" s="97"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="97"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="97"/>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="97"/>
+      <c r="AW19" s="97"/>
+      <c r="AX19" s="97"/>
+      <c r="AY19" s="97"/>
+      <c r="AZ19" s="97"/>
+      <c r="BA19" s="97"/>
+      <c r="BB19" s="97"/>
+      <c r="BC19" s="97"/>
+      <c r="BD19" s="97"/>
+      <c r="BE19" s="97"/>
+      <c r="BF19" s="97"/>
+      <c r="BG19" s="97"/>
+      <c r="BH19" s="97"/>
+      <c r="BI19" s="97"/>
+      <c r="BJ19" s="97"/>
+      <c r="BK19" s="97"/>
+      <c r="BL19" s="97"/>
+      <c r="BM19" s="97"/>
+      <c r="BN19" s="97"/>
+      <c r="BO19" s="97"/>
+      <c r="BP19" s="97"/>
+      <c r="BQ19" s="97"/>
+      <c r="BR19" s="97"/>
+      <c r="BS19" s="97"/>
+      <c r="BT19" s="97"/>
+      <c r="BU19" s="97"/>
+      <c r="BV19" s="97"/>
+      <c r="BW19" s="97"/>
+      <c r="BX19" s="97"/>
+      <c r="BY19" s="97"/>
+      <c r="BZ19" s="97"/>
+      <c r="CA19" s="97"/>
+      <c r="CB19" s="98"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="113"/>
-      <c r="BM20" s="113"/>
-      <c r="BN20" s="113"/>
-      <c r="BO20" s="113"/>
-      <c r="BP20" s="113"/>
-      <c r="BQ20" s="113"/>
-      <c r="BR20" s="113"/>
-      <c r="BS20" s="113"/>
-      <c r="BT20" s="113"/>
-      <c r="BU20" s="113"/>
-      <c r="BV20" s="113"/>
-      <c r="BW20" s="113"/>
-      <c r="BX20" s="113"/>
-      <c r="BY20" s="113"/>
-      <c r="BZ20" s="113"/>
-      <c r="CA20" s="113"/>
-      <c r="CB20" s="114"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="97"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="97"/>
+      <c r="AY20" s="97"/>
+      <c r="AZ20" s="97"/>
+      <c r="BA20" s="97"/>
+      <c r="BB20" s="97"/>
+      <c r="BC20" s="97"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="97"/>
+      <c r="BH20" s="97"/>
+      <c r="BI20" s="97"/>
+      <c r="BJ20" s="97"/>
+      <c r="BK20" s="97"/>
+      <c r="BL20" s="97"/>
+      <c r="BM20" s="97"/>
+      <c r="BN20" s="97"/>
+      <c r="BO20" s="97"/>
+      <c r="BP20" s="97"/>
+      <c r="BQ20" s="97"/>
+      <c r="BR20" s="97"/>
+      <c r="BS20" s="97"/>
+      <c r="BT20" s="97"/>
+      <c r="BU20" s="97"/>
+      <c r="BV20" s="97"/>
+      <c r="BW20" s="97"/>
+      <c r="BX20" s="97"/>
+      <c r="BY20" s="97"/>
+      <c r="BZ20" s="97"/>
+      <c r="CA20" s="97"/>
+      <c r="CB20" s="98"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="113"/>
-      <c r="BU21" s="113"/>
-      <c r="BV21" s="113"/>
-      <c r="BW21" s="113"/>
-      <c r="BX21" s="113"/>
-      <c r="BY21" s="113"/>
-      <c r="BZ21" s="113"/>
-      <c r="CA21" s="113"/>
-      <c r="CB21" s="114"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="97"/>
+      <c r="AW21" s="97"/>
+      <c r="AX21" s="97"/>
+      <c r="AY21" s="97"/>
+      <c r="AZ21" s="97"/>
+      <c r="BA21" s="97"/>
+      <c r="BB21" s="97"/>
+      <c r="BC21" s="97"/>
+      <c r="BD21" s="97"/>
+      <c r="BE21" s="97"/>
+      <c r="BF21" s="97"/>
+      <c r="BG21" s="97"/>
+      <c r="BH21" s="97"/>
+      <c r="BI21" s="97"/>
+      <c r="BJ21" s="97"/>
+      <c r="BK21" s="97"/>
+      <c r="BL21" s="97"/>
+      <c r="BM21" s="97"/>
+      <c r="BN21" s="97"/>
+      <c r="BO21" s="97"/>
+      <c r="BP21" s="97"/>
+      <c r="BQ21" s="97"/>
+      <c r="BR21" s="97"/>
+      <c r="BS21" s="97"/>
+      <c r="BT21" s="97"/>
+      <c r="BU21" s="97"/>
+      <c r="BV21" s="97"/>
+      <c r="BW21" s="97"/>
+      <c r="BX21" s="97"/>
+      <c r="BY21" s="97"/>
+      <c r="BZ21" s="97"/>
+      <c r="CA21" s="97"/>
+      <c r="CB21" s="98"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="113"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="113"/>
-      <c r="BS22" s="113"/>
-      <c r="BT22" s="113"/>
-      <c r="BU22" s="113"/>
-      <c r="BV22" s="113"/>
-      <c r="BW22" s="113"/>
-      <c r="BX22" s="113"/>
-      <c r="BY22" s="113"/>
-      <c r="BZ22" s="113"/>
-      <c r="CA22" s="113"/>
-      <c r="CB22" s="114"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="97"/>
+      <c r="AY22" s="97"/>
+      <c r="AZ22" s="97"/>
+      <c r="BA22" s="97"/>
+      <c r="BB22" s="97"/>
+      <c r="BC22" s="97"/>
+      <c r="BD22" s="97"/>
+      <c r="BE22" s="97"/>
+      <c r="BF22" s="97"/>
+      <c r="BG22" s="97"/>
+      <c r="BH22" s="97"/>
+      <c r="BI22" s="97"/>
+      <c r="BJ22" s="97"/>
+      <c r="BK22" s="97"/>
+      <c r="BL22" s="97"/>
+      <c r="BM22" s="97"/>
+      <c r="BN22" s="97"/>
+      <c r="BO22" s="97"/>
+      <c r="BP22" s="97"/>
+      <c r="BQ22" s="97"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
+      <c r="BV22" s="97"/>
+      <c r="BW22" s="97"/>
+      <c r="BX22" s="97"/>
+      <c r="BY22" s="97"/>
+      <c r="BZ22" s="97"/>
+      <c r="CA22" s="97"/>
+      <c r="CB22" s="98"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="113"/>
-      <c r="BQ23" s="113"/>
-      <c r="BR23" s="113"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="113"/>
-      <c r="BU23" s="113"/>
-      <c r="BV23" s="113"/>
-      <c r="BW23" s="113"/>
-      <c r="BX23" s="113"/>
-      <c r="BY23" s="113"/>
-      <c r="BZ23" s="113"/>
-      <c r="CA23" s="113"/>
-      <c r="CB23" s="114"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="97"/>
+      <c r="AW23" s="97"/>
+      <c r="AX23" s="97"/>
+      <c r="AY23" s="97"/>
+      <c r="AZ23" s="97"/>
+      <c r="BA23" s="97"/>
+      <c r="BB23" s="97"/>
+      <c r="BC23" s="97"/>
+      <c r="BD23" s="97"/>
+      <c r="BE23" s="97"/>
+      <c r="BF23" s="97"/>
+      <c r="BG23" s="97"/>
+      <c r="BH23" s="97"/>
+      <c r="BI23" s="97"/>
+      <c r="BJ23" s="97"/>
+      <c r="BK23" s="97"/>
+      <c r="BL23" s="97"/>
+      <c r="BM23" s="97"/>
+      <c r="BN23" s="97"/>
+      <c r="BO23" s="97"/>
+      <c r="BP23" s="97"/>
+      <c r="BQ23" s="97"/>
+      <c r="BR23" s="97"/>
+      <c r="BS23" s="97"/>
+      <c r="BT23" s="97"/>
+      <c r="BU23" s="97"/>
+      <c r="BV23" s="97"/>
+      <c r="BW23" s="97"/>
+      <c r="BX23" s="97"/>
+      <c r="BY23" s="97"/>
+      <c r="BZ23" s="97"/>
+      <c r="CA23" s="97"/>
+      <c r="CB23" s="98"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="116"/>
-      <c r="AS24" s="116"/>
-      <c r="AT24" s="116"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="116"/>
-      <c r="AW24" s="116"/>
-      <c r="AX24" s="116"/>
-      <c r="AY24" s="116"/>
-      <c r="AZ24" s="116"/>
-      <c r="BA24" s="116"/>
-      <c r="BB24" s="116"/>
-      <c r="BC24" s="116"/>
-      <c r="BD24" s="116"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="116"/>
-      <c r="BG24" s="116"/>
-      <c r="BH24" s="116"/>
-      <c r="BI24" s="116"/>
-      <c r="BJ24" s="116"/>
-      <c r="BK24" s="116"/>
-      <c r="BL24" s="116"/>
-      <c r="BM24" s="116"/>
-      <c r="BN24" s="116"/>
-      <c r="BO24" s="116"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="116"/>
-      <c r="BS24" s="116"/>
-      <c r="BT24" s="116"/>
-      <c r="BU24" s="116"/>
-      <c r="BV24" s="116"/>
-      <c r="BW24" s="116"/>
-      <c r="BX24" s="116"/>
-      <c r="BY24" s="116"/>
-      <c r="BZ24" s="116"/>
-      <c r="CA24" s="116"/>
-      <c r="CB24" s="117"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="100"/>
+      <c r="BE24" s="100"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="100"/>
+      <c r="BH24" s="100"/>
+      <c r="BI24" s="100"/>
+      <c r="BJ24" s="100"/>
+      <c r="BK24" s="100"/>
+      <c r="BL24" s="100"/>
+      <c r="BM24" s="100"/>
+      <c r="BN24" s="100"/>
+      <c r="BO24" s="100"/>
+      <c r="BP24" s="100"/>
+      <c r="BQ24" s="100"/>
+      <c r="BR24" s="100"/>
+      <c r="BS24" s="100"/>
+      <c r="BT24" s="100"/>
+      <c r="BU24" s="100"/>
+      <c r="BV24" s="100"/>
+      <c r="BW24" s="100"/>
+      <c r="BX24" s="100"/>
+      <c r="BY24" s="100"/>
+      <c r="BZ24" s="100"/>
+      <c r="CA24" s="100"/>
+      <c r="CB24" s="101"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="88"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="88"/>
+      <c r="AN26" s="89"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
-      <c r="AQ26" s="85" t="s">
+      <c r="AQ26" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="86"/>
-      <c r="BC26" s="86"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="86"/>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="86"/>
-      <c r="BM26" s="86"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="86"/>
-      <c r="BP26" s="86"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="86"/>
-      <c r="BS26" s="86"/>
-      <c r="BT26" s="86"/>
-      <c r="BU26" s="86"/>
-      <c r="BV26" s="86"/>
-      <c r="BW26" s="86"/>
-      <c r="BX26" s="86"/>
-      <c r="BY26" s="86"/>
-      <c r="BZ26" s="86"/>
-      <c r="CA26" s="86"/>
-      <c r="CB26" s="87"/>
+      <c r="AR26" s="88"/>
+      <c r="AS26" s="88"/>
+      <c r="AT26" s="88"/>
+      <c r="AU26" s="88"/>
+      <c r="AV26" s="88"/>
+      <c r="AW26" s="88"/>
+      <c r="AX26" s="88"/>
+      <c r="AY26" s="88"/>
+      <c r="AZ26" s="88"/>
+      <c r="BA26" s="88"/>
+      <c r="BB26" s="88"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="88"/>
+      <c r="BE26" s="88"/>
+      <c r="BF26" s="88"/>
+      <c r="BG26" s="88"/>
+      <c r="BH26" s="88"/>
+      <c r="BI26" s="88"/>
+      <c r="BJ26" s="88"/>
+      <c r="BK26" s="88"/>
+      <c r="BL26" s="88"/>
+      <c r="BM26" s="88"/>
+      <c r="BN26" s="88"/>
+      <c r="BO26" s="88"/>
+      <c r="BP26" s="88"/>
+      <c r="BQ26" s="88"/>
+      <c r="BR26" s="88"/>
+      <c r="BS26" s="88"/>
+      <c r="BT26" s="88"/>
+      <c r="BU26" s="88"/>
+      <c r="BV26" s="88"/>
+      <c r="BW26" s="88"/>
+      <c r="BX26" s="88"/>
+      <c r="BY26" s="88"/>
+      <c r="BZ26" s="88"/>
+      <c r="CA26" s="88"/>
+      <c r="CB26" s="89"/>
     </row>
     <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="92"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="89"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="89"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="89"/>
-      <c r="BC27" s="89"/>
-      <c r="BD27" s="89"/>
-      <c r="BE27" s="89"/>
-      <c r="BF27" s="89"/>
-      <c r="BG27" s="89"/>
-      <c r="BH27" s="89"/>
-      <c r="BI27" s="89"/>
-      <c r="BJ27" s="89"/>
-      <c r="BK27" s="89"/>
-      <c r="BL27" s="89"/>
-      <c r="BM27" s="89"/>
-      <c r="BN27" s="89"/>
-      <c r="BO27" s="89"/>
-      <c r="BP27" s="89"/>
-      <c r="BQ27" s="89"/>
-      <c r="BR27" s="89"/>
-      <c r="BS27" s="89"/>
-      <c r="BT27" s="89"/>
-      <c r="BU27" s="89"/>
-      <c r="BV27" s="89"/>
-      <c r="BW27" s="89"/>
-      <c r="BX27" s="89"/>
-      <c r="BY27" s="89"/>
-      <c r="BZ27" s="89"/>
-      <c r="CA27" s="89"/>
-      <c r="CB27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="91"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="91"/>
+      <c r="BJ27" s="91"/>
+      <c r="BK27" s="91"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="91"/>
+      <c r="BN27" s="91"/>
+      <c r="BO27" s="91"/>
+      <c r="BP27" s="91"/>
+      <c r="BQ27" s="91"/>
+      <c r="BR27" s="91"/>
+      <c r="BS27" s="91"/>
+      <c r="BT27" s="91"/>
+      <c r="BU27" s="91"/>
+      <c r="BV27" s="91"/>
+      <c r="BW27" s="91"/>
+      <c r="BX27" s="91"/>
+      <c r="BY27" s="91"/>
+      <c r="BZ27" s="91"/>
+      <c r="CA27" s="91"/>
+      <c r="CB27" s="92"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="111"/>
-      <c r="AQ28" s="109"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="110"/>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="110"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="110"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="110"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
-      <c r="BK28" s="110"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="110"/>
-      <c r="BP28" s="110"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="110"/>
-      <c r="BU28" s="110"/>
-      <c r="BV28" s="110"/>
-      <c r="BW28" s="110"/>
-      <c r="BX28" s="110"/>
-      <c r="BY28" s="110"/>
-      <c r="BZ28" s="110"/>
-      <c r="CA28" s="110"/>
-      <c r="CB28" s="111"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="95"/>
+      <c r="AQ28" s="93"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="94"/>
+      <c r="BB28" s="94"/>
+      <c r="BC28" s="94"/>
+      <c r="BD28" s="94"/>
+      <c r="BE28" s="94"/>
+      <c r="BF28" s="94"/>
+      <c r="BG28" s="94"/>
+      <c r="BH28" s="94"/>
+      <c r="BI28" s="94"/>
+      <c r="BJ28" s="94"/>
+      <c r="BK28" s="94"/>
+      <c r="BL28" s="94"/>
+      <c r="BM28" s="94"/>
+      <c r="BN28" s="94"/>
+      <c r="BO28" s="94"/>
+      <c r="BP28" s="94"/>
+      <c r="BQ28" s="94"/>
+      <c r="BR28" s="94"/>
+      <c r="BS28" s="94"/>
+      <c r="BT28" s="94"/>
+      <c r="BU28" s="94"/>
+      <c r="BV28" s="94"/>
+      <c r="BW28" s="94"/>
+      <c r="BX28" s="94"/>
+      <c r="BY28" s="94"/>
+      <c r="BZ28" s="94"/>
+      <c r="CA28" s="94"/>
+      <c r="CB28" s="95"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="114"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="113"/>
-      <c r="AT29" s="113"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
-      <c r="BE29" s="113"/>
-      <c r="BF29" s="113"/>
-      <c r="BG29" s="113"/>
-      <c r="BH29" s="113"/>
-      <c r="BI29" s="113"/>
-      <c r="BJ29" s="113"/>
-      <c r="BK29" s="113"/>
-      <c r="BL29" s="113"/>
-      <c r="BM29" s="113"/>
-      <c r="BN29" s="113"/>
-      <c r="BO29" s="113"/>
-      <c r="BP29" s="113"/>
-      <c r="BQ29" s="113"/>
-      <c r="BR29" s="113"/>
-      <c r="BS29" s="113"/>
-      <c r="BT29" s="113"/>
-      <c r="BU29" s="113"/>
-      <c r="BV29" s="113"/>
-      <c r="BW29" s="113"/>
-      <c r="BX29" s="113"/>
-      <c r="BY29" s="113"/>
-      <c r="BZ29" s="113"/>
-      <c r="CA29" s="113"/>
-      <c r="CB29" s="114"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="97"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="97"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="97"/>
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="97"/>
+      <c r="AN29" s="98"/>
+      <c r="AQ29" s="96"/>
+      <c r="AR29" s="97"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="97"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="97"/>
+      <c r="AY29" s="97"/>
+      <c r="AZ29" s="97"/>
+      <c r="BA29" s="97"/>
+      <c r="BB29" s="97"/>
+      <c r="BC29" s="97"/>
+      <c r="BD29" s="97"/>
+      <c r="BE29" s="97"/>
+      <c r="BF29" s="97"/>
+      <c r="BG29" s="97"/>
+      <c r="BH29" s="97"/>
+      <c r="BI29" s="97"/>
+      <c r="BJ29" s="97"/>
+      <c r="BK29" s="97"/>
+      <c r="BL29" s="97"/>
+      <c r="BM29" s="97"/>
+      <c r="BN29" s="97"/>
+      <c r="BO29" s="97"/>
+      <c r="BP29" s="97"/>
+      <c r="BQ29" s="97"/>
+      <c r="BR29" s="97"/>
+      <c r="BS29" s="97"/>
+      <c r="BT29" s="97"/>
+      <c r="BU29" s="97"/>
+      <c r="BV29" s="97"/>
+      <c r="BW29" s="97"/>
+      <c r="BX29" s="97"/>
+      <c r="BY29" s="97"/>
+      <c r="BZ29" s="97"/>
+      <c r="CA29" s="97"/>
+      <c r="CB29" s="98"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="113"/>
-      <c r="AJ30" s="113"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="114"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="113"/>
-      <c r="AT30" s="113"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
-      <c r="BE30" s="113"/>
-      <c r="BF30" s="113"/>
-      <c r="BG30" s="113"/>
-      <c r="BH30" s="113"/>
-      <c r="BI30" s="113"/>
-      <c r="BJ30" s="113"/>
-      <c r="BK30" s="113"/>
-      <c r="BL30" s="113"/>
-      <c r="BM30" s="113"/>
-      <c r="BN30" s="113"/>
-      <c r="BO30" s="113"/>
-      <c r="BP30" s="113"/>
-      <c r="BQ30" s="113"/>
-      <c r="BR30" s="113"/>
-      <c r="BS30" s="113"/>
-      <c r="BT30" s="113"/>
-      <c r="BU30" s="113"/>
-      <c r="BV30" s="113"/>
-      <c r="BW30" s="113"/>
-      <c r="BX30" s="113"/>
-      <c r="BY30" s="113"/>
-      <c r="BZ30" s="113"/>
-      <c r="CA30" s="113"/>
-      <c r="CB30" s="114"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+      <c r="AL30" s="97"/>
+      <c r="AM30" s="97"/>
+      <c r="AN30" s="98"/>
+      <c r="AQ30" s="96"/>
+      <c r="AR30" s="97"/>
+      <c r="AS30" s="97"/>
+      <c r="AT30" s="97"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="97"/>
+      <c r="AY30" s="97"/>
+      <c r="AZ30" s="97"/>
+      <c r="BA30" s="97"/>
+      <c r="BB30" s="97"/>
+      <c r="BC30" s="97"/>
+      <c r="BD30" s="97"/>
+      <c r="BE30" s="97"/>
+      <c r="BF30" s="97"/>
+      <c r="BG30" s="97"/>
+      <c r="BH30" s="97"/>
+      <c r="BI30" s="97"/>
+      <c r="BJ30" s="97"/>
+      <c r="BK30" s="97"/>
+      <c r="BL30" s="97"/>
+      <c r="BM30" s="97"/>
+      <c r="BN30" s="97"/>
+      <c r="BO30" s="97"/>
+      <c r="BP30" s="97"/>
+      <c r="BQ30" s="97"/>
+      <c r="BR30" s="97"/>
+      <c r="BS30" s="97"/>
+      <c r="BT30" s="97"/>
+      <c r="BU30" s="97"/>
+      <c r="BV30" s="97"/>
+      <c r="BW30" s="97"/>
+      <c r="BX30" s="97"/>
+      <c r="BY30" s="97"/>
+      <c r="BZ30" s="97"/>
+      <c r="CA30" s="97"/>
+      <c r="CB30" s="98"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="114"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
-      <c r="BE31" s="113"/>
-      <c r="BF31" s="113"/>
-      <c r="BG31" s="113"/>
-      <c r="BH31" s="113"/>
-      <c r="BI31" s="113"/>
-      <c r="BJ31" s="113"/>
-      <c r="BK31" s="113"/>
-      <c r="BL31" s="113"/>
-      <c r="BM31" s="113"/>
-      <c r="BN31" s="113"/>
-      <c r="BO31" s="113"/>
-      <c r="BP31" s="113"/>
-      <c r="BQ31" s="113"/>
-      <c r="BR31" s="113"/>
-      <c r="BS31" s="113"/>
-      <c r="BT31" s="113"/>
-      <c r="BU31" s="113"/>
-      <c r="BV31" s="113"/>
-      <c r="BW31" s="113"/>
-      <c r="BX31" s="113"/>
-      <c r="BY31" s="113"/>
-      <c r="BZ31" s="113"/>
-      <c r="CA31" s="113"/>
-      <c r="CB31" s="114"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="97"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="98"/>
+      <c r="AQ31" s="96"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="97"/>
+      <c r="AT31" s="97"/>
+      <c r="AU31" s="97"/>
+      <c r="AV31" s="97"/>
+      <c r="AW31" s="97"/>
+      <c r="AX31" s="97"/>
+      <c r="AY31" s="97"/>
+      <c r="AZ31" s="97"/>
+      <c r="BA31" s="97"/>
+      <c r="BB31" s="97"/>
+      <c r="BC31" s="97"/>
+      <c r="BD31" s="97"/>
+      <c r="BE31" s="97"/>
+      <c r="BF31" s="97"/>
+      <c r="BG31" s="97"/>
+      <c r="BH31" s="97"/>
+      <c r="BI31" s="97"/>
+      <c r="BJ31" s="97"/>
+      <c r="BK31" s="97"/>
+      <c r="BL31" s="97"/>
+      <c r="BM31" s="97"/>
+      <c r="BN31" s="97"/>
+      <c r="BO31" s="97"/>
+      <c r="BP31" s="97"/>
+      <c r="BQ31" s="97"/>
+      <c r="BR31" s="97"/>
+      <c r="BS31" s="97"/>
+      <c r="BT31" s="97"/>
+      <c r="BU31" s="97"/>
+      <c r="BV31" s="97"/>
+      <c r="BW31" s="97"/>
+      <c r="BX31" s="97"/>
+      <c r="BY31" s="97"/>
+      <c r="BZ31" s="97"/>
+      <c r="CA31" s="97"/>
+      <c r="CB31" s="98"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="114"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="113"/>
-      <c r="AS32" s="113"/>
-      <c r="AT32" s="113"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
-      <c r="BE32" s="113"/>
-      <c r="BF32" s="113"/>
-      <c r="BG32" s="113"/>
-      <c r="BH32" s="113"/>
-      <c r="BI32" s="113"/>
-      <c r="BJ32" s="113"/>
-      <c r="BK32" s="113"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
-      <c r="BS32" s="113"/>
-      <c r="BT32" s="113"/>
-      <c r="BU32" s="113"/>
-      <c r="BV32" s="113"/>
-      <c r="BW32" s="113"/>
-      <c r="BX32" s="113"/>
-      <c r="BY32" s="113"/>
-      <c r="BZ32" s="113"/>
-      <c r="CA32" s="113"/>
-      <c r="CB32" s="114"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="97"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="97"/>
+      <c r="AJ32" s="97"/>
+      <c r="AK32" s="97"/>
+      <c r="AL32" s="97"/>
+      <c r="AM32" s="97"/>
+      <c r="AN32" s="98"/>
+      <c r="AQ32" s="96"/>
+      <c r="AR32" s="97"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="97"/>
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="97"/>
+      <c r="AY32" s="97"/>
+      <c r="AZ32" s="97"/>
+      <c r="BA32" s="97"/>
+      <c r="BB32" s="97"/>
+      <c r="BC32" s="97"/>
+      <c r="BD32" s="97"/>
+      <c r="BE32" s="97"/>
+      <c r="BF32" s="97"/>
+      <c r="BG32" s="97"/>
+      <c r="BH32" s="97"/>
+      <c r="BI32" s="97"/>
+      <c r="BJ32" s="97"/>
+      <c r="BK32" s="97"/>
+      <c r="BL32" s="97"/>
+      <c r="BM32" s="97"/>
+      <c r="BN32" s="97"/>
+      <c r="BO32" s="97"/>
+      <c r="BP32" s="97"/>
+      <c r="BQ32" s="97"/>
+      <c r="BR32" s="97"/>
+      <c r="BS32" s="97"/>
+      <c r="BT32" s="97"/>
+      <c r="BU32" s="97"/>
+      <c r="BV32" s="97"/>
+      <c r="BW32" s="97"/>
+      <c r="BX32" s="97"/>
+      <c r="BY32" s="97"/>
+      <c r="BZ32" s="97"/>
+      <c r="CA32" s="97"/>
+      <c r="CB32" s="98"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="114"/>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
-      <c r="BE33" s="113"/>
-      <c r="BF33" s="113"/>
-      <c r="BG33" s="113"/>
-      <c r="BH33" s="113"/>
-      <c r="BI33" s="113"/>
-      <c r="BJ33" s="113"/>
-      <c r="BK33" s="113"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
-      <c r="BS33" s="113"/>
-      <c r="BT33" s="113"/>
-      <c r="BU33" s="113"/>
-      <c r="BV33" s="113"/>
-      <c r="BW33" s="113"/>
-      <c r="BX33" s="113"/>
-      <c r="BY33" s="113"/>
-      <c r="BZ33" s="113"/>
-      <c r="CA33" s="113"/>
-      <c r="CB33" s="114"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="97"/>
+      <c r="AM33" s="97"/>
+      <c r="AN33" s="98"/>
+      <c r="AQ33" s="96"/>
+      <c r="AR33" s="97"/>
+      <c r="AS33" s="97"/>
+      <c r="AT33" s="97"/>
+      <c r="AU33" s="97"/>
+      <c r="AV33" s="97"/>
+      <c r="AW33" s="97"/>
+      <c r="AX33" s="97"/>
+      <c r="AY33" s="97"/>
+      <c r="AZ33" s="97"/>
+      <c r="BA33" s="97"/>
+      <c r="BB33" s="97"/>
+      <c r="BC33" s="97"/>
+      <c r="BD33" s="97"/>
+      <c r="BE33" s="97"/>
+      <c r="BF33" s="97"/>
+      <c r="BG33" s="97"/>
+      <c r="BH33" s="97"/>
+      <c r="BI33" s="97"/>
+      <c r="BJ33" s="97"/>
+      <c r="BK33" s="97"/>
+      <c r="BL33" s="97"/>
+      <c r="BM33" s="97"/>
+      <c r="BN33" s="97"/>
+      <c r="BO33" s="97"/>
+      <c r="BP33" s="97"/>
+      <c r="BQ33" s="97"/>
+      <c r="BR33" s="97"/>
+      <c r="BS33" s="97"/>
+      <c r="BT33" s="97"/>
+      <c r="BU33" s="97"/>
+      <c r="BV33" s="97"/>
+      <c r="BW33" s="97"/>
+      <c r="BX33" s="97"/>
+      <c r="BY33" s="97"/>
+      <c r="BZ33" s="97"/>
+      <c r="CA33" s="97"/>
+      <c r="CB33" s="98"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="113"/>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="114"/>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
-      <c r="BE34" s="113"/>
-      <c r="BF34" s="113"/>
-      <c r="BG34" s="113"/>
-      <c r="BH34" s="113"/>
-      <c r="BI34" s="113"/>
-      <c r="BJ34" s="113"/>
-      <c r="BK34" s="113"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
-      <c r="BS34" s="113"/>
-      <c r="BT34" s="113"/>
-      <c r="BU34" s="113"/>
-      <c r="BV34" s="113"/>
-      <c r="BW34" s="113"/>
-      <c r="BX34" s="113"/>
-      <c r="BY34" s="113"/>
-      <c r="BZ34" s="113"/>
-      <c r="CA34" s="113"/>
-      <c r="CB34" s="114"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="98"/>
+      <c r="AQ34" s="96"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
+      <c r="AT34" s="97"/>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="97"/>
+      <c r="AW34" s="97"/>
+      <c r="AX34" s="97"/>
+      <c r="AY34" s="97"/>
+      <c r="AZ34" s="97"/>
+      <c r="BA34" s="97"/>
+      <c r="BB34" s="97"/>
+      <c r="BC34" s="97"/>
+      <c r="BD34" s="97"/>
+      <c r="BE34" s="97"/>
+      <c r="BF34" s="97"/>
+      <c r="BG34" s="97"/>
+      <c r="BH34" s="97"/>
+      <c r="BI34" s="97"/>
+      <c r="BJ34" s="97"/>
+      <c r="BK34" s="97"/>
+      <c r="BL34" s="97"/>
+      <c r="BM34" s="97"/>
+      <c r="BN34" s="97"/>
+      <c r="BO34" s="97"/>
+      <c r="BP34" s="97"/>
+      <c r="BQ34" s="97"/>
+      <c r="BR34" s="97"/>
+      <c r="BS34" s="97"/>
+      <c r="BT34" s="97"/>
+      <c r="BU34" s="97"/>
+      <c r="BV34" s="97"/>
+      <c r="BW34" s="97"/>
+      <c r="BX34" s="97"/>
+      <c r="BY34" s="97"/>
+      <c r="BZ34" s="97"/>
+      <c r="CA34" s="97"/>
+      <c r="CB34" s="98"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="113"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="114"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="113"/>
-      <c r="BF35" s="113"/>
-      <c r="BG35" s="113"/>
-      <c r="BH35" s="113"/>
-      <c r="BI35" s="113"/>
-      <c r="BJ35" s="113"/>
-      <c r="BK35" s="113"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
-      <c r="BS35" s="113"/>
-      <c r="BT35" s="113"/>
-      <c r="BU35" s="113"/>
-      <c r="BV35" s="113"/>
-      <c r="BW35" s="113"/>
-      <c r="BX35" s="113"/>
-      <c r="BY35" s="113"/>
-      <c r="BZ35" s="113"/>
-      <c r="CA35" s="113"/>
-      <c r="CB35" s="114"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="97"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="97"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="97"/>
+      <c r="AL35" s="97"/>
+      <c r="AM35" s="97"/>
+      <c r="AN35" s="98"/>
+      <c r="AQ35" s="96"/>
+      <c r="AR35" s="97"/>
+      <c r="AS35" s="97"/>
+      <c r="AT35" s="97"/>
+      <c r="AU35" s="97"/>
+      <c r="AV35" s="97"/>
+      <c r="AW35" s="97"/>
+      <c r="AX35" s="97"/>
+      <c r="AY35" s="97"/>
+      <c r="AZ35" s="97"/>
+      <c r="BA35" s="97"/>
+      <c r="BB35" s="97"/>
+      <c r="BC35" s="97"/>
+      <c r="BD35" s="97"/>
+      <c r="BE35" s="97"/>
+      <c r="BF35" s="97"/>
+      <c r="BG35" s="97"/>
+      <c r="BH35" s="97"/>
+      <c r="BI35" s="97"/>
+      <c r="BJ35" s="97"/>
+      <c r="BK35" s="97"/>
+      <c r="BL35" s="97"/>
+      <c r="BM35" s="97"/>
+      <c r="BN35" s="97"/>
+      <c r="BO35" s="97"/>
+      <c r="BP35" s="97"/>
+      <c r="BQ35" s="97"/>
+      <c r="BR35" s="97"/>
+      <c r="BS35" s="97"/>
+      <c r="BT35" s="97"/>
+      <c r="BU35" s="97"/>
+      <c r="BV35" s="97"/>
+      <c r="BW35" s="97"/>
+      <c r="BX35" s="97"/>
+      <c r="BY35" s="97"/>
+      <c r="BZ35" s="97"/>
+      <c r="CA35" s="97"/>
+      <c r="CB35" s="98"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="113"/>
-      <c r="AJ36" s="113"/>
-      <c r="AK36" s="113"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="114"/>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="113"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="113"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="113"/>
-      <c r="BF36" s="113"/>
-      <c r="BG36" s="113"/>
-      <c r="BH36" s="113"/>
-      <c r="BI36" s="113"/>
-      <c r="BJ36" s="113"/>
-      <c r="BK36" s="113"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
-      <c r="BS36" s="113"/>
-      <c r="BT36" s="113"/>
-      <c r="BU36" s="113"/>
-      <c r="BV36" s="113"/>
-      <c r="BW36" s="113"/>
-      <c r="BX36" s="113"/>
-      <c r="BY36" s="113"/>
-      <c r="BZ36" s="113"/>
-      <c r="CA36" s="113"/>
-      <c r="CB36" s="114"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
+      <c r="AL36" s="97"/>
+      <c r="AM36" s="97"/>
+      <c r="AN36" s="98"/>
+      <c r="AQ36" s="96"/>
+      <c r="AR36" s="97"/>
+      <c r="AS36" s="97"/>
+      <c r="AT36" s="97"/>
+      <c r="AU36" s="97"/>
+      <c r="AV36" s="97"/>
+      <c r="AW36" s="97"/>
+      <c r="AX36" s="97"/>
+      <c r="AY36" s="97"/>
+      <c r="AZ36" s="97"/>
+      <c r="BA36" s="97"/>
+      <c r="BB36" s="97"/>
+      <c r="BC36" s="97"/>
+      <c r="BD36" s="97"/>
+      <c r="BE36" s="97"/>
+      <c r="BF36" s="97"/>
+      <c r="BG36" s="97"/>
+      <c r="BH36" s="97"/>
+      <c r="BI36" s="97"/>
+      <c r="BJ36" s="97"/>
+      <c r="BK36" s="97"/>
+      <c r="BL36" s="97"/>
+      <c r="BM36" s="97"/>
+      <c r="BN36" s="97"/>
+      <c r="BO36" s="97"/>
+      <c r="BP36" s="97"/>
+      <c r="BQ36" s="97"/>
+      <c r="BR36" s="97"/>
+      <c r="BS36" s="97"/>
+      <c r="BT36" s="97"/>
+      <c r="BU36" s="97"/>
+      <c r="BV36" s="97"/>
+      <c r="BW36" s="97"/>
+      <c r="BX36" s="97"/>
+      <c r="BY36" s="97"/>
+      <c r="BZ36" s="97"/>
+      <c r="CA36" s="97"/>
+      <c r="CB36" s="98"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="113"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="113"/>
-      <c r="AN37" s="114"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="113"/>
-      <c r="AS37" s="113"/>
-      <c r="AT37" s="113"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
-      <c r="BE37" s="113"/>
-      <c r="BF37" s="113"/>
-      <c r="BG37" s="113"/>
-      <c r="BH37" s="113"/>
-      <c r="BI37" s="113"/>
-      <c r="BJ37" s="113"/>
-      <c r="BK37" s="113"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
-      <c r="BS37" s="113"/>
-      <c r="BT37" s="113"/>
-      <c r="BU37" s="113"/>
-      <c r="BV37" s="113"/>
-      <c r="BW37" s="113"/>
-      <c r="BX37" s="113"/>
-      <c r="BY37" s="113"/>
-      <c r="BZ37" s="113"/>
-      <c r="CA37" s="113"/>
-      <c r="CB37" s="114"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="97"/>
+      <c r="AJ37" s="97"/>
+      <c r="AK37" s="97"/>
+      <c r="AL37" s="97"/>
+      <c r="AM37" s="97"/>
+      <c r="AN37" s="98"/>
+      <c r="AQ37" s="96"/>
+      <c r="AR37" s="97"/>
+      <c r="AS37" s="97"/>
+      <c r="AT37" s="97"/>
+      <c r="AU37" s="97"/>
+      <c r="AV37" s="97"/>
+      <c r="AW37" s="97"/>
+      <c r="AX37" s="97"/>
+      <c r="AY37" s="97"/>
+      <c r="AZ37" s="97"/>
+      <c r="BA37" s="97"/>
+      <c r="BB37" s="97"/>
+      <c r="BC37" s="97"/>
+      <c r="BD37" s="97"/>
+      <c r="BE37" s="97"/>
+      <c r="BF37" s="97"/>
+      <c r="BG37" s="97"/>
+      <c r="BH37" s="97"/>
+      <c r="BI37" s="97"/>
+      <c r="BJ37" s="97"/>
+      <c r="BK37" s="97"/>
+      <c r="BL37" s="97"/>
+      <c r="BM37" s="97"/>
+      <c r="BN37" s="97"/>
+      <c r="BO37" s="97"/>
+      <c r="BP37" s="97"/>
+      <c r="BQ37" s="97"/>
+      <c r="BR37" s="97"/>
+      <c r="BS37" s="97"/>
+      <c r="BT37" s="97"/>
+      <c r="BU37" s="97"/>
+      <c r="BV37" s="97"/>
+      <c r="BW37" s="97"/>
+      <c r="BX37" s="97"/>
+      <c r="BY37" s="97"/>
+      <c r="BZ37" s="97"/>
+      <c r="CA37" s="97"/>
+      <c r="CB37" s="98"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="113"/>
-      <c r="AJ38" s="113"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
-      <c r="BE38" s="113"/>
-      <c r="BF38" s="113"/>
-      <c r="BG38" s="113"/>
-      <c r="BH38" s="113"/>
-      <c r="BI38" s="113"/>
-      <c r="BJ38" s="113"/>
-      <c r="BK38" s="113"/>
-      <c r="BL38" s="113"/>
-      <c r="BM38" s="113"/>
-      <c r="BN38" s="113"/>
-      <c r="BO38" s="113"/>
-      <c r="BP38" s="113"/>
-      <c r="BQ38" s="113"/>
-      <c r="BR38" s="113"/>
-      <c r="BS38" s="113"/>
-      <c r="BT38" s="113"/>
-      <c r="BU38" s="113"/>
-      <c r="BV38" s="113"/>
-      <c r="BW38" s="113"/>
-      <c r="BX38" s="113"/>
-      <c r="BY38" s="113"/>
-      <c r="BZ38" s="113"/>
-      <c r="CA38" s="113"/>
-      <c r="CB38" s="114"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
+      <c r="AJ38" s="97"/>
+      <c r="AK38" s="97"/>
+      <c r="AL38" s="97"/>
+      <c r="AM38" s="97"/>
+      <c r="AN38" s="98"/>
+      <c r="AQ38" s="96"/>
+      <c r="AR38" s="97"/>
+      <c r="AS38" s="97"/>
+      <c r="AT38" s="97"/>
+      <c r="AU38" s="97"/>
+      <c r="AV38" s="97"/>
+      <c r="AW38" s="97"/>
+      <c r="AX38" s="97"/>
+      <c r="AY38" s="97"/>
+      <c r="AZ38" s="97"/>
+      <c r="BA38" s="97"/>
+      <c r="BB38" s="97"/>
+      <c r="BC38" s="97"/>
+      <c r="BD38" s="97"/>
+      <c r="BE38" s="97"/>
+      <c r="BF38" s="97"/>
+      <c r="BG38" s="97"/>
+      <c r="BH38" s="97"/>
+      <c r="BI38" s="97"/>
+      <c r="BJ38" s="97"/>
+      <c r="BK38" s="97"/>
+      <c r="BL38" s="97"/>
+      <c r="BM38" s="97"/>
+      <c r="BN38" s="97"/>
+      <c r="BO38" s="97"/>
+      <c r="BP38" s="97"/>
+      <c r="BQ38" s="97"/>
+      <c r="BR38" s="97"/>
+      <c r="BS38" s="97"/>
+      <c r="BT38" s="97"/>
+      <c r="BU38" s="97"/>
+      <c r="BV38" s="97"/>
+      <c r="BW38" s="97"/>
+      <c r="BX38" s="97"/>
+      <c r="BY38" s="97"/>
+      <c r="BZ38" s="97"/>
+      <c r="CA38" s="97"/>
+      <c r="CB38" s="98"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
-      <c r="AI39" s="113"/>
-      <c r="AJ39" s="113"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="114"/>
-      <c r="AQ39" s="112"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="113"/>
-      <c r="BF39" s="113"/>
-      <c r="BG39" s="113"/>
-      <c r="BH39" s="113"/>
-      <c r="BI39" s="113"/>
-      <c r="BJ39" s="113"/>
-      <c r="BK39" s="113"/>
-      <c r="BL39" s="113"/>
-      <c r="BM39" s="113"/>
-      <c r="BN39" s="113"/>
-      <c r="BO39" s="113"/>
-      <c r="BP39" s="113"/>
-      <c r="BQ39" s="113"/>
-      <c r="BR39" s="113"/>
-      <c r="BS39" s="113"/>
-      <c r="BT39" s="113"/>
-      <c r="BU39" s="113"/>
-      <c r="BV39" s="113"/>
-      <c r="BW39" s="113"/>
-      <c r="BX39" s="113"/>
-      <c r="BY39" s="113"/>
-      <c r="BZ39" s="113"/>
-      <c r="CA39" s="113"/>
-      <c r="CB39" s="114"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="97"/>
+      <c r="AH39" s="97"/>
+      <c r="AI39" s="97"/>
+      <c r="AJ39" s="97"/>
+      <c r="AK39" s="97"/>
+      <c r="AL39" s="97"/>
+      <c r="AM39" s="97"/>
+      <c r="AN39" s="98"/>
+      <c r="AQ39" s="96"/>
+      <c r="AR39" s="97"/>
+      <c r="AS39" s="97"/>
+      <c r="AT39" s="97"/>
+      <c r="AU39" s="97"/>
+      <c r="AV39" s="97"/>
+      <c r="AW39" s="97"/>
+      <c r="AX39" s="97"/>
+      <c r="AY39" s="97"/>
+      <c r="AZ39" s="97"/>
+      <c r="BA39" s="97"/>
+      <c r="BB39" s="97"/>
+      <c r="BC39" s="97"/>
+      <c r="BD39" s="97"/>
+      <c r="BE39" s="97"/>
+      <c r="BF39" s="97"/>
+      <c r="BG39" s="97"/>
+      <c r="BH39" s="97"/>
+      <c r="BI39" s="97"/>
+      <c r="BJ39" s="97"/>
+      <c r="BK39" s="97"/>
+      <c r="BL39" s="97"/>
+      <c r="BM39" s="97"/>
+      <c r="BN39" s="97"/>
+      <c r="BO39" s="97"/>
+      <c r="BP39" s="97"/>
+      <c r="BQ39" s="97"/>
+      <c r="BR39" s="97"/>
+      <c r="BS39" s="97"/>
+      <c r="BT39" s="97"/>
+      <c r="BU39" s="97"/>
+      <c r="BV39" s="97"/>
+      <c r="BW39" s="97"/>
+      <c r="BX39" s="97"/>
+      <c r="BY39" s="97"/>
+      <c r="BZ39" s="97"/>
+      <c r="CA39" s="97"/>
+      <c r="CB39" s="98"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
-      <c r="AJ40" s="113"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="113"/>
-      <c r="AN40" s="114"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="113"/>
-      <c r="AS40" s="113"/>
-      <c r="AT40" s="113"/>
-      <c r="AU40" s="113"/>
-      <c r="AV40" s="113"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="113"/>
-      <c r="AY40" s="113"/>
-      <c r="AZ40" s="113"/>
-      <c r="BA40" s="113"/>
-      <c r="BB40" s="113"/>
-      <c r="BC40" s="113"/>
-      <c r="BD40" s="113"/>
-      <c r="BE40" s="113"/>
-      <c r="BF40" s="113"/>
-      <c r="BG40" s="113"/>
-      <c r="BH40" s="113"/>
-      <c r="BI40" s="113"/>
-      <c r="BJ40" s="113"/>
-      <c r="BK40" s="113"/>
-      <c r="BL40" s="113"/>
-      <c r="BM40" s="113"/>
-      <c r="BN40" s="113"/>
-      <c r="BO40" s="113"/>
-      <c r="BP40" s="113"/>
-      <c r="BQ40" s="113"/>
-      <c r="BR40" s="113"/>
-      <c r="BS40" s="113"/>
-      <c r="BT40" s="113"/>
-      <c r="BU40" s="113"/>
-      <c r="BV40" s="113"/>
-      <c r="BW40" s="113"/>
-      <c r="BX40" s="113"/>
-      <c r="BY40" s="113"/>
-      <c r="BZ40" s="113"/>
-      <c r="CA40" s="113"/>
-      <c r="CB40" s="114"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="97"/>
+      <c r="V40" s="97"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="97"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="97"/>
+      <c r="AG40" s="97"/>
+      <c r="AH40" s="97"/>
+      <c r="AI40" s="97"/>
+      <c r="AJ40" s="97"/>
+      <c r="AK40" s="97"/>
+      <c r="AL40" s="97"/>
+      <c r="AM40" s="97"/>
+      <c r="AN40" s="98"/>
+      <c r="AQ40" s="96"/>
+      <c r="AR40" s="97"/>
+      <c r="AS40" s="97"/>
+      <c r="AT40" s="97"/>
+      <c r="AU40" s="97"/>
+      <c r="AV40" s="97"/>
+      <c r="AW40" s="97"/>
+      <c r="AX40" s="97"/>
+      <c r="AY40" s="97"/>
+      <c r="AZ40" s="97"/>
+      <c r="BA40" s="97"/>
+      <c r="BB40" s="97"/>
+      <c r="BC40" s="97"/>
+      <c r="BD40" s="97"/>
+      <c r="BE40" s="97"/>
+      <c r="BF40" s="97"/>
+      <c r="BG40" s="97"/>
+      <c r="BH40" s="97"/>
+      <c r="BI40" s="97"/>
+      <c r="BJ40" s="97"/>
+      <c r="BK40" s="97"/>
+      <c r="BL40" s="97"/>
+      <c r="BM40" s="97"/>
+      <c r="BN40" s="97"/>
+      <c r="BO40" s="97"/>
+      <c r="BP40" s="97"/>
+      <c r="BQ40" s="97"/>
+      <c r="BR40" s="97"/>
+      <c r="BS40" s="97"/>
+      <c r="BT40" s="97"/>
+      <c r="BU40" s="97"/>
+      <c r="BV40" s="97"/>
+      <c r="BW40" s="97"/>
+      <c r="BX40" s="97"/>
+      <c r="BY40" s="97"/>
+      <c r="BZ40" s="97"/>
+      <c r="CA40" s="97"/>
+      <c r="CB40" s="98"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
-      <c r="AJ41" s="113"/>
-      <c r="AK41" s="113"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="114"/>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="113"/>
-      <c r="AS41" s="113"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="113"/>
-      <c r="AV41" s="113"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="113"/>
-      <c r="AY41" s="113"/>
-      <c r="AZ41" s="113"/>
-      <c r="BA41" s="113"/>
-      <c r="BB41" s="113"/>
-      <c r="BC41" s="113"/>
-      <c r="BD41" s="113"/>
-      <c r="BE41" s="113"/>
-      <c r="BF41" s="113"/>
-      <c r="BG41" s="113"/>
-      <c r="BH41" s="113"/>
-      <c r="BI41" s="113"/>
-      <c r="BJ41" s="113"/>
-      <c r="BK41" s="113"/>
-      <c r="BL41" s="113"/>
-      <c r="BM41" s="113"/>
-      <c r="BN41" s="113"/>
-      <c r="BO41" s="113"/>
-      <c r="BP41" s="113"/>
-      <c r="BQ41" s="113"/>
-      <c r="BR41" s="113"/>
-      <c r="BS41" s="113"/>
-      <c r="BT41" s="113"/>
-      <c r="BU41" s="113"/>
-      <c r="BV41" s="113"/>
-      <c r="BW41" s="113"/>
-      <c r="BX41" s="113"/>
-      <c r="BY41" s="113"/>
-      <c r="BZ41" s="113"/>
-      <c r="CA41" s="113"/>
-      <c r="CB41" s="114"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="97"/>
+      <c r="U41" s="97"/>
+      <c r="V41" s="97"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97"/>
+      <c r="AH41" s="97"/>
+      <c r="AI41" s="97"/>
+      <c r="AJ41" s="97"/>
+      <c r="AK41" s="97"/>
+      <c r="AL41" s="97"/>
+      <c r="AM41" s="97"/>
+      <c r="AN41" s="98"/>
+      <c r="AQ41" s="96"/>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="97"/>
+      <c r="AT41" s="97"/>
+      <c r="AU41" s="97"/>
+      <c r="AV41" s="97"/>
+      <c r="AW41" s="97"/>
+      <c r="AX41" s="97"/>
+      <c r="AY41" s="97"/>
+      <c r="AZ41" s="97"/>
+      <c r="BA41" s="97"/>
+      <c r="BB41" s="97"/>
+      <c r="BC41" s="97"/>
+      <c r="BD41" s="97"/>
+      <c r="BE41" s="97"/>
+      <c r="BF41" s="97"/>
+      <c r="BG41" s="97"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="97"/>
+      <c r="BJ41" s="97"/>
+      <c r="BK41" s="97"/>
+      <c r="BL41" s="97"/>
+      <c r="BM41" s="97"/>
+      <c r="BN41" s="97"/>
+      <c r="BO41" s="97"/>
+      <c r="BP41" s="97"/>
+      <c r="BQ41" s="97"/>
+      <c r="BR41" s="97"/>
+      <c r="BS41" s="97"/>
+      <c r="BT41" s="97"/>
+      <c r="BU41" s="97"/>
+      <c r="BV41" s="97"/>
+      <c r="BW41" s="97"/>
+      <c r="BX41" s="97"/>
+      <c r="BY41" s="97"/>
+      <c r="BZ41" s="97"/>
+      <c r="CA41" s="97"/>
+      <c r="CB41" s="98"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="113"/>
-      <c r="AJ42" s="113"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="113"/>
-      <c r="AN42" s="114"/>
-      <c r="AQ42" s="112"/>
-      <c r="AR42" s="113"/>
-      <c r="AS42" s="113"/>
-      <c r="AT42" s="113"/>
-      <c r="AU42" s="113"/>
-      <c r="AV42" s="113"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="113"/>
-      <c r="AY42" s="113"/>
-      <c r="AZ42" s="113"/>
-      <c r="BA42" s="113"/>
-      <c r="BB42" s="113"/>
-      <c r="BC42" s="113"/>
-      <c r="BD42" s="113"/>
-      <c r="BE42" s="113"/>
-      <c r="BF42" s="113"/>
-      <c r="BG42" s="113"/>
-      <c r="BH42" s="113"/>
-      <c r="BI42" s="113"/>
-      <c r="BJ42" s="113"/>
-      <c r="BK42" s="113"/>
-      <c r="BL42" s="113"/>
-      <c r="BM42" s="113"/>
-      <c r="BN42" s="113"/>
-      <c r="BO42" s="113"/>
-      <c r="BP42" s="113"/>
-      <c r="BQ42" s="113"/>
-      <c r="BR42" s="113"/>
-      <c r="BS42" s="113"/>
-      <c r="BT42" s="113"/>
-      <c r="BU42" s="113"/>
-      <c r="BV42" s="113"/>
-      <c r="BW42" s="113"/>
-      <c r="BX42" s="113"/>
-      <c r="BY42" s="113"/>
-      <c r="BZ42" s="113"/>
-      <c r="CA42" s="113"/>
-      <c r="CB42" s="114"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="97"/>
+      <c r="U42" s="97"/>
+      <c r="V42" s="97"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="97"/>
+      <c r="AJ42" s="97"/>
+      <c r="AK42" s="97"/>
+      <c r="AL42" s="97"/>
+      <c r="AM42" s="97"/>
+      <c r="AN42" s="98"/>
+      <c r="AQ42" s="96"/>
+      <c r="AR42" s="97"/>
+      <c r="AS42" s="97"/>
+      <c r="AT42" s="97"/>
+      <c r="AU42" s="97"/>
+      <c r="AV42" s="97"/>
+      <c r="AW42" s="97"/>
+      <c r="AX42" s="97"/>
+      <c r="AY42" s="97"/>
+      <c r="AZ42" s="97"/>
+      <c r="BA42" s="97"/>
+      <c r="BB42" s="97"/>
+      <c r="BC42" s="97"/>
+      <c r="BD42" s="97"/>
+      <c r="BE42" s="97"/>
+      <c r="BF42" s="97"/>
+      <c r="BG42" s="97"/>
+      <c r="BH42" s="97"/>
+      <c r="BI42" s="97"/>
+      <c r="BJ42" s="97"/>
+      <c r="BK42" s="97"/>
+      <c r="BL42" s="97"/>
+      <c r="BM42" s="97"/>
+      <c r="BN42" s="97"/>
+      <c r="BO42" s="97"/>
+      <c r="BP42" s="97"/>
+      <c r="BQ42" s="97"/>
+      <c r="BR42" s="97"/>
+      <c r="BS42" s="97"/>
+      <c r="BT42" s="97"/>
+      <c r="BU42" s="97"/>
+      <c r="BV42" s="97"/>
+      <c r="BW42" s="97"/>
+      <c r="BX42" s="97"/>
+      <c r="BY42" s="97"/>
+      <c r="BZ42" s="97"/>
+      <c r="CA42" s="97"/>
+      <c r="CB42" s="98"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="113"/>
-      <c r="AJ43" s="113"/>
-      <c r="AK43" s="113"/>
-      <c r="AL43" s="113"/>
-      <c r="AM43" s="113"/>
-      <c r="AN43" s="114"/>
-      <c r="AQ43" s="112"/>
-      <c r="AR43" s="113"/>
-      <c r="AS43" s="113"/>
-      <c r="AT43" s="113"/>
-      <c r="AU43" s="113"/>
-      <c r="AV43" s="113"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="113"/>
-      <c r="AY43" s="113"/>
-      <c r="AZ43" s="113"/>
-      <c r="BA43" s="113"/>
-      <c r="BB43" s="113"/>
-      <c r="BC43" s="113"/>
-      <c r="BD43" s="113"/>
-      <c r="BE43" s="113"/>
-      <c r="BF43" s="113"/>
-      <c r="BG43" s="113"/>
-      <c r="BH43" s="113"/>
-      <c r="BI43" s="113"/>
-      <c r="BJ43" s="113"/>
-      <c r="BK43" s="113"/>
-      <c r="BL43" s="113"/>
-      <c r="BM43" s="113"/>
-      <c r="BN43" s="113"/>
-      <c r="BO43" s="113"/>
-      <c r="BP43" s="113"/>
-      <c r="BQ43" s="113"/>
-      <c r="BR43" s="113"/>
-      <c r="BS43" s="113"/>
-      <c r="BT43" s="113"/>
-      <c r="BU43" s="113"/>
-      <c r="BV43" s="113"/>
-      <c r="BW43" s="113"/>
-      <c r="BX43" s="113"/>
-      <c r="BY43" s="113"/>
-      <c r="BZ43" s="113"/>
-      <c r="CA43" s="113"/>
-      <c r="CB43" s="114"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
+      <c r="AH43" s="97"/>
+      <c r="AI43" s="97"/>
+      <c r="AJ43" s="97"/>
+      <c r="AK43" s="97"/>
+      <c r="AL43" s="97"/>
+      <c r="AM43" s="97"/>
+      <c r="AN43" s="98"/>
+      <c r="AQ43" s="96"/>
+      <c r="AR43" s="97"/>
+      <c r="AS43" s="97"/>
+      <c r="AT43" s="97"/>
+      <c r="AU43" s="97"/>
+      <c r="AV43" s="97"/>
+      <c r="AW43" s="97"/>
+      <c r="AX43" s="97"/>
+      <c r="AY43" s="97"/>
+      <c r="AZ43" s="97"/>
+      <c r="BA43" s="97"/>
+      <c r="BB43" s="97"/>
+      <c r="BC43" s="97"/>
+      <c r="BD43" s="97"/>
+      <c r="BE43" s="97"/>
+      <c r="BF43" s="97"/>
+      <c r="BG43" s="97"/>
+      <c r="BH43" s="97"/>
+      <c r="BI43" s="97"/>
+      <c r="BJ43" s="97"/>
+      <c r="BK43" s="97"/>
+      <c r="BL43" s="97"/>
+      <c r="BM43" s="97"/>
+      <c r="BN43" s="97"/>
+      <c r="BO43" s="97"/>
+      <c r="BP43" s="97"/>
+      <c r="BQ43" s="97"/>
+      <c r="BR43" s="97"/>
+      <c r="BS43" s="97"/>
+      <c r="BT43" s="97"/>
+      <c r="BU43" s="97"/>
+      <c r="BV43" s="97"/>
+      <c r="BW43" s="97"/>
+      <c r="BX43" s="97"/>
+      <c r="BY43" s="97"/>
+      <c r="BZ43" s="97"/>
+      <c r="CA43" s="97"/>
+      <c r="CB43" s="98"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="112"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
-      <c r="AJ44" s="113"/>
-      <c r="AK44" s="113"/>
-      <c r="AL44" s="113"/>
-      <c r="AM44" s="113"/>
-      <c r="AN44" s="114"/>
-      <c r="AQ44" s="112"/>
-      <c r="AR44" s="113"/>
-      <c r="AS44" s="113"/>
-      <c r="AT44" s="113"/>
-      <c r="AU44" s="113"/>
-      <c r="AV44" s="113"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="113"/>
-      <c r="AY44" s="113"/>
-      <c r="AZ44" s="113"/>
-      <c r="BA44" s="113"/>
-      <c r="BB44" s="113"/>
-      <c r="BC44" s="113"/>
-      <c r="BD44" s="113"/>
-      <c r="BE44" s="113"/>
-      <c r="BF44" s="113"/>
-      <c r="BG44" s="113"/>
-      <c r="BH44" s="113"/>
-      <c r="BI44" s="113"/>
-      <c r="BJ44" s="113"/>
-      <c r="BK44" s="113"/>
-      <c r="BL44" s="113"/>
-      <c r="BM44" s="113"/>
-      <c r="BN44" s="113"/>
-      <c r="BO44" s="113"/>
-      <c r="BP44" s="113"/>
-      <c r="BQ44" s="113"/>
-      <c r="BR44" s="113"/>
-      <c r="BS44" s="113"/>
-      <c r="BT44" s="113"/>
-      <c r="BU44" s="113"/>
-      <c r="BV44" s="113"/>
-      <c r="BW44" s="113"/>
-      <c r="BX44" s="113"/>
-      <c r="BY44" s="113"/>
-      <c r="BZ44" s="113"/>
-      <c r="CA44" s="113"/>
-      <c r="CB44" s="114"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
+      <c r="AI44" s="97"/>
+      <c r="AJ44" s="97"/>
+      <c r="AK44" s="97"/>
+      <c r="AL44" s="97"/>
+      <c r="AM44" s="97"/>
+      <c r="AN44" s="98"/>
+      <c r="AQ44" s="96"/>
+      <c r="AR44" s="97"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="97"/>
+      <c r="AU44" s="97"/>
+      <c r="AV44" s="97"/>
+      <c r="AW44" s="97"/>
+      <c r="AX44" s="97"/>
+      <c r="AY44" s="97"/>
+      <c r="AZ44" s="97"/>
+      <c r="BA44" s="97"/>
+      <c r="BB44" s="97"/>
+      <c r="BC44" s="97"/>
+      <c r="BD44" s="97"/>
+      <c r="BE44" s="97"/>
+      <c r="BF44" s="97"/>
+      <c r="BG44" s="97"/>
+      <c r="BH44" s="97"/>
+      <c r="BI44" s="97"/>
+      <c r="BJ44" s="97"/>
+      <c r="BK44" s="97"/>
+      <c r="BL44" s="97"/>
+      <c r="BM44" s="97"/>
+      <c r="BN44" s="97"/>
+      <c r="BO44" s="97"/>
+      <c r="BP44" s="97"/>
+      <c r="BQ44" s="97"/>
+      <c r="BR44" s="97"/>
+      <c r="BS44" s="97"/>
+      <c r="BT44" s="97"/>
+      <c r="BU44" s="97"/>
+      <c r="BV44" s="97"/>
+      <c r="BW44" s="97"/>
+      <c r="BX44" s="97"/>
+      <c r="BY44" s="97"/>
+      <c r="BZ44" s="97"/>
+      <c r="CA44" s="97"/>
+      <c r="CB44" s="98"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="113"/>
-      <c r="AC45" s="113"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
-      <c r="AI45" s="113"/>
-      <c r="AJ45" s="113"/>
-      <c r="AK45" s="113"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="113"/>
-      <c r="AN45" s="114"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="113"/>
-      <c r="AS45" s="113"/>
-      <c r="AT45" s="113"/>
-      <c r="AU45" s="113"/>
-      <c r="AV45" s="113"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="113"/>
-      <c r="AY45" s="113"/>
-      <c r="AZ45" s="113"/>
-      <c r="BA45" s="113"/>
-      <c r="BB45" s="113"/>
-      <c r="BC45" s="113"/>
-      <c r="BD45" s="113"/>
-      <c r="BE45" s="113"/>
-      <c r="BF45" s="113"/>
-      <c r="BG45" s="113"/>
-      <c r="BH45" s="113"/>
-      <c r="BI45" s="113"/>
-      <c r="BJ45" s="113"/>
-      <c r="BK45" s="113"/>
-      <c r="BL45" s="113"/>
-      <c r="BM45" s="113"/>
-      <c r="BN45" s="113"/>
-      <c r="BO45" s="113"/>
-      <c r="BP45" s="113"/>
-      <c r="BQ45" s="113"/>
-      <c r="BR45" s="113"/>
-      <c r="BS45" s="113"/>
-      <c r="BT45" s="113"/>
-      <c r="BU45" s="113"/>
-      <c r="BV45" s="113"/>
-      <c r="BW45" s="113"/>
-      <c r="BX45" s="113"/>
-      <c r="BY45" s="113"/>
-      <c r="BZ45" s="113"/>
-      <c r="CA45" s="113"/>
-      <c r="CB45" s="114"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="98"/>
+      <c r="AQ45" s="96"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="97"/>
+      <c r="BG45" s="97"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="97"/>
+      <c r="BJ45" s="97"/>
+      <c r="BK45" s="97"/>
+      <c r="BL45" s="97"/>
+      <c r="BM45" s="97"/>
+      <c r="BN45" s="97"/>
+      <c r="BO45" s="97"/>
+      <c r="BP45" s="97"/>
+      <c r="BQ45" s="97"/>
+      <c r="BR45" s="97"/>
+      <c r="BS45" s="97"/>
+      <c r="BT45" s="97"/>
+      <c r="BU45" s="97"/>
+      <c r="BV45" s="97"/>
+      <c r="BW45" s="97"/>
+      <c r="BX45" s="97"/>
+      <c r="BY45" s="97"/>
+      <c r="BZ45" s="97"/>
+      <c r="CA45" s="97"/>
+      <c r="CB45" s="98"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="115"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="116"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="116"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="116"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AN46" s="117"/>
-      <c r="AQ46" s="115"/>
-      <c r="AR46" s="116"/>
-      <c r="AS46" s="116"/>
-      <c r="AT46" s="116"/>
-      <c r="AU46" s="116"/>
-      <c r="AV46" s="116"/>
-      <c r="AW46" s="116"/>
-      <c r="AX46" s="116"/>
-      <c r="AY46" s="116"/>
-      <c r="AZ46" s="116"/>
-      <c r="BA46" s="116"/>
-      <c r="BB46" s="116"/>
-      <c r="BC46" s="116"/>
-      <c r="BD46" s="116"/>
-      <c r="BE46" s="116"/>
-      <c r="BF46" s="116"/>
-      <c r="BG46" s="116"/>
-      <c r="BH46" s="116"/>
-      <c r="BI46" s="116"/>
-      <c r="BJ46" s="116"/>
-      <c r="BK46" s="116"/>
-      <c r="BL46" s="116"/>
-      <c r="BM46" s="116"/>
-      <c r="BN46" s="116"/>
-      <c r="BO46" s="116"/>
-      <c r="BP46" s="116"/>
-      <c r="BQ46" s="116"/>
-      <c r="BR46" s="116"/>
-      <c r="BS46" s="116"/>
-      <c r="BT46" s="116"/>
-      <c r="BU46" s="116"/>
-      <c r="BV46" s="116"/>
-      <c r="BW46" s="116"/>
-      <c r="BX46" s="116"/>
-      <c r="BY46" s="116"/>
-      <c r="BZ46" s="116"/>
-      <c r="CA46" s="116"/>
-      <c r="CB46" s="117"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="100"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="100"/>
+      <c r="AB46" s="100"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="100"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="100"/>
+      <c r="AH46" s="100"/>
+      <c r="AI46" s="100"/>
+      <c r="AJ46" s="100"/>
+      <c r="AK46" s="100"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="100"/>
+      <c r="AN46" s="101"/>
+      <c r="AQ46" s="99"/>
+      <c r="AR46" s="100"/>
+      <c r="AS46" s="100"/>
+      <c r="AT46" s="100"/>
+      <c r="AU46" s="100"/>
+      <c r="AV46" s="100"/>
+      <c r="AW46" s="100"/>
+      <c r="AX46" s="100"/>
+      <c r="AY46" s="100"/>
+      <c r="AZ46" s="100"/>
+      <c r="BA46" s="100"/>
+      <c r="BB46" s="100"/>
+      <c r="BC46" s="100"/>
+      <c r="BD46" s="100"/>
+      <c r="BE46" s="100"/>
+      <c r="BF46" s="100"/>
+      <c r="BG46" s="100"/>
+      <c r="BH46" s="100"/>
+      <c r="BI46" s="100"/>
+      <c r="BJ46" s="100"/>
+      <c r="BK46" s="100"/>
+      <c r="BL46" s="100"/>
+      <c r="BM46" s="100"/>
+      <c r="BN46" s="100"/>
+      <c r="BO46" s="100"/>
+      <c r="BP46" s="100"/>
+      <c r="BQ46" s="100"/>
+      <c r="BR46" s="100"/>
+      <c r="BS46" s="100"/>
+      <c r="BT46" s="100"/>
+      <c r="BU46" s="100"/>
+      <c r="BV46" s="100"/>
+      <c r="BW46" s="100"/>
+      <c r="BX46" s="100"/>
+      <c r="BY46" s="100"/>
+      <c r="BZ46" s="100"/>
+      <c r="CA46" s="100"/>
+      <c r="CB46" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/04 - Logica Booleana e Buscas de Valores.xlsx
+++ b/04 - Logica Booleana e Buscas de Valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B17876-927B-4871-9D45-B88A86959A36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00635F97-A2C3-49D0-95B3-63D5AEAE2008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="23070" windowHeight="12195" tabRatio="698" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="176">
   <si>
     <t>Produtos</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Linha</t>
+  </si>
+  <si>
+    <t>Desc. Vendedor</t>
+  </si>
+  <si>
+    <t>Desc.</t>
   </si>
 </sst>
 </file>
@@ -1632,33 +1638,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1713,6 +1692,33 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -1723,7 +1729,27 @@
     <cellStyle name="Porcentagem" xfId="5" builtinId="5"/>
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1733,6 +1759,26 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7264,14 +7310,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>895349</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184637</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>445769</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>262595</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7336,14 +7382,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124118</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7405,13 +7451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>661988</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>507683</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
@@ -7480,7 +7526,7 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>569595</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
@@ -8412,7 +8458,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="B6:G66" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="B6:G66" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="B6:G66" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8422,40 +8468,46 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E100D4E2-C3A0-43FF-A1D9-90A4BC2A9918}" name="Produtos"/>
-    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{4435A4B8-E7F0-4D66-A4F8-6A9FEAA36D5A}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:I86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Cabeçalho Meteora">
-  <autoFilter ref="A4:I86" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
-  <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A4:K86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Cabeçalho Meteora">
+  <autoFilter ref="A4:K86" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
+  <tableColumns count="11">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Nº" dataDxfId="11">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{BD1ABB49-B48B-4C50-A034-45488FDC03A8}" name="Mês" dataDxfId="10">
       <calculatedColumnFormula>PROPER(TEXT(DATE(,TB_Vendas[[#This Row],[Nº]],1),"Mmm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desc." dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{EFA6B0E7-AC23-4F94-BA6E-D976C75B2690}" name="Desc. Vendedor" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{EEE0E260-9AD8-45FC-95F2-FCE29E013745}" name="Desconto" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="4">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10377,10 +10429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF34D44-0E29-4A7F-B47B-66AF094D5F9D}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10391,12 +10443,13 @@
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="40.15" customHeight="1">
+    <row r="1" spans="1:11" s="40" customFormat="1" ht="40.15" customHeight="1">
       <c r="A1" s="43"/>
       <c r="C1" s="47" t="s">
         <v>135</v>
@@ -10408,21 +10461,21 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" s="41" customFormat="1" ht="4.5" customHeight="1">
+    <row r="2" spans="1:11" s="41" customFormat="1" ht="4.5" customHeight="1">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
     </row>
-    <row r="3" spans="1:9" ht="4.5" customHeight="1">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1">
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75">
       <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
@@ -10442,16 +10495,22 @@
         <v>11</v>
       </c>
       <c r="G4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="J4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="K4" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10477,15 +10536,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10511,15 +10578,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10545,15 +10620,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10579,15 +10662,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>46.9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10613,15 +10704,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>29.9</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10647,15 +10746,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I10" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10681,15 +10788,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>146</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10715,15 +10830,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10749,15 +10872,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>500</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10783,15 +10914,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
@@ -10817,15 +10956,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>142.9</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -10851,15 +10998,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>300</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -10885,15 +11040,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>579.79999999999995</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -10919,15 +11082,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>249.9</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -10953,15 +11124,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>79.8</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -10987,15 +11166,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1159.5999999999999</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -11021,15 +11208,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>540</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
@@ -11055,15 +11250,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11089,15 +11292,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>765</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11123,15 +11334,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>142.9</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11157,15 +11376,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>371.6</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11191,15 +11418,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>109.8</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11225,15 +11460,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J27" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>428.70000000000005</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11259,15 +11502,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.05</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.05</v>
+      </c>
+      <c r="J28" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>240</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11293,15 +11544,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11327,15 +11586,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I30" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J30" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>164.5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11361,15 +11628,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J31" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>360</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
@@ -11395,15 +11670,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J32" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1049.6999999999998</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11429,15 +11712,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>72.5</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11463,15 +11754,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1039.5999999999999</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11497,15 +11796,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>77.699999999999989</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11531,15 +11838,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.05</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.05</v>
+      </c>
+      <c r="J36" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>290</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11565,15 +11880,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>39.9</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11599,15 +11922,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J38" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1049.6999999999998</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11633,15 +11964,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J39" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>359.6</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11667,15 +12006,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11701,15 +12048,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>209.70000000000002</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11735,15 +12090,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I42" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>145</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
@@ -11769,15 +12132,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>187.6</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11803,15 +12174,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I44" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J44" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>145</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11837,15 +12216,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I45" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>420</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11871,15 +12258,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>91.4</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11905,15 +12300,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.05</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.05</v>
+      </c>
+      <c r="J47" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>699.8</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11939,15 +12342,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I48" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J48" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>197.70000000000002</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -11973,15 +12384,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I49" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J49" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>182.8</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
@@ -12007,15 +12426,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J50" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1039.5999999999999</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12041,15 +12468,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J51" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>435</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12075,15 +12510,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J52" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>285.8</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12109,15 +12552,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I53" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J53" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>360</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12143,15 +12594,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J54" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>85</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12177,15 +12636,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I55" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12211,15 +12678,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J56" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>180</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12245,15 +12720,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I57" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J57" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>98.699999999999989</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12279,15 +12762,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I58" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J58" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>371.6</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12313,15 +12804,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J59" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>519.79999999999995</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12347,15 +12846,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I60" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J60" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12381,15 +12888,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I61" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J61" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>212.5</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12415,15 +12930,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I62" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J62" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>65.8</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="10">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12449,15 +12972,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I63" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J63" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>278.70000000000005</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
@@ -12483,15 +13014,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.3</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I64" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J64" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>259</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12517,15 +13056,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I65" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>72.5</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12551,15 +13098,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I66" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J66" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1211.5999999999999</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12585,15 +13140,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I67" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J67" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>2319.1999999999998</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12619,15 +13182,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I68" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J68" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>109.8</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12653,15 +13224,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I69" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J69" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>79.8</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12687,15 +13266,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I70" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J70" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>384.3</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12721,15 +13308,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I71" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J71" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1199.5999999999999</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12755,15 +13350,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J72" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>779.69999999999993</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12789,15 +13392,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I73" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J73" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>652.5</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12823,15 +13434,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.2</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I74" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J74" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>1200</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>7</v>
@@ -12857,15 +13476,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I75" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J75" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>593.1</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -12891,15 +13518,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.3</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I76" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J76" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>929</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -12925,15 +13560,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I77" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>89.9</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -12959,15 +13602,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I78" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J78" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>99.8</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -12993,15 +13644,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I79" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="J79" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>560</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13027,15 +13686,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J80" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>234.5</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13061,15 +13728,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.3</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I81" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="J81" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>2899</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13095,15 +13770,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I82" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>42.5</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13129,15 +13812,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.1</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I83" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>179.8</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13163,15 +13854,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.15</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I84" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.15</v>
+      </c>
+      <c r="J84" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>765</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13197,15 +13896,23 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I85" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="J85" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>255</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>8</v>
@@ -13231,18 +13938,26 @@
         <f>INDEX(Desc_TabelaToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Quantidades,1),MATCH(VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[],4,0),Desc_Categorias,0))</f>
         <v>0.25</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="69">
+        <f>VLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$5:$D$9,4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I86" s="69">
+        <f>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc. Vendedor]],TB_Vendas[[#This Row],[Desc.]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="J86" s="8">
         <f>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</f>
         <v>319.2</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="E4:G4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="E4:I4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14137,237 +14852,237 @@
       <c r="CB3" s="92"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="102">
+      <c r="W4" s="93">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="104"/>
-      <c r="AQ4" s="102">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="95"/>
+      <c r="AQ4" s="93">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="104"/>
-      <c r="BK4" s="111">
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="95"/>
+      <c r="BK4" s="102">
         <f>SUM(TB_Vendas[Total])</f>
         <v>33304.799999999988</v>
       </c>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="113"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="103"/>
+      <c r="BT4" s="103"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="103"/>
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="103"/>
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="104"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="105"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="107"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="107"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="115"/>
-      <c r="BY5" s="115"/>
-      <c r="BZ5" s="115"/>
-      <c r="CA5" s="115"/>
-      <c r="CB5" s="116"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="98"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="98"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="106"/>
+      <c r="BM5" s="106"/>
+      <c r="BN5" s="106"/>
+      <c r="BO5" s="106"/>
+      <c r="BP5" s="106"/>
+      <c r="BQ5" s="106"/>
+      <c r="BR5" s="106"/>
+      <c r="BS5" s="106"/>
+      <c r="BT5" s="106"/>
+      <c r="BU5" s="106"/>
+      <c r="BV5" s="106"/>
+      <c r="BW5" s="106"/>
+      <c r="BX5" s="106"/>
+      <c r="BY5" s="106"/>
+      <c r="BZ5" s="106"/>
+      <c r="CA5" s="106"/>
+      <c r="CB5" s="107"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="105"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="107"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="107"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="115"/>
-      <c r="BP6" s="115"/>
-      <c r="BQ6" s="115"/>
-      <c r="BR6" s="115"/>
-      <c r="BS6" s="115"/>
-      <c r="BT6" s="115"/>
-      <c r="BU6" s="115"/>
-      <c r="BV6" s="115"/>
-      <c r="BW6" s="115"/>
-      <c r="BX6" s="115"/>
-      <c r="BY6" s="115"/>
-      <c r="BZ6" s="115"/>
-      <c r="CA6" s="115"/>
-      <c r="CB6" s="116"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="98"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="98"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="106"/>
+      <c r="BM6" s="106"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="106"/>
+      <c r="BP6" s="106"/>
+      <c r="BQ6" s="106"/>
+      <c r="BR6" s="106"/>
+      <c r="BS6" s="106"/>
+      <c r="BT6" s="106"/>
+      <c r="BU6" s="106"/>
+      <c r="BV6" s="106"/>
+      <c r="BW6" s="106"/>
+      <c r="BX6" s="106"/>
+      <c r="BY6" s="106"/>
+      <c r="BZ6" s="106"/>
+      <c r="CA6" s="106"/>
+      <c r="CB6" s="107"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="110"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="109"/>
-      <c r="BD7" s="109"/>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="110"/>
-      <c r="BK7" s="117"/>
-      <c r="BL7" s="118"/>
-      <c r="BM7" s="118"/>
-      <c r="BN7" s="118"/>
-      <c r="BO7" s="118"/>
-      <c r="BP7" s="118"/>
-      <c r="BQ7" s="118"/>
-      <c r="BR7" s="118"/>
-      <c r="BS7" s="118"/>
-      <c r="BT7" s="118"/>
-      <c r="BU7" s="118"/>
-      <c r="BV7" s="118"/>
-      <c r="BW7" s="118"/>
-      <c r="BX7" s="118"/>
-      <c r="BY7" s="118"/>
-      <c r="BZ7" s="118"/>
-      <c r="CA7" s="118"/>
-      <c r="CB7" s="119"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="101"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="101"/>
+      <c r="BK7" s="108"/>
+      <c r="BL7" s="109"/>
+      <c r="BM7" s="109"/>
+      <c r="BN7" s="109"/>
+      <c r="BO7" s="109"/>
+      <c r="BP7" s="109"/>
+      <c r="BQ7" s="109"/>
+      <c r="BR7" s="109"/>
+      <c r="BS7" s="109"/>
+      <c r="BT7" s="109"/>
+      <c r="BU7" s="109"/>
+      <c r="BV7" s="109"/>
+      <c r="BW7" s="109"/>
+      <c r="BX7" s="109"/>
+      <c r="BY7" s="109"/>
+      <c r="BZ7" s="109"/>
+      <c r="CA7" s="109"/>
+      <c r="CB7" s="110"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -14533,1124 +15248,1124 @@
       <c r="CB10" s="92"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="94"/>
-      <c r="BA11" s="94"/>
-      <c r="BB11" s="94"/>
-      <c r="BC11" s="94"/>
-      <c r="BD11" s="94"/>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="94"/>
-      <c r="BG11" s="94"/>
-      <c r="BH11" s="94"/>
-      <c r="BI11" s="94"/>
-      <c r="BJ11" s="94"/>
-      <c r="BK11" s="94"/>
-      <c r="BL11" s="94"/>
-      <c r="BM11" s="94"/>
-      <c r="BN11" s="94"/>
-      <c r="BO11" s="94"/>
-      <c r="BP11" s="94"/>
-      <c r="BQ11" s="94"/>
-      <c r="BR11" s="94"/>
-      <c r="BS11" s="94"/>
-      <c r="BT11" s="94"/>
-      <c r="BU11" s="94"/>
-      <c r="BV11" s="94"/>
-      <c r="BW11" s="94"/>
-      <c r="BX11" s="94"/>
-      <c r="BY11" s="94"/>
-      <c r="BZ11" s="94"/>
-      <c r="CA11" s="94"/>
-      <c r="CB11" s="95"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="112"/>
+      <c r="BE11" s="112"/>
+      <c r="BF11" s="112"/>
+      <c r="BG11" s="112"/>
+      <c r="BH11" s="112"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="112"/>
+      <c r="BK11" s="112"/>
+      <c r="BL11" s="112"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="112"/>
+      <c r="BO11" s="112"/>
+      <c r="BP11" s="112"/>
+      <c r="BQ11" s="112"/>
+      <c r="BR11" s="112"/>
+      <c r="BS11" s="112"/>
+      <c r="BT11" s="112"/>
+      <c r="BU11" s="112"/>
+      <c r="BV11" s="112"/>
+      <c r="BW11" s="112"/>
+      <c r="BX11" s="112"/>
+      <c r="BY11" s="112"/>
+      <c r="BZ11" s="112"/>
+      <c r="CA11" s="112"/>
+      <c r="CB11" s="113"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="97"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="97"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="97"/>
-      <c r="BF12" s="97"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="97"/>
-      <c r="BJ12" s="97"/>
-      <c r="BK12" s="97"/>
-      <c r="BL12" s="97"/>
-      <c r="BM12" s="97"/>
-      <c r="BN12" s="97"/>
-      <c r="BO12" s="97"/>
-      <c r="BP12" s="97"/>
-      <c r="BQ12" s="97"/>
-      <c r="BR12" s="97"/>
-      <c r="BS12" s="97"/>
-      <c r="BT12" s="97"/>
-      <c r="BU12" s="97"/>
-      <c r="BV12" s="97"/>
-      <c r="BW12" s="97"/>
-      <c r="BX12" s="97"/>
-      <c r="BY12" s="97"/>
-      <c r="BZ12" s="97"/>
-      <c r="CA12" s="97"/>
-      <c r="CB12" s="98"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="115"/>
+      <c r="BU12" s="115"/>
+      <c r="BV12" s="115"/>
+      <c r="BW12" s="115"/>
+      <c r="BX12" s="115"/>
+      <c r="BY12" s="115"/>
+      <c r="BZ12" s="115"/>
+      <c r="CA12" s="115"/>
+      <c r="CB12" s="116"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="97"/>
-      <c r="BP13" s="97"/>
-      <c r="BQ13" s="97"/>
-      <c r="BR13" s="97"/>
-      <c r="BS13" s="97"/>
-      <c r="BT13" s="97"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="97"/>
-      <c r="BX13" s="97"/>
-      <c r="BY13" s="97"/>
-      <c r="BZ13" s="97"/>
-      <c r="CA13" s="97"/>
-      <c r="CB13" s="98"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="115"/>
+      <c r="AJ13" s="115"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
+      <c r="AX13" s="115"/>
+      <c r="AY13" s="115"/>
+      <c r="AZ13" s="115"/>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="115"/>
+      <c r="BE13" s="115"/>
+      <c r="BF13" s="115"/>
+      <c r="BG13" s="115"/>
+      <c r="BH13" s="115"/>
+      <c r="BI13" s="115"/>
+      <c r="BJ13" s="115"/>
+      <c r="BK13" s="115"/>
+      <c r="BL13" s="115"/>
+      <c r="BM13" s="115"/>
+      <c r="BN13" s="115"/>
+      <c r="BO13" s="115"/>
+      <c r="BP13" s="115"/>
+      <c r="BQ13" s="115"/>
+      <c r="BR13" s="115"/>
+      <c r="BS13" s="115"/>
+      <c r="BT13" s="115"/>
+      <c r="BU13" s="115"/>
+      <c r="BV13" s="115"/>
+      <c r="BW13" s="115"/>
+      <c r="BX13" s="115"/>
+      <c r="BY13" s="115"/>
+      <c r="BZ13" s="115"/>
+      <c r="CA13" s="115"/>
+      <c r="CB13" s="116"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="97"/>
-      <c r="AY14" s="97"/>
-      <c r="AZ14" s="97"/>
-      <c r="BA14" s="97"/>
-      <c r="BB14" s="97"/>
-      <c r="BC14" s="97"/>
-      <c r="BD14" s="97"/>
-      <c r="BE14" s="97"/>
-      <c r="BF14" s="97"/>
-      <c r="BG14" s="97"/>
-      <c r="BH14" s="97"/>
-      <c r="BI14" s="97"/>
-      <c r="BJ14" s="97"/>
-      <c r="BK14" s="97"/>
-      <c r="BL14" s="97"/>
-      <c r="BM14" s="97"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="97"/>
-      <c r="BP14" s="97"/>
-      <c r="BQ14" s="97"/>
-      <c r="BR14" s="97"/>
-      <c r="BS14" s="97"/>
-      <c r="BT14" s="97"/>
-      <c r="BU14" s="97"/>
-      <c r="BV14" s="97"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="97"/>
-      <c r="BY14" s="97"/>
-      <c r="BZ14" s="97"/>
-      <c r="CA14" s="97"/>
-      <c r="CB14" s="98"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
+      <c r="BP14" s="115"/>
+      <c r="BQ14" s="115"/>
+      <c r="BR14" s="115"/>
+      <c r="BS14" s="115"/>
+      <c r="BT14" s="115"/>
+      <c r="BU14" s="115"/>
+      <c r="BV14" s="115"/>
+      <c r="BW14" s="115"/>
+      <c r="BX14" s="115"/>
+      <c r="BY14" s="115"/>
+      <c r="BZ14" s="115"/>
+      <c r="CA14" s="115"/>
+      <c r="CB14" s="116"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="97"/>
-      <c r="AW15" s="97"/>
-      <c r="AX15" s="97"/>
-      <c r="AY15" s="97"/>
-      <c r="AZ15" s="97"/>
-      <c r="BA15" s="97"/>
-      <c r="BB15" s="97"/>
-      <c r="BC15" s="97"/>
-      <c r="BD15" s="97"/>
-      <c r="BE15" s="97"/>
-      <c r="BF15" s="97"/>
-      <c r="BG15" s="97"/>
-      <c r="BH15" s="97"/>
-      <c r="BI15" s="97"/>
-      <c r="BJ15" s="97"/>
-      <c r="BK15" s="97"/>
-      <c r="BL15" s="97"/>
-      <c r="BM15" s="97"/>
-      <c r="BN15" s="97"/>
-      <c r="BO15" s="97"/>
-      <c r="BP15" s="97"/>
-      <c r="BQ15" s="97"/>
-      <c r="BR15" s="97"/>
-      <c r="BS15" s="97"/>
-      <c r="BT15" s="97"/>
-      <c r="BU15" s="97"/>
-      <c r="BV15" s="97"/>
-      <c r="BW15" s="97"/>
-      <c r="BX15" s="97"/>
-      <c r="BY15" s="97"/>
-      <c r="BZ15" s="97"/>
-      <c r="CA15" s="97"/>
-      <c r="CB15" s="98"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="115"/>
+      <c r="AJ15" s="115"/>
+      <c r="AK15" s="115"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
+      <c r="AX15" s="115"/>
+      <c r="AY15" s="115"/>
+      <c r="AZ15" s="115"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="115"/>
+      <c r="BE15" s="115"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="115"/>
+      <c r="BJ15" s="115"/>
+      <c r="BK15" s="115"/>
+      <c r="BL15" s="115"/>
+      <c r="BM15" s="115"/>
+      <c r="BN15" s="115"/>
+      <c r="BO15" s="115"/>
+      <c r="BP15" s="115"/>
+      <c r="BQ15" s="115"/>
+      <c r="BR15" s="115"/>
+      <c r="BS15" s="115"/>
+      <c r="BT15" s="115"/>
+      <c r="BU15" s="115"/>
+      <c r="BV15" s="115"/>
+      <c r="BW15" s="115"/>
+      <c r="BX15" s="115"/>
+      <c r="BY15" s="115"/>
+      <c r="BZ15" s="115"/>
+      <c r="CA15" s="115"/>
+      <c r="CB15" s="116"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="97"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="97"/>
-      <c r="BF16" s="97"/>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="97"/>
-      <c r="BI16" s="97"/>
-      <c r="BJ16" s="97"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="97"/>
-      <c r="BM16" s="97"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="97"/>
-      <c r="BP16" s="97"/>
-      <c r="BQ16" s="97"/>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="97"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="97"/>
-      <c r="BW16" s="97"/>
-      <c r="BX16" s="97"/>
-      <c r="BY16" s="97"/>
-      <c r="BZ16" s="97"/>
-      <c r="CA16" s="97"/>
-      <c r="CB16" s="98"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="115"/>
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="115"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="115"/>
+      <c r="AZ16" s="115"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="115"/>
+      <c r="BD16" s="115"/>
+      <c r="BE16" s="115"/>
+      <c r="BF16" s="115"/>
+      <c r="BG16" s="115"/>
+      <c r="BH16" s="115"/>
+      <c r="BI16" s="115"/>
+      <c r="BJ16" s="115"/>
+      <c r="BK16" s="115"/>
+      <c r="BL16" s="115"/>
+      <c r="BM16" s="115"/>
+      <c r="BN16" s="115"/>
+      <c r="BO16" s="115"/>
+      <c r="BP16" s="115"/>
+      <c r="BQ16" s="115"/>
+      <c r="BR16" s="115"/>
+      <c r="BS16" s="115"/>
+      <c r="BT16" s="115"/>
+      <c r="BU16" s="115"/>
+      <c r="BV16" s="115"/>
+      <c r="BW16" s="115"/>
+      <c r="BX16" s="115"/>
+      <c r="BY16" s="115"/>
+      <c r="BZ16" s="115"/>
+      <c r="CA16" s="115"/>
+      <c r="CB16" s="116"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="97"/>
-      <c r="AO17" s="97"/>
-      <c r="AP17" s="97"/>
-      <c r="AQ17" s="97"/>
-      <c r="AR17" s="97"/>
-      <c r="AS17" s="97"/>
-      <c r="AT17" s="97"/>
-      <c r="AU17" s="97"/>
-      <c r="AV17" s="97"/>
-      <c r="AW17" s="97"/>
-      <c r="AX17" s="97"/>
-      <c r="AY17" s="97"/>
-      <c r="AZ17" s="97"/>
-      <c r="BA17" s="97"/>
-      <c r="BB17" s="97"/>
-      <c r="BC17" s="97"/>
-      <c r="BD17" s="97"/>
-      <c r="BE17" s="97"/>
-      <c r="BF17" s="97"/>
-      <c r="BG17" s="97"/>
-      <c r="BH17" s="97"/>
-      <c r="BI17" s="97"/>
-      <c r="BJ17" s="97"/>
-      <c r="BK17" s="97"/>
-      <c r="BL17" s="97"/>
-      <c r="BM17" s="97"/>
-      <c r="BN17" s="97"/>
-      <c r="BO17" s="97"/>
-      <c r="BP17" s="97"/>
-      <c r="BQ17" s="97"/>
-      <c r="BR17" s="97"/>
-      <c r="BS17" s="97"/>
-      <c r="BT17" s="97"/>
-      <c r="BU17" s="97"/>
-      <c r="BV17" s="97"/>
-      <c r="BW17" s="97"/>
-      <c r="BX17" s="97"/>
-      <c r="BY17" s="97"/>
-      <c r="BZ17" s="97"/>
-      <c r="CA17" s="97"/>
-      <c r="CB17" s="98"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="115"/>
+      <c r="AJ17" s="115"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="115"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="115"/>
+      <c r="AX17" s="115"/>
+      <c r="AY17" s="115"/>
+      <c r="AZ17" s="115"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="115"/>
+      <c r="BE17" s="115"/>
+      <c r="BF17" s="115"/>
+      <c r="BG17" s="115"/>
+      <c r="BH17" s="115"/>
+      <c r="BI17" s="115"/>
+      <c r="BJ17" s="115"/>
+      <c r="BK17" s="115"/>
+      <c r="BL17" s="115"/>
+      <c r="BM17" s="115"/>
+      <c r="BN17" s="115"/>
+      <c r="BO17" s="115"/>
+      <c r="BP17" s="115"/>
+      <c r="BQ17" s="115"/>
+      <c r="BR17" s="115"/>
+      <c r="BS17" s="115"/>
+      <c r="BT17" s="115"/>
+      <c r="BU17" s="115"/>
+      <c r="BV17" s="115"/>
+      <c r="BW17" s="115"/>
+      <c r="BX17" s="115"/>
+      <c r="BY17" s="115"/>
+      <c r="BZ17" s="115"/>
+      <c r="CA17" s="115"/>
+      <c r="CB17" s="116"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="97"/>
-      <c r="AR18" s="97"/>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="97"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="97"/>
-      <c r="AZ18" s="97"/>
-      <c r="BA18" s="97"/>
-      <c r="BB18" s="97"/>
-      <c r="BC18" s="97"/>
-      <c r="BD18" s="97"/>
-      <c r="BE18" s="97"/>
-      <c r="BF18" s="97"/>
-      <c r="BG18" s="97"/>
-      <c r="BH18" s="97"/>
-      <c r="BI18" s="97"/>
-      <c r="BJ18" s="97"/>
-      <c r="BK18" s="97"/>
-      <c r="BL18" s="97"/>
-      <c r="BM18" s="97"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="97"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="97"/>
-      <c r="CA18" s="97"/>
-      <c r="CB18" s="98"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
+      <c r="AA18" s="115"/>
+      <c r="AB18" s="115"/>
+      <c r="AC18" s="115"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="115"/>
+      <c r="AF18" s="115"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="115"/>
+      <c r="AJ18" s="115"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="115"/>
+      <c r="AM18" s="115"/>
+      <c r="AN18" s="115"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="115"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
+      <c r="AX18" s="115"/>
+      <c r="AY18" s="115"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="115"/>
+      <c r="BE18" s="115"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
+      <c r="BH18" s="115"/>
+      <c r="BI18" s="115"/>
+      <c r="BJ18" s="115"/>
+      <c r="BK18" s="115"/>
+      <c r="BL18" s="115"/>
+      <c r="BM18" s="115"/>
+      <c r="BN18" s="115"/>
+      <c r="BO18" s="115"/>
+      <c r="BP18" s="115"/>
+      <c r="BQ18" s="115"/>
+      <c r="BR18" s="115"/>
+      <c r="BS18" s="115"/>
+      <c r="BT18" s="115"/>
+      <c r="BU18" s="115"/>
+      <c r="BV18" s="115"/>
+      <c r="BW18" s="115"/>
+      <c r="BX18" s="115"/>
+      <c r="BY18" s="115"/>
+      <c r="BZ18" s="115"/>
+      <c r="CA18" s="115"/>
+      <c r="CB18" s="116"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="97"/>
-      <c r="AR19" s="97"/>
-      <c r="AS19" s="97"/>
-      <c r="AT19" s="97"/>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="97"/>
-      <c r="AW19" s="97"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="97"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="97"/>
-      <c r="BB19" s="97"/>
-      <c r="BC19" s="97"/>
-      <c r="BD19" s="97"/>
-      <c r="BE19" s="97"/>
-      <c r="BF19" s="97"/>
-      <c r="BG19" s="97"/>
-      <c r="BH19" s="97"/>
-      <c r="BI19" s="97"/>
-      <c r="BJ19" s="97"/>
-      <c r="BK19" s="97"/>
-      <c r="BL19" s="97"/>
-      <c r="BM19" s="97"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="97"/>
-      <c r="BP19" s="97"/>
-      <c r="BQ19" s="97"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="97"/>
-      <c r="BY19" s="97"/>
-      <c r="BZ19" s="97"/>
-      <c r="CA19" s="97"/>
-      <c r="CB19" s="98"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="115"/>
+      <c r="AA19" s="115"/>
+      <c r="AB19" s="115"/>
+      <c r="AC19" s="115"/>
+      <c r="AD19" s="115"/>
+      <c r="AE19" s="115"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="115"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="115"/>
+      <c r="AJ19" s="115"/>
+      <c r="AK19" s="115"/>
+      <c r="AL19" s="115"/>
+      <c r="AM19" s="115"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="115"/>
+      <c r="AR19" s="115"/>
+      <c r="AS19" s="115"/>
+      <c r="AT19" s="115"/>
+      <c r="AU19" s="115"/>
+      <c r="AV19" s="115"/>
+      <c r="AW19" s="115"/>
+      <c r="AX19" s="115"/>
+      <c r="AY19" s="115"/>
+      <c r="AZ19" s="115"/>
+      <c r="BA19" s="115"/>
+      <c r="BB19" s="115"/>
+      <c r="BC19" s="115"/>
+      <c r="BD19" s="115"/>
+      <c r="BE19" s="115"/>
+      <c r="BF19" s="115"/>
+      <c r="BG19" s="115"/>
+      <c r="BH19" s="115"/>
+      <c r="BI19" s="115"/>
+      <c r="BJ19" s="115"/>
+      <c r="BK19" s="115"/>
+      <c r="BL19" s="115"/>
+      <c r="BM19" s="115"/>
+      <c r="BN19" s="115"/>
+      <c r="BO19" s="115"/>
+      <c r="BP19" s="115"/>
+      <c r="BQ19" s="115"/>
+      <c r="BR19" s="115"/>
+      <c r="BS19" s="115"/>
+      <c r="BT19" s="115"/>
+      <c r="BU19" s="115"/>
+      <c r="BV19" s="115"/>
+      <c r="BW19" s="115"/>
+      <c r="BX19" s="115"/>
+      <c r="BY19" s="115"/>
+      <c r="BZ19" s="115"/>
+      <c r="CA19" s="115"/>
+      <c r="CB19" s="116"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="97"/>
-      <c r="BA20" s="97"/>
-      <c r="BB20" s="97"/>
-      <c r="BC20" s="97"/>
-      <c r="BD20" s="97"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="97"/>
-      <c r="BG20" s="97"/>
-      <c r="BH20" s="97"/>
-      <c r="BI20" s="97"/>
-      <c r="BJ20" s="97"/>
-      <c r="BK20" s="97"/>
-      <c r="BL20" s="97"/>
-      <c r="BM20" s="97"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="97"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="97"/>
-      <c r="CA20" s="97"/>
-      <c r="CB20" s="98"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="115"/>
+      <c r="AV20" s="115"/>
+      <c r="AW20" s="115"/>
+      <c r="AX20" s="115"/>
+      <c r="AY20" s="115"/>
+      <c r="AZ20" s="115"/>
+      <c r="BA20" s="115"/>
+      <c r="BB20" s="115"/>
+      <c r="BC20" s="115"/>
+      <c r="BD20" s="115"/>
+      <c r="BE20" s="115"/>
+      <c r="BF20" s="115"/>
+      <c r="BG20" s="115"/>
+      <c r="BH20" s="115"/>
+      <c r="BI20" s="115"/>
+      <c r="BJ20" s="115"/>
+      <c r="BK20" s="115"/>
+      <c r="BL20" s="115"/>
+      <c r="BM20" s="115"/>
+      <c r="BN20" s="115"/>
+      <c r="BO20" s="115"/>
+      <c r="BP20" s="115"/>
+      <c r="BQ20" s="115"/>
+      <c r="BR20" s="115"/>
+      <c r="BS20" s="115"/>
+      <c r="BT20" s="115"/>
+      <c r="BU20" s="115"/>
+      <c r="BV20" s="115"/>
+      <c r="BW20" s="115"/>
+      <c r="BX20" s="115"/>
+      <c r="BY20" s="115"/>
+      <c r="BZ20" s="115"/>
+      <c r="CA20" s="115"/>
+      <c r="CB20" s="116"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
-      <c r="AR21" s="97"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="97"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="97"/>
-      <c r="AW21" s="97"/>
-      <c r="AX21" s="97"/>
-      <c r="AY21" s="97"/>
-      <c r="AZ21" s="97"/>
-      <c r="BA21" s="97"/>
-      <c r="BB21" s="97"/>
-      <c r="BC21" s="97"/>
-      <c r="BD21" s="97"/>
-      <c r="BE21" s="97"/>
-      <c r="BF21" s="97"/>
-      <c r="BG21" s="97"/>
-      <c r="BH21" s="97"/>
-      <c r="BI21" s="97"/>
-      <c r="BJ21" s="97"/>
-      <c r="BK21" s="97"/>
-      <c r="BL21" s="97"/>
-      <c r="BM21" s="97"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="97"/>
-      <c r="BQ21" s="97"/>
-      <c r="BR21" s="97"/>
-      <c r="BS21" s="97"/>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
-      <c r="BV21" s="97"/>
-      <c r="BW21" s="97"/>
-      <c r="BX21" s="97"/>
-      <c r="BY21" s="97"/>
-      <c r="BZ21" s="97"/>
-      <c r="CA21" s="97"/>
-      <c r="CB21" s="98"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="115"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="115"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="115"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="115"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="115"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="115"/>
+      <c r="AM21" s="115"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
+      <c r="AX21" s="115"/>
+      <c r="AY21" s="115"/>
+      <c r="AZ21" s="115"/>
+      <c r="BA21" s="115"/>
+      <c r="BB21" s="115"/>
+      <c r="BC21" s="115"/>
+      <c r="BD21" s="115"/>
+      <c r="BE21" s="115"/>
+      <c r="BF21" s="115"/>
+      <c r="BG21" s="115"/>
+      <c r="BH21" s="115"/>
+      <c r="BI21" s="115"/>
+      <c r="BJ21" s="115"/>
+      <c r="BK21" s="115"/>
+      <c r="BL21" s="115"/>
+      <c r="BM21" s="115"/>
+      <c r="BN21" s="115"/>
+      <c r="BO21" s="115"/>
+      <c r="BP21" s="115"/>
+      <c r="BQ21" s="115"/>
+      <c r="BR21" s="115"/>
+      <c r="BS21" s="115"/>
+      <c r="BT21" s="115"/>
+      <c r="BU21" s="115"/>
+      <c r="BV21" s="115"/>
+      <c r="BW21" s="115"/>
+      <c r="BX21" s="115"/>
+      <c r="BY21" s="115"/>
+      <c r="BZ21" s="115"/>
+      <c r="CA21" s="115"/>
+      <c r="CB21" s="116"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="97"/>
-      <c r="BA22" s="97"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="97"/>
-      <c r="BH22" s="97"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="97"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="97"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="97"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="97"/>
-      <c r="CA22" s="97"/>
-      <c r="CB22" s="98"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="115"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="115"/>
+      <c r="AD22" s="115"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="115"/>
+      <c r="AJ22" s="115"/>
+      <c r="AK22" s="115"/>
+      <c r="AL22" s="115"/>
+      <c r="AM22" s="115"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="115"/>
+      <c r="AQ22" s="115"/>
+      <c r="AR22" s="115"/>
+      <c r="AS22" s="115"/>
+      <c r="AT22" s="115"/>
+      <c r="AU22" s="115"/>
+      <c r="AV22" s="115"/>
+      <c r="AW22" s="115"/>
+      <c r="AX22" s="115"/>
+      <c r="AY22" s="115"/>
+      <c r="AZ22" s="115"/>
+      <c r="BA22" s="115"/>
+      <c r="BB22" s="115"/>
+      <c r="BC22" s="115"/>
+      <c r="BD22" s="115"/>
+      <c r="BE22" s="115"/>
+      <c r="BF22" s="115"/>
+      <c r="BG22" s="115"/>
+      <c r="BH22" s="115"/>
+      <c r="BI22" s="115"/>
+      <c r="BJ22" s="115"/>
+      <c r="BK22" s="115"/>
+      <c r="BL22" s="115"/>
+      <c r="BM22" s="115"/>
+      <c r="BN22" s="115"/>
+      <c r="BO22" s="115"/>
+      <c r="BP22" s="115"/>
+      <c r="BQ22" s="115"/>
+      <c r="BR22" s="115"/>
+      <c r="BS22" s="115"/>
+      <c r="BT22" s="115"/>
+      <c r="BU22" s="115"/>
+      <c r="BV22" s="115"/>
+      <c r="BW22" s="115"/>
+      <c r="BX22" s="115"/>
+      <c r="BY22" s="115"/>
+      <c r="BZ22" s="115"/>
+      <c r="CA22" s="115"/>
+      <c r="CB22" s="116"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="97"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="97"/>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="97"/>
-      <c r="AW23" s="97"/>
-      <c r="AX23" s="97"/>
-      <c r="AY23" s="97"/>
-      <c r="AZ23" s="97"/>
-      <c r="BA23" s="97"/>
-      <c r="BB23" s="97"/>
-      <c r="BC23" s="97"/>
-      <c r="BD23" s="97"/>
-      <c r="BE23" s="97"/>
-      <c r="BF23" s="97"/>
-      <c r="BG23" s="97"/>
-      <c r="BH23" s="97"/>
-      <c r="BI23" s="97"/>
-      <c r="BJ23" s="97"/>
-      <c r="BK23" s="97"/>
-      <c r="BL23" s="97"/>
-      <c r="BM23" s="97"/>
-      <c r="BN23" s="97"/>
-      <c r="BO23" s="97"/>
-      <c r="BP23" s="97"/>
-      <c r="BQ23" s="97"/>
-      <c r="BR23" s="97"/>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
-      <c r="BV23" s="97"/>
-      <c r="BW23" s="97"/>
-      <c r="BX23" s="97"/>
-      <c r="BY23" s="97"/>
-      <c r="BZ23" s="97"/>
-      <c r="CA23" s="97"/>
-      <c r="CB23" s="98"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="115"/>
+      <c r="Z23" s="115"/>
+      <c r="AA23" s="115"/>
+      <c r="AB23" s="115"/>
+      <c r="AC23" s="115"/>
+      <c r="AD23" s="115"/>
+      <c r="AE23" s="115"/>
+      <c r="AF23" s="115"/>
+      <c r="AG23" s="115"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="115"/>
+      <c r="AJ23" s="115"/>
+      <c r="AK23" s="115"/>
+      <c r="AL23" s="115"/>
+      <c r="AM23" s="115"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="115"/>
+      <c r="AR23" s="115"/>
+      <c r="AS23" s="115"/>
+      <c r="AT23" s="115"/>
+      <c r="AU23" s="115"/>
+      <c r="AV23" s="115"/>
+      <c r="AW23" s="115"/>
+      <c r="AX23" s="115"/>
+      <c r="AY23" s="115"/>
+      <c r="AZ23" s="115"/>
+      <c r="BA23" s="115"/>
+      <c r="BB23" s="115"/>
+      <c r="BC23" s="115"/>
+      <c r="BD23" s="115"/>
+      <c r="BE23" s="115"/>
+      <c r="BF23" s="115"/>
+      <c r="BG23" s="115"/>
+      <c r="BH23" s="115"/>
+      <c r="BI23" s="115"/>
+      <c r="BJ23" s="115"/>
+      <c r="BK23" s="115"/>
+      <c r="BL23" s="115"/>
+      <c r="BM23" s="115"/>
+      <c r="BN23" s="115"/>
+      <c r="BO23" s="115"/>
+      <c r="BP23" s="115"/>
+      <c r="BQ23" s="115"/>
+      <c r="BR23" s="115"/>
+      <c r="BS23" s="115"/>
+      <c r="BT23" s="115"/>
+      <c r="BU23" s="115"/>
+      <c r="BV23" s="115"/>
+      <c r="BW23" s="115"/>
+      <c r="BX23" s="115"/>
+      <c r="BY23" s="115"/>
+      <c r="BZ23" s="115"/>
+      <c r="CA23" s="115"/>
+      <c r="CB23" s="116"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
-      <c r="BH24" s="100"/>
-      <c r="BI24" s="100"/>
-      <c r="BJ24" s="100"/>
-      <c r="BK24" s="100"/>
-      <c r="BL24" s="100"/>
-      <c r="BM24" s="100"/>
-      <c r="BN24" s="100"/>
-      <c r="BO24" s="100"/>
-      <c r="BP24" s="100"/>
-      <c r="BQ24" s="100"/>
-      <c r="BR24" s="100"/>
-      <c r="BS24" s="100"/>
-      <c r="BT24" s="100"/>
-      <c r="BU24" s="100"/>
-      <c r="BV24" s="100"/>
-      <c r="BW24" s="100"/>
-      <c r="BX24" s="100"/>
-      <c r="BY24" s="100"/>
-      <c r="BZ24" s="100"/>
-      <c r="CA24" s="100"/>
-      <c r="CB24" s="101"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
+      <c r="AS24" s="118"/>
+      <c r="AT24" s="118"/>
+      <c r="AU24" s="118"/>
+      <c r="AV24" s="118"/>
+      <c r="AW24" s="118"/>
+      <c r="AX24" s="118"/>
+      <c r="AY24" s="118"/>
+      <c r="AZ24" s="118"/>
+      <c r="BA24" s="118"/>
+      <c r="BB24" s="118"/>
+      <c r="BC24" s="118"/>
+      <c r="BD24" s="118"/>
+      <c r="BE24" s="118"/>
+      <c r="BF24" s="118"/>
+      <c r="BG24" s="118"/>
+      <c r="BH24" s="118"/>
+      <c r="BI24" s="118"/>
+      <c r="BJ24" s="118"/>
+      <c r="BK24" s="118"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="118"/>
+      <c r="BQ24" s="118"/>
+      <c r="BR24" s="118"/>
+      <c r="BS24" s="118"/>
+      <c r="BT24" s="118"/>
+      <c r="BU24" s="118"/>
+      <c r="BV24" s="118"/>
+      <c r="BW24" s="118"/>
+      <c r="BX24" s="118"/>
+      <c r="BY24" s="118"/>
+      <c r="BZ24" s="118"/>
+      <c r="CA24" s="118"/>
+      <c r="CB24" s="119"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15818,1501 +16533,1501 @@
       <c r="CB27" s="92"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="94"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="94"/>
-      <c r="AL28" s="94"/>
-      <c r="AM28" s="94"/>
-      <c r="AN28" s="95"/>
-      <c r="AQ28" s="93"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="94"/>
-      <c r="BB28" s="94"/>
-      <c r="BC28" s="94"/>
-      <c r="BD28" s="94"/>
-      <c r="BE28" s="94"/>
-      <c r="BF28" s="94"/>
-      <c r="BG28" s="94"/>
-      <c r="BH28" s="94"/>
-      <c r="BI28" s="94"/>
-      <c r="BJ28" s="94"/>
-      <c r="BK28" s="94"/>
-      <c r="BL28" s="94"/>
-      <c r="BM28" s="94"/>
-      <c r="BN28" s="94"/>
-      <c r="BO28" s="94"/>
-      <c r="BP28" s="94"/>
-      <c r="BQ28" s="94"/>
-      <c r="BR28" s="94"/>
-      <c r="BS28" s="94"/>
-      <c r="BT28" s="94"/>
-      <c r="BU28" s="94"/>
-      <c r="BV28" s="94"/>
-      <c r="BW28" s="94"/>
-      <c r="BX28" s="94"/>
-      <c r="BY28" s="94"/>
-      <c r="BZ28" s="94"/>
-      <c r="CA28" s="94"/>
-      <c r="CB28" s="95"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="112"/>
+      <c r="AI28" s="112"/>
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="112"/>
+      <c r="AM28" s="112"/>
+      <c r="AN28" s="113"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="112"/>
+      <c r="AS28" s="112"/>
+      <c r="AT28" s="112"/>
+      <c r="AU28" s="112"/>
+      <c r="AV28" s="112"/>
+      <c r="AW28" s="112"/>
+      <c r="AX28" s="112"/>
+      <c r="AY28" s="112"/>
+      <c r="AZ28" s="112"/>
+      <c r="BA28" s="112"/>
+      <c r="BB28" s="112"/>
+      <c r="BC28" s="112"/>
+      <c r="BD28" s="112"/>
+      <c r="BE28" s="112"/>
+      <c r="BF28" s="112"/>
+      <c r="BG28" s="112"/>
+      <c r="BH28" s="112"/>
+      <c r="BI28" s="112"/>
+      <c r="BJ28" s="112"/>
+      <c r="BK28" s="112"/>
+      <c r="BL28" s="112"/>
+      <c r="BM28" s="112"/>
+      <c r="BN28" s="112"/>
+      <c r="BO28" s="112"/>
+      <c r="BP28" s="112"/>
+      <c r="BQ28" s="112"/>
+      <c r="BR28" s="112"/>
+      <c r="BS28" s="112"/>
+      <c r="BT28" s="112"/>
+      <c r="BU28" s="112"/>
+      <c r="BV28" s="112"/>
+      <c r="BW28" s="112"/>
+      <c r="BX28" s="112"/>
+      <c r="BY28" s="112"/>
+      <c r="BZ28" s="112"/>
+      <c r="CA28" s="112"/>
+      <c r="CB28" s="113"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="97"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="97"/>
-      <c r="AL29" s="97"/>
-      <c r="AM29" s="97"/>
-      <c r="AN29" s="98"/>
-      <c r="AQ29" s="96"/>
-      <c r="AR29" s="97"/>
-      <c r="AS29" s="97"/>
-      <c r="AT29" s="97"/>
-      <c r="AU29" s="97"/>
-      <c r="AV29" s="97"/>
-      <c r="AW29" s="97"/>
-      <c r="AX29" s="97"/>
-      <c r="AY29" s="97"/>
-      <c r="AZ29" s="97"/>
-      <c r="BA29" s="97"/>
-      <c r="BB29" s="97"/>
-      <c r="BC29" s="97"/>
-      <c r="BD29" s="97"/>
-      <c r="BE29" s="97"/>
-      <c r="BF29" s="97"/>
-      <c r="BG29" s="97"/>
-      <c r="BH29" s="97"/>
-      <c r="BI29" s="97"/>
-      <c r="BJ29" s="97"/>
-      <c r="BK29" s="97"/>
-      <c r="BL29" s="97"/>
-      <c r="BM29" s="97"/>
-      <c r="BN29" s="97"/>
-      <c r="BO29" s="97"/>
-      <c r="BP29" s="97"/>
-      <c r="BQ29" s="97"/>
-      <c r="BR29" s="97"/>
-      <c r="BS29" s="97"/>
-      <c r="BT29" s="97"/>
-      <c r="BU29" s="97"/>
-      <c r="BV29" s="97"/>
-      <c r="BW29" s="97"/>
-      <c r="BX29" s="97"/>
-      <c r="BY29" s="97"/>
-      <c r="BZ29" s="97"/>
-      <c r="CA29" s="97"/>
-      <c r="CB29" s="98"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
+      <c r="W29" s="115"/>
+      <c r="X29" s="115"/>
+      <c r="Y29" s="115"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="115"/>
+      <c r="AB29" s="115"/>
+      <c r="AC29" s="115"/>
+      <c r="AD29" s="115"/>
+      <c r="AE29" s="115"/>
+      <c r="AF29" s="115"/>
+      <c r="AG29" s="115"/>
+      <c r="AH29" s="115"/>
+      <c r="AI29" s="115"/>
+      <c r="AJ29" s="115"/>
+      <c r="AK29" s="115"/>
+      <c r="AL29" s="115"/>
+      <c r="AM29" s="115"/>
+      <c r="AN29" s="116"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="115"/>
+      <c r="AS29" s="115"/>
+      <c r="AT29" s="115"/>
+      <c r="AU29" s="115"/>
+      <c r="AV29" s="115"/>
+      <c r="AW29" s="115"/>
+      <c r="AX29" s="115"/>
+      <c r="AY29" s="115"/>
+      <c r="AZ29" s="115"/>
+      <c r="BA29" s="115"/>
+      <c r="BB29" s="115"/>
+      <c r="BC29" s="115"/>
+      <c r="BD29" s="115"/>
+      <c r="BE29" s="115"/>
+      <c r="BF29" s="115"/>
+      <c r="BG29" s="115"/>
+      <c r="BH29" s="115"/>
+      <c r="BI29" s="115"/>
+      <c r="BJ29" s="115"/>
+      <c r="BK29" s="115"/>
+      <c r="BL29" s="115"/>
+      <c r="BM29" s="115"/>
+      <c r="BN29" s="115"/>
+      <c r="BO29" s="115"/>
+      <c r="BP29" s="115"/>
+      <c r="BQ29" s="115"/>
+      <c r="BR29" s="115"/>
+      <c r="BS29" s="115"/>
+      <c r="BT29" s="115"/>
+      <c r="BU29" s="115"/>
+      <c r="BV29" s="115"/>
+      <c r="BW29" s="115"/>
+      <c r="BX29" s="115"/>
+      <c r="BY29" s="115"/>
+      <c r="BZ29" s="115"/>
+      <c r="CA29" s="115"/>
+      <c r="CB29" s="116"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97"/>
-      <c r="AL30" s="97"/>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="98"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="97"/>
-      <c r="AS30" s="97"/>
-      <c r="AT30" s="97"/>
-      <c r="AU30" s="97"/>
-      <c r="AV30" s="97"/>
-      <c r="AW30" s="97"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="97"/>
-      <c r="AZ30" s="97"/>
-      <c r="BA30" s="97"/>
-      <c r="BB30" s="97"/>
-      <c r="BC30" s="97"/>
-      <c r="BD30" s="97"/>
-      <c r="BE30" s="97"/>
-      <c r="BF30" s="97"/>
-      <c r="BG30" s="97"/>
-      <c r="BH30" s="97"/>
-      <c r="BI30" s="97"/>
-      <c r="BJ30" s="97"/>
-      <c r="BK30" s="97"/>
-      <c r="BL30" s="97"/>
-      <c r="BM30" s="97"/>
-      <c r="BN30" s="97"/>
-      <c r="BO30" s="97"/>
-      <c r="BP30" s="97"/>
-      <c r="BQ30" s="97"/>
-      <c r="BR30" s="97"/>
-      <c r="BS30" s="97"/>
-      <c r="BT30" s="97"/>
-      <c r="BU30" s="97"/>
-      <c r="BV30" s="97"/>
-      <c r="BW30" s="97"/>
-      <c r="BX30" s="97"/>
-      <c r="BY30" s="97"/>
-      <c r="BZ30" s="97"/>
-      <c r="CA30" s="97"/>
-      <c r="CB30" s="98"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
+      <c r="X30" s="115"/>
+      <c r="Y30" s="115"/>
+      <c r="Z30" s="115"/>
+      <c r="AA30" s="115"/>
+      <c r="AB30" s="115"/>
+      <c r="AC30" s="115"/>
+      <c r="AD30" s="115"/>
+      <c r="AE30" s="115"/>
+      <c r="AF30" s="115"/>
+      <c r="AG30" s="115"/>
+      <c r="AH30" s="115"/>
+      <c r="AI30" s="115"/>
+      <c r="AJ30" s="115"/>
+      <c r="AK30" s="115"/>
+      <c r="AL30" s="115"/>
+      <c r="AM30" s="115"/>
+      <c r="AN30" s="116"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="115"/>
+      <c r="AS30" s="115"/>
+      <c r="AT30" s="115"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
+      <c r="AX30" s="115"/>
+      <c r="AY30" s="115"/>
+      <c r="AZ30" s="115"/>
+      <c r="BA30" s="115"/>
+      <c r="BB30" s="115"/>
+      <c r="BC30" s="115"/>
+      <c r="BD30" s="115"/>
+      <c r="BE30" s="115"/>
+      <c r="BF30" s="115"/>
+      <c r="BG30" s="115"/>
+      <c r="BH30" s="115"/>
+      <c r="BI30" s="115"/>
+      <c r="BJ30" s="115"/>
+      <c r="BK30" s="115"/>
+      <c r="BL30" s="115"/>
+      <c r="BM30" s="115"/>
+      <c r="BN30" s="115"/>
+      <c r="BO30" s="115"/>
+      <c r="BP30" s="115"/>
+      <c r="BQ30" s="115"/>
+      <c r="BR30" s="115"/>
+      <c r="BS30" s="115"/>
+      <c r="BT30" s="115"/>
+      <c r="BU30" s="115"/>
+      <c r="BV30" s="115"/>
+      <c r="BW30" s="115"/>
+      <c r="BX30" s="115"/>
+      <c r="BY30" s="115"/>
+      <c r="BZ30" s="115"/>
+      <c r="CA30" s="115"/>
+      <c r="CB30" s="116"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="97"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="98"/>
-      <c r="AQ31" s="96"/>
-      <c r="AR31" s="97"/>
-      <c r="AS31" s="97"/>
-      <c r="AT31" s="97"/>
-      <c r="AU31" s="97"/>
-      <c r="AV31" s="97"/>
-      <c r="AW31" s="97"/>
-      <c r="AX31" s="97"/>
-      <c r="AY31" s="97"/>
-      <c r="AZ31" s="97"/>
-      <c r="BA31" s="97"/>
-      <c r="BB31" s="97"/>
-      <c r="BC31" s="97"/>
-      <c r="BD31" s="97"/>
-      <c r="BE31" s="97"/>
-      <c r="BF31" s="97"/>
-      <c r="BG31" s="97"/>
-      <c r="BH31" s="97"/>
-      <c r="BI31" s="97"/>
-      <c r="BJ31" s="97"/>
-      <c r="BK31" s="97"/>
-      <c r="BL31" s="97"/>
-      <c r="BM31" s="97"/>
-      <c r="BN31" s="97"/>
-      <c r="BO31" s="97"/>
-      <c r="BP31" s="97"/>
-      <c r="BQ31" s="97"/>
-      <c r="BR31" s="97"/>
-      <c r="BS31" s="97"/>
-      <c r="BT31" s="97"/>
-      <c r="BU31" s="97"/>
-      <c r="BV31" s="97"/>
-      <c r="BW31" s="97"/>
-      <c r="BX31" s="97"/>
-      <c r="BY31" s="97"/>
-      <c r="BZ31" s="97"/>
-      <c r="CA31" s="97"/>
-      <c r="CB31" s="98"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="115"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="115"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="115"/>
+      <c r="AJ31" s="115"/>
+      <c r="AK31" s="115"/>
+      <c r="AL31" s="115"/>
+      <c r="AM31" s="115"/>
+      <c r="AN31" s="116"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
+      <c r="AX31" s="115"/>
+      <c r="AY31" s="115"/>
+      <c r="AZ31" s="115"/>
+      <c r="BA31" s="115"/>
+      <c r="BB31" s="115"/>
+      <c r="BC31" s="115"/>
+      <c r="BD31" s="115"/>
+      <c r="BE31" s="115"/>
+      <c r="BF31" s="115"/>
+      <c r="BG31" s="115"/>
+      <c r="BH31" s="115"/>
+      <c r="BI31" s="115"/>
+      <c r="BJ31" s="115"/>
+      <c r="BK31" s="115"/>
+      <c r="BL31" s="115"/>
+      <c r="BM31" s="115"/>
+      <c r="BN31" s="115"/>
+      <c r="BO31" s="115"/>
+      <c r="BP31" s="115"/>
+      <c r="BQ31" s="115"/>
+      <c r="BR31" s="115"/>
+      <c r="BS31" s="115"/>
+      <c r="BT31" s="115"/>
+      <c r="BU31" s="115"/>
+      <c r="BV31" s="115"/>
+      <c r="BW31" s="115"/>
+      <c r="BX31" s="115"/>
+      <c r="BY31" s="115"/>
+      <c r="BZ31" s="115"/>
+      <c r="CA31" s="115"/>
+      <c r="CB31" s="116"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="97"/>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="97"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="97"/>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="97"/>
-      <c r="AN32" s="98"/>
-      <c r="AQ32" s="96"/>
-      <c r="AR32" s="97"/>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
-      <c r="AU32" s="97"/>
-      <c r="AV32" s="97"/>
-      <c r="AW32" s="97"/>
-      <c r="AX32" s="97"/>
-      <c r="AY32" s="97"/>
-      <c r="AZ32" s="97"/>
-      <c r="BA32" s="97"/>
-      <c r="BB32" s="97"/>
-      <c r="BC32" s="97"/>
-      <c r="BD32" s="97"/>
-      <c r="BE32" s="97"/>
-      <c r="BF32" s="97"/>
-      <c r="BG32" s="97"/>
-      <c r="BH32" s="97"/>
-      <c r="BI32" s="97"/>
-      <c r="BJ32" s="97"/>
-      <c r="BK32" s="97"/>
-      <c r="BL32" s="97"/>
-      <c r="BM32" s="97"/>
-      <c r="BN32" s="97"/>
-      <c r="BO32" s="97"/>
-      <c r="BP32" s="97"/>
-      <c r="BQ32" s="97"/>
-      <c r="BR32" s="97"/>
-      <c r="BS32" s="97"/>
-      <c r="BT32" s="97"/>
-      <c r="BU32" s="97"/>
-      <c r="BV32" s="97"/>
-      <c r="BW32" s="97"/>
-      <c r="BX32" s="97"/>
-      <c r="BY32" s="97"/>
-      <c r="BZ32" s="97"/>
-      <c r="CA32" s="97"/>
-      <c r="CB32" s="98"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="115"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="115"/>
+      <c r="AD32" s="115"/>
+      <c r="AE32" s="115"/>
+      <c r="AF32" s="115"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="115"/>
+      <c r="AI32" s="115"/>
+      <c r="AJ32" s="115"/>
+      <c r="AK32" s="115"/>
+      <c r="AL32" s="115"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="116"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="115"/>
+      <c r="AS32" s="115"/>
+      <c r="AT32" s="115"/>
+      <c r="AU32" s="115"/>
+      <c r="AV32" s="115"/>
+      <c r="AW32" s="115"/>
+      <c r="AX32" s="115"/>
+      <c r="AY32" s="115"/>
+      <c r="AZ32" s="115"/>
+      <c r="BA32" s="115"/>
+      <c r="BB32" s="115"/>
+      <c r="BC32" s="115"/>
+      <c r="BD32" s="115"/>
+      <c r="BE32" s="115"/>
+      <c r="BF32" s="115"/>
+      <c r="BG32" s="115"/>
+      <c r="BH32" s="115"/>
+      <c r="BI32" s="115"/>
+      <c r="BJ32" s="115"/>
+      <c r="BK32" s="115"/>
+      <c r="BL32" s="115"/>
+      <c r="BM32" s="115"/>
+      <c r="BN32" s="115"/>
+      <c r="BO32" s="115"/>
+      <c r="BP32" s="115"/>
+      <c r="BQ32" s="115"/>
+      <c r="BR32" s="115"/>
+      <c r="BS32" s="115"/>
+      <c r="BT32" s="115"/>
+      <c r="BU32" s="115"/>
+      <c r="BV32" s="115"/>
+      <c r="BW32" s="115"/>
+      <c r="BX32" s="115"/>
+      <c r="BY32" s="115"/>
+      <c r="BZ32" s="115"/>
+      <c r="CA32" s="115"/>
+      <c r="CB32" s="116"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="97"/>
-      <c r="AL33" s="97"/>
-      <c r="AM33" s="97"/>
-      <c r="AN33" s="98"/>
-      <c r="AQ33" s="96"/>
-      <c r="AR33" s="97"/>
-      <c r="AS33" s="97"/>
-      <c r="AT33" s="97"/>
-      <c r="AU33" s="97"/>
-      <c r="AV33" s="97"/>
-      <c r="AW33" s="97"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="97"/>
-      <c r="AZ33" s="97"/>
-      <c r="BA33" s="97"/>
-      <c r="BB33" s="97"/>
-      <c r="BC33" s="97"/>
-      <c r="BD33" s="97"/>
-      <c r="BE33" s="97"/>
-      <c r="BF33" s="97"/>
-      <c r="BG33" s="97"/>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BR33" s="97"/>
-      <c r="BS33" s="97"/>
-      <c r="BT33" s="97"/>
-      <c r="BU33" s="97"/>
-      <c r="BV33" s="97"/>
-      <c r="BW33" s="97"/>
-      <c r="BX33" s="97"/>
-      <c r="BY33" s="97"/>
-      <c r="BZ33" s="97"/>
-      <c r="CA33" s="97"/>
-      <c r="CB33" s="98"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115"/>
+      <c r="AB33" s="115"/>
+      <c r="AC33" s="115"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="115"/>
+      <c r="AF33" s="115"/>
+      <c r="AG33" s="115"/>
+      <c r="AH33" s="115"/>
+      <c r="AI33" s="115"/>
+      <c r="AJ33" s="115"/>
+      <c r="AK33" s="115"/>
+      <c r="AL33" s="115"/>
+      <c r="AM33" s="115"/>
+      <c r="AN33" s="116"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="115"/>
+      <c r="AS33" s="115"/>
+      <c r="AT33" s="115"/>
+      <c r="AU33" s="115"/>
+      <c r="AV33" s="115"/>
+      <c r="AW33" s="115"/>
+      <c r="AX33" s="115"/>
+      <c r="AY33" s="115"/>
+      <c r="AZ33" s="115"/>
+      <c r="BA33" s="115"/>
+      <c r="BB33" s="115"/>
+      <c r="BC33" s="115"/>
+      <c r="BD33" s="115"/>
+      <c r="BE33" s="115"/>
+      <c r="BF33" s="115"/>
+      <c r="BG33" s="115"/>
+      <c r="BH33" s="115"/>
+      <c r="BI33" s="115"/>
+      <c r="BJ33" s="115"/>
+      <c r="BK33" s="115"/>
+      <c r="BL33" s="115"/>
+      <c r="BM33" s="115"/>
+      <c r="BN33" s="115"/>
+      <c r="BO33" s="115"/>
+      <c r="BP33" s="115"/>
+      <c r="BQ33" s="115"/>
+      <c r="BR33" s="115"/>
+      <c r="BS33" s="115"/>
+      <c r="BT33" s="115"/>
+      <c r="BU33" s="115"/>
+      <c r="BV33" s="115"/>
+      <c r="BW33" s="115"/>
+      <c r="BX33" s="115"/>
+      <c r="BY33" s="115"/>
+      <c r="BZ33" s="115"/>
+      <c r="CA33" s="115"/>
+      <c r="CB33" s="116"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="97"/>
-      <c r="AL34" s="97"/>
-      <c r="AM34" s="97"/>
-      <c r="AN34" s="98"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="97"/>
-      <c r="AS34" s="97"/>
-      <c r="AT34" s="97"/>
-      <c r="AU34" s="97"/>
-      <c r="AV34" s="97"/>
-      <c r="AW34" s="97"/>
-      <c r="AX34" s="97"/>
-      <c r="AY34" s="97"/>
-      <c r="AZ34" s="97"/>
-      <c r="BA34" s="97"/>
-      <c r="BB34" s="97"/>
-      <c r="BC34" s="97"/>
-      <c r="BD34" s="97"/>
-      <c r="BE34" s="97"/>
-      <c r="BF34" s="97"/>
-      <c r="BG34" s="97"/>
-      <c r="BH34" s="97"/>
-      <c r="BI34" s="97"/>
-      <c r="BJ34" s="97"/>
-      <c r="BK34" s="97"/>
-      <c r="BL34" s="97"/>
-      <c r="BM34" s="97"/>
-      <c r="BN34" s="97"/>
-      <c r="BO34" s="97"/>
-      <c r="BP34" s="97"/>
-      <c r="BQ34" s="97"/>
-      <c r="BR34" s="97"/>
-      <c r="BS34" s="97"/>
-      <c r="BT34" s="97"/>
-      <c r="BU34" s="97"/>
-      <c r="BV34" s="97"/>
-      <c r="BW34" s="97"/>
-      <c r="BX34" s="97"/>
-      <c r="BY34" s="97"/>
-      <c r="BZ34" s="97"/>
-      <c r="CA34" s="97"/>
-      <c r="CB34" s="98"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
+      <c r="AB34" s="115"/>
+      <c r="AC34" s="115"/>
+      <c r="AD34" s="115"/>
+      <c r="AE34" s="115"/>
+      <c r="AF34" s="115"/>
+      <c r="AG34" s="115"/>
+      <c r="AH34" s="115"/>
+      <c r="AI34" s="115"/>
+      <c r="AJ34" s="115"/>
+      <c r="AK34" s="115"/>
+      <c r="AL34" s="115"/>
+      <c r="AM34" s="115"/>
+      <c r="AN34" s="116"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="115"/>
+      <c r="AS34" s="115"/>
+      <c r="AT34" s="115"/>
+      <c r="AU34" s="115"/>
+      <c r="AV34" s="115"/>
+      <c r="AW34" s="115"/>
+      <c r="AX34" s="115"/>
+      <c r="AY34" s="115"/>
+      <c r="AZ34" s="115"/>
+      <c r="BA34" s="115"/>
+      <c r="BB34" s="115"/>
+      <c r="BC34" s="115"/>
+      <c r="BD34" s="115"/>
+      <c r="BE34" s="115"/>
+      <c r="BF34" s="115"/>
+      <c r="BG34" s="115"/>
+      <c r="BH34" s="115"/>
+      <c r="BI34" s="115"/>
+      <c r="BJ34" s="115"/>
+      <c r="BK34" s="115"/>
+      <c r="BL34" s="115"/>
+      <c r="BM34" s="115"/>
+      <c r="BN34" s="115"/>
+      <c r="BO34" s="115"/>
+      <c r="BP34" s="115"/>
+      <c r="BQ34" s="115"/>
+      <c r="BR34" s="115"/>
+      <c r="BS34" s="115"/>
+      <c r="BT34" s="115"/>
+      <c r="BU34" s="115"/>
+      <c r="BV34" s="115"/>
+      <c r="BW34" s="115"/>
+      <c r="BX34" s="115"/>
+      <c r="BY34" s="115"/>
+      <c r="BZ34" s="115"/>
+      <c r="CA34" s="115"/>
+      <c r="CB34" s="116"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="97"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="97"/>
-      <c r="AL35" s="97"/>
-      <c r="AM35" s="97"/>
-      <c r="AN35" s="98"/>
-      <c r="AQ35" s="96"/>
-      <c r="AR35" s="97"/>
-      <c r="AS35" s="97"/>
-      <c r="AT35" s="97"/>
-      <c r="AU35" s="97"/>
-      <c r="AV35" s="97"/>
-      <c r="AW35" s="97"/>
-      <c r="AX35" s="97"/>
-      <c r="AY35" s="97"/>
-      <c r="AZ35" s="97"/>
-      <c r="BA35" s="97"/>
-      <c r="BB35" s="97"/>
-      <c r="BC35" s="97"/>
-      <c r="BD35" s="97"/>
-      <c r="BE35" s="97"/>
-      <c r="BF35" s="97"/>
-      <c r="BG35" s="97"/>
-      <c r="BH35" s="97"/>
-      <c r="BI35" s="97"/>
-      <c r="BJ35" s="97"/>
-      <c r="BK35" s="97"/>
-      <c r="BL35" s="97"/>
-      <c r="BM35" s="97"/>
-      <c r="BN35" s="97"/>
-      <c r="BO35" s="97"/>
-      <c r="BP35" s="97"/>
-      <c r="BQ35" s="97"/>
-      <c r="BR35" s="97"/>
-      <c r="BS35" s="97"/>
-      <c r="BT35" s="97"/>
-      <c r="BU35" s="97"/>
-      <c r="BV35" s="97"/>
-      <c r="BW35" s="97"/>
-      <c r="BX35" s="97"/>
-      <c r="BY35" s="97"/>
-      <c r="BZ35" s="97"/>
-      <c r="CA35" s="97"/>
-      <c r="CB35" s="98"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
+      <c r="AD35" s="115"/>
+      <c r="AE35" s="115"/>
+      <c r="AF35" s="115"/>
+      <c r="AG35" s="115"/>
+      <c r="AH35" s="115"/>
+      <c r="AI35" s="115"/>
+      <c r="AJ35" s="115"/>
+      <c r="AK35" s="115"/>
+      <c r="AL35" s="115"/>
+      <c r="AM35" s="115"/>
+      <c r="AN35" s="116"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="115"/>
+      <c r="AS35" s="115"/>
+      <c r="AT35" s="115"/>
+      <c r="AU35" s="115"/>
+      <c r="AV35" s="115"/>
+      <c r="AW35" s="115"/>
+      <c r="AX35" s="115"/>
+      <c r="AY35" s="115"/>
+      <c r="AZ35" s="115"/>
+      <c r="BA35" s="115"/>
+      <c r="BB35" s="115"/>
+      <c r="BC35" s="115"/>
+      <c r="BD35" s="115"/>
+      <c r="BE35" s="115"/>
+      <c r="BF35" s="115"/>
+      <c r="BG35" s="115"/>
+      <c r="BH35" s="115"/>
+      <c r="BI35" s="115"/>
+      <c r="BJ35" s="115"/>
+      <c r="BK35" s="115"/>
+      <c r="BL35" s="115"/>
+      <c r="BM35" s="115"/>
+      <c r="BN35" s="115"/>
+      <c r="BO35" s="115"/>
+      <c r="BP35" s="115"/>
+      <c r="BQ35" s="115"/>
+      <c r="BR35" s="115"/>
+      <c r="BS35" s="115"/>
+      <c r="BT35" s="115"/>
+      <c r="BU35" s="115"/>
+      <c r="BV35" s="115"/>
+      <c r="BW35" s="115"/>
+      <c r="BX35" s="115"/>
+      <c r="BY35" s="115"/>
+      <c r="BZ35" s="115"/>
+      <c r="CA35" s="115"/>
+      <c r="CB35" s="116"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="97"/>
-      <c r="AN36" s="98"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="97"/>
-      <c r="AS36" s="97"/>
-      <c r="AT36" s="97"/>
-      <c r="AU36" s="97"/>
-      <c r="AV36" s="97"/>
-      <c r="AW36" s="97"/>
-      <c r="AX36" s="97"/>
-      <c r="AY36" s="97"/>
-      <c r="AZ36" s="97"/>
-      <c r="BA36" s="97"/>
-      <c r="BB36" s="97"/>
-      <c r="BC36" s="97"/>
-      <c r="BD36" s="97"/>
-      <c r="BE36" s="97"/>
-      <c r="BF36" s="97"/>
-      <c r="BG36" s="97"/>
-      <c r="BH36" s="97"/>
-      <c r="BI36" s="97"/>
-      <c r="BJ36" s="97"/>
-      <c r="BK36" s="97"/>
-      <c r="BL36" s="97"/>
-      <c r="BM36" s="97"/>
-      <c r="BN36" s="97"/>
-      <c r="BO36" s="97"/>
-      <c r="BP36" s="97"/>
-      <c r="BQ36" s="97"/>
-      <c r="BR36" s="97"/>
-      <c r="BS36" s="97"/>
-      <c r="BT36" s="97"/>
-      <c r="BU36" s="97"/>
-      <c r="BV36" s="97"/>
-      <c r="BW36" s="97"/>
-      <c r="BX36" s="97"/>
-      <c r="BY36" s="97"/>
-      <c r="BZ36" s="97"/>
-      <c r="CA36" s="97"/>
-      <c r="CB36" s="98"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
+      <c r="AD36" s="115"/>
+      <c r="AE36" s="115"/>
+      <c r="AF36" s="115"/>
+      <c r="AG36" s="115"/>
+      <c r="AH36" s="115"/>
+      <c r="AI36" s="115"/>
+      <c r="AJ36" s="115"/>
+      <c r="AK36" s="115"/>
+      <c r="AL36" s="115"/>
+      <c r="AM36" s="115"/>
+      <c r="AN36" s="116"/>
+      <c r="AQ36" s="114"/>
+      <c r="AR36" s="115"/>
+      <c r="AS36" s="115"/>
+      <c r="AT36" s="115"/>
+      <c r="AU36" s="115"/>
+      <c r="AV36" s="115"/>
+      <c r="AW36" s="115"/>
+      <c r="AX36" s="115"/>
+      <c r="AY36" s="115"/>
+      <c r="AZ36" s="115"/>
+      <c r="BA36" s="115"/>
+      <c r="BB36" s="115"/>
+      <c r="BC36" s="115"/>
+      <c r="BD36" s="115"/>
+      <c r="BE36" s="115"/>
+      <c r="BF36" s="115"/>
+      <c r="BG36" s="115"/>
+      <c r="BH36" s="115"/>
+      <c r="BI36" s="115"/>
+      <c r="BJ36" s="115"/>
+      <c r="BK36" s="115"/>
+      <c r="BL36" s="115"/>
+      <c r="BM36" s="115"/>
+      <c r="BN36" s="115"/>
+      <c r="BO36" s="115"/>
+      <c r="BP36" s="115"/>
+      <c r="BQ36" s="115"/>
+      <c r="BR36" s="115"/>
+      <c r="BS36" s="115"/>
+      <c r="BT36" s="115"/>
+      <c r="BU36" s="115"/>
+      <c r="BV36" s="115"/>
+      <c r="BW36" s="115"/>
+      <c r="BX36" s="115"/>
+      <c r="BY36" s="115"/>
+      <c r="BZ36" s="115"/>
+      <c r="CA36" s="115"/>
+      <c r="CB36" s="116"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="97"/>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="97"/>
-      <c r="AN37" s="98"/>
-      <c r="AQ37" s="96"/>
-      <c r="AR37" s="97"/>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
-      <c r="AU37" s="97"/>
-      <c r="AV37" s="97"/>
-      <c r="AW37" s="97"/>
-      <c r="AX37" s="97"/>
-      <c r="AY37" s="97"/>
-      <c r="AZ37" s="97"/>
-      <c r="BA37" s="97"/>
-      <c r="BB37" s="97"/>
-      <c r="BC37" s="97"/>
-      <c r="BD37" s="97"/>
-      <c r="BE37" s="97"/>
-      <c r="BF37" s="97"/>
-      <c r="BG37" s="97"/>
-      <c r="BH37" s="97"/>
-      <c r="BI37" s="97"/>
-      <c r="BJ37" s="97"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="97"/>
-      <c r="BM37" s="97"/>
-      <c r="BN37" s="97"/>
-      <c r="BO37" s="97"/>
-      <c r="BP37" s="97"/>
-      <c r="BQ37" s="97"/>
-      <c r="BR37" s="97"/>
-      <c r="BS37" s="97"/>
-      <c r="BT37" s="97"/>
-      <c r="BU37" s="97"/>
-      <c r="BV37" s="97"/>
-      <c r="BW37" s="97"/>
-      <c r="BX37" s="97"/>
-      <c r="BY37" s="97"/>
-      <c r="BZ37" s="97"/>
-      <c r="CA37" s="97"/>
-      <c r="CB37" s="98"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="115"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="115"/>
+      <c r="AB37" s="115"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="115"/>
+      <c r="AE37" s="115"/>
+      <c r="AF37" s="115"/>
+      <c r="AG37" s="115"/>
+      <c r="AH37" s="115"/>
+      <c r="AI37" s="115"/>
+      <c r="AJ37" s="115"/>
+      <c r="AK37" s="115"/>
+      <c r="AL37" s="115"/>
+      <c r="AM37" s="115"/>
+      <c r="AN37" s="116"/>
+      <c r="AQ37" s="114"/>
+      <c r="AR37" s="115"/>
+      <c r="AS37" s="115"/>
+      <c r="AT37" s="115"/>
+      <c r="AU37" s="115"/>
+      <c r="AV37" s="115"/>
+      <c r="AW37" s="115"/>
+      <c r="AX37" s="115"/>
+      <c r="AY37" s="115"/>
+      <c r="AZ37" s="115"/>
+      <c r="BA37" s="115"/>
+      <c r="BB37" s="115"/>
+      <c r="BC37" s="115"/>
+      <c r="BD37" s="115"/>
+      <c r="BE37" s="115"/>
+      <c r="BF37" s="115"/>
+      <c r="BG37" s="115"/>
+      <c r="BH37" s="115"/>
+      <c r="BI37" s="115"/>
+      <c r="BJ37" s="115"/>
+      <c r="BK37" s="115"/>
+      <c r="BL37" s="115"/>
+      <c r="BM37" s="115"/>
+      <c r="BN37" s="115"/>
+      <c r="BO37" s="115"/>
+      <c r="BP37" s="115"/>
+      <c r="BQ37" s="115"/>
+      <c r="BR37" s="115"/>
+      <c r="BS37" s="115"/>
+      <c r="BT37" s="115"/>
+      <c r="BU37" s="115"/>
+      <c r="BV37" s="115"/>
+      <c r="BW37" s="115"/>
+      <c r="BX37" s="115"/>
+      <c r="BY37" s="115"/>
+      <c r="BZ37" s="115"/>
+      <c r="CA37" s="115"/>
+      <c r="CB37" s="116"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" s="97"/>
-      <c r="AL38" s="97"/>
-      <c r="AM38" s="97"/>
-      <c r="AN38" s="98"/>
-      <c r="AQ38" s="96"/>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="97"/>
-      <c r="AV38" s="97"/>
-      <c r="AW38" s="97"/>
-      <c r="AX38" s="97"/>
-      <c r="AY38" s="97"/>
-      <c r="AZ38" s="97"/>
-      <c r="BA38" s="97"/>
-      <c r="BB38" s="97"/>
-      <c r="BC38" s="97"/>
-      <c r="BD38" s="97"/>
-      <c r="BE38" s="97"/>
-      <c r="BF38" s="97"/>
-      <c r="BG38" s="97"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="97"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="97"/>
-      <c r="BM38" s="97"/>
-      <c r="BN38" s="97"/>
-      <c r="BO38" s="97"/>
-      <c r="BP38" s="97"/>
-      <c r="BQ38" s="97"/>
-      <c r="BR38" s="97"/>
-      <c r="BS38" s="97"/>
-      <c r="BT38" s="97"/>
-      <c r="BU38" s="97"/>
-      <c r="BV38" s="97"/>
-      <c r="BW38" s="97"/>
-      <c r="BX38" s="97"/>
-      <c r="BY38" s="97"/>
-      <c r="BZ38" s="97"/>
-      <c r="CA38" s="97"/>
-      <c r="CB38" s="98"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="115"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="115"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="115"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="115"/>
+      <c r="AI38" s="115"/>
+      <c r="AJ38" s="115"/>
+      <c r="AK38" s="115"/>
+      <c r="AL38" s="115"/>
+      <c r="AM38" s="115"/>
+      <c r="AN38" s="116"/>
+      <c r="AQ38" s="114"/>
+      <c r="AR38" s="115"/>
+      <c r="AS38" s="115"/>
+      <c r="AT38" s="115"/>
+      <c r="AU38" s="115"/>
+      <c r="AV38" s="115"/>
+      <c r="AW38" s="115"/>
+      <c r="AX38" s="115"/>
+      <c r="AY38" s="115"/>
+      <c r="AZ38" s="115"/>
+      <c r="BA38" s="115"/>
+      <c r="BB38" s="115"/>
+      <c r="BC38" s="115"/>
+      <c r="BD38" s="115"/>
+      <c r="BE38" s="115"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="115"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="115"/>
+      <c r="BL38" s="115"/>
+      <c r="BM38" s="115"/>
+      <c r="BN38" s="115"/>
+      <c r="BO38" s="115"/>
+      <c r="BP38" s="115"/>
+      <c r="BQ38" s="115"/>
+      <c r="BR38" s="115"/>
+      <c r="BS38" s="115"/>
+      <c r="BT38" s="115"/>
+      <c r="BU38" s="115"/>
+      <c r="BV38" s="115"/>
+      <c r="BW38" s="115"/>
+      <c r="BX38" s="115"/>
+      <c r="BY38" s="115"/>
+      <c r="BZ38" s="115"/>
+      <c r="CA38" s="115"/>
+      <c r="CB38" s="116"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97"/>
-      <c r="AL39" s="97"/>
-      <c r="AM39" s="97"/>
-      <c r="AN39" s="98"/>
-      <c r="AQ39" s="96"/>
-      <c r="AR39" s="97"/>
-      <c r="AS39" s="97"/>
-      <c r="AT39" s="97"/>
-      <c r="AU39" s="97"/>
-      <c r="AV39" s="97"/>
-      <c r="AW39" s="97"/>
-      <c r="AX39" s="97"/>
-      <c r="AY39" s="97"/>
-      <c r="AZ39" s="97"/>
-      <c r="BA39" s="97"/>
-      <c r="BB39" s="97"/>
-      <c r="BC39" s="97"/>
-      <c r="BD39" s="97"/>
-      <c r="BE39" s="97"/>
-      <c r="BF39" s="97"/>
-      <c r="BG39" s="97"/>
-      <c r="BH39" s="97"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="97"/>
-      <c r="BK39" s="97"/>
-      <c r="BL39" s="97"/>
-      <c r="BM39" s="97"/>
-      <c r="BN39" s="97"/>
-      <c r="BO39" s="97"/>
-      <c r="BP39" s="97"/>
-      <c r="BQ39" s="97"/>
-      <c r="BR39" s="97"/>
-      <c r="BS39" s="97"/>
-      <c r="BT39" s="97"/>
-      <c r="BU39" s="97"/>
-      <c r="BV39" s="97"/>
-      <c r="BW39" s="97"/>
-      <c r="BX39" s="97"/>
-      <c r="BY39" s="97"/>
-      <c r="BZ39" s="97"/>
-      <c r="CA39" s="97"/>
-      <c r="CB39" s="98"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="115"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="115"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="115"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="115"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="115"/>
+      <c r="AJ39" s="115"/>
+      <c r="AK39" s="115"/>
+      <c r="AL39" s="115"/>
+      <c r="AM39" s="115"/>
+      <c r="AN39" s="116"/>
+      <c r="AQ39" s="114"/>
+      <c r="AR39" s="115"/>
+      <c r="AS39" s="115"/>
+      <c r="AT39" s="115"/>
+      <c r="AU39" s="115"/>
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="115"/>
+      <c r="AX39" s="115"/>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="115"/>
+      <c r="BD39" s="115"/>
+      <c r="BE39" s="115"/>
+      <c r="BF39" s="115"/>
+      <c r="BG39" s="115"/>
+      <c r="BH39" s="115"/>
+      <c r="BI39" s="115"/>
+      <c r="BJ39" s="115"/>
+      <c r="BK39" s="115"/>
+      <c r="BL39" s="115"/>
+      <c r="BM39" s="115"/>
+      <c r="BN39" s="115"/>
+      <c r="BO39" s="115"/>
+      <c r="BP39" s="115"/>
+      <c r="BQ39" s="115"/>
+      <c r="BR39" s="115"/>
+      <c r="BS39" s="115"/>
+      <c r="BT39" s="115"/>
+      <c r="BU39" s="115"/>
+      <c r="BV39" s="115"/>
+      <c r="BW39" s="115"/>
+      <c r="BX39" s="115"/>
+      <c r="BY39" s="115"/>
+      <c r="BZ39" s="115"/>
+      <c r="CA39" s="115"/>
+      <c r="CB39" s="116"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
-      <c r="T40" s="97"/>
-      <c r="U40" s="97"/>
-      <c r="V40" s="97"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="97"/>
-      <c r="AH40" s="97"/>
-      <c r="AI40" s="97"/>
-      <c r="AJ40" s="97"/>
-      <c r="AK40" s="97"/>
-      <c r="AL40" s="97"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="98"/>
-      <c r="AQ40" s="96"/>
-      <c r="AR40" s="97"/>
-      <c r="AS40" s="97"/>
-      <c r="AT40" s="97"/>
-      <c r="AU40" s="97"/>
-      <c r="AV40" s="97"/>
-      <c r="AW40" s="97"/>
-      <c r="AX40" s="97"/>
-      <c r="AY40" s="97"/>
-      <c r="AZ40" s="97"/>
-      <c r="BA40" s="97"/>
-      <c r="BB40" s="97"/>
-      <c r="BC40" s="97"/>
-      <c r="BD40" s="97"/>
-      <c r="BE40" s="97"/>
-      <c r="BF40" s="97"/>
-      <c r="BG40" s="97"/>
-      <c r="BH40" s="97"/>
-      <c r="BI40" s="97"/>
-      <c r="BJ40" s="97"/>
-      <c r="BK40" s="97"/>
-      <c r="BL40" s="97"/>
-      <c r="BM40" s="97"/>
-      <c r="BN40" s="97"/>
-      <c r="BO40" s="97"/>
-      <c r="BP40" s="97"/>
-      <c r="BQ40" s="97"/>
-      <c r="BR40" s="97"/>
-      <c r="BS40" s="97"/>
-      <c r="BT40" s="97"/>
-      <c r="BU40" s="97"/>
-      <c r="BV40" s="97"/>
-      <c r="BW40" s="97"/>
-      <c r="BX40" s="97"/>
-      <c r="BY40" s="97"/>
-      <c r="BZ40" s="97"/>
-      <c r="CA40" s="97"/>
-      <c r="CB40" s="98"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="115"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="115"/>
+      <c r="AG40" s="115"/>
+      <c r="AH40" s="115"/>
+      <c r="AI40" s="115"/>
+      <c r="AJ40" s="115"/>
+      <c r="AK40" s="115"/>
+      <c r="AL40" s="115"/>
+      <c r="AM40" s="115"/>
+      <c r="AN40" s="116"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="115"/>
+      <c r="AS40" s="115"/>
+      <c r="AT40" s="115"/>
+      <c r="AU40" s="115"/>
+      <c r="AV40" s="115"/>
+      <c r="AW40" s="115"/>
+      <c r="AX40" s="115"/>
+      <c r="AY40" s="115"/>
+      <c r="AZ40" s="115"/>
+      <c r="BA40" s="115"/>
+      <c r="BB40" s="115"/>
+      <c r="BC40" s="115"/>
+      <c r="BD40" s="115"/>
+      <c r="BE40" s="115"/>
+      <c r="BF40" s="115"/>
+      <c r="BG40" s="115"/>
+      <c r="BH40" s="115"/>
+      <c r="BI40" s="115"/>
+      <c r="BJ40" s="115"/>
+      <c r="BK40" s="115"/>
+      <c r="BL40" s="115"/>
+      <c r="BM40" s="115"/>
+      <c r="BN40" s="115"/>
+      <c r="BO40" s="115"/>
+      <c r="BP40" s="115"/>
+      <c r="BQ40" s="115"/>
+      <c r="BR40" s="115"/>
+      <c r="BS40" s="115"/>
+      <c r="BT40" s="115"/>
+      <c r="BU40" s="115"/>
+      <c r="BV40" s="115"/>
+      <c r="BW40" s="115"/>
+      <c r="BX40" s="115"/>
+      <c r="BY40" s="115"/>
+      <c r="BZ40" s="115"/>
+      <c r="CA40" s="115"/>
+      <c r="CB40" s="116"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97"/>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97"/>
-      <c r="V41" s="97"/>
-      <c r="W41" s="97"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97"/>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97"/>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="98"/>
-      <c r="AQ41" s="96"/>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="97"/>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="97"/>
-      <c r="AV41" s="97"/>
-      <c r="AW41" s="97"/>
-      <c r="AX41" s="97"/>
-      <c r="AY41" s="97"/>
-      <c r="AZ41" s="97"/>
-      <c r="BA41" s="97"/>
-      <c r="BB41" s="97"/>
-      <c r="BC41" s="97"/>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97"/>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97"/>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97"/>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="97"/>
-      <c r="BM41" s="97"/>
-      <c r="BN41" s="97"/>
-      <c r="BO41" s="97"/>
-      <c r="BP41" s="97"/>
-      <c r="BQ41" s="97"/>
-      <c r="BR41" s="97"/>
-      <c r="BS41" s="97"/>
-      <c r="BT41" s="97"/>
-      <c r="BU41" s="97"/>
-      <c r="BV41" s="97"/>
-      <c r="BW41" s="97"/>
-      <c r="BX41" s="97"/>
-      <c r="BY41" s="97"/>
-      <c r="BZ41" s="97"/>
-      <c r="CA41" s="97"/>
-      <c r="CB41" s="98"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="115"/>
+      <c r="N41" s="115"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="115"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="115"/>
+      <c r="T41" s="115"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="115"/>
+      <c r="W41" s="115"/>
+      <c r="X41" s="115"/>
+      <c r="Y41" s="115"/>
+      <c r="Z41" s="115"/>
+      <c r="AA41" s="115"/>
+      <c r="AB41" s="115"/>
+      <c r="AC41" s="115"/>
+      <c r="AD41" s="115"/>
+      <c r="AE41" s="115"/>
+      <c r="AF41" s="115"/>
+      <c r="AG41" s="115"/>
+      <c r="AH41" s="115"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="115"/>
+      <c r="AK41" s="115"/>
+      <c r="AL41" s="115"/>
+      <c r="AM41" s="115"/>
+      <c r="AN41" s="116"/>
+      <c r="AQ41" s="114"/>
+      <c r="AR41" s="115"/>
+      <c r="AS41" s="115"/>
+      <c r="AT41" s="115"/>
+      <c r="AU41" s="115"/>
+      <c r="AV41" s="115"/>
+      <c r="AW41" s="115"/>
+      <c r="AX41" s="115"/>
+      <c r="AY41" s="115"/>
+      <c r="AZ41" s="115"/>
+      <c r="BA41" s="115"/>
+      <c r="BB41" s="115"/>
+      <c r="BC41" s="115"/>
+      <c r="BD41" s="115"/>
+      <c r="BE41" s="115"/>
+      <c r="BF41" s="115"/>
+      <c r="BG41" s="115"/>
+      <c r="BH41" s="115"/>
+      <c r="BI41" s="115"/>
+      <c r="BJ41" s="115"/>
+      <c r="BK41" s="115"/>
+      <c r="BL41" s="115"/>
+      <c r="BM41" s="115"/>
+      <c r="BN41" s="115"/>
+      <c r="BO41" s="115"/>
+      <c r="BP41" s="115"/>
+      <c r="BQ41" s="115"/>
+      <c r="BR41" s="115"/>
+      <c r="BS41" s="115"/>
+      <c r="BT41" s="115"/>
+      <c r="BU41" s="115"/>
+      <c r="BV41" s="115"/>
+      <c r="BW41" s="115"/>
+      <c r="BX41" s="115"/>
+      <c r="BY41" s="115"/>
+      <c r="BZ41" s="115"/>
+      <c r="CA41" s="115"/>
+      <c r="CB41" s="116"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="97"/>
-      <c r="AJ42" s="97"/>
-      <c r="AK42" s="97"/>
-      <c r="AL42" s="97"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="98"/>
-      <c r="AQ42" s="96"/>
-      <c r="AR42" s="97"/>
-      <c r="AS42" s="97"/>
-      <c r="AT42" s="97"/>
-      <c r="AU42" s="97"/>
-      <c r="AV42" s="97"/>
-      <c r="AW42" s="97"/>
-      <c r="AX42" s="97"/>
-      <c r="AY42" s="97"/>
-      <c r="AZ42" s="97"/>
-      <c r="BA42" s="97"/>
-      <c r="BB42" s="97"/>
-      <c r="BC42" s="97"/>
-      <c r="BD42" s="97"/>
-      <c r="BE42" s="97"/>
-      <c r="BF42" s="97"/>
-      <c r="BG42" s="97"/>
-      <c r="BH42" s="97"/>
-      <c r="BI42" s="97"/>
-      <c r="BJ42" s="97"/>
-      <c r="BK42" s="97"/>
-      <c r="BL42" s="97"/>
-      <c r="BM42" s="97"/>
-      <c r="BN42" s="97"/>
-      <c r="BO42" s="97"/>
-      <c r="BP42" s="97"/>
-      <c r="BQ42" s="97"/>
-      <c r="BR42" s="97"/>
-      <c r="BS42" s="97"/>
-      <c r="BT42" s="97"/>
-      <c r="BU42" s="97"/>
-      <c r="BV42" s="97"/>
-      <c r="BW42" s="97"/>
-      <c r="BX42" s="97"/>
-      <c r="BY42" s="97"/>
-      <c r="BZ42" s="97"/>
-      <c r="CA42" s="97"/>
-      <c r="CB42" s="98"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="115"/>
+      <c r="T42" s="115"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="115"/>
+      <c r="W42" s="115"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="115"/>
+      <c r="Z42" s="115"/>
+      <c r="AA42" s="115"/>
+      <c r="AB42" s="115"/>
+      <c r="AC42" s="115"/>
+      <c r="AD42" s="115"/>
+      <c r="AE42" s="115"/>
+      <c r="AF42" s="115"/>
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="115"/>
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="115"/>
+      <c r="AK42" s="115"/>
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="115"/>
+      <c r="AN42" s="116"/>
+      <c r="AQ42" s="114"/>
+      <c r="AR42" s="115"/>
+      <c r="AS42" s="115"/>
+      <c r="AT42" s="115"/>
+      <c r="AU42" s="115"/>
+      <c r="AV42" s="115"/>
+      <c r="AW42" s="115"/>
+      <c r="AX42" s="115"/>
+      <c r="AY42" s="115"/>
+      <c r="AZ42" s="115"/>
+      <c r="BA42" s="115"/>
+      <c r="BB42" s="115"/>
+      <c r="BC42" s="115"/>
+      <c r="BD42" s="115"/>
+      <c r="BE42" s="115"/>
+      <c r="BF42" s="115"/>
+      <c r="BG42" s="115"/>
+      <c r="BH42" s="115"/>
+      <c r="BI42" s="115"/>
+      <c r="BJ42" s="115"/>
+      <c r="BK42" s="115"/>
+      <c r="BL42" s="115"/>
+      <c r="BM42" s="115"/>
+      <c r="BN42" s="115"/>
+      <c r="BO42" s="115"/>
+      <c r="BP42" s="115"/>
+      <c r="BQ42" s="115"/>
+      <c r="BR42" s="115"/>
+      <c r="BS42" s="115"/>
+      <c r="BT42" s="115"/>
+      <c r="BU42" s="115"/>
+      <c r="BV42" s="115"/>
+      <c r="BW42" s="115"/>
+      <c r="BX42" s="115"/>
+      <c r="BY42" s="115"/>
+      <c r="BZ42" s="115"/>
+      <c r="CA42" s="115"/>
+      <c r="CB42" s="116"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="97"/>
-      <c r="AF43" s="97"/>
-      <c r="AG43" s="97"/>
-      <c r="AH43" s="97"/>
-      <c r="AI43" s="97"/>
-      <c r="AJ43" s="97"/>
-      <c r="AK43" s="97"/>
-      <c r="AL43" s="97"/>
-      <c r="AM43" s="97"/>
-      <c r="AN43" s="98"/>
-      <c r="AQ43" s="96"/>
-      <c r="AR43" s="97"/>
-      <c r="AS43" s="97"/>
-      <c r="AT43" s="97"/>
-      <c r="AU43" s="97"/>
-      <c r="AV43" s="97"/>
-      <c r="AW43" s="97"/>
-      <c r="AX43" s="97"/>
-      <c r="AY43" s="97"/>
-      <c r="AZ43" s="97"/>
-      <c r="BA43" s="97"/>
-      <c r="BB43" s="97"/>
-      <c r="BC43" s="97"/>
-      <c r="BD43" s="97"/>
-      <c r="BE43" s="97"/>
-      <c r="BF43" s="97"/>
-      <c r="BG43" s="97"/>
-      <c r="BH43" s="97"/>
-      <c r="BI43" s="97"/>
-      <c r="BJ43" s="97"/>
-      <c r="BK43" s="97"/>
-      <c r="BL43" s="97"/>
-      <c r="BM43" s="97"/>
-      <c r="BN43" s="97"/>
-      <c r="BO43" s="97"/>
-      <c r="BP43" s="97"/>
-      <c r="BQ43" s="97"/>
-      <c r="BR43" s="97"/>
-      <c r="BS43" s="97"/>
-      <c r="BT43" s="97"/>
-      <c r="BU43" s="97"/>
-      <c r="BV43" s="97"/>
-      <c r="BW43" s="97"/>
-      <c r="BX43" s="97"/>
-      <c r="BY43" s="97"/>
-      <c r="BZ43" s="97"/>
-      <c r="CA43" s="97"/>
-      <c r="CB43" s="98"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="115"/>
+      <c r="W43" s="115"/>
+      <c r="X43" s="115"/>
+      <c r="Y43" s="115"/>
+      <c r="Z43" s="115"/>
+      <c r="AA43" s="115"/>
+      <c r="AB43" s="115"/>
+      <c r="AC43" s="115"/>
+      <c r="AD43" s="115"/>
+      <c r="AE43" s="115"/>
+      <c r="AF43" s="115"/>
+      <c r="AG43" s="115"/>
+      <c r="AH43" s="115"/>
+      <c r="AI43" s="115"/>
+      <c r="AJ43" s="115"/>
+      <c r="AK43" s="115"/>
+      <c r="AL43" s="115"/>
+      <c r="AM43" s="115"/>
+      <c r="AN43" s="116"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="115"/>
+      <c r="AS43" s="115"/>
+      <c r="AT43" s="115"/>
+      <c r="AU43" s="115"/>
+      <c r="AV43" s="115"/>
+      <c r="AW43" s="115"/>
+      <c r="AX43" s="115"/>
+      <c r="AY43" s="115"/>
+      <c r="AZ43" s="115"/>
+      <c r="BA43" s="115"/>
+      <c r="BB43" s="115"/>
+      <c r="BC43" s="115"/>
+      <c r="BD43" s="115"/>
+      <c r="BE43" s="115"/>
+      <c r="BF43" s="115"/>
+      <c r="BG43" s="115"/>
+      <c r="BH43" s="115"/>
+      <c r="BI43" s="115"/>
+      <c r="BJ43" s="115"/>
+      <c r="BK43" s="115"/>
+      <c r="BL43" s="115"/>
+      <c r="BM43" s="115"/>
+      <c r="BN43" s="115"/>
+      <c r="BO43" s="115"/>
+      <c r="BP43" s="115"/>
+      <c r="BQ43" s="115"/>
+      <c r="BR43" s="115"/>
+      <c r="BS43" s="115"/>
+      <c r="BT43" s="115"/>
+      <c r="BU43" s="115"/>
+      <c r="BV43" s="115"/>
+      <c r="BW43" s="115"/>
+      <c r="BX43" s="115"/>
+      <c r="BY43" s="115"/>
+      <c r="BZ43" s="115"/>
+      <c r="CA43" s="115"/>
+      <c r="CB43" s="116"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="98"/>
-      <c r="AQ44" s="96"/>
-      <c r="AR44" s="97"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="97"/>
-      <c r="AW44" s="97"/>
-      <c r="AX44" s="97"/>
-      <c r="AY44" s="97"/>
-      <c r="AZ44" s="97"/>
-      <c r="BA44" s="97"/>
-      <c r="BB44" s="97"/>
-      <c r="BC44" s="97"/>
-      <c r="BD44" s="97"/>
-      <c r="BE44" s="97"/>
-      <c r="BF44" s="97"/>
-      <c r="BG44" s="97"/>
-      <c r="BH44" s="97"/>
-      <c r="BI44" s="97"/>
-      <c r="BJ44" s="97"/>
-      <c r="BK44" s="97"/>
-      <c r="BL44" s="97"/>
-      <c r="BM44" s="97"/>
-      <c r="BN44" s="97"/>
-      <c r="BO44" s="97"/>
-      <c r="BP44" s="97"/>
-      <c r="BQ44" s="97"/>
-      <c r="BR44" s="97"/>
-      <c r="BS44" s="97"/>
-      <c r="BT44" s="97"/>
-      <c r="BU44" s="97"/>
-      <c r="BV44" s="97"/>
-      <c r="BW44" s="97"/>
-      <c r="BX44" s="97"/>
-      <c r="BY44" s="97"/>
-      <c r="BZ44" s="97"/>
-      <c r="CA44" s="97"/>
-      <c r="CB44" s="98"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="115"/>
+      <c r="S44" s="115"/>
+      <c r="T44" s="115"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="115"/>
+      <c r="Z44" s="115"/>
+      <c r="AA44" s="115"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="115"/>
+      <c r="AD44" s="115"/>
+      <c r="AE44" s="115"/>
+      <c r="AF44" s="115"/>
+      <c r="AG44" s="115"/>
+      <c r="AH44" s="115"/>
+      <c r="AI44" s="115"/>
+      <c r="AJ44" s="115"/>
+      <c r="AK44" s="115"/>
+      <c r="AL44" s="115"/>
+      <c r="AM44" s="115"/>
+      <c r="AN44" s="116"/>
+      <c r="AQ44" s="114"/>
+      <c r="AR44" s="115"/>
+      <c r="AS44" s="115"/>
+      <c r="AT44" s="115"/>
+      <c r="AU44" s="115"/>
+      <c r="AV44" s="115"/>
+      <c r="AW44" s="115"/>
+      <c r="AX44" s="115"/>
+      <c r="AY44" s="115"/>
+      <c r="AZ44" s="115"/>
+      <c r="BA44" s="115"/>
+      <c r="BB44" s="115"/>
+      <c r="BC44" s="115"/>
+      <c r="BD44" s="115"/>
+      <c r="BE44" s="115"/>
+      <c r="BF44" s="115"/>
+      <c r="BG44" s="115"/>
+      <c r="BH44" s="115"/>
+      <c r="BI44" s="115"/>
+      <c r="BJ44" s="115"/>
+      <c r="BK44" s="115"/>
+      <c r="BL44" s="115"/>
+      <c r="BM44" s="115"/>
+      <c r="BN44" s="115"/>
+      <c r="BO44" s="115"/>
+      <c r="BP44" s="115"/>
+      <c r="BQ44" s="115"/>
+      <c r="BR44" s="115"/>
+      <c r="BS44" s="115"/>
+      <c r="BT44" s="115"/>
+      <c r="BU44" s="115"/>
+      <c r="BV44" s="115"/>
+      <c r="BW44" s="115"/>
+      <c r="BX44" s="115"/>
+      <c r="BY44" s="115"/>
+      <c r="BZ44" s="115"/>
+      <c r="CA44" s="115"/>
+      <c r="CB44" s="116"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="96"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="97"/>
-      <c r="AK45" s="97"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="97"/>
-      <c r="AN45" s="98"/>
-      <c r="AQ45" s="96"/>
-      <c r="AR45" s="97"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="97"/>
-      <c r="AW45" s="97"/>
-      <c r="AX45" s="97"/>
-      <c r="AY45" s="97"/>
-      <c r="AZ45" s="97"/>
-      <c r="BA45" s="97"/>
-      <c r="BB45" s="97"/>
-      <c r="BC45" s="97"/>
-      <c r="BD45" s="97"/>
-      <c r="BE45" s="97"/>
-      <c r="BF45" s="97"/>
-      <c r="BG45" s="97"/>
-      <c r="BH45" s="97"/>
-      <c r="BI45" s="97"/>
-      <c r="BJ45" s="97"/>
-      <c r="BK45" s="97"/>
-      <c r="BL45" s="97"/>
-      <c r="BM45" s="97"/>
-      <c r="BN45" s="97"/>
-      <c r="BO45" s="97"/>
-      <c r="BP45" s="97"/>
-      <c r="BQ45" s="97"/>
-      <c r="BR45" s="97"/>
-      <c r="BS45" s="97"/>
-      <c r="BT45" s="97"/>
-      <c r="BU45" s="97"/>
-      <c r="BV45" s="97"/>
-      <c r="BW45" s="97"/>
-      <c r="BX45" s="97"/>
-      <c r="BY45" s="97"/>
-      <c r="BZ45" s="97"/>
-      <c r="CA45" s="97"/>
-      <c r="CB45" s="98"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="115"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="115"/>
+      <c r="W45" s="115"/>
+      <c r="X45" s="115"/>
+      <c r="Y45" s="115"/>
+      <c r="Z45" s="115"/>
+      <c r="AA45" s="115"/>
+      <c r="AB45" s="115"/>
+      <c r="AC45" s="115"/>
+      <c r="AD45" s="115"/>
+      <c r="AE45" s="115"/>
+      <c r="AF45" s="115"/>
+      <c r="AG45" s="115"/>
+      <c r="AH45" s="115"/>
+      <c r="AI45" s="115"/>
+      <c r="AJ45" s="115"/>
+      <c r="AK45" s="115"/>
+      <c r="AL45" s="115"/>
+      <c r="AM45" s="115"/>
+      <c r="AN45" s="116"/>
+      <c r="AQ45" s="114"/>
+      <c r="AR45" s="115"/>
+      <c r="AS45" s="115"/>
+      <c r="AT45" s="115"/>
+      <c r="AU45" s="115"/>
+      <c r="AV45" s="115"/>
+      <c r="AW45" s="115"/>
+      <c r="AX45" s="115"/>
+      <c r="AY45" s="115"/>
+      <c r="AZ45" s="115"/>
+      <c r="BA45" s="115"/>
+      <c r="BB45" s="115"/>
+      <c r="BC45" s="115"/>
+      <c r="BD45" s="115"/>
+      <c r="BE45" s="115"/>
+      <c r="BF45" s="115"/>
+      <c r="BG45" s="115"/>
+      <c r="BH45" s="115"/>
+      <c r="BI45" s="115"/>
+      <c r="BJ45" s="115"/>
+      <c r="BK45" s="115"/>
+      <c r="BL45" s="115"/>
+      <c r="BM45" s="115"/>
+      <c r="BN45" s="115"/>
+      <c r="BO45" s="115"/>
+      <c r="BP45" s="115"/>
+      <c r="BQ45" s="115"/>
+      <c r="BR45" s="115"/>
+      <c r="BS45" s="115"/>
+      <c r="BT45" s="115"/>
+      <c r="BU45" s="115"/>
+      <c r="BV45" s="115"/>
+      <c r="BW45" s="115"/>
+      <c r="BX45" s="115"/>
+      <c r="BY45" s="115"/>
+      <c r="BZ45" s="115"/>
+      <c r="CA45" s="115"/>
+      <c r="CB45" s="116"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="100"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="100"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="100"/>
-      <c r="AH46" s="100"/>
-      <c r="AI46" s="100"/>
-      <c r="AJ46" s="100"/>
-      <c r="AK46" s="100"/>
-      <c r="AL46" s="100"/>
-      <c r="AM46" s="100"/>
-      <c r="AN46" s="101"/>
-      <c r="AQ46" s="99"/>
-      <c r="AR46" s="100"/>
-      <c r="AS46" s="100"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
-      <c r="BA46" s="100"/>
-      <c r="BB46" s="100"/>
-      <c r="BC46" s="100"/>
-      <c r="BD46" s="100"/>
-      <c r="BE46" s="100"/>
-      <c r="BF46" s="100"/>
-      <c r="BG46" s="100"/>
-      <c r="BH46" s="100"/>
-      <c r="BI46" s="100"/>
-      <c r="BJ46" s="100"/>
-      <c r="BK46" s="100"/>
-      <c r="BL46" s="100"/>
-      <c r="BM46" s="100"/>
-      <c r="BN46" s="100"/>
-      <c r="BO46" s="100"/>
-      <c r="BP46" s="100"/>
-      <c r="BQ46" s="100"/>
-      <c r="BR46" s="100"/>
-      <c r="BS46" s="100"/>
-      <c r="BT46" s="100"/>
-      <c r="BU46" s="100"/>
-      <c r="BV46" s="100"/>
-      <c r="BW46" s="100"/>
-      <c r="BX46" s="100"/>
-      <c r="BY46" s="100"/>
-      <c r="BZ46" s="100"/>
-      <c r="CA46" s="100"/>
-      <c r="CB46" s="101"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="118"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="118"/>
+      <c r="AB46" s="118"/>
+      <c r="AC46" s="118"/>
+      <c r="AD46" s="118"/>
+      <c r="AE46" s="118"/>
+      <c r="AF46" s="118"/>
+      <c r="AG46" s="118"/>
+      <c r="AH46" s="118"/>
+      <c r="AI46" s="118"/>
+      <c r="AJ46" s="118"/>
+      <c r="AK46" s="118"/>
+      <c r="AL46" s="118"/>
+      <c r="AM46" s="118"/>
+      <c r="AN46" s="119"/>
+      <c r="AQ46" s="117"/>
+      <c r="AR46" s="118"/>
+      <c r="AS46" s="118"/>
+      <c r="AT46" s="118"/>
+      <c r="AU46" s="118"/>
+      <c r="AV46" s="118"/>
+      <c r="AW46" s="118"/>
+      <c r="AX46" s="118"/>
+      <c r="AY46" s="118"/>
+      <c r="AZ46" s="118"/>
+      <c r="BA46" s="118"/>
+      <c r="BB46" s="118"/>
+      <c r="BC46" s="118"/>
+      <c r="BD46" s="118"/>
+      <c r="BE46" s="118"/>
+      <c r="BF46" s="118"/>
+      <c r="BG46" s="118"/>
+      <c r="BH46" s="118"/>
+      <c r="BI46" s="118"/>
+      <c r="BJ46" s="118"/>
+      <c r="BK46" s="118"/>
+      <c r="BL46" s="118"/>
+      <c r="BM46" s="118"/>
+      <c r="BN46" s="118"/>
+      <c r="BO46" s="118"/>
+      <c r="BP46" s="118"/>
+      <c r="BQ46" s="118"/>
+      <c r="BR46" s="118"/>
+      <c r="BS46" s="118"/>
+      <c r="BT46" s="118"/>
+      <c r="BU46" s="118"/>
+      <c r="BV46" s="118"/>
+      <c r="BW46" s="118"/>
+      <c r="BX46" s="118"/>
+      <c r="BY46" s="118"/>
+      <c r="BZ46" s="118"/>
+      <c r="CA46" s="118"/>
+      <c r="CB46" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
